--- a/ZBP_07b_ockovani.xlsx
+++ b/ZBP_07b_ockovani.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>trideni</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>16. 2. 2021</t>
+  </si>
+  <si>
+    <t>2. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -245,10 +248,10 @@
     <t>Velké starosti</t>
   </si>
   <si>
-    <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, % respondentů celkově a ve skupinách, aktualizace 23. 2. 2021</t>
+    <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, % respondentů celkově a ve skupinách, aktualizace 9. 3. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 2. 2021</t>
+    <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, velikost dotázaného souboru celkově a ve skupinách, aktualizace 9. 3. 2021</t>
   </si>
 </sst>
 </file>
@@ -623,7 +626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H252"/>
+  <dimension ref="A1:I252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,7 +634,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,16 +659,19 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
         <v>0.33</v>
@@ -682,16 +688,19 @@
       <c r="H2" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
         <v>0.23</v>
@@ -708,16 +717,19 @@
       <c r="H3" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
         <v>0.11</v>
@@ -734,16 +746,19 @@
       <c r="H4" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
         <v>0.12</v>
@@ -760,16 +775,19 @@
       <c r="H5" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
         <v>0.21</v>
@@ -786,16 +804,19 @@
       <c r="H6" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
         <v>0.33</v>
@@ -812,16 +833,19 @@
       <c r="H7" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>0.23</v>
@@ -838,16 +862,19 @@
       <c r="H8" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="n">
         <v>0.09</v>
@@ -864,16 +891,19 @@
       <c r="H9" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="n">
         <v>0.16</v>
@@ -890,16 +920,19 @@
       <c r="H10" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
       </c>
       <c r="D11" t="n">
         <v>0.19</v>
@@ -916,16 +949,19 @@
       <c r="H11" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
         <v>0.32</v>
@@ -942,16 +978,19 @@
       <c r="H12" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" t="n">
         <v>0.23</v>
@@ -968,16 +1007,19 @@
       <c r="H13" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
         <v>0.1</v>
@@ -994,16 +1036,19 @@
       <c r="H14" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="n">
         <v>0.11</v>
@@ -1020,16 +1065,19 @@
       <c r="H15" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
         <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
       </c>
       <c r="D16" t="n">
         <v>0.24</v>
@@ -1046,16 +1094,19 @@
       <c r="H16" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
         <v>0.33</v>
@@ -1072,16 +1123,19 @@
       <c r="H17" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
         <v>0.25</v>
@@ -1098,16 +1152,19 @@
       <c r="H18" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" t="n">
         <v>0.12</v>
@@ -1124,16 +1181,19 @@
       <c r="H19" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="n">
         <v>0.11</v>
@@ -1150,16 +1210,19 @@
       <c r="H20" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
         <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
       </c>
       <c r="D21" t="n">
         <v>0.19</v>
@@ -1176,16 +1239,19 @@
       <c r="H21" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" t="n">
         <v>0.32</v>
@@ -1202,16 +1268,19 @@
       <c r="H22" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" t="n">
         <v>0.23</v>
@@ -1228,16 +1297,19 @@
       <c r="H23" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" t="n">
         <v>0.12</v>
@@ -1254,16 +1326,19 @@
       <c r="H24" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" t="n">
         <v>0.12</v>
@@ -1280,16 +1355,19 @@
       <c r="H25" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
         <v>0.21</v>
@@ -1306,16 +1384,19 @@
       <c r="H26" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D27" t="n">
         <v>0.33</v>
@@ -1332,16 +1413,19 @@
       <c r="H27" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" t="n">
         <v>0.23</v>
@@ -1358,16 +1442,19 @@
       <c r="H28" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" t="n">
         <v>0.1</v>
@@ -1384,16 +1471,19 @@
       <c r="H29" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" t="n">
         <v>0.12</v>
@@ -1410,16 +1500,19 @@
       <c r="H30" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31" t="n">
         <v>0.22</v>
@@ -1436,16 +1529,19 @@
       <c r="H31" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D32" t="n">
         <v>0.34</v>
@@ -1462,16 +1558,19 @@
       <c r="H32" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" t="n">
         <v>0.25</v>
@@ -1488,16 +1587,19 @@
       <c r="H33" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" t="n">
         <v>0.1</v>
@@ -1514,16 +1616,19 @@
       <c r="H34" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" t="n">
         <v>0.16</v>
@@ -1540,16 +1645,19 @@
       <c r="H35" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D36" t="n">
         <v>0.15</v>
@@ -1566,16 +1674,19 @@
       <c r="H36" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D37" t="n">
         <v>0.39</v>
@@ -1592,16 +1703,19 @@
       <c r="H37" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" t="n">
         <v>0.24</v>
@@ -1618,16 +1732,19 @@
       <c r="H38" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" t="n">
         <v>0.06</v>
@@ -1644,16 +1761,19 @@
       <c r="H39" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" t="n">
         <v>0.15</v>
@@ -1670,16 +1790,19 @@
       <c r="H40" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D41" t="n">
         <v>0.16</v>
@@ -1696,16 +1819,19 @@
       <c r="H41" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D42" t="n">
         <v>0.29</v>
@@ -1722,16 +1848,19 @@
       <c r="H42" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43" t="n">
         <v>0.21</v>
@@ -1748,16 +1877,19 @@
       <c r="H43" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" t="n">
         <v>0.11</v>
@@ -1774,16 +1906,19 @@
       <c r="H44" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" t="n">
         <v>0.12</v>
@@ -1800,16 +1935,19 @@
       <c r="H45" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D46" t="n">
         <v>0.27</v>
@@ -1826,16 +1964,19 @@
       <c r="H46" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D47" t="n">
         <v>0.3</v>
@@ -1852,16 +1993,19 @@
       <c r="H47" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48" t="n">
         <v>0.23</v>
@@ -1878,16 +2022,19 @@
       <c r="H48" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" t="n">
         <v>0.08</v>
@@ -1904,16 +2051,19 @@
       <c r="H49" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D50" t="n">
         <v>0.22</v>
@@ -1930,16 +2080,19 @@
       <c r="H50" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51" t="n">
         <v>0.17</v>
@@ -1956,16 +2109,19 @@
       <c r="H51" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D52" t="n">
         <v>0.37</v>
@@ -1982,16 +2138,19 @@
       <c r="H52" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53" t="n">
         <v>0.21</v>
@@ -2008,16 +2167,19 @@
       <c r="H53" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54" t="n">
         <v>0.12</v>
@@ -2034,16 +2196,19 @@
       <c r="H54" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D55" t="n">
         <v>0.07000000000000001</v>
@@ -2060,16 +2225,19 @@
       <c r="H55" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D56" t="n">
         <v>0.23</v>
@@ -2086,16 +2254,19 @@
       <c r="H56" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D57" t="n">
         <v>0.31</v>
@@ -2112,16 +2283,19 @@
       <c r="H57" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58" t="n">
         <v>0.22</v>
@@ -2138,16 +2312,19 @@
       <c r="H58" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D59" t="n">
         <v>0.08</v>
@@ -2164,16 +2341,19 @@
       <c r="H59" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D60" t="n">
         <v>0.15</v>
@@ -2190,16 +2370,19 @@
       <c r="H60" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61" t="n">
         <v>0.24</v>
@@ -2216,16 +2399,19 @@
       <c r="H61" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D62" t="n">
         <v>0.25</v>
@@ -2242,16 +2428,19 @@
       <c r="H62" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63" t="n">
         <v>0.28</v>
@@ -2268,16 +2457,19 @@
       <c r="H63" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D64" t="n">
         <v>0.14</v>
@@ -2294,16 +2486,19 @@
       <c r="H64" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D65" t="n">
         <v>0.13</v>
@@ -2320,16 +2515,19 @@
       <c r="H65" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D66" t="n">
         <v>0.2</v>
@@ -2346,16 +2544,19 @@
       <c r="H66" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D67" t="n">
         <v>0.39</v>
@@ -2372,16 +2573,19 @@
       <c r="H67" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" t="n">
         <v>0.26</v>
@@ -2398,16 +2602,19 @@
       <c r="H68" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D69" t="n">
         <v>0.09</v>
@@ -2424,16 +2631,19 @@
       <c r="H69" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D70" t="n">
         <v>0.1</v>
@@ -2450,16 +2660,19 @@
       <c r="H70" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D71" t="n">
         <v>0.16</v>
@@ -2476,16 +2689,19 @@
       <c r="H71" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D72" t="n">
         <v>0.27</v>
@@ -2502,16 +2718,19 @@
       <c r="H72" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D73" t="n">
         <v>0.21</v>
@@ -2528,16 +2747,19 @@
       <c r="H73" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D74" t="n">
         <v>0.13</v>
@@ -2554,16 +2776,19 @@
       <c r="H74" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D75" t="n">
         <v>0.15</v>
@@ -2580,16 +2805,19 @@
       <c r="H75" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D76" t="n">
         <v>0.24</v>
@@ -2606,16 +2834,19 @@
       <c r="H76" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D77" t="n">
         <v>0.33</v>
@@ -2632,16 +2863,19 @@
       <c r="H77" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D78" t="n">
         <v>0.25</v>
@@ -2658,16 +2892,19 @@
       <c r="H78" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D79" t="n">
         <v>0.11</v>
@@ -2684,16 +2921,19 @@
       <c r="H79" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D80" t="n">
         <v>0.1</v>
@@ -2710,16 +2950,19 @@
       <c r="H80" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D81" t="n">
         <v>0.21</v>
@@ -2736,16 +2979,19 @@
       <c r="H81" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D82" t="n">
         <v>0.39</v>
@@ -2762,16 +3008,19 @@
       <c r="H82" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" t="n">
         <v>0.26</v>
@@ -2788,16 +3037,19 @@
       <c r="H83" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D84" t="n">
         <v>0.09</v>
@@ -2814,16 +3066,19 @@
       <c r="H84" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D85" t="n">
         <v>0.11</v>
@@ -2840,16 +3095,19 @@
       <c r="H85" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D86" t="n">
         <v>0.15</v>
@@ -2866,16 +3124,19 @@
       <c r="H86" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D87" t="n">
         <v>0.42</v>
@@ -2892,16 +3153,19 @@
       <c r="H87" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D88" t="n">
         <v>0.27</v>
@@ -2918,16 +3182,19 @@
       <c r="H88" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D89" t="n">
         <v>0.07000000000000001</v>
@@ -2944,16 +3211,19 @@
       <c r="H89" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D90" t="n">
         <v>0.09</v>
@@ -2970,16 +3240,19 @@
       <c r="H90" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D91" t="n">
         <v>0.15</v>
@@ -2996,16 +3269,19 @@
       <c r="H91" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D92" t="n">
         <v>0.32</v>
@@ -3022,16 +3298,19 @@
       <c r="H92" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D93" t="n">
         <v>0.2</v>
@@ -3048,16 +3327,19 @@
       <c r="H93" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D94" t="n">
         <v>0.06</v>
@@ -3074,16 +3356,19 @@
       <c r="H94" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D95" t="n">
         <v>0.22</v>
@@ -3100,16 +3385,19 @@
       <c r="H95" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D96" t="n">
         <v>0.2</v>
@@ -3126,16 +3414,19 @@
       <c r="H96" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D97" t="n">
         <v>0.25</v>
@@ -3152,16 +3443,19 @@
       <c r="H97" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98" t="n">
         <v>0.2</v>
@@ -3178,16 +3472,19 @@
       <c r="H98" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D99" t="n">
         <v>0.11</v>
@@ -3204,16 +3501,19 @@
       <c r="H99" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D100" t="n">
         <v>0.11</v>
@@ -3230,16 +3530,19 @@
       <c r="H100" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B101" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D101" t="n">
         <v>0.33</v>
@@ -3256,16 +3559,19 @@
       <c r="H101" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="I101" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D102" t="n">
         <v>0.26</v>
@@ -3282,16 +3588,19 @@
       <c r="H102" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D103" t="n">
         <v>0.23</v>
@@ -3308,16 +3617,19 @@
       <c r="H103" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D104" t="n">
         <v>0.17</v>
@@ -3334,16 +3646,19 @@
       <c r="H104" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="I104" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D105" t="n">
         <v>0.13</v>
@@ -3360,16 +3675,19 @@
       <c r="H105" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="I105" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D106" t="n">
         <v>0.21</v>
@@ -3386,16 +3704,19 @@
       <c r="H106" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="I106" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D107" t="n">
         <v>0.34</v>
@@ -3412,16 +3733,19 @@
       <c r="H107" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="I107" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D108" t="n">
         <v>0.24</v>
@@ -3438,16 +3762,19 @@
       <c r="H108" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="I108" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D109" t="n">
         <v>0.12</v>
@@ -3464,16 +3791,19 @@
       <c r="H109" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="I109" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D110" t="n">
         <v>0.11</v>
@@ -3490,16 +3820,19 @@
       <c r="H110" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="I110" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D111" t="n">
         <v>0.19</v>
@@ -3516,16 +3849,19 @@
       <c r="H111" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="I111" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D112" t="n">
         <v>0.25</v>
@@ -3542,16 +3878,19 @@
       <c r="H112" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="I112" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D113" t="n">
         <v>0.24</v>
@@ -3568,16 +3907,19 @@
       <c r="H113" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="I113" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D114" t="n">
         <v>0.1</v>
@@ -3594,16 +3936,19 @@
       <c r="H114" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="I114" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D115" t="n">
         <v>0.16</v>
@@ -3620,16 +3965,19 @@
       <c r="H115" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="I115" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D116" t="n">
         <v>0.25</v>
@@ -3646,16 +3994,19 @@
       <c r="H116" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D117" t="n">
         <v>0.31</v>
@@ -3672,16 +4023,19 @@
       <c r="H117" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="I117" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B118" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D118" t="n">
         <v>0.22</v>
@@ -3698,16 +4052,19 @@
       <c r="H118" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B119" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D119" t="n">
         <v>0.11</v>
@@ -3724,16 +4081,19 @@
       <c r="H119" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="I119" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B120" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D120" t="n">
         <v>0.13</v>
@@ -3750,16 +4110,19 @@
       <c r="H120" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="I120" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B121" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D121" t="n">
         <v>0.23</v>
@@ -3776,16 +4139,19 @@
       <c r="H121" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="I121" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B122" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D122" t="n">
         <v>0.42</v>
@@ -3802,16 +4168,19 @@
       <c r="H122" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="I122" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D123" t="n">
         <v>0.2</v>
@@ -3828,16 +4197,19 @@
       <c r="H123" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="I123" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B124" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D124" t="n">
         <v>0.1</v>
@@ -3854,16 +4226,19 @@
       <c r="H124" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="I124" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B125" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D125" t="n">
         <v>0.13</v>
@@ -3880,16 +4255,19 @@
       <c r="H125" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="I125" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B126" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D126" t="n">
         <v>0.15</v>
@@ -3906,16 +4284,19 @@
       <c r="H126" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="I126" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D127" t="n">
         <v>0.34</v>
@@ -3932,16 +4313,19 @@
       <c r="H127" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="I127" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B128" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D128" t="n">
         <v>0.23</v>
@@ -3958,16 +4342,19 @@
       <c r="H128" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="I128" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D129" t="n">
         <v>0.1</v>
@@ -3984,16 +4371,19 @@
       <c r="H129" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="I129" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B130" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D130" t="n">
         <v>0.11</v>
@@ -4010,16 +4400,19 @@
       <c r="H130" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="I130" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B131" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D131" t="n">
         <v>0.22</v>
@@ -4036,16 +4429,19 @@
       <c r="H131" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="I131" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D132" t="n">
         <v>0.26</v>
@@ -4062,16 +4458,19 @@
       <c r="H132" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="I132" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D133" t="n">
         <v>0.23</v>
@@ -4088,16 +4487,19 @@
       <c r="H133" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="I133" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D134" t="n">
         <v>0.09</v>
@@ -4114,16 +4516,19 @@
       <c r="H134" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="I134" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D135" t="n">
         <v>0.16</v>
@@ -4140,16 +4545,19 @@
       <c r="H135" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="I135" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D136" t="n">
         <v>0.26</v>
@@ -4166,16 +4574,19 @@
       <c r="H136" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="137" spans="1:8">
+      <c r="I136" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D137" t="n">
         <v>0.32</v>
@@ -4192,16 +4603,19 @@
       <c r="H137" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="138" spans="1:8">
+      <c r="I137" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B138" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D138" t="n">
         <v>0.23</v>
@@ -4218,16 +4632,19 @@
       <c r="H138" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="139" spans="1:8">
+      <c r="I138" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D139" t="n">
         <v>0.1</v>
@@ -4244,16 +4661,19 @@
       <c r="H139" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="I139" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D140" t="n">
         <v>0.15</v>
@@ -4270,16 +4690,19 @@
       <c r="H140" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="141" spans="1:8">
+      <c r="I140" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D141" t="n">
         <v>0.2</v>
@@ -4296,16 +4719,19 @@
       <c r="H141" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="I141" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B142" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D142" t="n">
         <v>0.37</v>
@@ -4322,16 +4748,19 @@
       <c r="H142" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="I142" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B143" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D143" t="n">
         <v>0.21</v>
@@ -4348,16 +4777,19 @@
       <c r="H143" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="144" spans="1:8">
+      <c r="I143" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B144" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D144" t="n">
         <v>0.1</v>
@@ -4374,16 +4806,19 @@
       <c r="H144" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="I144" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B145" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D145" t="n">
         <v>0.16</v>
@@ -4400,16 +4835,19 @@
       <c r="H145" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="146" spans="1:8">
+      <c r="I145" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B146" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C146" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D146" t="n">
         <v>0.16</v>
@@ -4426,16 +4864,19 @@
       <c r="H146" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="I146" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B147" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D147" t="n">
         <v>0.35</v>
@@ -4452,16 +4893,19 @@
       <c r="H147" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="I147" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B148" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D148" t="n">
         <v>0.26</v>
@@ -4478,16 +4922,19 @@
       <c r="H148" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="I148" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B149" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D149" t="n">
         <v>0.14</v>
@@ -4504,16 +4951,19 @@
       <c r="H149" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="150" spans="1:8">
+      <c r="I149" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B150" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D150" t="n">
         <v>0.1</v>
@@ -4530,16 +4980,19 @@
       <c r="H150" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="151" spans="1:8">
+      <c r="I150" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B151" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D151" t="n">
         <v>0.15</v>
@@ -4556,16 +5009,19 @@
       <c r="H151" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="152" spans="1:8">
+      <c r="I151" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B152" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D152" t="n">
         <v>0.24</v>
@@ -4582,16 +5038,19 @@
       <c r="H152" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="153" spans="1:8">
+      <c r="I152" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B153" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D153" t="n">
         <v>0.26</v>
@@ -4608,16 +5067,19 @@
       <c r="H153" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="154" spans="1:8">
+      <c r="I153" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B154" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D154" t="n">
         <v>0.11</v>
@@ -4634,16 +5096,19 @@
       <c r="H154" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="155" spans="1:8">
+      <c r="I154" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B155" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D155" t="n">
         <v>0.15</v>
@@ -4660,16 +5125,19 @@
       <c r="H155" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="156" spans="1:8">
+      <c r="I155" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B156" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D156" t="n">
         <v>0.24</v>
@@ -4686,16 +5154,19 @@
       <c r="H156" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="157" spans="1:8">
+      <c r="I156" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B157" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D157" t="n">
         <v>0.3</v>
@@ -4712,16 +5183,19 @@
       <c r="H157" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="158" spans="1:8">
+      <c r="I157" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B158" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D158" t="n">
         <v>0.22</v>
@@ -4738,16 +5212,19 @@
       <c r="H158" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="159" spans="1:8">
+      <c r="I158" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B159" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D159" t="n">
         <v>0.12</v>
@@ -4764,16 +5241,19 @@
       <c r="H159" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="160" spans="1:8">
+      <c r="I159" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B160" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D160" t="n">
         <v>0.1</v>
@@ -4790,16 +5270,19 @@
       <c r="H160" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="161" spans="1:8">
+      <c r="I160" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B161" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C161" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D161" t="n">
         <v>0.26</v>
@@ -4816,16 +5299,19 @@
       <c r="H161" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="162" spans="1:8">
+      <c r="I161" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B162" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D162" t="n">
         <v>0.48</v>
@@ -4842,16 +5328,19 @@
       <c r="H162" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="163" spans="1:8">
+      <c r="I162" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B163" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D163" t="n">
         <v>0.19</v>
@@ -4868,16 +5357,19 @@
       <c r="H163" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="164" spans="1:8">
+      <c r="I163" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B164" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C164" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D164" t="n">
         <v>0.09</v>
@@ -4894,16 +5386,19 @@
       <c r="H164" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="165" spans="1:8">
+      <c r="I164" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B165" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D165" t="n">
         <v>0.1</v>
@@ -4920,16 +5415,19 @@
       <c r="H165" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="166" spans="1:8">
+      <c r="I165" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B166" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C166" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D166" t="n">
         <v>0.14</v>
@@ -4946,16 +5444,19 @@
       <c r="H166" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="167" spans="1:8">
+      <c r="I166" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B167" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D167" t="n">
         <v>0.31</v>
@@ -4964,7 +5465,7 @@
         <v>0.2</v>
       </c>
       <c r="F167" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="G167" t="n">
         <v>0.19</v>
@@ -4972,16 +5473,19 @@
       <c r="H167" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="168" spans="1:8">
+      <c r="I167" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B168" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D168" t="n">
         <v>0.25</v>
@@ -4996,18 +5500,21 @@
         <v>0.19</v>
       </c>
       <c r="H168" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>0.21</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B169" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C169" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D169" t="n">
         <v>0.13</v>
@@ -5024,16 +5531,19 @@
       <c r="H169" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="170" spans="1:8">
+      <c r="I169" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B170" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C170" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D170" t="n">
         <v>0.09</v>
@@ -5050,16 +5560,19 @@
       <c r="H170" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="171" spans="1:8">
+      <c r="I170" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B171" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C171" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D171" t="n">
         <v>0.22</v>
@@ -5068,24 +5581,27 @@
         <v>0.27</v>
       </c>
       <c r="F171" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="G171" t="n">
         <v>0.25</v>
       </c>
       <c r="H171" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>0.25</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B172" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D172" t="n">
         <v>0.33</v>
@@ -5102,16 +5618,19 @@
       <c r="H172" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="173" spans="1:8">
+      <c r="I172" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B173" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D173" t="n">
         <v>0.22</v>
@@ -5126,18 +5645,21 @@
         <v>0.24</v>
       </c>
       <c r="H173" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I173" t="n">
         <v>0.24</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B174" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C174" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D174" t="n">
         <v>0.1</v>
@@ -5154,16 +5676,19 @@
       <c r="H174" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="175" spans="1:8">
+      <c r="I174" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B175" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C175" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D175" t="n">
         <v>0.13</v>
@@ -5172,7 +5697,7 @@
         <v>0.17</v>
       </c>
       <c r="F175" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="G175" t="n">
         <v>0.15</v>
@@ -5180,16 +5705,19 @@
       <c r="H175" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="176" spans="1:8">
+      <c r="I175" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B176" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C176" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D176" t="n">
         <v>0.22</v>
@@ -5198,24 +5726,27 @@
         <v>0.22</v>
       </c>
       <c r="F176" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="G176" t="n">
         <v>0.18</v>
       </c>
       <c r="H176" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B177" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D177" t="n">
         <v>0.35</v>
@@ -5227,21 +5758,24 @@
         <v>0.32</v>
       </c>
       <c r="G177" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="H177" t="n">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>0.37</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B178" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D178" t="n">
         <v>0.24</v>
@@ -5258,16 +5792,19 @@
       <c r="H178" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="179" spans="1:8">
+      <c r="I178" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B179" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C179" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D179" t="n">
         <v>0.1</v>
@@ -5284,16 +5821,19 @@
       <c r="H179" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="180" spans="1:8">
+      <c r="I179" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B180" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C180" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D180" t="n">
         <v>0.14</v>
@@ -5302,24 +5842,27 @@
         <v>0.15</v>
       </c>
       <c r="F180" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="G180" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="H180" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="181" spans="1:8">
+      <c r="I180" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C181" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D181" t="n">
         <v>0.17</v>
@@ -5328,24 +5871,27 @@
         <v>0.2</v>
       </c>
       <c r="F181" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="G181" t="n">
         <v>0.11</v>
       </c>
       <c r="H181" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>0.13</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B182" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D182" t="n">
         <v>0.32</v>
@@ -5362,16 +5908,19 @@
       <c r="H182" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="183" spans="1:8">
+      <c r="I182" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B183" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D183" t="n">
         <v>0.29</v>
@@ -5388,16 +5937,19 @@
       <c r="H183" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="184" spans="1:8">
+      <c r="I183" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B184" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C184" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D184" t="n">
         <v>0.07000000000000001</v>
@@ -5414,16 +5966,19 @@
       <c r="H184" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="185" spans="1:8">
+      <c r="I184" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C185" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D185" t="n">
         <v>0.11</v>
@@ -5440,16 +5995,19 @@
       <c r="H185" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="186" spans="1:8">
+      <c r="I185" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B186" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C186" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D186" t="n">
         <v>0.21</v>
@@ -5466,16 +6024,19 @@
       <c r="H186" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="187" spans="1:8">
+      <c r="I186" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B187" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D187" t="n">
         <v>0.4</v>
@@ -5492,16 +6053,19 @@
       <c r="H187" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="188" spans="1:8">
+      <c r="I187" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B188" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D188" t="n">
         <v>0.25</v>
@@ -5518,16 +6082,19 @@
       <c r="H188" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="189" spans="1:8">
+      <c r="I188" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B189" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C189" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D189" t="n">
         <v>0.08</v>
@@ -5544,16 +6111,19 @@
       <c r="H189" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="190" spans="1:8">
+      <c r="I189" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D190" t="n">
         <v>0.11</v>
@@ -5570,16 +6140,19 @@
       <c r="H190" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="191" spans="1:8">
+      <c r="I190" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B191" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C191" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D191" t="n">
         <v>0.16</v>
@@ -5596,16 +6169,19 @@
       <c r="H191" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="192" spans="1:8">
+      <c r="I191" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B192" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D192" t="n">
         <v>0.38</v>
@@ -5622,16 +6198,19 @@
       <c r="H192" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="193" spans="1:8">
+      <c r="I192" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B193" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D193" t="n">
         <v>0.26</v>
@@ -5648,16 +6227,19 @@
       <c r="H193" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="194" spans="1:8">
+      <c r="I193" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B194" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C194" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D194" t="n">
         <v>0.11</v>
@@ -5674,16 +6256,19 @@
       <c r="H194" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="195" spans="1:8">
+      <c r="I194" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B195" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C195" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D195" t="n">
         <v>0.11</v>
@@ -5700,16 +6285,19 @@
       <c r="H195" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="196" spans="1:8">
+      <c r="I195" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B196" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C196" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D196" t="n">
         <v>0.14</v>
@@ -5726,16 +6314,19 @@
       <c r="H196" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="197" spans="1:8">
+      <c r="I196" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B197" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D197" t="n">
         <v>0.24</v>
@@ -5752,16 +6343,19 @@
       <c r="H197" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="198" spans="1:8">
+      <c r="I197" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B198" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D198" t="n">
         <v>0.25</v>
@@ -5778,16 +6372,19 @@
       <c r="H198" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="199" spans="1:8">
+      <c r="I198" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B199" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C199" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D199" t="n">
         <v>0.14</v>
@@ -5804,16 +6401,19 @@
       <c r="H199" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="200" spans="1:8">
+      <c r="I199" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B200" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C200" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D200" t="n">
         <v>0.11</v>
@@ -5830,16 +6430,19 @@
       <c r="H200" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="201" spans="1:8">
+      <c r="I200" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B201" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C201" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D201" t="n">
         <v>0.26</v>
@@ -5856,16 +6459,19 @@
       <c r="H201" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="202" spans="1:8">
+      <c r="I201" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B202" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D202" t="n">
         <v>0.4</v>
@@ -5882,16 +6488,19 @@
       <c r="H202" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="203" spans="1:8">
+      <c r="I202" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B203" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D203" t="n">
         <v>0.22</v>
@@ -5908,16 +6517,19 @@
       <c r="H203" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="204" spans="1:8">
+      <c r="I203" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B204" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C204" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D204" t="n">
         <v>0.12</v>
@@ -5934,16 +6546,19 @@
       <c r="H204" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="205" spans="1:8">
+      <c r="I204" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B205" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C205" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D205" t="n">
         <v>0.11</v>
@@ -5960,16 +6575,19 @@
       <c r="H205" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="206" spans="1:8">
+      <c r="I205" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B206" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C206" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D206" t="n">
         <v>0.15</v>
@@ -5986,16 +6604,19 @@
       <c r="H206" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="207" spans="1:8">
+      <c r="I206" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B207" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D207" t="n">
         <v>0.23</v>
@@ -6012,16 +6633,19 @@
       <c r="H207" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="208" spans="1:8">
+      <c r="I207" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B208" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C208" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D208" t="n">
         <v>0.23</v>
@@ -6038,16 +6662,19 @@
       <c r="H208" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="209" spans="1:8">
+      <c r="I208" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B209" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C209" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D209" t="n">
         <v>0.07000000000000001</v>
@@ -6064,16 +6691,19 @@
       <c r="H209" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="210" spans="1:8">
+      <c r="I209" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B210" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C210" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D210" t="n">
         <v>0.17</v>
@@ -6090,16 +6720,19 @@
       <c r="H210" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="211" spans="1:8">
+      <c r="I210" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B211" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C211" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D211" t="n">
         <v>0.3</v>
@@ -6116,16 +6749,19 @@
       <c r="H211" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="212" spans="1:8">
+      <c r="I211" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B212" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D212" t="n">
         <v>0.38</v>
@@ -6142,16 +6778,19 @@
       <c r="H212" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="213" spans="1:8">
+      <c r="I212" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B213" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C213" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D213" t="n">
         <v>0.23</v>
@@ -6168,16 +6807,19 @@
       <c r="H213" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="214" spans="1:8">
+      <c r="I213" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B214" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C214" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D214" t="n">
         <v>0.07000000000000001</v>
@@ -6194,16 +6836,19 @@
       <c r="H214" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="215" spans="1:8">
+      <c r="I214" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B215" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C215" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D215" t="n">
         <v>0.17</v>
@@ -6220,16 +6865,19 @@
       <c r="H215" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="216" spans="1:8">
+      <c r="I215" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B216" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C216" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D216" t="n">
         <v>0.15</v>
@@ -6246,16 +6894,19 @@
       <c r="H216" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="217" spans="1:8">
+      <c r="I216" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B217" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D217" t="n">
         <v>0.33</v>
@@ -6272,16 +6923,19 @@
       <c r="H217" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="218" spans="1:8">
+      <c r="I217" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B218" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C218" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D218" t="n">
         <v>0.28</v>
@@ -6298,16 +6952,19 @@
       <c r="H218" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="219" spans="1:8">
+      <c r="I218" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B219" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C219" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D219" t="n">
         <v>0.09</v>
@@ -6324,16 +6981,19 @@
       <c r="H219" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="220" spans="1:8">
+      <c r="I219" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B220" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C220" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D220" t="n">
         <v>0.13</v>
@@ -6350,16 +7010,19 @@
       <c r="H220" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="221" spans="1:8">
+      <c r="I220" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B221" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C221" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D221" t="n">
         <v>0.17</v>
@@ -6376,16 +7039,19 @@
       <c r="H221" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="222" spans="1:8">
+      <c r="I221" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B222" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D222" t="n">
         <v>0.32</v>
@@ -6402,16 +7068,19 @@
       <c r="H222" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="223" spans="1:8">
+      <c r="I222" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B223" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C223" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D223" t="n">
         <v>0.22</v>
@@ -6428,16 +7097,19 @@
       <c r="H223" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="224" spans="1:8">
+      <c r="I223" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B224" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C224" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D224" t="n">
         <v>0.12</v>
@@ -6454,16 +7126,19 @@
       <c r="H224" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="225" spans="1:8">
+      <c r="I224" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B225" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C225" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D225" t="n">
         <v>0.11</v>
@@ -6480,16 +7155,19 @@
       <c r="H225" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="226" spans="1:8">
+      <c r="I225" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B226" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C226" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D226" t="n">
         <v>0.23</v>
@@ -6506,48 +7184,54 @@
       <c r="H226" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="227" spans="1:8">
+      <c r="I226" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B227" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C227" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D227" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="E227" t="n">
         <v>0.31</v>
       </c>
       <c r="F227" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="G227" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="H227" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>0.34</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B228" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C228" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D228" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="E228" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="F228" t="n">
         <v>0.26</v>
@@ -6558,25 +7242,28 @@
       <c r="H228" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="229" spans="1:8">
+      <c r="I228" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B229" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C229" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D229" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="E229" t="n">
         <v>0.12</v>
       </c>
       <c r="F229" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G229" t="n">
         <v>0.12</v>
@@ -6584,45 +7271,51 @@
       <c r="H229" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="230" spans="1:8">
+      <c r="I229" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B230" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C230" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D230" t="n">
         <v>0.11</v>
       </c>
       <c r="E230" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="F230" t="n">
         <v>0.21</v>
       </c>
       <c r="G230" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I230" t="n">
         <v>0.15</v>
       </c>
-      <c r="H230" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B231" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C231" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D231" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="E231" t="n">
         <v>0.2</v>
@@ -6631,21 +7324,24 @@
         <v>0.11</v>
       </c>
       <c r="G231" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="H231" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="232" spans="1:8">
+      <c r="I231" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B232" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C232" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D232" t="n">
         <v>0.33</v>
@@ -6662,22 +7358,25 @@
       <c r="H232" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="233" spans="1:8">
+      <c r="I232" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B233" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C233" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D233" t="n">
         <v>0.23</v>
       </c>
       <c r="E233" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="F233" t="n">
         <v>0.23</v>
@@ -6688,19 +7387,22 @@
       <c r="H233" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="234" spans="1:8">
+      <c r="I233" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B234" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C234" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D234" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E234" t="n">
         <v>0.12</v>
@@ -6714,16 +7416,19 @@
       <c r="H234" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="235" spans="1:8">
+      <c r="I234" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B235" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C235" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D235" t="n">
         <v>0.13</v>
@@ -6740,22 +7445,25 @@
       <c r="H235" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="236" spans="1:8">
+      <c r="I235" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B236" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C236" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D236" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="E236" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="F236" t="n">
         <v>0.16</v>
@@ -6766,16 +7474,19 @@
       <c r="H236" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="237" spans="1:8">
+      <c r="I236" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B237" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C237" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D237" t="n">
         <v>0.26</v>
@@ -6792,16 +7503,19 @@
       <c r="H237" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="238" spans="1:8">
+      <c r="I237" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B238" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C238" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D238" t="n">
         <v>0.19</v>
@@ -6818,16 +7532,19 @@
       <c r="H238" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="239" spans="1:8">
+      <c r="I238" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B239" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C239" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D239" t="n">
         <v>0.08</v>
@@ -6844,16 +7561,19 @@
       <c r="H239" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="240" spans="1:8">
+      <c r="I239" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B240" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C240" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D240" t="n">
         <v>0.15</v>
@@ -6870,16 +7590,19 @@
       <c r="H240" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="241" spans="1:8">
+      <c r="I240" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="A241" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B241" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C241" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D241" t="n">
         <v>0.32</v>
@@ -6896,16 +7619,19 @@
       <c r="H241" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="242" spans="1:8">
+      <c r="I241" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B242" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C242" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D242" t="n">
         <v>0.32</v>
@@ -6922,16 +7648,19 @@
       <c r="H242" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="243" spans="1:8">
+      <c r="I242" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B243" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C243" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D243" t="n">
         <v>0.26</v>
@@ -6948,16 +7677,19 @@
       <c r="H243" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="244" spans="1:8">
+      <c r="I243" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="A244" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B244" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C244" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D244" t="n">
         <v>0.12</v>
@@ -6974,16 +7706,19 @@
       <c r="H244" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="245" spans="1:8">
+      <c r="I244" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="A245" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B245" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C245" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D245" t="n">
         <v>0.12</v>
@@ -7000,16 +7735,19 @@
       <c r="H245" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="246" spans="1:8">
+      <c r="I245" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="A246" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B246" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C246" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D246" t="n">
         <v>0.18</v>
@@ -7026,16 +7764,19 @@
       <c r="H246" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="247" spans="1:8">
+      <c r="I246" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="A247" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B247" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C247" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D247" t="n">
         <v>0.39</v>
@@ -7052,16 +7793,19 @@
       <c r="H247" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="248" spans="1:8">
+      <c r="I247" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
       <c r="A248" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B248" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C248" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D248" t="n">
         <v>0.24</v>
@@ -7078,16 +7822,19 @@
       <c r="H248" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="249" spans="1:8">
+      <c r="I248" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="A249" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B249" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C249" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D249" t="n">
         <v>0.12</v>
@@ -7104,16 +7851,19 @@
       <c r="H249" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="250" spans="1:8">
+      <c r="I249" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="A250" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B250" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C250" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D250" t="n">
         <v>0.12</v>
@@ -7130,16 +7880,19 @@
       <c r="H250" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="251" spans="1:8">
+      <c r="I250" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
       <c r="A251" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B251" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C251" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D251" t="n">
         <v>0.13</v>
@@ -7156,10 +7909,13 @@
       <c r="H251" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="252" spans="1:8">
+      <c r="I251" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="A252" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -7173,7 +7929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7181,7 +7937,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7203,13 +7959,16 @@
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
         <v>2167</v>
@@ -7226,13 +7985,16 @@
       <c r="G2" t="n">
         <v>2120</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="n">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
         <v>509</v>
@@ -7249,13 +8011,16 @@
       <c r="G3" t="n">
         <v>511</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
         <v>799</v>
@@ -7272,13 +8037,16 @@
       <c r="G4" t="n">
         <v>774</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="n">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
         <v>859</v>
@@ -7295,13 +8063,16 @@
       <c r="G5" t="n">
         <v>835</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="n">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
         <v>989</v>
@@ -7318,13 +8089,16 @@
       <c r="G6" t="n">
         <v>981</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="n">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
         <v>744</v>
@@ -7341,13 +8115,16 @@
       <c r="G7" t="n">
         <v>724</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
         <v>434</v>
@@ -7364,13 +8141,16 @@
       <c r="G8" t="n">
         <v>415</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" t="n">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="n">
         <v>175</v>
@@ -7387,13 +8167,16 @@
       <c r="G9" t="n">
         <v>177</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
         <v>194</v>
@@ -7410,13 +8193,16 @@
       <c r="G10" t="n">
         <v>197</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
         <v>140</v>
@@ -7433,13 +8219,16 @@
       <c r="G11" t="n">
         <v>137</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
         <v>329</v>
@@ -7456,13 +8245,16 @@
       <c r="G12" t="n">
         <v>327</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" t="n">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
         <v>315</v>
@@ -7479,13 +8271,16 @@
       <c r="G13" t="n">
         <v>303</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
         <v>155</v>
@@ -7502,13 +8297,16 @@
       <c r="G14" t="n">
         <v>144</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
         <v>1036</v>
@@ -7525,13 +8323,16 @@
       <c r="G15" t="n">
         <v>1025</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" t="n">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" t="n">
         <v>1131</v>
@@ -7548,13 +8349,16 @@
       <c r="G16" t="n">
         <v>1095</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" t="n">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" t="n">
         <v>255</v>
@@ -7571,13 +8375,16 @@
       <c r="G17" t="n">
         <v>261</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" t="n">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="n">
         <v>404</v>
@@ -7594,13 +8401,16 @@
       <c r="G18" t="n">
         <v>390</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" t="n">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="n">
         <v>377</v>
@@ -7617,13 +8427,16 @@
       <c r="G19" t="n">
         <v>374</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="n">
         <v>254</v>
@@ -7640,13 +8453,16 @@
       <c r="G20" t="n">
         <v>250</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" t="n">
         <v>395</v>
@@ -7663,13 +8479,16 @@
       <c r="G21" t="n">
         <v>384</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" t="n">
         <v>482</v>
@@ -7686,13 +8505,16 @@
       <c r="G22" t="n">
         <v>461</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" t="n">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" t="n">
         <v>1142</v>
@@ -7709,13 +8531,16 @@
       <c r="G23" t="n">
         <v>1102</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" t="n">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" t="n">
         <v>507</v>
@@ -7732,13 +8557,16 @@
       <c r="G24" t="n">
         <v>490</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" t="n">
         <v>240</v>
@@ -7755,13 +8583,16 @@
       <c r="G25" t="n">
         <v>248</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" t="n">
         <v>278</v>
@@ -7778,13 +8609,16 @@
       <c r="G26" t="n">
         <v>280</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" t="n">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" t="n">
         <v>718</v>
@@ -7801,13 +8635,16 @@
       <c r="G27" t="n">
         <v>698</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" t="n">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" t="n">
         <v>298</v>
@@ -7824,13 +8661,16 @@
       <c r="G28" t="n">
         <v>290</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" t="n">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" t="n">
         <v>135</v>
@@ -7847,13 +8687,16 @@
       <c r="G29" t="n">
         <v>145</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" t="n">
         <v>156</v>
@@ -7870,13 +8713,16 @@
       <c r="G30" t="n">
         <v>152</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C31" t="n">
         <v>424</v>
@@ -7893,13 +8739,16 @@
       <c r="G31" t="n">
         <v>404</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C32" t="n">
         <v>209</v>
@@ -7916,13 +8765,16 @@
       <c r="G32" t="n">
         <v>200</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33" t="n">
         <v>104</v>
@@ -7939,13 +8791,16 @@
       <c r="G33" t="n">
         <v>102</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C34" t="n">
         <v>123</v>
@@ -7962,13 +8817,16 @@
       <c r="G34" t="n">
         <v>129</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" t="n">
         <v>283</v>
@@ -7977,21 +8835,24 @@
         <v>273</v>
       </c>
       <c r="E35" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F35" t="n">
         <v>272</v>
       </c>
       <c r="G35" t="n">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>279</v>
+      </c>
+      <c r="H35" t="n">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" t="n">
         <v>842</v>
@@ -8000,21 +8861,24 @@
         <v>836</v>
       </c>
       <c r="E36" t="n">
-        <v>810</v>
+        <v>849</v>
       </c>
       <c r="F36" t="n">
-        <v>806</v>
+        <v>829</v>
       </c>
       <c r="G36" t="n">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>821</v>
+      </c>
+      <c r="H36" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" t="n">
         <v>672</v>
@@ -8023,21 +8887,24 @@
         <v>663</v>
       </c>
       <c r="E37" t="n">
-        <v>694</v>
+        <v>651</v>
       </c>
       <c r="F37" t="n">
-        <v>671</v>
+        <v>648</v>
       </c>
       <c r="G37" t="n">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>626</v>
+      </c>
+      <c r="H37" t="n">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38" t="n">
         <v>206</v>
@@ -8046,21 +8913,24 @@
         <v>233</v>
       </c>
       <c r="E38" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F38" t="n">
         <v>230</v>
       </c>
       <c r="G38" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>251</v>
+      </c>
+      <c r="H38" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C39" t="n">
         <v>338</v>
@@ -8077,13 +8947,16 @@
       <c r="G39" t="n">
         <v>581</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40" t="n">
         <v>349</v>
@@ -8100,13 +8973,16 @@
       <c r="G40" t="n">
         <v>412</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" t="n">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C41" t="n">
         <v>271</v>
@@ -8123,13 +8999,16 @@
       <c r="G41" t="n">
         <v>291</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42" t="n">
         <v>494</v>
@@ -8146,13 +9025,16 @@
       <c r="G42" t="n">
         <v>317</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" t="n">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43" t="n">
         <v>514</v>
@@ -8169,13 +9051,16 @@
       <c r="G43" t="n">
         <v>288</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C44" t="n">
         <v>252</v>
@@ -8192,13 +9077,16 @@
       <c r="G44" t="n">
         <v>694</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" t="n">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C45" t="n">
         <v>441</v>
@@ -8215,13 +9103,16 @@
       <c r="G45" t="n">
         <v>668</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" t="n">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C46" t="n">
         <v>1474</v>
@@ -8238,59 +9129,68 @@
       <c r="G46" t="n">
         <v>758</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" t="n">
+        <v>234</v>
+      </c>
+      <c r="D47" t="n">
+        <v>240</v>
+      </c>
+      <c r="E47" t="n">
+        <v>253</v>
+      </c>
+      <c r="F47" t="n">
+        <v>232</v>
+      </c>
+      <c r="G47" t="n">
+        <v>250</v>
+      </c>
+      <c r="H47" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
         <v>70</v>
       </c>
-      <c r="C47" t="n">
-        <v>205</v>
-      </c>
-      <c r="D47" t="n">
-        <v>211</v>
-      </c>
-      <c r="E47" t="n">
-        <v>224</v>
-      </c>
-      <c r="F47" t="n">
-        <v>205</v>
-      </c>
-      <c r="G47" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>69</v>
-      </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C48" t="n">
-        <v>1962</v>
+        <v>1933</v>
       </c>
       <c r="D48" t="n">
-        <v>1944</v>
+        <v>1915</v>
       </c>
       <c r="E48" t="n">
-        <v>1962</v>
+        <v>1933</v>
       </c>
       <c r="F48" t="n">
-        <v>1926</v>
+        <v>1899</v>
       </c>
       <c r="G48" t="n">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>1870</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C49" t="n">
         <v>527</v>
@@ -8307,13 +9207,16 @@
       <c r="G49" t="n">
         <v>398</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C50" t="n">
         <v>941</v>
@@ -8330,13 +9233,16 @@
       <c r="G50" t="n">
         <v>744</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" t="n">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C51" t="n">
         <v>699</v>
@@ -8353,10 +9259,13 @@
       <c r="G51" t="n">
         <v>978</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" t="n">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s"/>
       <c r="C52" t="s"/>
@@ -8364,6 +9273,7 @@
       <c r="E52" t="s"/>
       <c r="F52" t="s"/>
       <c r="G52" t="s"/>
+      <c r="H52" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_07b_ockovani.xlsx
+++ b/ZBP_07b_ockovani.xlsx
@@ -1689,22 +1689,22 @@
         <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="F37" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="G37" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="H37" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I37" t="n">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1718,22 +1718,22 @@
         <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="E38" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F38" t="n">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="G38" t="n">
         <v>0.14</v>
       </c>
       <c r="H38" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I38" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1747,19 +1747,19 @@
         <v>13</v>
       </c>
       <c r="D39" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="E39" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F39" t="n">
         <v>0.12</v>
       </c>
-      <c r="F39" t="n">
-        <v>0.08</v>
-      </c>
       <c r="G39" t="n">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I39" t="n">
         <v>0.23</v>
@@ -1776,22 +1776,22 @@
         <v>14</v>
       </c>
       <c r="D40" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="E40" t="n">
         <v>0.16</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="G40" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="H40" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="I40" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1805,22 +1805,22 @@
         <v>15</v>
       </c>
       <c r="D41" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="E41" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H41" t="n">
         <v>0.27</v>
       </c>
-      <c r="F41" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I41" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1834,22 +1834,22 @@
         <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="E42" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="F42" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="G42" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="H42" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="I42" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1863,19 +1863,19 @@
         <v>12</v>
       </c>
       <c r="D43" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G43" t="n">
         <v>0.21</v>
       </c>
-      <c r="E43" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.18</v>
-      </c>
       <c r="H43" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I43" t="n">
         <v>0.23</v>
@@ -1892,22 +1892,22 @@
         <v>13</v>
       </c>
       <c r="D44" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E44" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F44" t="n">
         <v>0.11</v>
       </c>
       <c r="G44" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="I44" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1921,22 +1921,22 @@
         <v>14</v>
       </c>
       <c r="D45" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="E45" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="F45" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="G45" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="H45" t="n">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="I45" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1950,22 +1950,22 @@
         <v>15</v>
       </c>
       <c r="D46" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E46" t="n">
         <v>0.27</v>
       </c>
-      <c r="E46" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F46" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G46" t="n">
         <v>0.18</v>
       </c>
-      <c r="G46" t="n">
-        <v>0.22</v>
-      </c>
       <c r="H46" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I46" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1979,22 +1979,22 @@
         <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="E47" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="F47" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="G47" t="n">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
       <c r="H47" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="I47" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2008,19 +2008,19 @@
         <v>12</v>
       </c>
       <c r="D48" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="E48" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G48" t="n">
         <v>0.33</v>
       </c>
-      <c r="F48" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.34</v>
-      </c>
       <c r="H48" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="I48" t="n">
         <v>0.3</v>
@@ -2037,22 +2037,22 @@
         <v>13</v>
       </c>
       <c r="D49" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F49" t="n">
         <v>0.08</v>
       </c>
-      <c r="E49" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="G49" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="H49" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I49" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2066,22 +2066,22 @@
         <v>14</v>
       </c>
       <c r="D50" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="E50" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="F50" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="G50" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H50" t="n">
         <v>0.16</v>
       </c>
-      <c r="H50" t="n">
-        <v>0.23</v>
-      </c>
       <c r="I50" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2095,13 +2095,13 @@
         <v>15</v>
       </c>
       <c r="D51" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="E51" t="n">
         <v>0.17</v>
       </c>
       <c r="F51" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="G51" t="n">
         <v>0.09</v>
@@ -2124,22 +2124,22 @@
         <v>11</v>
       </c>
       <c r="D52" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I52" t="n">
         <v>0.37</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.27</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2153,22 +2153,22 @@
         <v>12</v>
       </c>
       <c r="D53" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F53" t="n">
         <v>0.21</v>
       </c>
-      <c r="E53" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.16</v>
-      </c>
       <c r="G53" t="n">
-        <v>0.14</v>
+        <v>0.27</v>
       </c>
       <c r="H53" t="n">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="I53" t="n">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2182,22 +2182,22 @@
         <v>13</v>
       </c>
       <c r="D54" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="E54" t="n">
         <v>0.16</v>
       </c>
       <c r="F54" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G54" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="H54" t="n">
         <v>0.21</v>
       </c>
       <c r="I54" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2211,22 +2211,22 @@
         <v>14</v>
       </c>
       <c r="D55" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="E55" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F55" t="n">
         <v>0.16</v>
       </c>
-      <c r="F55" t="n">
-        <v>0.19</v>
-      </c>
       <c r="G55" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="H55" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="I55" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2240,22 +2240,22 @@
         <v>15</v>
       </c>
       <c r="D56" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="E56" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="F56" t="n">
-        <v>0.29</v>
+        <v>0.13</v>
       </c>
       <c r="G56" t="n">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="H56" t="n">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="I56" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2269,22 +2269,22 @@
         <v>11</v>
       </c>
       <c r="D57" t="n">
-        <v>0.31</v>
+        <v>0.39</v>
       </c>
       <c r="E57" t="n">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
       <c r="F57" t="n">
-        <v>0.22</v>
+        <v>0.4</v>
       </c>
       <c r="G57" t="n">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
-        <v>0.28</v>
+        <v>0.48</v>
       </c>
       <c r="I57" t="n">
-        <v>0.33</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2298,22 +2298,22 @@
         <v>12</v>
       </c>
       <c r="D58" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="F58" t="n">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
       <c r="G58" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="H58" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I58" t="n">
         <v>0.24</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.23</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2327,22 +2327,22 @@
         <v>13</v>
       </c>
       <c r="D59" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="E59" t="n">
         <v>0.08</v>
       </c>
       <c r="F59" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H59" t="n">
         <v>0.11</v>
       </c>
-      <c r="G59" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.18</v>
-      </c>
       <c r="I59" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2356,22 +2356,22 @@
         <v>14</v>
       </c>
       <c r="D60" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="E60" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="F60" t="n">
-        <v>0.28</v>
+        <v>0.11</v>
       </c>
       <c r="G60" t="n">
-        <v>0.23</v>
+        <v>0.09</v>
       </c>
       <c r="H60" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="I60" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2385,22 +2385,22 @@
         <v>15</v>
       </c>
       <c r="D61" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="E61" t="n">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="F61" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="G61" t="n">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="H61" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="I61" t="n">
-        <v>0.14</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2414,22 +2414,22 @@
         <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>0.25</v>
+        <v>0.48</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="F62" t="n">
-        <v>0.35</v>
+        <v>0.55</v>
       </c>
       <c r="G62" t="n">
-        <v>0.4</v>
+        <v>0.58</v>
       </c>
       <c r="H62" t="n">
-        <v>0.4</v>
+        <v>0.63</v>
       </c>
       <c r="I62" t="n">
-        <v>0.46</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2443,22 +2443,22 @@
         <v>12</v>
       </c>
       <c r="D63" t="n">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
       <c r="E63" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="F63" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="G63" t="n">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="H63" t="n">
-        <v>0.34</v>
+        <v>0.18</v>
       </c>
       <c r="I63" t="n">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2472,22 +2472,22 @@
         <v>13</v>
       </c>
       <c r="D64" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="G64" t="n">
         <v>0.08</v>
       </c>
       <c r="H64" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I64" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2504,19 +2504,19 @@
         <v>0.13</v>
       </c>
       <c r="E65" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="F65" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="G65" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2530,22 +2530,22 @@
         <v>15</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="E66" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="F66" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="G66" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="H66" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -8153,22 +8153,22 @@
         <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>175</v>
+        <v>504</v>
       </c>
       <c r="D9" t="n">
-        <v>172</v>
+        <v>494</v>
       </c>
       <c r="E9" t="n">
-        <v>177</v>
+        <v>520</v>
       </c>
       <c r="F9" t="n">
-        <v>169</v>
+        <v>500</v>
       </c>
       <c r="G9" t="n">
-        <v>177</v>
+        <v>504</v>
       </c>
       <c r="H9" t="n">
-        <v>177</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -8179,22 +8179,22 @@
         <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>194</v>
+        <v>510</v>
       </c>
       <c r="D10" t="n">
-        <v>195</v>
+        <v>511</v>
       </c>
       <c r="E10" t="n">
-        <v>199</v>
+        <v>511</v>
       </c>
       <c r="F10" t="n">
-        <v>192</v>
+        <v>497</v>
       </c>
       <c r="G10" t="n">
-        <v>197</v>
+        <v>500</v>
       </c>
       <c r="H10" t="n">
-        <v>196</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -8205,22 +8205,22 @@
         <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>140</v>
+        <v>294</v>
       </c>
       <c r="D11" t="n">
-        <v>141</v>
+        <v>288</v>
       </c>
       <c r="E11" t="n">
-        <v>145</v>
+        <v>295</v>
       </c>
       <c r="F11" t="n">
-        <v>141</v>
+        <v>285</v>
       </c>
       <c r="G11" t="n">
-        <v>137</v>
+        <v>281</v>
       </c>
       <c r="H11" t="n">
-        <v>139</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -8231,22 +8231,22 @@
         <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>329</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>322</v>
+        <v>492</v>
       </c>
       <c r="E12" t="n">
-        <v>342</v>
+        <v>489</v>
       </c>
       <c r="F12" t="n">
-        <v>331</v>
+        <v>484</v>
       </c>
       <c r="G12" t="n">
-        <v>327</v>
+        <v>477</v>
       </c>
       <c r="H12" t="n">
-        <v>334</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -8257,22 +8257,22 @@
         <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>315</v>
+        <v>234</v>
       </c>
       <c r="D13" t="n">
-        <v>315</v>
+        <v>233</v>
       </c>
       <c r="E13" t="n">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="F13" t="n">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="G13" t="n">
-        <v>303</v>
+        <v>223</v>
       </c>
       <c r="H13" t="n">
-        <v>296</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -8283,22 +8283,22 @@
         <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D14" t="n">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E14" t="n">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F14" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G14" t="n">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="H14" t="n">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:8">

--- a/ZBP_07b_ockovani.xlsx
+++ b/ZBP_07b_ockovani.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>trideni</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>2. 3. 2021</t>
+  </si>
+  <si>
+    <t>16. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -248,10 +251,10 @@
     <t>Velké starosti</t>
   </si>
   <si>
-    <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, % respondentů celkově a ve skupinách, aktualizace 9. 3. 2021</t>
+    <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, % respondentů celkově a ve skupinách, aktualizace 23. 3. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, velikost dotázaného souboru celkově a ve skupinách, aktualizace 9. 3. 2021</t>
+    <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 3. 2021</t>
   </si>
 </sst>
 </file>
@@ -626,7 +629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I252"/>
+  <dimension ref="A1:J252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,7 +637,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,16 +665,19 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
         <v>0.33</v>
@@ -691,16 +697,19 @@
       <c r="I2" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
         <v>0.23</v>
@@ -720,16 +729,19 @@
       <c r="I3" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
         <v>0.11</v>
@@ -749,16 +761,19 @@
       <c r="I4" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
         <v>0.12</v>
@@ -778,16 +793,19 @@
       <c r="I5" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
         <v>0.21</v>
@@ -807,16 +825,19 @@
       <c r="I6" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
         <v>0.33</v>
@@ -836,16 +857,19 @@
       <c r="I7" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
         <v>0.23</v>
@@ -865,16 +889,19 @@
       <c r="I8" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="n">
         <v>0.09</v>
@@ -894,16 +921,19 @@
       <c r="I9" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
         <v>0.16</v>
@@ -923,16 +953,19 @@
       <c r="I10" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
       </c>
       <c r="D11" t="n">
         <v>0.19</v>
@@ -952,16 +985,19 @@
       <c r="I11" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
         <v>0.32</v>
@@ -981,16 +1017,19 @@
       <c r="I12" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="n">
         <v>0.23</v>
@@ -1010,16 +1049,19 @@
       <c r="I13" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="n">
         <v>0.1</v>
@@ -1039,16 +1081,19 @@
       <c r="I14" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
         <v>0.11</v>
@@ -1068,16 +1113,19 @@
       <c r="I15" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
         <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
       </c>
       <c r="D16" t="n">
         <v>0.24</v>
@@ -1097,16 +1145,19 @@
       <c r="I16" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
         <v>0.33</v>
@@ -1126,16 +1177,19 @@
       <c r="I17" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" t="n">
         <v>0.25</v>
@@ -1155,16 +1209,19 @@
       <c r="I18" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
         <v>0.12</v>
@@ -1184,16 +1241,19 @@
       <c r="I19" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
         <v>0.11</v>
@@ -1213,16 +1273,19 @@
       <c r="I20" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
         <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
       </c>
       <c r="D21" t="n">
         <v>0.19</v>
@@ -1242,16 +1305,19 @@
       <c r="I21" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
         <v>0.32</v>
@@ -1271,16 +1337,19 @@
       <c r="I22" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" t="n">
         <v>0.23</v>
@@ -1300,16 +1369,19 @@
       <c r="I23" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" t="n">
         <v>0.12</v>
@@ -1329,16 +1401,19 @@
       <c r="I24" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25" t="n">
         <v>0.12</v>
@@ -1358,16 +1433,19 @@
       <c r="I25" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26" t="n">
         <v>0.21</v>
@@ -1387,16 +1465,19 @@
       <c r="I26" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" t="n">
         <v>0.33</v>
@@ -1416,16 +1497,19 @@
       <c r="I27" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" t="n">
         <v>0.23</v>
@@ -1445,16 +1529,19 @@
       <c r="I28" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" t="n">
         <v>0.1</v>
@@ -1474,16 +1561,19 @@
       <c r="I29" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30" t="n">
         <v>0.12</v>
@@ -1503,16 +1593,19 @@
       <c r="I30" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D31" t="n">
         <v>0.22</v>
@@ -1532,16 +1625,19 @@
       <c r="I31" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" t="n">
         <v>0.34</v>
@@ -1561,16 +1657,19 @@
       <c r="I32" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" t="n">
         <v>0.25</v>
@@ -1590,16 +1689,19 @@
       <c r="I33" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" t="n">
         <v>0.1</v>
@@ -1619,16 +1721,19 @@
       <c r="I34" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35" t="n">
         <v>0.16</v>
@@ -1648,16 +1753,19 @@
       <c r="I35" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36" t="n">
         <v>0.15</v>
@@ -1677,16 +1785,19 @@
       <c r="I36" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" t="n">
         <v>0.38</v>
@@ -1706,16 +1817,19 @@
       <c r="I37" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" t="n">
         <v>0.22</v>
@@ -1735,16 +1849,19 @@
       <c r="I38" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" t="n">
         <v>0.1</v>
@@ -1764,16 +1881,19 @@
       <c r="I39" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40" t="n">
         <v>0.1</v>
@@ -1793,16 +1913,19 @@
       <c r="I40" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D41" t="n">
         <v>0.2</v>
@@ -1822,16 +1945,19 @@
       <c r="I41" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" t="n">
         <v>0.3</v>
@@ -1851,16 +1977,19 @@
       <c r="I42" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" t="n">
         <v>0.22</v>
@@ -1880,16 +2009,19 @@
       <c r="I43" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D44" t="n">
         <v>0.09</v>
@@ -1909,16 +2041,19 @@
       <c r="I44" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D45" t="n">
         <v>0.14</v>
@@ -1938,16 +2073,19 @@
       <c r="I45" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D46" t="n">
         <v>0.25</v>
@@ -1967,16 +2105,19 @@
       <c r="I46" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" t="n">
         <v>0.28</v>
@@ -1996,16 +2137,19 @@
       <c r="I47" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" t="n">
         <v>0.25</v>
@@ -2025,16 +2169,19 @@
       <c r="I48" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49" t="n">
         <v>0.11</v>
@@ -2054,16 +2201,19 @@
       <c r="I49" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D50" t="n">
         <v>0.17</v>
@@ -2083,16 +2233,19 @@
       <c r="I50" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D51" t="n">
         <v>0.19</v>
@@ -2112,16 +2265,19 @@
       <c r="I51" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D52" t="n">
         <v>0.26</v>
@@ -2141,16 +2297,19 @@
       <c r="I52" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" t="n">
         <v>0.25</v>
@@ -2170,16 +2329,19 @@
       <c r="I53" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D54" t="n">
         <v>0.14</v>
@@ -2199,16 +2361,19 @@
       <c r="I54" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D55" t="n">
         <v>0.13</v>
@@ -2228,16 +2393,19 @@
       <c r="I55" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D56" t="n">
         <v>0.22</v>
@@ -2257,16 +2425,19 @@
       <c r="I56" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57" t="n">
         <v>0.39</v>
@@ -2286,16 +2457,19 @@
       <c r="I57" t="n">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D58" t="n">
         <v>0.26</v>
@@ -2315,16 +2489,19 @@
       <c r="I58" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D59" t="n">
         <v>0.12</v>
@@ -2344,16 +2521,19 @@
       <c r="I59" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" t="n">
         <v>0.06</v>
@@ -2373,16 +2553,19 @@
       <c r="I60" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D61" t="n">
         <v>0.17</v>
@@ -2402,16 +2585,19 @@
       <c r="I61" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62" t="n">
         <v>0.48</v>
@@ -2431,16 +2617,19 @@
       <c r="I62" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D63" t="n">
         <v>0.23</v>
@@ -2460,16 +2649,19 @@
       <c r="I63" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D64" t="n">
         <v>0.07000000000000001</v>
@@ -2489,16 +2681,19 @@
       <c r="I64" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D65" t="n">
         <v>0.13</v>
@@ -2518,16 +2713,19 @@
       <c r="I65" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D66" t="n">
         <v>0.09</v>
@@ -2547,16 +2745,19 @@
       <c r="I66" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D67" t="n">
         <v>0.39</v>
@@ -2576,16 +2777,19 @@
       <c r="I67" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D68" t="n">
         <v>0.26</v>
@@ -2605,16 +2809,19 @@
       <c r="I68" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D69" t="n">
         <v>0.09</v>
@@ -2634,16 +2841,19 @@
       <c r="I69" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70" t="n">
         <v>0.1</v>
@@ -2663,16 +2873,19 @@
       <c r="I70" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D71" t="n">
         <v>0.16</v>
@@ -2692,16 +2905,19 @@
       <c r="I71" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D72" t="n">
         <v>0.27</v>
@@ -2721,16 +2937,19 @@
       <c r="I72" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D73" t="n">
         <v>0.21</v>
@@ -2750,16 +2969,19 @@
       <c r="I73" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="J73" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D74" t="n">
         <v>0.13</v>
@@ -2779,16 +3001,19 @@
       <c r="I74" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="J74" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D75" t="n">
         <v>0.15</v>
@@ -2808,16 +3033,19 @@
       <c r="I75" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="J75" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D76" t="n">
         <v>0.24</v>
@@ -2837,16 +3065,19 @@
       <c r="I76" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D77" t="n">
         <v>0.33</v>
@@ -2866,16 +3097,19 @@
       <c r="I77" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="J77" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D78" t="n">
         <v>0.25</v>
@@ -2895,16 +3129,19 @@
       <c r="I78" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="J78" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D79" t="n">
         <v>0.11</v>
@@ -2924,16 +3161,19 @@
       <c r="I79" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="J79" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D80" t="n">
         <v>0.1</v>
@@ -2953,16 +3193,19 @@
       <c r="I80" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="J80" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D81" t="n">
         <v>0.21</v>
@@ -2982,16 +3225,19 @@
       <c r="I81" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="J81" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" t="n">
         <v>0.39</v>
@@ -3011,16 +3257,19 @@
       <c r="I82" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="J82" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D83" t="n">
         <v>0.26</v>
@@ -3040,16 +3289,19 @@
       <c r="I83" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="J83" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D84" t="n">
         <v>0.09</v>
@@ -3069,16 +3321,19 @@
       <c r="I84" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="J84" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D85" t="n">
         <v>0.11</v>
@@ -3098,16 +3353,19 @@
       <c r="I85" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="J85" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D86" t="n">
         <v>0.15</v>
@@ -3127,16 +3385,19 @@
       <c r="I86" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="J86" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D87" t="n">
         <v>0.42</v>
@@ -3156,16 +3417,19 @@
       <c r="I87" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="J87" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B88" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D88" t="n">
         <v>0.27</v>
@@ -3185,16 +3449,19 @@
       <c r="I88" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="J88" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B89" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D89" t="n">
         <v>0.07000000000000001</v>
@@ -3214,16 +3481,19 @@
       <c r="I89" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="J89" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B90" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D90" t="n">
         <v>0.09</v>
@@ -3243,16 +3513,19 @@
       <c r="I90" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="J90" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D91" t="n">
         <v>0.15</v>
@@ -3272,16 +3545,19 @@
       <c r="I91" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D92" t="n">
         <v>0.32</v>
@@ -3301,16 +3577,19 @@
       <c r="I92" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="J92" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B93" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D93" t="n">
         <v>0.2</v>
@@ -3330,16 +3609,19 @@
       <c r="I93" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="J93" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B94" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D94" t="n">
         <v>0.06</v>
@@ -3359,16 +3641,19 @@
       <c r="I94" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="J94" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B95" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D95" t="n">
         <v>0.22</v>
@@ -3388,16 +3673,19 @@
       <c r="I95" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="J95" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D96" t="n">
         <v>0.2</v>
@@ -3417,16 +3705,19 @@
       <c r="I96" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97" t="n">
         <v>0.25</v>
@@ -3446,16 +3737,19 @@
       <c r="I97" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="J97" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D98" t="n">
         <v>0.2</v>
@@ -3475,16 +3769,19 @@
       <c r="I98" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="J98" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B99" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D99" t="n">
         <v>0.11</v>
@@ -3504,16 +3801,19 @@
       <c r="I99" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="J99" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D100" t="n">
         <v>0.11</v>
@@ -3533,16 +3833,19 @@
       <c r="I100" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D101" t="n">
         <v>0.33</v>
@@ -3562,16 +3865,19 @@
       <c r="I101" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="J101" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D102" t="n">
         <v>0.26</v>
@@ -3591,16 +3897,19 @@
       <c r="I102" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D103" t="n">
         <v>0.23</v>
@@ -3620,16 +3929,19 @@
       <c r="I103" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D104" t="n">
         <v>0.17</v>
@@ -3649,16 +3961,19 @@
       <c r="I104" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="J104" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D105" t="n">
         <v>0.13</v>
@@ -3678,16 +3993,19 @@
       <c r="I105" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="J105" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D106" t="n">
         <v>0.21</v>
@@ -3707,16 +4025,19 @@
       <c r="I106" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="J106" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D107" t="n">
         <v>0.34</v>
@@ -3736,16 +4057,19 @@
       <c r="I107" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="J107" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D108" t="n">
         <v>0.24</v>
@@ -3765,16 +4089,19 @@
       <c r="I108" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="J108" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D109" t="n">
         <v>0.12</v>
@@ -3794,16 +4121,19 @@
       <c r="I109" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="J109" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D110" t="n">
         <v>0.11</v>
@@ -3823,16 +4153,19 @@
       <c r="I110" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="J110" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D111" t="n">
         <v>0.19</v>
@@ -3852,16 +4185,19 @@
       <c r="I111" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="J111" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D112" t="n">
         <v>0.25</v>
@@ -3881,16 +4217,19 @@
       <c r="I112" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="J112" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D113" t="n">
         <v>0.24</v>
@@ -3910,16 +4249,19 @@
       <c r="I113" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="J113" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D114" t="n">
         <v>0.1</v>
@@ -3939,16 +4281,19 @@
       <c r="I114" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="J114" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D115" t="n">
         <v>0.16</v>
@@ -3968,16 +4313,19 @@
       <c r="I115" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="J115" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C116" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D116" t="n">
         <v>0.25</v>
@@ -3997,16 +4345,19 @@
       <c r="I116" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="J116" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D117" t="n">
         <v>0.31</v>
@@ -4026,16 +4377,19 @@
       <c r="I117" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="J117" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D118" t="n">
         <v>0.22</v>
@@ -4055,16 +4409,19 @@
       <c r="I118" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="J118" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D119" t="n">
         <v>0.11</v>
@@ -4084,16 +4441,19 @@
       <c r="I119" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="J119" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D120" t="n">
         <v>0.13</v>
@@ -4113,16 +4473,19 @@
       <c r="I120" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="J120" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D121" t="n">
         <v>0.23</v>
@@ -4142,16 +4505,19 @@
       <c r="I121" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="J121" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B122" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D122" t="n">
         <v>0.42</v>
@@ -4171,16 +4537,19 @@
       <c r="I122" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="J122" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B123" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D123" t="n">
         <v>0.2</v>
@@ -4200,16 +4569,19 @@
       <c r="I123" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="J123" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B124" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D124" t="n">
         <v>0.1</v>
@@ -4229,16 +4601,19 @@
       <c r="I124" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="J124" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B125" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D125" t="n">
         <v>0.13</v>
@@ -4258,16 +4633,19 @@
       <c r="I125" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="J125" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B126" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D126" t="n">
         <v>0.15</v>
@@ -4287,16 +4665,19 @@
       <c r="I126" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="J126" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D127" t="n">
         <v>0.34</v>
@@ -4316,16 +4697,19 @@
       <c r="I127" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="128" spans="1:9">
+      <c r="J127" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D128" t="n">
         <v>0.23</v>
@@ -4345,16 +4729,19 @@
       <c r="I128" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="J128" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B129" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D129" t="n">
         <v>0.1</v>
@@ -4374,16 +4761,19 @@
       <c r="I129" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="J129" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D130" t="n">
         <v>0.11</v>
@@ -4403,16 +4793,19 @@
       <c r="I130" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="J130" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C131" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D131" t="n">
         <v>0.22</v>
@@ -4432,16 +4825,19 @@
       <c r="I131" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="J131" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D132" t="n">
         <v>0.26</v>
@@ -4461,16 +4857,19 @@
       <c r="I132" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="J132" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D133" t="n">
         <v>0.23</v>
@@ -4490,16 +4889,19 @@
       <c r="I133" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="134" spans="1:9">
+      <c r="J133" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D134" t="n">
         <v>0.09</v>
@@ -4519,16 +4921,19 @@
       <c r="I134" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="J134" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D135" t="n">
         <v>0.16</v>
@@ -4548,16 +4953,19 @@
       <c r="I135" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="136" spans="1:9">
+      <c r="J135" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B136" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D136" t="n">
         <v>0.26</v>
@@ -4577,16 +4985,19 @@
       <c r="I136" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="J136" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D137" t="n">
         <v>0.32</v>
@@ -4606,16 +5017,19 @@
       <c r="I137" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="J137" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B138" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D138" t="n">
         <v>0.23</v>
@@ -4635,16 +5049,19 @@
       <c r="I138" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="J138" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B139" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D139" t="n">
         <v>0.1</v>
@@ -4664,16 +5081,19 @@
       <c r="I139" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="J139" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B140" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C140" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D140" t="n">
         <v>0.15</v>
@@ -4693,16 +5113,19 @@
       <c r="I140" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="141" spans="1:9">
+      <c r="J140" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B141" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C141" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D141" t="n">
         <v>0.2</v>
@@ -4722,16 +5145,19 @@
       <c r="I141" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="J141" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B142" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D142" t="n">
         <v>0.37</v>
@@ -4751,16 +5177,19 @@
       <c r="I142" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="143" spans="1:9">
+      <c r="J142" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B143" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D143" t="n">
         <v>0.21</v>
@@ -4780,16 +5209,19 @@
       <c r="I143" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="144" spans="1:9">
+      <c r="J143" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B144" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D144" t="n">
         <v>0.1</v>
@@ -4809,16 +5241,19 @@
       <c r="I144" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="145" spans="1:9">
+      <c r="J144" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B145" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D145" t="n">
         <v>0.16</v>
@@ -4838,16 +5273,19 @@
       <c r="I145" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="146" spans="1:9">
+      <c r="J145" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B146" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C146" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D146" t="n">
         <v>0.16</v>
@@ -4867,16 +5305,19 @@
       <c r="I146" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="147" spans="1:9">
+      <c r="J146" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B147" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D147" t="n">
         <v>0.35</v>
@@ -4896,16 +5337,19 @@
       <c r="I147" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="148" spans="1:9">
+      <c r="J147" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B148" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D148" t="n">
         <v>0.26</v>
@@ -4925,16 +5369,19 @@
       <c r="I148" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="149" spans="1:9">
+      <c r="J148" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B149" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C149" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D149" t="n">
         <v>0.14</v>
@@ -4954,16 +5401,19 @@
       <c r="I149" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="150" spans="1:9">
+      <c r="J149" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B150" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C150" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D150" t="n">
         <v>0.1</v>
@@ -4983,16 +5433,19 @@
       <c r="I150" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="151" spans="1:9">
+      <c r="J150" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B151" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C151" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D151" t="n">
         <v>0.15</v>
@@ -5012,16 +5465,19 @@
       <c r="I151" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="152" spans="1:9">
+      <c r="J151" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B152" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D152" t="n">
         <v>0.24</v>
@@ -5041,16 +5497,19 @@
       <c r="I152" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="153" spans="1:9">
+      <c r="J152" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B153" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D153" t="n">
         <v>0.26</v>
@@ -5070,16 +5529,19 @@
       <c r="I153" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="154" spans="1:9">
+      <c r="J153" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B154" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D154" t="n">
         <v>0.11</v>
@@ -5099,16 +5561,19 @@
       <c r="I154" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="155" spans="1:9">
+      <c r="J154" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B155" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C155" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D155" t="n">
         <v>0.15</v>
@@ -5128,16 +5593,19 @@
       <c r="I155" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="156" spans="1:9">
+      <c r="J155" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B156" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C156" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D156" t="n">
         <v>0.24</v>
@@ -5157,16 +5625,19 @@
       <c r="I156" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="157" spans="1:9">
+      <c r="J156" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B157" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D157" t="n">
         <v>0.3</v>
@@ -5186,16 +5657,19 @@
       <c r="I157" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="158" spans="1:9">
+      <c r="J157" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B158" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D158" t="n">
         <v>0.22</v>
@@ -5215,16 +5689,19 @@
       <c r="I158" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="159" spans="1:9">
+      <c r="J158" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B159" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D159" t="n">
         <v>0.12</v>
@@ -5244,16 +5721,19 @@
       <c r="I159" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="160" spans="1:9">
+      <c r="J159" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B160" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C160" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D160" t="n">
         <v>0.1</v>
@@ -5273,16 +5753,19 @@
       <c r="I160" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="161" spans="1:9">
+      <c r="J160" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B161" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C161" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D161" t="n">
         <v>0.26</v>
@@ -5302,16 +5785,19 @@
       <c r="I161" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="162" spans="1:9">
+      <c r="J161" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B162" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D162" t="n">
         <v>0.48</v>
@@ -5331,16 +5817,19 @@
       <c r="I162" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="163" spans="1:9">
+      <c r="J162" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B163" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C163" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D163" t="n">
         <v>0.19</v>
@@ -5360,16 +5849,19 @@
       <c r="I163" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="164" spans="1:9">
+      <c r="J163" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B164" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C164" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D164" t="n">
         <v>0.09</v>
@@ -5389,16 +5881,19 @@
       <c r="I164" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="165" spans="1:9">
+      <c r="J164" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B165" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C165" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D165" t="n">
         <v>0.1</v>
@@ -5418,16 +5913,19 @@
       <c r="I165" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="166" spans="1:9">
+      <c r="J165" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B166" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C166" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D166" t="n">
         <v>0.14</v>
@@ -5447,16 +5945,19 @@
       <c r="I166" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="167" spans="1:9">
+      <c r="J166" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B167" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D167" t="n">
         <v>0.31</v>
@@ -5476,16 +5977,19 @@
       <c r="I167" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="168" spans="1:9">
+      <c r="J167" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B168" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C168" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D168" t="n">
         <v>0.25</v>
@@ -5505,16 +6009,19 @@
       <c r="I168" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="169" spans="1:9">
+      <c r="J168" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B169" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D169" t="n">
         <v>0.13</v>
@@ -5534,16 +6041,19 @@
       <c r="I169" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="170" spans="1:9">
+      <c r="J169" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B170" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C170" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D170" t="n">
         <v>0.09</v>
@@ -5563,16 +6073,19 @@
       <c r="I170" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="171" spans="1:9">
+      <c r="J170" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B171" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C171" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D171" t="n">
         <v>0.22</v>
@@ -5592,16 +6105,19 @@
       <c r="I171" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="172" spans="1:9">
+      <c r="J171" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B172" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D172" t="n">
         <v>0.33</v>
@@ -5621,16 +6137,19 @@
       <c r="I172" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="173" spans="1:9">
+      <c r="J172" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B173" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C173" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D173" t="n">
         <v>0.22</v>
@@ -5650,16 +6169,19 @@
       <c r="I173" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="174" spans="1:9">
+      <c r="J173" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B174" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C174" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D174" t="n">
         <v>0.1</v>
@@ -5679,16 +6201,19 @@
       <c r="I174" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="175" spans="1:9">
+      <c r="J174" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B175" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C175" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D175" t="n">
         <v>0.13</v>
@@ -5708,16 +6233,19 @@
       <c r="I175" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="176" spans="1:9">
+      <c r="J175" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B176" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C176" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D176" t="n">
         <v>0.22</v>
@@ -5737,16 +6265,19 @@
       <c r="I176" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="177" spans="1:9">
+      <c r="J176" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B177" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D177" t="n">
         <v>0.35</v>
@@ -5766,16 +6297,19 @@
       <c r="I177" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="178" spans="1:9">
+      <c r="J177" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B178" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C178" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D178" t="n">
         <v>0.24</v>
@@ -5795,16 +6329,19 @@
       <c r="I178" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="179" spans="1:9">
+      <c r="J178" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B179" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D179" t="n">
         <v>0.1</v>
@@ -5824,16 +6361,19 @@
       <c r="I179" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="180" spans="1:9">
+      <c r="J179" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C180" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D180" t="n">
         <v>0.14</v>
@@ -5853,16 +6393,19 @@
       <c r="I180" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="181" spans="1:9">
+      <c r="J180" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C181" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D181" t="n">
         <v>0.17</v>
@@ -5882,16 +6425,19 @@
       <c r="I181" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="182" spans="1:9">
+      <c r="J181" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B182" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D182" t="n">
         <v>0.32</v>
@@ -5911,16 +6457,19 @@
       <c r="I182" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="183" spans="1:9">
+      <c r="J182" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B183" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C183" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D183" t="n">
         <v>0.29</v>
@@ -5940,16 +6489,19 @@
       <c r="I183" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="184" spans="1:9">
+      <c r="J183" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B184" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C184" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D184" t="n">
         <v>0.07000000000000001</v>
@@ -5969,16 +6521,19 @@
       <c r="I184" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="185" spans="1:9">
+      <c r="J184" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B185" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C185" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D185" t="n">
         <v>0.11</v>
@@ -5998,16 +6553,19 @@
       <c r="I185" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="186" spans="1:9">
+      <c r="J185" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C186" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D186" t="n">
         <v>0.21</v>
@@ -6027,16 +6585,19 @@
       <c r="I186" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="187" spans="1:9">
+      <c r="J186" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B187" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D187" t="n">
         <v>0.4</v>
@@ -6056,16 +6617,19 @@
       <c r="I187" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="188" spans="1:9">
+      <c r="J187" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B188" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C188" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D188" t="n">
         <v>0.25</v>
@@ -6085,16 +6649,19 @@
       <c r="I188" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="189" spans="1:9">
+      <c r="J188" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B189" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C189" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D189" t="n">
         <v>0.08</v>
@@ -6114,16 +6681,19 @@
       <c r="I189" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="190" spans="1:9">
+      <c r="J189" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B190" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C190" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D190" t="n">
         <v>0.11</v>
@@ -6143,16 +6713,19 @@
       <c r="I190" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="191" spans="1:9">
+      <c r="J190" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C191" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D191" t="n">
         <v>0.16</v>
@@ -6172,16 +6745,19 @@
       <c r="I191" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="192" spans="1:9">
+      <c r="J191" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B192" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D192" t="n">
         <v>0.38</v>
@@ -6201,16 +6777,19 @@
       <c r="I192" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="193" spans="1:9">
+      <c r="J192" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B193" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C193" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D193" t="n">
         <v>0.26</v>
@@ -6230,16 +6809,19 @@
       <c r="I193" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="194" spans="1:9">
+      <c r="J193" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B194" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C194" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D194" t="n">
         <v>0.11</v>
@@ -6259,16 +6841,19 @@
       <c r="I194" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="195" spans="1:9">
+      <c r="J194" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B195" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C195" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D195" t="n">
         <v>0.11</v>
@@ -6288,16 +6873,19 @@
       <c r="I195" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="196" spans="1:9">
+      <c r="J195" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B196" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C196" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D196" t="n">
         <v>0.14</v>
@@ -6317,16 +6905,19 @@
       <c r="I196" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="197" spans="1:9">
+      <c r="J196" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B197" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D197" t="n">
         <v>0.24</v>
@@ -6346,16 +6937,19 @@
       <c r="I197" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="198" spans="1:9">
+      <c r="J197" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B198" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C198" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D198" t="n">
         <v>0.25</v>
@@ -6375,16 +6969,19 @@
       <c r="I198" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="199" spans="1:9">
+      <c r="J198" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B199" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C199" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D199" t="n">
         <v>0.14</v>
@@ -6404,16 +7001,19 @@
       <c r="I199" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="200" spans="1:9">
+      <c r="J199" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B200" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C200" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D200" t="n">
         <v>0.11</v>
@@ -6433,16 +7033,19 @@
       <c r="I200" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="201" spans="1:9">
+      <c r="J200" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B201" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C201" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D201" t="n">
         <v>0.26</v>
@@ -6462,16 +7065,19 @@
       <c r="I201" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="202" spans="1:9">
+      <c r="J201" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B202" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D202" t="n">
         <v>0.4</v>
@@ -6491,16 +7097,19 @@
       <c r="I202" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="203" spans="1:9">
+      <c r="J202" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B203" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C203" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D203" t="n">
         <v>0.22</v>
@@ -6520,16 +7129,19 @@
       <c r="I203" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="204" spans="1:9">
+      <c r="J203" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B204" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C204" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D204" t="n">
         <v>0.12</v>
@@ -6549,16 +7161,19 @@
       <c r="I204" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="205" spans="1:9">
+      <c r="J204" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B205" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C205" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D205" t="n">
         <v>0.11</v>
@@ -6578,16 +7193,19 @@
       <c r="I205" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="206" spans="1:9">
+      <c r="J205" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B206" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C206" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D206" t="n">
         <v>0.15</v>
@@ -6607,16 +7225,19 @@
       <c r="I206" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="207" spans="1:9">
+      <c r="J206" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B207" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D207" t="n">
         <v>0.23</v>
@@ -6636,16 +7257,19 @@
       <c r="I207" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="208" spans="1:9">
+      <c r="J207" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B208" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C208" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D208" t="n">
         <v>0.23</v>
@@ -6665,16 +7289,19 @@
       <c r="I208" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="209" spans="1:9">
+      <c r="J208" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B209" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C209" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D209" t="n">
         <v>0.07000000000000001</v>
@@ -6694,16 +7321,19 @@
       <c r="I209" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="210" spans="1:9">
+      <c r="J209" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B210" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C210" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D210" t="n">
         <v>0.17</v>
@@ -6723,16 +7353,19 @@
       <c r="I210" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="211" spans="1:9">
+      <c r="J210" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B211" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C211" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D211" t="n">
         <v>0.3</v>
@@ -6752,16 +7385,19 @@
       <c r="I211" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="212" spans="1:9">
+      <c r="J211" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B212" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C212" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D212" t="n">
         <v>0.38</v>
@@ -6781,16 +7417,19 @@
       <c r="I212" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="213" spans="1:9">
+      <c r="J212" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B213" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C213" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D213" t="n">
         <v>0.23</v>
@@ -6810,16 +7449,19 @@
       <c r="I213" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="214" spans="1:9">
+      <c r="J213" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B214" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C214" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D214" t="n">
         <v>0.07000000000000001</v>
@@ -6839,16 +7481,19 @@
       <c r="I214" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="215" spans="1:9">
+      <c r="J214" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
       <c r="A215" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B215" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C215" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D215" t="n">
         <v>0.17</v>
@@ -6868,16 +7513,19 @@
       <c r="I215" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="216" spans="1:9">
+      <c r="J215" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
       <c r="A216" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B216" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C216" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D216" t="n">
         <v>0.15</v>
@@ -6897,16 +7545,19 @@
       <c r="I216" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="217" spans="1:9">
+      <c r="J216" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
       <c r="A217" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B217" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C217" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D217" t="n">
         <v>0.33</v>
@@ -6926,16 +7577,19 @@
       <c r="I217" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="218" spans="1:9">
+      <c r="J217" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
       <c r="A218" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B218" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C218" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D218" t="n">
         <v>0.28</v>
@@ -6955,16 +7609,19 @@
       <c r="I218" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="219" spans="1:9">
+      <c r="J218" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
       <c r="A219" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B219" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C219" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D219" t="n">
         <v>0.09</v>
@@ -6984,16 +7641,19 @@
       <c r="I219" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="220" spans="1:9">
+      <c r="J219" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
       <c r="A220" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B220" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C220" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D220" t="n">
         <v>0.13</v>
@@ -7013,16 +7673,19 @@
       <c r="I220" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="221" spans="1:9">
+      <c r="J220" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
       <c r="A221" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B221" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C221" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D221" t="n">
         <v>0.17</v>
@@ -7042,16 +7705,19 @@
       <c r="I221" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="222" spans="1:9">
+      <c r="J221" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
       <c r="A222" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B222" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C222" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D222" t="n">
         <v>0.32</v>
@@ -7071,16 +7737,19 @@
       <c r="I222" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="223" spans="1:9">
+      <c r="J222" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
       <c r="A223" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B223" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C223" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D223" t="n">
         <v>0.22</v>
@@ -7100,16 +7769,19 @@
       <c r="I223" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="224" spans="1:9">
+      <c r="J223" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
       <c r="A224" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B224" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C224" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D224" t="n">
         <v>0.12</v>
@@ -7129,16 +7801,19 @@
       <c r="I224" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="225" spans="1:9">
+      <c r="J224" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
       <c r="A225" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B225" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C225" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D225" t="n">
         <v>0.11</v>
@@ -7158,16 +7833,19 @@
       <c r="I225" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="226" spans="1:9">
+      <c r="J225" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10">
       <c r="A226" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B226" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C226" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D226" t="n">
         <v>0.23</v>
@@ -7187,28 +7865,31 @@
       <c r="I226" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="227" spans="1:9">
+      <c r="J226" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
       <c r="A227" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B227" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C227" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D227" t="n">
         <v>0.32</v>
       </c>
       <c r="E227" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="F227" t="n">
         <v>0.31</v>
       </c>
       <c r="G227" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="H227" t="n">
         <v>0.34</v>
@@ -7216,83 +7897,92 @@
       <c r="I227" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="228" spans="1:9">
+      <c r="J227" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
       <c r="A228" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B228" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C228" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D228" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="E228" t="n">
         <v>0.21</v>
       </c>
       <c r="F228" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="G228" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="H228" t="n">
         <v>0.28</v>
       </c>
       <c r="I228" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9">
+        <v>0.27</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
       <c r="A229" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B229" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C229" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D229" t="n">
         <v>0.14</v>
       </c>
       <c r="E229" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F229" t="n">
         <v>0.12</v>
       </c>
-      <c r="F229" t="n">
-        <v>0.11</v>
-      </c>
       <c r="G229" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="H229" t="n">
         <v>0.12</v>
       </c>
       <c r="I229" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9">
+        <v>0.12</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10">
       <c r="A230" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B230" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C230" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D230" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E230" t="n">
         <v>0.16</v>
       </c>
       <c r="F230" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="G230" t="n">
         <v>0.17</v>
@@ -7303,45 +7993,51 @@
       <c r="I230" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="231" spans="1:9">
+      <c r="J230" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10">
       <c r="A231" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B231" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C231" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D231" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="E231" t="n">
         <v>0.2</v>
       </c>
       <c r="F231" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="G231" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="H231" t="n">
         <v>0.1</v>
       </c>
       <c r="I231" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9">
+        <v>0.06</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10">
       <c r="A232" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B232" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C232" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D232" t="n">
         <v>0.33</v>
@@ -7361,16 +8057,19 @@
       <c r="I232" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="233" spans="1:9">
+      <c r="J232" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10">
       <c r="A233" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B233" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C233" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D233" t="n">
         <v>0.23</v>
@@ -7390,16 +8089,19 @@
       <c r="I233" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="234" spans="1:9">
+      <c r="J233" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10">
       <c r="A234" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B234" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C234" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D234" t="n">
         <v>0.1</v>
@@ -7414,21 +8116,24 @@
         <v>0.15</v>
       </c>
       <c r="H234" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I234" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="235" spans="1:9">
+      <c r="J234" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10">
       <c r="A235" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B235" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C235" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D235" t="n">
         <v>0.13</v>
@@ -7448,16 +8153,19 @@
       <c r="I235" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="236" spans="1:9">
+      <c r="J235" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10">
       <c r="A236" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B236" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C236" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D236" t="n">
         <v>0.21</v>
@@ -7472,21 +8180,24 @@
         <v>0.16</v>
       </c>
       <c r="H236" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I236" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="237" spans="1:9">
+      <c r="J236" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10">
       <c r="A237" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B237" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C237" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D237" t="n">
         <v>0.26</v>
@@ -7506,16 +8217,19 @@
       <c r="I237" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="238" spans="1:9">
+      <c r="J237" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10">
       <c r="A238" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B238" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C238" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D238" t="n">
         <v>0.19</v>
@@ -7535,16 +8249,19 @@
       <c r="I238" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="239" spans="1:9">
+      <c r="J238" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10">
       <c r="A239" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B239" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C239" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D239" t="n">
         <v>0.08</v>
@@ -7564,16 +8281,19 @@
       <c r="I239" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="240" spans="1:9">
+      <c r="J239" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10">
       <c r="A240" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B240" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C240" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D240" t="n">
         <v>0.15</v>
@@ -7593,16 +8313,19 @@
       <c r="I240" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="241" spans="1:9">
+      <c r="J240" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10">
       <c r="A241" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B241" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C241" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D241" t="n">
         <v>0.32</v>
@@ -7622,16 +8345,19 @@
       <c r="I241" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="242" spans="1:9">
+      <c r="J241" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10">
       <c r="A242" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B242" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C242" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D242" t="n">
         <v>0.32</v>
@@ -7651,16 +8377,19 @@
       <c r="I242" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="243" spans="1:9">
+      <c r="J242" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10">
       <c r="A243" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B243" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C243" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D243" t="n">
         <v>0.26</v>
@@ -7680,16 +8409,19 @@
       <c r="I243" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="244" spans="1:9">
+      <c r="J243" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10">
       <c r="A244" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B244" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C244" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D244" t="n">
         <v>0.12</v>
@@ -7709,16 +8441,19 @@
       <c r="I244" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="245" spans="1:9">
+      <c r="J244" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10">
       <c r="A245" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B245" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C245" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D245" t="n">
         <v>0.12</v>
@@ -7738,16 +8473,19 @@
       <c r="I245" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="246" spans="1:9">
+      <c r="J245" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10">
       <c r="A246" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B246" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C246" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D246" t="n">
         <v>0.18</v>
@@ -7767,16 +8505,19 @@
       <c r="I246" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="247" spans="1:9">
+      <c r="J246" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10">
       <c r="A247" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B247" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C247" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D247" t="n">
         <v>0.39</v>
@@ -7796,16 +8537,19 @@
       <c r="I247" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="248" spans="1:9">
+      <c r="J247" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10">
       <c r="A248" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B248" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C248" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D248" t="n">
         <v>0.24</v>
@@ -7825,16 +8569,19 @@
       <c r="I248" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="249" spans="1:9">
+      <c r="J248" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10">
       <c r="A249" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B249" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C249" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D249" t="n">
         <v>0.12</v>
@@ -7854,16 +8601,19 @@
       <c r="I249" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="250" spans="1:9">
+      <c r="J249" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10">
       <c r="A250" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B250" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C250" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D250" t="n">
         <v>0.12</v>
@@ -7883,16 +8633,19 @@
       <c r="I250" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="251" spans="1:9">
+      <c r="J250" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10">
       <c r="A251" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B251" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C251" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D251" t="n">
         <v>0.13</v>
@@ -7912,10 +8665,13 @@
       <c r="I251" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="252" spans="1:9">
+      <c r="J251" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10">
       <c r="A252" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -7929,7 +8685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7937,7 +8693,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7962,13 +8718,16 @@
       <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
         <v>2167</v>
@@ -7988,13 +8747,16 @@
       <c r="H2" t="n">
         <v>2130</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="n">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
         <v>509</v>
@@ -8014,13 +8776,16 @@
       <c r="H3" t="n">
         <v>512</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
         <v>799</v>
@@ -8040,13 +8805,16 @@
       <c r="H4" t="n">
         <v>776</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="n">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
         <v>859</v>
@@ -8066,13 +8834,16 @@
       <c r="H5" t="n">
         <v>842</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="n">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
         <v>989</v>
@@ -8092,13 +8863,16 @@
       <c r="H6" t="n">
         <v>993</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="n">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
         <v>744</v>
@@ -8118,13 +8892,16 @@
       <c r="H7" t="n">
         <v>720</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="n">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
         <v>434</v>
@@ -8144,13 +8921,16 @@
       <c r="H8" t="n">
         <v>417</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="n">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
         <v>504</v>
@@ -8170,13 +8950,16 @@
       <c r="H9" t="n">
         <v>511</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="n">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
         <v>510</v>
@@ -8196,13 +8979,16 @@
       <c r="H10" t="n">
         <v>492</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
         <v>294</v>
@@ -8222,13 +9008,16 @@
       <c r="H11" t="n">
         <v>284</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
         <v>486</v>
@@ -8248,13 +9037,16 @@
       <c r="H12" t="n">
         <v>481</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="n">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
         <v>234</v>
@@ -8274,13 +9066,16 @@
       <c r="H13" t="n">
         <v>227</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
         <v>139</v>
@@ -8300,13 +9095,16 @@
       <c r="H14" t="n">
         <v>135</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
         <v>1036</v>
@@ -8326,13 +9124,16 @@
       <c r="H15" t="n">
         <v>1042</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="n">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
         <v>1131</v>
@@ -8352,13 +9153,16 @@
       <c r="H16" t="n">
         <v>1088</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" t="n">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="n">
         <v>255</v>
@@ -8378,13 +9182,16 @@
       <c r="H17" t="n">
         <v>266</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="n">
         <v>404</v>
@@ -8404,13 +9211,16 @@
       <c r="H18" t="n">
         <v>401</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="n">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="n">
         <v>377</v>
@@ -8430,13 +9240,16 @@
       <c r="H19" t="n">
         <v>375</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="n">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="n">
         <v>254</v>
@@ -8456,13 +9269,16 @@
       <c r="H20" t="n">
         <v>246</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" t="n">
         <v>395</v>
@@ -8482,13 +9298,16 @@
       <c r="H21" t="n">
         <v>375</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" t="n">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" t="n">
         <v>482</v>
@@ -8508,13 +9327,16 @@
       <c r="H22" t="n">
         <v>467</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" t="n">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" t="n">
         <v>1142</v>
@@ -8534,13 +9356,16 @@
       <c r="H23" t="n">
         <v>1107</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" t="n">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" t="n">
         <v>507</v>
@@ -8560,13 +9385,16 @@
       <c r="H24" t="n">
         <v>490</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" t="n">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" t="n">
         <v>240</v>
@@ -8586,13 +9414,16 @@
       <c r="H25" t="n">
         <v>252</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" t="n">
         <v>278</v>
@@ -8612,13 +9443,16 @@
       <c r="H26" t="n">
         <v>281</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" t="n">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C27" t="n">
         <v>718</v>
@@ -8638,13 +9472,16 @@
       <c r="H27" t="n">
         <v>703</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" t="n">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" t="n">
         <v>298</v>
@@ -8664,13 +9501,16 @@
       <c r="H28" t="n">
         <v>286</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" t="n">
         <v>135</v>
@@ -8690,13 +9530,16 @@
       <c r="H29" t="n">
         <v>149</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C30" t="n">
         <v>156</v>
@@ -8716,13 +9559,16 @@
       <c r="H30" t="n">
         <v>150</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31" t="n">
         <v>424</v>
@@ -8742,13 +9588,16 @@
       <c r="H31" t="n">
         <v>404</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" t="n">
         <v>209</v>
@@ -8768,13 +9617,16 @@
       <c r="H32" t="n">
         <v>204</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" t="n">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" t="n">
         <v>104</v>
@@ -8794,13 +9646,16 @@
       <c r="H33" t="n">
         <v>102</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34" t="n">
         <v>123</v>
@@ -8820,13 +9675,16 @@
       <c r="H34" t="n">
         <v>132</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C35" t="n">
         <v>283</v>
@@ -8846,13 +9704,16 @@
       <c r="H35" t="n">
         <v>283</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" t="n">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36" t="n">
         <v>842</v>
@@ -8872,13 +9733,16 @@
       <c r="H36" t="n">
         <v>824</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" t="n">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C37" t="n">
         <v>672</v>
@@ -8898,13 +9762,16 @@
       <c r="H37" t="n">
         <v>623</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" t="n">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" t="n">
         <v>206</v>
@@ -8924,13 +9791,16 @@
       <c r="H38" t="n">
         <v>269</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C39" t="n">
         <v>338</v>
@@ -8950,13 +9820,16 @@
       <c r="H39" t="n">
         <v>624</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" t="n">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C40" t="n">
         <v>349</v>
@@ -8976,13 +9849,16 @@
       <c r="H40" t="n">
         <v>449</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" t="n">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C41" t="n">
         <v>271</v>
@@ -9002,13 +9878,16 @@
       <c r="H41" t="n">
         <v>272</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C42" t="n">
         <v>494</v>
@@ -9028,13 +9907,16 @@
       <c r="H42" t="n">
         <v>303</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C43" t="n">
         <v>514</v>
@@ -9054,13 +9936,16 @@
       <c r="H43" t="n">
         <v>276</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C44" t="n">
         <v>252</v>
@@ -9080,13 +9965,16 @@
       <c r="H44" t="n">
         <v>691</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" t="n">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C45" t="n">
         <v>441</v>
@@ -9106,13 +9994,16 @@
       <c r="H45" t="n">
         <v>727</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" t="n">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C46" t="n">
         <v>1474</v>
@@ -9132,65 +10023,74 @@
       <c r="H46" t="n">
         <v>712</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" t="n">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" t="n">
+        <v>262</v>
+      </c>
+      <c r="D47" t="n">
+        <v>274</v>
+      </c>
+      <c r="E47" t="n">
+        <v>287</v>
+      </c>
+      <c r="F47" t="n">
+        <v>267</v>
+      </c>
+      <c r="G47" t="n">
+        <v>283</v>
+      </c>
+      <c r="H47" t="n">
+        <v>273</v>
+      </c>
+      <c r="I47" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
         <v>71</v>
       </c>
-      <c r="C47" t="n">
-        <v>234</v>
-      </c>
-      <c r="D47" t="n">
-        <v>240</v>
-      </c>
-      <c r="E47" t="n">
-        <v>253</v>
-      </c>
-      <c r="F47" t="n">
-        <v>232</v>
-      </c>
-      <c r="G47" t="n">
-        <v>250</v>
-      </c>
-      <c r="H47" t="n">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
-        <v>70</v>
-      </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C48" t="n">
-        <v>1933</v>
+        <v>1905</v>
       </c>
       <c r="D48" t="n">
-        <v>1915</v>
+        <v>1881</v>
       </c>
       <c r="E48" t="n">
-        <v>1933</v>
+        <v>1899</v>
       </c>
       <c r="F48" t="n">
-        <v>1899</v>
+        <v>1864</v>
       </c>
       <c r="G48" t="n">
-        <v>1870</v>
+        <v>1837</v>
       </c>
       <c r="H48" t="n">
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>1857</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C49" t="n">
         <v>527</v>
@@ -9210,13 +10110,16 @@
       <c r="H49" t="n">
         <v>370</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" t="n">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C50" t="n">
         <v>941</v>
@@ -9236,13 +10139,16 @@
       <c r="H50" t="n">
         <v>702</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" t="n">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C51" t="n">
         <v>699</v>
@@ -9262,10 +10168,13 @@
       <c r="H51" t="n">
         <v>1058</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" t="n">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B52" t="s"/>
       <c r="C52" t="s"/>
@@ -9274,6 +10183,7 @@
       <c r="F52" t="s"/>
       <c r="G52" t="s"/>
       <c r="H52" t="s"/>
+      <c r="I52" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_07b_ockovani.xlsx
+++ b/ZBP_07b_ockovani.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>trideni</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>16. 3. 2021</t>
+  </si>
+  <si>
+    <t>30. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -251,10 +254,10 @@
     <t>Velké starosti</t>
   </si>
   <si>
-    <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, % respondentů celkově a ve skupinách, aktualizace 23. 3. 2021</t>
+    <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, % respondentů celkově a ve skupinách, aktualizace 7. 4. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 3. 2021</t>
+    <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, velikost dotázaného souboru celkově a ve skupinách, aktualizace 7. 4. 2021</t>
   </si>
 </sst>
 </file>
@@ -629,7 +632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J252"/>
+  <dimension ref="A1:K252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,7 +640,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,16 +671,19 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
         <v>0.33</v>
@@ -700,16 +706,19 @@
       <c r="J2" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
         <v>0.23</v>
@@ -732,16 +741,19 @@
       <c r="J3" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
         <v>0.11</v>
@@ -764,16 +776,19 @@
       <c r="J4" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
         <v>0.12</v>
@@ -796,16 +811,19 @@
       <c r="J5" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
         <v>0.21</v>
@@ -828,16 +846,19 @@
       <c r="J6" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
         <v>0.33</v>
@@ -860,16 +881,19 @@
       <c r="J7" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>0.23</v>
@@ -892,16 +916,19 @@
       <c r="J8" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
         <v>0.09</v>
@@ -924,16 +951,19 @@
       <c r="J9" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
         <v>0.16</v>
@@ -956,16 +986,19 @@
       <c r="J10" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
         <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
       </c>
       <c r="D11" t="n">
         <v>0.19</v>
@@ -988,16 +1021,19 @@
       <c r="J11" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="n">
         <v>0.32</v>
@@ -1020,16 +1056,19 @@
       <c r="J12" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="n">
         <v>0.23</v>
@@ -1052,16 +1091,19 @@
       <c r="J13" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
         <v>0.1</v>
@@ -1084,16 +1126,19 @@
       <c r="J14" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" t="n">
         <v>0.11</v>
@@ -1116,16 +1161,19 @@
       <c r="J15" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
         <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
       </c>
       <c r="D16" t="n">
         <v>0.24</v>
@@ -1148,16 +1196,19 @@
       <c r="J16" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" t="n">
         <v>0.33</v>
@@ -1180,16 +1231,19 @@
       <c r="J17" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" t="n">
         <v>0.25</v>
@@ -1212,16 +1266,19 @@
       <c r="J18" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
         <v>0.12</v>
@@ -1244,16 +1301,19 @@
       <c r="J19" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" t="n">
         <v>0.11</v>
@@ -1276,16 +1336,19 @@
       <c r="J20" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
         <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
       </c>
       <c r="D21" t="n">
         <v>0.19</v>
@@ -1308,16 +1371,19 @@
       <c r="J21" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" t="n">
         <v>0.32</v>
@@ -1340,16 +1406,19 @@
       <c r="J22" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" t="n">
         <v>0.23</v>
@@ -1372,16 +1441,19 @@
       <c r="J23" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" t="n">
         <v>0.12</v>
@@ -1404,16 +1476,19 @@
       <c r="J24" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D25" t="n">
         <v>0.12</v>
@@ -1436,16 +1511,19 @@
       <c r="J25" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
         <v>0.21</v>
@@ -1468,16 +1546,19 @@
       <c r="J26" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" t="n">
         <v>0.33</v>
@@ -1500,16 +1581,19 @@
       <c r="J27" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" t="n">
         <v>0.23</v>
@@ -1532,16 +1616,19 @@
       <c r="J28" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" t="n">
         <v>0.1</v>
@@ -1564,16 +1651,19 @@
       <c r="J29" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D30" t="n">
         <v>0.12</v>
@@ -1596,16 +1686,19 @@
       <c r="J30" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D31" t="n">
         <v>0.22</v>
@@ -1628,16 +1721,19 @@
       <c r="J31" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" t="n">
         <v>0.34</v>
@@ -1660,16 +1756,19 @@
       <c r="J32" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" t="n">
         <v>0.25</v>
@@ -1692,16 +1791,19 @@
       <c r="J33" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34" t="n">
         <v>0.1</v>
@@ -1724,16 +1826,19 @@
       <c r="J34" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D35" t="n">
         <v>0.16</v>
@@ -1756,16 +1861,19 @@
       <c r="J35" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D36" t="n">
         <v>0.15</v>
@@ -1788,16 +1896,19 @@
       <c r="J36" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" t="n">
         <v>0.38</v>
@@ -1820,16 +1931,19 @@
       <c r="J37" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38" t="n">
         <v>0.22</v>
@@ -1852,16 +1966,19 @@
       <c r="J38" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39" t="n">
         <v>0.1</v>
@@ -1884,16 +2001,19 @@
       <c r="J39" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D40" t="n">
         <v>0.1</v>
@@ -1916,16 +2036,19 @@
       <c r="J40" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D41" t="n">
         <v>0.2</v>
@@ -1948,16 +2071,19 @@
       <c r="J41" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" t="n">
         <v>0.3</v>
@@ -1980,16 +2106,19 @@
       <c r="J42" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" t="n">
         <v>0.22</v>
@@ -2012,16 +2141,19 @@
       <c r="J43" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D44" t="n">
         <v>0.09</v>
@@ -2044,16 +2176,19 @@
       <c r="J44" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D45" t="n">
         <v>0.14</v>
@@ -2076,16 +2211,19 @@
       <c r="J45" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D46" t="n">
         <v>0.25</v>
@@ -2108,16 +2246,19 @@
       <c r="J46" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" t="n">
         <v>0.28</v>
@@ -2140,16 +2281,19 @@
       <c r="J47" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" t="n">
         <v>0.25</v>
@@ -2172,16 +2316,19 @@
       <c r="J48" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D49" t="n">
         <v>0.11</v>
@@ -2204,16 +2351,19 @@
       <c r="J49" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D50" t="n">
         <v>0.17</v>
@@ -2236,16 +2386,19 @@
       <c r="J50" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D51" t="n">
         <v>0.19</v>
@@ -2268,16 +2421,19 @@
       <c r="J51" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52" t="n">
         <v>0.26</v>
@@ -2300,16 +2456,19 @@
       <c r="J52" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53" t="n">
         <v>0.25</v>
@@ -2332,16 +2491,19 @@
       <c r="J53" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D54" t="n">
         <v>0.14</v>
@@ -2364,16 +2526,19 @@
       <c r="J54" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D55" t="n">
         <v>0.13</v>
@@ -2396,16 +2561,19 @@
       <c r="J55" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D56" t="n">
         <v>0.22</v>
@@ -2428,16 +2596,19 @@
       <c r="J56" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D57" t="n">
         <v>0.39</v>
@@ -2460,16 +2631,19 @@
       <c r="J57" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D58" t="n">
         <v>0.26</v>
@@ -2492,16 +2666,19 @@
       <c r="J58" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" t="n">
         <v>0.12</v>
@@ -2524,16 +2701,19 @@
       <c r="J59" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D60" t="n">
         <v>0.06</v>
@@ -2556,16 +2736,19 @@
       <c r="J60" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D61" t="n">
         <v>0.17</v>
@@ -2588,16 +2771,19 @@
       <c r="J61" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D62" t="n">
         <v>0.48</v>
@@ -2620,16 +2806,19 @@
       <c r="J62" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D63" t="n">
         <v>0.23</v>
@@ -2652,16 +2841,19 @@
       <c r="J63" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D64" t="n">
         <v>0.07000000000000001</v>
@@ -2684,16 +2876,19 @@
       <c r="J64" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D65" t="n">
         <v>0.13</v>
@@ -2716,16 +2911,19 @@
       <c r="J65" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D66" t="n">
         <v>0.09</v>
@@ -2748,16 +2946,19 @@
       <c r="J66" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D67" t="n">
         <v>0.39</v>
@@ -2780,16 +2981,19 @@
       <c r="J67" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D68" t="n">
         <v>0.26</v>
@@ -2812,16 +3016,19 @@
       <c r="J68" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69" t="n">
         <v>0.09</v>
@@ -2844,16 +3051,19 @@
       <c r="J69" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D70" t="n">
         <v>0.1</v>
@@ -2876,16 +3086,19 @@
       <c r="J70" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D71" t="n">
         <v>0.16</v>
@@ -2908,16 +3121,19 @@
       <c r="J71" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D72" t="n">
         <v>0.27</v>
@@ -2940,16 +3156,19 @@
       <c r="J72" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D73" t="n">
         <v>0.21</v>
@@ -2972,16 +3191,19 @@
       <c r="J73" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74" t="n">
         <v>0.13</v>
@@ -3004,16 +3226,19 @@
       <c r="J74" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D75" t="n">
         <v>0.15</v>
@@ -3036,16 +3261,19 @@
       <c r="J75" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D76" t="n">
         <v>0.24</v>
@@ -3068,16 +3296,19 @@
       <c r="J76" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D77" t="n">
         <v>0.33</v>
@@ -3100,16 +3331,19 @@
       <c r="J77" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D78" t="n">
         <v>0.25</v>
@@ -3132,16 +3366,19 @@
       <c r="J78" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79" t="n">
         <v>0.11</v>
@@ -3164,16 +3401,19 @@
       <c r="J79" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D80" t="n">
         <v>0.1</v>
@@ -3196,16 +3436,19 @@
       <c r="J80" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D81" t="n">
         <v>0.21</v>
@@ -3228,16 +3471,19 @@
       <c r="J81" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D82" t="n">
         <v>0.39</v>
@@ -3260,16 +3506,19 @@
       <c r="J82" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D83" t="n">
         <v>0.26</v>
@@ -3292,16 +3541,19 @@
       <c r="J83" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84" t="n">
         <v>0.09</v>
@@ -3324,16 +3576,19 @@
       <c r="J84" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D85" t="n">
         <v>0.11</v>
@@ -3356,16 +3611,19 @@
       <c r="J85" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D86" t="n">
         <v>0.15</v>
@@ -3388,16 +3646,19 @@
       <c r="J86" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B87" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D87" t="n">
         <v>0.42</v>
@@ -3420,16 +3681,19 @@
       <c r="J87" t="n">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D88" t="n">
         <v>0.27</v>
@@ -3452,16 +3716,19 @@
       <c r="J88" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D89" t="n">
         <v>0.07000000000000001</v>
@@ -3484,16 +3751,19 @@
       <c r="J89" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B90" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D90" t="n">
         <v>0.09</v>
@@ -3516,16 +3786,19 @@
       <c r="J90" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C91" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D91" t="n">
         <v>0.15</v>
@@ -3548,16 +3821,19 @@
       <c r="J91" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D92" t="n">
         <v>0.32</v>
@@ -3580,16 +3856,19 @@
       <c r="J92" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D93" t="n">
         <v>0.2</v>
@@ -3612,16 +3891,19 @@
       <c r="J93" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D94" t="n">
         <v>0.06</v>
@@ -3644,16 +3926,19 @@
       <c r="J94" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D95" t="n">
         <v>0.22</v>
@@ -3676,16 +3961,19 @@
       <c r="J95" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D96" t="n">
         <v>0.2</v>
@@ -3708,16 +3996,19 @@
       <c r="J96" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B97" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D97" t="n">
         <v>0.25</v>
@@ -3740,16 +4031,19 @@
       <c r="J97" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D98" t="n">
         <v>0.2</v>
@@ -3772,16 +4066,19 @@
       <c r="J98" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D99" t="n">
         <v>0.11</v>
@@ -3804,16 +4101,19 @@
       <c r="J99" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D100" t="n">
         <v>0.11</v>
@@ -3836,16 +4136,19 @@
       <c r="J100" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C101" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D101" t="n">
         <v>0.33</v>
@@ -3868,16 +4171,19 @@
       <c r="J101" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D102" t="n">
         <v>0.26</v>
@@ -3900,16 +4206,19 @@
       <c r="J102" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D103" t="n">
         <v>0.23</v>
@@ -3932,16 +4241,19 @@
       <c r="J103" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D104" t="n">
         <v>0.17</v>
@@ -3964,16 +4276,19 @@
       <c r="J104" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D105" t="n">
         <v>0.13</v>
@@ -3996,16 +4311,19 @@
       <c r="J105" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D106" t="n">
         <v>0.21</v>
@@ -4028,16 +4346,19 @@
       <c r="J106" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D107" t="n">
         <v>0.34</v>
@@ -4060,16 +4381,19 @@
       <c r="J107" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D108" t="n">
         <v>0.24</v>
@@ -4092,16 +4416,19 @@
       <c r="J108" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D109" t="n">
         <v>0.12</v>
@@ -4124,16 +4451,19 @@
       <c r="J109" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C110" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D110" t="n">
         <v>0.11</v>
@@ -4156,16 +4486,19 @@
       <c r="J110" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D111" t="n">
         <v>0.19</v>
@@ -4188,16 +4521,19 @@
       <c r="J111" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D112" t="n">
         <v>0.25</v>
@@ -4220,16 +4556,19 @@
       <c r="J112" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D113" t="n">
         <v>0.24</v>
@@ -4252,16 +4591,19 @@
       <c r="J113" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D114" t="n">
         <v>0.1</v>
@@ -4284,16 +4626,19 @@
       <c r="J114" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C115" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D115" t="n">
         <v>0.16</v>
@@ -4316,16 +4661,19 @@
       <c r="J115" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D116" t="n">
         <v>0.25</v>
@@ -4348,16 +4696,19 @@
       <c r="J116" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D117" t="n">
         <v>0.31</v>
@@ -4380,16 +4731,19 @@
       <c r="J117" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B118" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D118" t="n">
         <v>0.22</v>
@@ -4412,16 +4766,19 @@
       <c r="J118" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D119" t="n">
         <v>0.11</v>
@@ -4444,16 +4801,19 @@
       <c r="J119" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C120" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D120" t="n">
         <v>0.13</v>
@@ -4476,16 +4836,19 @@
       <c r="J120" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D121" t="n">
         <v>0.23</v>
@@ -4508,16 +4871,19 @@
       <c r="J121" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D122" t="n">
         <v>0.42</v>
@@ -4540,16 +4906,19 @@
       <c r="J122" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D123" t="n">
         <v>0.2</v>
@@ -4572,16 +4941,19 @@
       <c r="J123" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D124" t="n">
         <v>0.1</v>
@@ -4604,16 +4976,19 @@
       <c r="J124" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C125" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D125" t="n">
         <v>0.13</v>
@@ -4636,16 +5011,19 @@
       <c r="J125" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C126" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D126" t="n">
         <v>0.15</v>
@@ -4668,16 +5046,19 @@
       <c r="J126" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B127" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D127" t="n">
         <v>0.34</v>
@@ -4700,16 +5081,19 @@
       <c r="J127" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B128" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D128" t="n">
         <v>0.23</v>
@@ -4732,16 +5116,19 @@
       <c r="J128" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B129" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D129" t="n">
         <v>0.1</v>
@@ -4764,16 +5151,19 @@
       <c r="J129" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="K129" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B130" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C130" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D130" t="n">
         <v>0.11</v>
@@ -4796,16 +5186,19 @@
       <c r="J130" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D131" t="n">
         <v>0.22</v>
@@ -4828,16 +5221,19 @@
       <c r="J131" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B132" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D132" t="n">
         <v>0.26</v>
@@ -4860,16 +5256,19 @@
       <c r="J132" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B133" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D133" t="n">
         <v>0.23</v>
@@ -4892,16 +5291,19 @@
       <c r="J133" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="K133" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D134" t="n">
         <v>0.09</v>
@@ -4924,16 +5326,19 @@
       <c r="J134" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="K134" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B135" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C135" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D135" t="n">
         <v>0.16</v>
@@ -4956,16 +5361,19 @@
       <c r="J135" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="K135" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B136" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D136" t="n">
         <v>0.26</v>
@@ -4988,16 +5396,19 @@
       <c r="J136" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="K136" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B137" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D137" t="n">
         <v>0.32</v>
@@ -5020,16 +5431,19 @@
       <c r="J137" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="K137" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B138" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D138" t="n">
         <v>0.23</v>
@@ -5052,16 +5466,19 @@
       <c r="J138" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="K138" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B139" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D139" t="n">
         <v>0.1</v>
@@ -5084,16 +5501,19 @@
       <c r="J139" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="K139" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B140" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C140" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D140" t="n">
         <v>0.15</v>
@@ -5116,16 +5536,19 @@
       <c r="J140" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="K140" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B141" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D141" t="n">
         <v>0.2</v>
@@ -5148,16 +5571,19 @@
       <c r="J141" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="K141" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B142" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D142" t="n">
         <v>0.37</v>
@@ -5180,16 +5606,19 @@
       <c r="J142" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="K142" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B143" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D143" t="n">
         <v>0.21</v>
@@ -5212,16 +5641,19 @@
       <c r="J143" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="K143" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B144" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D144" t="n">
         <v>0.1</v>
@@ -5244,16 +5676,19 @@
       <c r="J144" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="K144" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B145" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C145" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D145" t="n">
         <v>0.16</v>
@@ -5276,16 +5711,19 @@
       <c r="J145" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="K145" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B146" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C146" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D146" t="n">
         <v>0.16</v>
@@ -5308,16 +5746,19 @@
       <c r="J146" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="K146" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B147" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D147" t="n">
         <v>0.35</v>
@@ -5340,16 +5781,19 @@
       <c r="J147" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="148" spans="1:10">
+      <c r="K147" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B148" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D148" t="n">
         <v>0.26</v>
@@ -5372,16 +5816,19 @@
       <c r="J148" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="K148" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B149" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C149" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D149" t="n">
         <v>0.14</v>
@@ -5404,16 +5851,19 @@
       <c r="J149" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="K149" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B150" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C150" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D150" t="n">
         <v>0.1</v>
@@ -5436,16 +5886,19 @@
       <c r="J150" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="K150" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B151" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C151" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D151" t="n">
         <v>0.15</v>
@@ -5468,16 +5921,19 @@
       <c r="J151" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="K151" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B152" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D152" t="n">
         <v>0.24</v>
@@ -5500,16 +5956,19 @@
       <c r="J152" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="K152" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B153" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D153" t="n">
         <v>0.26</v>
@@ -5532,16 +5991,19 @@
       <c r="J153" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="K153" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B154" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C154" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D154" t="n">
         <v>0.11</v>
@@ -5564,16 +6026,19 @@
       <c r="J154" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="K154" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B155" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C155" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D155" t="n">
         <v>0.15</v>
@@ -5596,16 +6061,19 @@
       <c r="J155" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="K155" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B156" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C156" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D156" t="n">
         <v>0.24</v>
@@ -5628,16 +6096,19 @@
       <c r="J156" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="K156" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B157" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C157" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D157" t="n">
         <v>0.3</v>
@@ -5660,16 +6131,19 @@
       <c r="J157" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="K157" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B158" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D158" t="n">
         <v>0.22</v>
@@ -5692,16 +6166,19 @@
       <c r="J158" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="K158" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B159" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C159" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D159" t="n">
         <v>0.12</v>
@@ -5724,16 +6201,19 @@
       <c r="J159" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="K159" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B160" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C160" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D160" t="n">
         <v>0.1</v>
@@ -5756,16 +6236,19 @@
       <c r="J160" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="K160" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B161" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C161" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D161" t="n">
         <v>0.26</v>
@@ -5788,16 +6271,19 @@
       <c r="J161" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="K161" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B162" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C162" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D162" t="n">
         <v>0.48</v>
@@ -5820,16 +6306,19 @@
       <c r="J162" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="K162" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B163" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D163" t="n">
         <v>0.19</v>
@@ -5852,16 +6341,19 @@
       <c r="J163" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="K163" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B164" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C164" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D164" t="n">
         <v>0.09</v>
@@ -5884,16 +6376,19 @@
       <c r="J164" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="K164" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B165" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C165" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D165" t="n">
         <v>0.1</v>
@@ -5916,16 +6411,19 @@
       <c r="J165" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="K165" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B166" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C166" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D166" t="n">
         <v>0.14</v>
@@ -5948,16 +6446,19 @@
       <c r="J166" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="K166" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C167" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D167" t="n">
         <v>0.31</v>
@@ -5980,16 +6481,19 @@
       <c r="J167" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="K167" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B168" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C168" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D168" t="n">
         <v>0.25</v>
@@ -6012,16 +6516,19 @@
       <c r="J168" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="K168" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B169" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C169" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D169" t="n">
         <v>0.13</v>
@@ -6044,16 +6551,19 @@
       <c r="J169" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="K169" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B170" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C170" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D170" t="n">
         <v>0.09</v>
@@ -6076,16 +6586,19 @@
       <c r="J170" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="K170" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B171" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C171" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D171" t="n">
         <v>0.22</v>
@@ -6108,16 +6621,19 @@
       <c r="J171" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="K171" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B172" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C172" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D172" t="n">
         <v>0.33</v>
@@ -6140,16 +6656,19 @@
       <c r="J172" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="K172" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B173" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D173" t="n">
         <v>0.22</v>
@@ -6172,16 +6691,19 @@
       <c r="J173" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="K173" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B174" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C174" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D174" t="n">
         <v>0.1</v>
@@ -6204,16 +6726,19 @@
       <c r="J174" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="K174" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B175" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C175" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D175" t="n">
         <v>0.13</v>
@@ -6236,16 +6761,19 @@
       <c r="J175" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="K175" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B176" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C176" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D176" t="n">
         <v>0.22</v>
@@ -6268,16 +6796,19 @@
       <c r="J176" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="K176" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B177" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C177" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D177" t="n">
         <v>0.35</v>
@@ -6300,16 +6831,19 @@
       <c r="J177" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="K177" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B178" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D178" t="n">
         <v>0.24</v>
@@ -6332,16 +6866,19 @@
       <c r="J178" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="K178" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B179" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C179" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D179" t="n">
         <v>0.1</v>
@@ -6364,16 +6901,19 @@
       <c r="J179" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="K179" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B180" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C180" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D180" t="n">
         <v>0.14</v>
@@ -6396,16 +6936,19 @@
       <c r="J180" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="K180" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B181" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C181" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D181" t="n">
         <v>0.17</v>
@@ -6428,16 +6971,19 @@
       <c r="J181" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="K181" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B182" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C182" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D182" t="n">
         <v>0.32</v>
@@ -6460,16 +7006,19 @@
       <c r="J182" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="K182" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B183" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C183" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D183" t="n">
         <v>0.29</v>
@@ -6492,16 +7041,19 @@
       <c r="J183" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="K183" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
       <c r="A184" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B184" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C184" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D184" t="n">
         <v>0.07000000000000001</v>
@@ -6524,16 +7076,19 @@
       <c r="J184" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="K184" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B185" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C185" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D185" t="n">
         <v>0.11</v>
@@ -6556,16 +7111,19 @@
       <c r="J185" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="186" spans="1:10">
+      <c r="K185" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B186" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C186" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D186" t="n">
         <v>0.21</v>
@@ -6588,16 +7146,19 @@
       <c r="J186" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="K186" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B187" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C187" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D187" t="n">
         <v>0.4</v>
@@ -6620,16 +7181,19 @@
       <c r="J187" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="188" spans="1:10">
+      <c r="K187" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B188" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C188" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D188" t="n">
         <v>0.25</v>
@@ -6652,16 +7216,19 @@
       <c r="J188" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="K188" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B189" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C189" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D189" t="n">
         <v>0.08</v>
@@ -6684,16 +7251,19 @@
       <c r="J189" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="190" spans="1:10">
+      <c r="K189" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B190" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C190" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D190" t="n">
         <v>0.11</v>
@@ -6716,16 +7286,19 @@
       <c r="J190" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="191" spans="1:10">
+      <c r="K190" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B191" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C191" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D191" t="n">
         <v>0.16</v>
@@ -6748,16 +7321,19 @@
       <c r="J191" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="192" spans="1:10">
+      <c r="K191" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C192" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D192" t="n">
         <v>0.38</v>
@@ -6780,16 +7356,19 @@
       <c r="J192" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="K192" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B193" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C193" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D193" t="n">
         <v>0.26</v>
@@ -6812,16 +7391,19 @@
       <c r="J193" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="K193" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B194" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C194" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D194" t="n">
         <v>0.11</v>
@@ -6844,16 +7426,19 @@
       <c r="J194" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="K194" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B195" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C195" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D195" t="n">
         <v>0.11</v>
@@ -6876,16 +7461,19 @@
       <c r="J195" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="196" spans="1:10">
+      <c r="K195" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B196" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C196" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D196" t="n">
         <v>0.14</v>
@@ -6908,16 +7496,19 @@
       <c r="J196" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="197" spans="1:10">
+      <c r="K196" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B197" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C197" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D197" t="n">
         <v>0.24</v>
@@ -6940,16 +7531,19 @@
       <c r="J197" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="198" spans="1:10">
+      <c r="K197" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B198" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C198" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D198" t="n">
         <v>0.25</v>
@@ -6972,16 +7566,19 @@
       <c r="J198" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="199" spans="1:10">
+      <c r="K198" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B199" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C199" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D199" t="n">
         <v>0.14</v>
@@ -7004,16 +7601,19 @@
       <c r="J199" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="200" spans="1:10">
+      <c r="K199" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B200" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C200" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D200" t="n">
         <v>0.11</v>
@@ -7036,16 +7636,19 @@
       <c r="J200" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="201" spans="1:10">
+      <c r="K200" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
       <c r="A201" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B201" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C201" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D201" t="n">
         <v>0.26</v>
@@ -7068,16 +7671,19 @@
       <c r="J201" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="202" spans="1:10">
+      <c r="K201" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
       <c r="A202" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B202" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C202" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D202" t="n">
         <v>0.4</v>
@@ -7100,16 +7706,19 @@
       <c r="J202" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="203" spans="1:10">
+      <c r="K202" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
       <c r="A203" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B203" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C203" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D203" t="n">
         <v>0.22</v>
@@ -7132,16 +7741,19 @@
       <c r="J203" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="K203" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
       <c r="A204" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B204" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C204" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D204" t="n">
         <v>0.12</v>
@@ -7164,16 +7776,19 @@
       <c r="J204" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="205" spans="1:10">
+      <c r="K204" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
       <c r="A205" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B205" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C205" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D205" t="n">
         <v>0.11</v>
@@ -7194,18 +7809,21 @@
         <v>0.13</v>
       </c>
       <c r="J205" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10">
+        <v>0.1</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
       <c r="A206" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B206" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C206" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D206" t="n">
         <v>0.15</v>
@@ -7226,18 +7844,21 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="J206" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.12</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:11">
       <c r="A207" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B207" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C207" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D207" t="n">
         <v>0.23</v>
@@ -7260,16 +7881,19 @@
       <c r="J207" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="208" spans="1:10">
+      <c r="K207" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
       <c r="A208" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B208" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C208" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D208" t="n">
         <v>0.23</v>
@@ -7292,16 +7916,19 @@
       <c r="J208" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="209" spans="1:10">
+      <c r="K208" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
       <c r="A209" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B209" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C209" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D209" t="n">
         <v>0.07000000000000001</v>
@@ -7324,16 +7951,19 @@
       <c r="J209" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="210" spans="1:10">
+      <c r="K209" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B210" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C210" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D210" t="n">
         <v>0.17</v>
@@ -7354,18 +7984,21 @@
         <v>0.17</v>
       </c>
       <c r="J210" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10">
+        <v>0.21</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
       <c r="A211" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B211" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C211" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D211" t="n">
         <v>0.3</v>
@@ -7386,18 +8019,21 @@
         <v>0.26</v>
       </c>
       <c r="J211" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10">
+        <v>0.19</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
       <c r="A212" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B212" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C212" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D212" t="n">
         <v>0.38</v>
@@ -7420,16 +8056,19 @@
       <c r="J212" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="213" spans="1:10">
+      <c r="K212" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
       <c r="A213" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B213" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C213" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D213" t="n">
         <v>0.23</v>
@@ -7452,16 +8091,19 @@
       <c r="J213" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="214" spans="1:10">
+      <c r="K213" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
       <c r="A214" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B214" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C214" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D214" t="n">
         <v>0.07000000000000001</v>
@@ -7484,16 +8126,19 @@
       <c r="J214" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="215" spans="1:10">
+      <c r="K214" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
       <c r="A215" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B215" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C215" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D215" t="n">
         <v>0.17</v>
@@ -7516,16 +8161,19 @@
       <c r="J215" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="216" spans="1:10">
+      <c r="K215" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
       <c r="A216" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B216" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C216" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D216" t="n">
         <v>0.15</v>
@@ -7548,16 +8196,19 @@
       <c r="J216" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="217" spans="1:10">
+      <c r="K216" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
       <c r="A217" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B217" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C217" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D217" t="n">
         <v>0.33</v>
@@ -7580,16 +8231,19 @@
       <c r="J217" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="218" spans="1:10">
+      <c r="K217" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
       <c r="A218" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B218" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C218" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D218" t="n">
         <v>0.28</v>
@@ -7612,16 +8266,19 @@
       <c r="J218" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="219" spans="1:10">
+      <c r="K218" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
       <c r="A219" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B219" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C219" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D219" t="n">
         <v>0.09</v>
@@ -7644,16 +8301,19 @@
       <c r="J219" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="220" spans="1:10">
+      <c r="K219" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
       <c r="A220" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B220" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C220" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D220" t="n">
         <v>0.13</v>
@@ -7676,16 +8336,19 @@
       <c r="J220" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="221" spans="1:10">
+      <c r="K220" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
       <c r="A221" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B221" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C221" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D221" t="n">
         <v>0.17</v>
@@ -7708,16 +8371,19 @@
       <c r="J221" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="222" spans="1:10">
+      <c r="K221" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
       <c r="A222" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B222" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C222" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D222" t="n">
         <v>0.32</v>
@@ -7740,16 +8406,19 @@
       <c r="J222" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="223" spans="1:10">
+      <c r="K222" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
       <c r="A223" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B223" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C223" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D223" t="n">
         <v>0.22</v>
@@ -7772,16 +8441,19 @@
       <c r="J223" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="224" spans="1:10">
+      <c r="K223" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
       <c r="A224" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B224" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C224" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D224" t="n">
         <v>0.12</v>
@@ -7804,16 +8476,19 @@
       <c r="J224" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="225" spans="1:10">
+      <c r="K224" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
       <c r="A225" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B225" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C225" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D225" t="n">
         <v>0.11</v>
@@ -7836,16 +8511,19 @@
       <c r="J225" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="226" spans="1:10">
+      <c r="K225" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
       <c r="A226" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B226" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C226" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D226" t="n">
         <v>0.23</v>
@@ -7868,16 +8546,19 @@
       <c r="J226" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="227" spans="1:10">
+      <c r="K226" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
       <c r="A227" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B227" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C227" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D227" t="n">
         <v>0.32</v>
@@ -7886,45 +8567,48 @@
         <v>0.3</v>
       </c>
       <c r="F227" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="G227" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="H227" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="I227" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="J227" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10">
+        <v>0.38</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
       <c r="A228" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B228" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C228" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D228" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="E228" t="n">
         <v>0.21</v>
       </c>
       <c r="F228" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G228" t="n">
         <v>0.24</v>
       </c>
-      <c r="G228" t="n">
-        <v>0.23</v>
-      </c>
       <c r="H228" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="I228" t="n">
         <v>0.27</v>
@@ -7932,19 +8616,22 @@
       <c r="J228" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="229" spans="1:10">
+      <c r="K228" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
       <c r="A229" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B229" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C229" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D229" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E229" t="n">
         <v>0.13</v>
@@ -7953,27 +8640,30 @@
         <v>0.12</v>
       </c>
       <c r="G229" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="H229" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="I229" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="J229" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10">
+        <v>0.14</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
       <c r="A230" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B230" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C230" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D230" t="n">
         <v>0.1</v>
@@ -7982,7 +8672,7 @@
         <v>0.16</v>
       </c>
       <c r="F230" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="G230" t="n">
         <v>0.17</v>
@@ -7996,16 +8686,19 @@
       <c r="J230" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="231" spans="1:10">
+      <c r="K230" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
       <c r="A231" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B231" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C231" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D231" t="n">
         <v>0.21</v>
@@ -8014,30 +8707,33 @@
         <v>0.2</v>
       </c>
       <c r="F231" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="G231" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="H231" t="n">
         <v>0.1</v>
       </c>
       <c r="I231" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="J231" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="232" spans="1:10">
+      <c r="K231" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
       <c r="A232" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B232" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C232" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D232" t="n">
         <v>0.33</v>
@@ -8060,16 +8756,19 @@
       <c r="J232" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="233" spans="1:10">
+      <c r="K232" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
       <c r="A233" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B233" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C233" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D233" t="n">
         <v>0.23</v>
@@ -8092,16 +8791,19 @@
       <c r="J233" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="234" spans="1:10">
+      <c r="K233" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
       <c r="A234" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B234" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C234" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D234" t="n">
         <v>0.1</v>
@@ -8113,27 +8815,30 @@
         <v>0.14</v>
       </c>
       <c r="G234" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I234" t="n">
         <v>0.15</v>
       </c>
-      <c r="H234" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0.16</v>
-      </c>
       <c r="J234" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10">
+        <v>0.15</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
       <c r="A235" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B235" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C235" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D235" t="n">
         <v>0.13</v>
@@ -8156,16 +8861,19 @@
       <c r="J235" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="236" spans="1:10">
+      <c r="K235" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
       <c r="A236" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B236" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C236" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D236" t="n">
         <v>0.21</v>
@@ -8177,27 +8885,30 @@
         <v>0.16</v>
       </c>
       <c r="G236" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H236" t="n">
         <v>0.16</v>
       </c>
-      <c r="H236" t="n">
-        <v>0.15</v>
-      </c>
       <c r="I236" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="J236" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10">
+        <v>0.16</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
       <c r="A237" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B237" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C237" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D237" t="n">
         <v>0.26</v>
@@ -8220,16 +8931,19 @@
       <c r="J237" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="238" spans="1:10">
+      <c r="K237" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
       <c r="A238" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B238" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C238" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D238" t="n">
         <v>0.19</v>
@@ -8252,16 +8966,19 @@
       <c r="J238" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="239" spans="1:10">
+      <c r="K238" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
       <c r="A239" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B239" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C239" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D239" t="n">
         <v>0.08</v>
@@ -8284,16 +9001,19 @@
       <c r="J239" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="240" spans="1:10">
+      <c r="K239" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
       <c r="A240" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B240" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C240" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D240" t="n">
         <v>0.15</v>
@@ -8316,16 +9036,19 @@
       <c r="J240" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="241" spans="1:10">
+      <c r="K240" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
       <c r="A241" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B241" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C241" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D241" t="n">
         <v>0.32</v>
@@ -8348,16 +9071,19 @@
       <c r="J241" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="242" spans="1:10">
+      <c r="K241" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
       <c r="A242" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B242" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C242" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D242" t="n">
         <v>0.32</v>
@@ -8380,16 +9106,19 @@
       <c r="J242" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="243" spans="1:10">
+      <c r="K242" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
       <c r="A243" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B243" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C243" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D243" t="n">
         <v>0.26</v>
@@ -8412,16 +9141,19 @@
       <c r="J243" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="244" spans="1:10">
+      <c r="K243" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
       <c r="A244" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B244" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C244" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D244" t="n">
         <v>0.12</v>
@@ -8444,16 +9176,19 @@
       <c r="J244" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="245" spans="1:10">
+      <c r="K244" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
       <c r="A245" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B245" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C245" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D245" t="n">
         <v>0.12</v>
@@ -8476,16 +9211,19 @@
       <c r="J245" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="246" spans="1:10">
+      <c r="K245" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11">
       <c r="A246" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B246" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C246" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D246" t="n">
         <v>0.18</v>
@@ -8508,16 +9246,19 @@
       <c r="J246" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="247" spans="1:10">
+      <c r="K246" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
       <c r="A247" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B247" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C247" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D247" t="n">
         <v>0.39</v>
@@ -8540,16 +9281,19 @@
       <c r="J247" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="248" spans="1:10">
+      <c r="K247" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11">
       <c r="A248" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B248" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C248" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D248" t="n">
         <v>0.24</v>
@@ -8572,16 +9316,19 @@
       <c r="J248" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="249" spans="1:10">
+      <c r="K248" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
       <c r="A249" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B249" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C249" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D249" t="n">
         <v>0.12</v>
@@ -8604,16 +9351,19 @@
       <c r="J249" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="250" spans="1:10">
+      <c r="K249" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11">
       <c r="A250" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B250" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C250" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D250" t="n">
         <v>0.12</v>
@@ -8636,16 +9386,19 @@
       <c r="J250" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="251" spans="1:10">
+      <c r="K250" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
       <c r="A251" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B251" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C251" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D251" t="n">
         <v>0.13</v>
@@ -8668,10 +9421,13 @@
       <c r="J251" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="252" spans="1:10">
+      <c r="K251" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11">
       <c r="A252" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -8685,7 +9441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8693,7 +9449,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8721,13 +9477,16 @@
       <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
         <v>2167</v>
@@ -8750,13 +9509,16 @@
       <c r="I2" t="n">
         <v>2101</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="n">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
         <v>509</v>
@@ -8779,13 +9541,16 @@
       <c r="I3" t="n">
         <v>500</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
         <v>799</v>
@@ -8808,13 +9573,16 @@
       <c r="I4" t="n">
         <v>776</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" t="n">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
         <v>859</v>
@@ -8837,13 +9605,16 @@
       <c r="I5" t="n">
         <v>825</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="n">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
         <v>989</v>
@@ -8866,13 +9637,16 @@
       <c r="I6" t="n">
         <v>966</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" t="n">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
         <v>744</v>
@@ -8895,13 +9669,16 @@
       <c r="I7" t="n">
         <v>721</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
         <v>434</v>
@@ -8924,13 +9701,16 @@
       <c r="I8" t="n">
         <v>414</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" t="n">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
         <v>504</v>
@@ -8953,13 +9733,16 @@
       <c r="I9" t="n">
         <v>494</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" t="n">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
         <v>510</v>
@@ -8982,13 +9765,16 @@
       <c r="I10" t="n">
         <v>501</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" t="n">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
         <v>294</v>
@@ -9011,13 +9797,16 @@
       <c r="I11" t="n">
         <v>282</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
         <v>486</v>
@@ -9040,13 +9829,16 @@
       <c r="I12" t="n">
         <v>472</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" t="n">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
         <v>234</v>
@@ -9069,13 +9861,16 @@
       <c r="I13" t="n">
         <v>220</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
         <v>139</v>
@@ -9098,13 +9893,16 @@
       <c r="I14" t="n">
         <v>132</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" t="n">
         <v>1036</v>
@@ -9127,13 +9925,16 @@
       <c r="I15" t="n">
         <v>1015</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" t="n">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" t="n">
         <v>1131</v>
@@ -9156,13 +9957,16 @@
       <c r="I16" t="n">
         <v>1086</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" t="n">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="n">
         <v>255</v>
@@ -9185,13 +9989,16 @@
       <c r="I17" t="n">
         <v>256</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="n">
         <v>404</v>
@@ -9214,13 +10021,16 @@
       <c r="I18" t="n">
         <v>391</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" t="n">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="n">
         <v>377</v>
@@ -9243,13 +10053,16 @@
       <c r="I19" t="n">
         <v>368</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="n">
         <v>254</v>
@@ -9272,13 +10085,16 @@
       <c r="I20" t="n">
         <v>244</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" t="n">
         <v>395</v>
@@ -9301,13 +10117,16 @@
       <c r="I21" t="n">
         <v>385</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" t="n">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" t="n">
         <v>482</v>
@@ -9330,13 +10149,16 @@
       <c r="I22" t="n">
         <v>457</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" t="n">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" t="n">
         <v>1142</v>
@@ -9359,13 +10181,16 @@
       <c r="I23" t="n">
         <v>1104</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" t="n">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" t="n">
         <v>507</v>
@@ -9388,13 +10213,16 @@
       <c r="I24" t="n">
         <v>478</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" t="n">
         <v>240</v>
@@ -9417,13 +10245,16 @@
       <c r="I25" t="n">
         <v>242</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" t="n">
         <v>278</v>
@@ -9446,13 +10277,16 @@
       <c r="I26" t="n">
         <v>277</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" t="n">
         <v>718</v>
@@ -9475,13 +10309,16 @@
       <c r="I27" t="n">
         <v>706</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" t="n">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" t="n">
         <v>298</v>
@@ -9504,13 +10341,16 @@
       <c r="I28" t="n">
         <v>275</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C29" t="n">
         <v>135</v>
@@ -9533,13 +10373,16 @@
       <c r="I29" t="n">
         <v>143</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C30" t="n">
         <v>156</v>
@@ -9562,13 +10405,16 @@
       <c r="I30" t="n">
         <v>153</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C31" t="n">
         <v>424</v>
@@ -9591,13 +10437,16 @@
       <c r="I31" t="n">
         <v>399</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" t="n">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C32" t="n">
         <v>209</v>
@@ -9620,13 +10469,16 @@
       <c r="I32" t="n">
         <v>203</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C33" t="n">
         <v>104</v>
@@ -9649,13 +10501,16 @@
       <c r="I33" t="n">
         <v>98</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" t="n">
         <v>123</v>
@@ -9678,13 +10533,16 @@
       <c r="I34" t="n">
         <v>124</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C35" t="n">
         <v>283</v>
@@ -9707,13 +10565,16 @@
       <c r="I35" t="n">
         <v>257</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C36" t="n">
         <v>842</v>
@@ -9736,13 +10597,16 @@
       <c r="I36" t="n">
         <v>816</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" t="n">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C37" t="n">
         <v>672</v>
@@ -9765,13 +10629,16 @@
       <c r="I37" t="n">
         <v>615</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C38" t="n">
         <v>206</v>
@@ -9794,13 +10661,16 @@
       <c r="I38" t="n">
         <v>272</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C39" t="n">
         <v>338</v>
@@ -9823,13 +10693,16 @@
       <c r="I39" t="n">
         <v>740</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" t="n">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C40" t="n">
         <v>349</v>
@@ -9852,13 +10725,16 @@
       <c r="I40" t="n">
         <v>442</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" t="n">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C41" t="n">
         <v>271</v>
@@ -9881,13 +10757,16 @@
       <c r="I41" t="n">
         <v>252</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C42" t="n">
         <v>494</v>
@@ -9908,15 +10787,18 @@
         <v>303</v>
       </c>
       <c r="I42" t="n">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>219</v>
+      </c>
+      <c r="J42" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C43" t="n">
         <v>514</v>
@@ -9939,13 +10821,16 @@
       <c r="I43" t="n">
         <v>216</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" t="n">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C44" t="n">
         <v>252</v>
@@ -9968,13 +10853,16 @@
       <c r="I44" t="n">
         <v>676</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" t="n">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C45" t="n">
         <v>441</v>
@@ -9997,13 +10885,16 @@
       <c r="I45" t="n">
         <v>744</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" t="n">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C46" t="n">
         <v>1474</v>
@@ -10026,71 +10917,80 @@
       <c r="I46" t="n">
         <v>681</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" t="n">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" t="n">
+        <v>268</v>
+      </c>
+      <c r="D47" t="n">
+        <v>281</v>
+      </c>
+      <c r="E47" t="n">
+        <v>294</v>
+      </c>
+      <c r="F47" t="n">
+        <v>273</v>
+      </c>
+      <c r="G47" t="n">
+        <v>292</v>
+      </c>
+      <c r="H47" t="n">
+        <v>282</v>
+      </c>
+      <c r="I47" t="n">
+        <v>290</v>
+      </c>
+      <c r="J47" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
         <v>72</v>
       </c>
-      <c r="C47" t="n">
-        <v>262</v>
-      </c>
-      <c r="D47" t="n">
-        <v>274</v>
-      </c>
-      <c r="E47" t="n">
-        <v>287</v>
-      </c>
-      <c r="F47" t="n">
-        <v>267</v>
-      </c>
-      <c r="G47" t="n">
-        <v>283</v>
-      </c>
-      <c r="H47" t="n">
-        <v>273</v>
-      </c>
-      <c r="I47" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>71</v>
-      </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C48" t="n">
-        <v>1905</v>
+        <v>1899</v>
       </c>
       <c r="D48" t="n">
-        <v>1881</v>
+        <v>1874</v>
       </c>
       <c r="E48" t="n">
-        <v>1899</v>
+        <v>1892</v>
       </c>
       <c r="F48" t="n">
-        <v>1864</v>
+        <v>1858</v>
       </c>
       <c r="G48" t="n">
-        <v>1837</v>
+        <v>1828</v>
       </c>
       <c r="H48" t="n">
-        <v>1857</v>
+        <v>1848</v>
       </c>
       <c r="I48" t="n">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>1811</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C49" t="n">
         <v>527</v>
@@ -10113,13 +11013,16 @@
       <c r="I49" t="n">
         <v>345</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" t="n">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C50" t="n">
         <v>941</v>
@@ -10142,13 +11045,16 @@
       <c r="I50" t="n">
         <v>738</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" t="n">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C51" t="n">
         <v>699</v>
@@ -10171,10 +11077,13 @@
       <c r="I51" t="n">
         <v>1018</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" t="n">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B52" t="s"/>
       <c r="C52" t="s"/>
@@ -10184,6 +11093,7 @@
       <c r="G52" t="s"/>
       <c r="H52" t="s"/>
       <c r="I52" t="s"/>
+      <c r="J52" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_07b_ockovani.xlsx
+++ b/ZBP_07b_ockovani.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>trideni</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>4. 5. 2021</t>
+  </si>
+  <si>
+    <t>25. 5. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -263,10 +266,10 @@
     <t>Velké starosti</t>
   </si>
   <si>
-    <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, % respondentů celkově a ve skupinách, aktualizace 11. 5. 2021</t>
+    <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, % respondentů celkově a ve skupinách, aktualizace 1. 6. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, velikost dotázaného souboru celkově a ve skupinách, aktualizace 11. 5. 2021</t>
+    <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M302"/>
+  <dimension ref="A1:N302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,7 +652,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,16 +692,19 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -730,16 +736,19 @@
       <c r="M2" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
         <v>0.33</v>
@@ -771,16 +780,19 @@
       <c r="M3" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
         <v>0.23</v>
@@ -812,16 +824,19 @@
       <c r="M4" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
         <v>0.11</v>
@@ -853,16 +868,19 @@
       <c r="M5" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
         <v>0.12</v>
@@ -894,16 +912,19 @@
       <c r="M6" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
         <v>0.21</v>
@@ -935,16 +956,19 @@
       <c r="M7" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -976,16 +1000,19 @@
       <c r="M8" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
         <v>0.33</v>
@@ -1017,16 +1044,19 @@
       <c r="M9" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" t="n">
         <v>0.23</v>
@@ -1058,16 +1088,19 @@
       <c r="M10" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
         <v>0.09</v>
@@ -1099,16 +1132,19 @@
       <c r="M11" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
@@ -1140,16 +1176,19 @@
       <c r="M12" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
       </c>
       <c r="D13" t="n">
         <v>0.19</v>
@@ -1181,16 +1220,19 @@
       <c r="M13" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1222,16 +1264,19 @@
       <c r="M14" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
         <v>0.32</v>
@@ -1263,16 +1308,19 @@
       <c r="M15" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" t="n">
         <v>0.23</v>
@@ -1304,16 +1352,19 @@
       <c r="M16" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" t="n">
         <v>0.1</v>
@@ -1345,16 +1396,19 @@
       <c r="M17" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
         <v>0.11</v>
@@ -1386,16 +1440,19 @@
       <c r="M18" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
         <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
       </c>
       <c r="D19" t="n">
         <v>0.24</v>
@@ -1427,16 +1484,19 @@
       <c r="M19" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1468,16 +1528,19 @@
       <c r="M20" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
         <v>0.33</v>
@@ -1509,16 +1572,19 @@
       <c r="M21" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" t="n">
         <v>0.25</v>
@@ -1550,16 +1616,19 @@
       <c r="M22" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23" t="n">
         <v>0.12</v>
@@ -1591,16 +1660,19 @@
       <c r="M23" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" t="n">
         <v>0.11</v>
@@ -1632,16 +1704,19 @@
       <c r="M24" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
         <v>21</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>20</v>
       </c>
       <c r="D25" t="n">
         <v>0.19</v>
@@ -1673,16 +1748,19 @@
       <c r="M25" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1714,16 +1792,19 @@
       <c r="M26" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
         <v>0.32</v>
@@ -1755,16 +1836,19 @@
       <c r="M27" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" t="n">
         <v>0.23</v>
@@ -1796,16 +1880,19 @@
       <c r="M28" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29" t="n">
         <v>0.12</v>
@@ -1837,16 +1924,19 @@
       <c r="M29" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30" t="n">
         <v>0.12</v>
@@ -1878,16 +1968,19 @@
       <c r="M30" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D31" t="n">
         <v>0.21</v>
@@ -1919,16 +2012,19 @@
       <c r="M31" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1960,16 +2056,19 @@
       <c r="M32" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D33" t="n">
         <v>0.33</v>
@@ -2001,16 +2100,19 @@
       <c r="M33" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D34" t="n">
         <v>0.23</v>
@@ -2042,16 +2144,19 @@
       <c r="M34" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D35" t="n">
         <v>0.1</v>
@@ -2083,16 +2188,19 @@
       <c r="M35" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D36" t="n">
         <v>0.12</v>
@@ -2124,16 +2232,19 @@
       <c r="M36" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D37" t="n">
         <v>0.22</v>
@@ -2165,16 +2276,19 @@
       <c r="M37" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -2206,16 +2320,19 @@
       <c r="M38" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D39" t="n">
         <v>0.34</v>
@@ -2247,16 +2364,19 @@
       <c r="M39" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D40" t="n">
         <v>0.25</v>
@@ -2288,16 +2408,19 @@
       <c r="M40" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D41" t="n">
         <v>0.1</v>
@@ -2329,16 +2452,19 @@
       <c r="M41" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D42" t="n">
         <v>0.16</v>
@@ -2370,16 +2496,19 @@
       <c r="M42" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D43" t="n">
         <v>0.15</v>
@@ -2411,16 +2540,19 @@
       <c r="M43" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -2452,16 +2584,19 @@
       <c r="M44" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D45" t="n">
         <v>0.38</v>
@@ -2493,16 +2628,19 @@
       <c r="M45" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D46" t="n">
         <v>0.22</v>
@@ -2534,16 +2672,19 @@
       <c r="M46" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D47" t="n">
         <v>0.1</v>
@@ -2575,16 +2716,19 @@
       <c r="M47" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D48" t="n">
         <v>0.1</v>
@@ -2616,16 +2760,19 @@
       <c r="M48" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D49" t="n">
         <v>0.2</v>
@@ -2657,16 +2804,19 @@
       <c r="M49" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -2698,16 +2848,19 @@
       <c r="M50" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D51" t="n">
         <v>0.3</v>
@@ -2737,18 +2890,21 @@
         <v>0.26</v>
       </c>
       <c r="M51" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>0.25</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D52" t="n">
         <v>0.22</v>
@@ -2780,16 +2936,19 @@
       <c r="M52" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D53" t="n">
         <v>0.09</v>
@@ -2821,16 +2980,19 @@
       <c r="M53" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D54" t="n">
         <v>0.14</v>
@@ -2862,16 +3024,19 @@
       <c r="M54" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D55" t="n">
         <v>0.25</v>
@@ -2901,18 +3066,21 @@
         <v>0.16</v>
       </c>
       <c r="M55" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>0.15</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -2944,16 +3112,19 @@
       <c r="M56" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D57" t="n">
         <v>0.28</v>
@@ -2985,16 +3156,19 @@
       <c r="M57" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D58" t="n">
         <v>0.25</v>
@@ -3026,16 +3200,19 @@
       <c r="M58" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D59" t="n">
         <v>0.11</v>
@@ -3067,16 +3244,19 @@
       <c r="M59" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D60" t="n">
         <v>0.17</v>
@@ -3108,16 +3288,19 @@
       <c r="M60" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D61" t="n">
         <v>0.19</v>
@@ -3149,16 +3332,19 @@
       <c r="M61" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -3190,16 +3376,19 @@
       <c r="M62" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D63" t="n">
         <v>0.26</v>
@@ -3231,16 +3420,19 @@
       <c r="M63" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D64" t="n">
         <v>0.25</v>
@@ -3272,16 +3464,19 @@
       <c r="M64" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D65" t="n">
         <v>0.14</v>
@@ -3313,16 +3508,19 @@
       <c r="M65" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D66" t="n">
         <v>0.13</v>
@@ -3354,16 +3552,19 @@
       <c r="M66" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D67" t="n">
         <v>0.22</v>
@@ -3395,16 +3596,19 @@
       <c r="M67" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -3434,18 +3638,21 @@
         <v>0.3</v>
       </c>
       <c r="M68" t="n">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>0.62</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D69" t="n">
         <v>0.39</v>
@@ -3477,16 +3684,19 @@
       <c r="M69" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D70" t="n">
         <v>0.26</v>
@@ -3518,16 +3728,19 @@
       <c r="M70" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="N70" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D71" t="n">
         <v>0.12</v>
@@ -3559,16 +3772,19 @@
       <c r="M71" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="N71" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D72" t="n">
         <v>0.06</v>
@@ -3600,16 +3816,19 @@
       <c r="M72" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="N72" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D73" t="n">
         <v>0.17</v>
@@ -3639,18 +3858,21 @@
         <v>0.04</v>
       </c>
       <c r="M73" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>0.05</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -3682,16 +3904,19 @@
       <c r="M74" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="N74" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D75" t="n">
         <v>0.48</v>
@@ -3723,16 +3948,19 @@
       <c r="M75" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="N75" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D76" t="n">
         <v>0.23</v>
@@ -3764,16 +3992,19 @@
       <c r="M76" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="N76" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D77" t="n">
         <v>0.07000000000000001</v>
@@ -3805,16 +4036,19 @@
       <c r="M77" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="N77" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D78" t="n">
         <v>0.13</v>
@@ -3846,16 +4080,19 @@
       <c r="M78" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="N78" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D79" t="n">
         <v>0.09</v>
@@ -3887,16 +4124,19 @@
       <c r="M79" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="N79" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -3928,16 +4168,19 @@
       <c r="M80" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="N80" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D81" t="n">
         <v>0.39</v>
@@ -3969,16 +4212,19 @@
       <c r="M81" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="N81" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D82" t="n">
         <v>0.26</v>
@@ -4010,16 +4256,19 @@
       <c r="M82" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="N82" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D83" t="n">
         <v>0.09</v>
@@ -4051,16 +4300,19 @@
       <c r="M83" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="N83" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D84" t="n">
         <v>0.1</v>
@@ -4092,16 +4344,19 @@
       <c r="M84" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="N84" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D85" t="n">
         <v>0.16</v>
@@ -4133,16 +4388,19 @@
       <c r="M85" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="N85" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B86" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -4174,16 +4432,19 @@
       <c r="M86" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="N86" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B87" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D87" t="n">
         <v>0.27</v>
@@ -4215,16 +4476,19 @@
       <c r="M87" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="N87" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D88" t="n">
         <v>0.21</v>
@@ -4256,16 +4520,19 @@
       <c r="M88" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="N88" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D89" t="n">
         <v>0.13</v>
@@ -4297,16 +4564,19 @@
       <c r="M89" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="N89" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B90" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D90" t="n">
         <v>0.15</v>
@@ -4338,16 +4608,19 @@
       <c r="M90" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="N90" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D91" t="n">
         <v>0.24</v>
@@ -4379,16 +4652,19 @@
       <c r="M91" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="N91" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -4420,16 +4696,19 @@
       <c r="M92" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="N92" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D93" t="n">
         <v>0.33</v>
@@ -4461,16 +4740,19 @@
       <c r="M93" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="N93" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D94" t="n">
         <v>0.25</v>
@@ -4502,16 +4784,19 @@
       <c r="M94" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="N94" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D95" t="n">
         <v>0.11</v>
@@ -4543,16 +4828,19 @@
       <c r="M95" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="N95" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B96" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C96" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D96" t="n">
         <v>0.1</v>
@@ -4584,16 +4872,19 @@
       <c r="M96" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="N96" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B97" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D97" t="n">
         <v>0.21</v>
@@ -4625,16 +4916,19 @@
       <c r="M97" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="N97" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -4664,18 +4958,21 @@
         <v>0.06</v>
       </c>
       <c r="M98" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>0.12</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C99" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D99" t="n">
         <v>0.39</v>
@@ -4707,16 +5004,19 @@
       <c r="M99" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="N99" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D100" t="n">
         <v>0.26</v>
@@ -4748,16 +5048,19 @@
       <c r="M100" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="N100" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D101" t="n">
         <v>0.09</v>
@@ -4789,16 +5092,19 @@
       <c r="M101" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="N101" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B102" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C102" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D102" t="n">
         <v>0.11</v>
@@ -4830,16 +5136,19 @@
       <c r="M102" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="103" spans="1:13">
+      <c r="N102" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C103" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D103" t="n">
         <v>0.15</v>
@@ -4869,18 +5178,21 @@
         <v>0.12</v>
       </c>
       <c r="M103" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
+        <v>0.12</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -4910,18 +5222,21 @@
         <v>0.3</v>
       </c>
       <c r="M104" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+        <v>0.59</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C105" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D105" t="n">
         <v>0.42</v>
@@ -4953,16 +5268,19 @@
       <c r="M105" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="106" spans="1:13">
+      <c r="N105" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D106" t="n">
         <v>0.27</v>
@@ -4994,16 +5312,19 @@
       <c r="M106" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="107" spans="1:13">
+      <c r="N106" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C107" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D107" t="n">
         <v>0.07000000000000001</v>
@@ -5035,16 +5356,19 @@
       <c r="M107" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="108" spans="1:13">
+      <c r="N107" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C108" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D108" t="n">
         <v>0.09</v>
@@ -5076,16 +5400,19 @@
       <c r="M108" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="109" spans="1:13">
+      <c r="N108" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D109" t="n">
         <v>0.15</v>
@@ -5115,18 +5442,21 @@
         <v>0.05</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
+        <v>0.06</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C110" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -5158,16 +5488,19 @@
       <c r="M110" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="111" spans="1:13">
+      <c r="N110" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D111" t="n">
         <v>0.32</v>
@@ -5199,16 +5532,19 @@
       <c r="M111" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="112" spans="1:13">
+      <c r="N111" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D112" t="n">
         <v>0.2</v>
@@ -5240,16 +5576,19 @@
       <c r="M112" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="113" spans="1:13">
+      <c r="N112" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C113" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D113" t="n">
         <v>0.06</v>
@@ -5281,16 +5620,19 @@
       <c r="M113" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="114" spans="1:13">
+      <c r="N113" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C114" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D114" t="n">
         <v>0.22</v>
@@ -5322,16 +5664,19 @@
       <c r="M114" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="115" spans="1:13">
+      <c r="N114" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C115" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D115" t="n">
         <v>0.2</v>
@@ -5363,16 +5708,19 @@
       <c r="M115" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="116" spans="1:13">
+      <c r="N115" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C116" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -5404,16 +5752,19 @@
       <c r="M116" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="117" spans="1:13">
+      <c r="N116" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D117" t="n">
         <v>0.25</v>
@@ -5445,16 +5796,19 @@
       <c r="M117" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="118" spans="1:13">
+      <c r="N117" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C118" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D118" t="n">
         <v>0.2</v>
@@ -5486,16 +5840,19 @@
       <c r="M118" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="119" spans="1:13">
+      <c r="N118" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C119" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D119" t="n">
         <v>0.11</v>
@@ -5527,16 +5884,19 @@
       <c r="M119" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="120" spans="1:13">
+      <c r="N119" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C120" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D120" t="n">
         <v>0.11</v>
@@ -5568,16 +5928,19 @@
       <c r="M120" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="121" spans="1:13">
+      <c r="N120" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C121" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D121" t="n">
         <v>0.33</v>
@@ -5609,16 +5972,19 @@
       <c r="M121" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="122" spans="1:13">
+      <c r="N121" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B122" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C122" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -5650,16 +6016,19 @@
       <c r="M122" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="123" spans="1:13">
+      <c r="N122" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B123" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D123" t="n">
         <v>0.26</v>
@@ -5691,16 +6060,19 @@
       <c r="M123" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="124" spans="1:13">
+      <c r="N123" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B124" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C124" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D124" t="n">
         <v>0.23</v>
@@ -5732,16 +6104,19 @@
       <c r="M124" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="125" spans="1:13">
+      <c r="N124" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B125" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C125" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D125" t="n">
         <v>0.17</v>
@@ -5773,16 +6148,19 @@
       <c r="M125" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="126" spans="1:13">
+      <c r="N125" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B126" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C126" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D126" t="n">
         <v>0.13</v>
@@ -5814,16 +6192,19 @@
       <c r="M126" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="127" spans="1:13">
+      <c r="N126" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B127" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C127" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D127" t="n">
         <v>0.21</v>
@@ -5855,16 +6236,19 @@
       <c r="M127" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="128" spans="1:13">
+      <c r="N127" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C128" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -5896,16 +6280,19 @@
       <c r="M128" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="129" spans="1:13">
+      <c r="N128" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
       <c r="A129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B129" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C129" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D129" t="n">
         <v>0.34</v>
@@ -5937,16 +6324,19 @@
       <c r="M129" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="130" spans="1:13">
+      <c r="N129" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
       <c r="A130" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C130" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D130" t="n">
         <v>0.24</v>
@@ -5978,16 +6368,19 @@
       <c r="M130" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="131" spans="1:13">
+      <c r="N130" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
       <c r="A131" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C131" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D131" t="n">
         <v>0.12</v>
@@ -6019,16 +6412,19 @@
       <c r="M131" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="132" spans="1:13">
+      <c r="N131" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C132" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D132" t="n">
         <v>0.11</v>
@@ -6060,16 +6456,19 @@
       <c r="M132" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="133" spans="1:13">
+      <c r="N132" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C133" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D133" t="n">
         <v>0.19</v>
@@ -6101,16 +6500,19 @@
       <c r="M133" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="134" spans="1:13">
+      <c r="N133" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
       <c r="A134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C134" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -6140,18 +6542,21 @@
         <v>0.12</v>
       </c>
       <c r="M134" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13">
+        <v>0.26</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D135" t="n">
         <v>0.25</v>
@@ -6181,18 +6586,21 @@
         <v>0.25</v>
       </c>
       <c r="M135" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13">
+        <v>0.17</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
       <c r="A136" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B136" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C136" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D136" t="n">
         <v>0.24</v>
@@ -6224,16 +6632,19 @@
       <c r="M136" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="137" spans="1:13">
+      <c r="N136" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
       <c r="A137" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C137" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D137" t="n">
         <v>0.1</v>
@@ -6265,16 +6676,19 @@
       <c r="M137" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="138" spans="1:13">
+      <c r="N137" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
       <c r="A138" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B138" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C138" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D138" t="n">
         <v>0.16</v>
@@ -6306,16 +6720,19 @@
       <c r="M138" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="139" spans="1:13">
+      <c r="N138" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
       <c r="A139" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C139" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D139" t="n">
         <v>0.25</v>
@@ -6347,16 +6764,19 @@
       <c r="M139" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="140" spans="1:13">
+      <c r="N139" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
       <c r="A140" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B140" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C140" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -6388,16 +6808,19 @@
       <c r="M140" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="141" spans="1:13">
+      <c r="N140" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
       <c r="A141" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B141" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D141" t="n">
         <v>0.31</v>
@@ -6429,16 +6852,19 @@
       <c r="M141" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="142" spans="1:13">
+      <c r="N141" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
       <c r="A142" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B142" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D142" t="n">
         <v>0.22</v>
@@ -6470,16 +6896,19 @@
       <c r="M142" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="143" spans="1:13">
+      <c r="N142" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
       <c r="A143" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B143" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C143" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D143" t="n">
         <v>0.11</v>
@@ -6509,18 +6938,21 @@
         <v>0.11</v>
       </c>
       <c r="M143" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13">
+        <v>0.13</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
       <c r="A144" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B144" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C144" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D144" t="n">
         <v>0.13</v>
@@ -6552,16 +6984,19 @@
       <c r="M144" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="145" spans="1:13">
+      <c r="N144" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B145" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C145" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D145" t="n">
         <v>0.23</v>
@@ -6591,18 +7026,21 @@
         <v>0.15</v>
       </c>
       <c r="M145" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13">
+        <v>0.14</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
       <c r="A146" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B146" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C146" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
@@ -6634,16 +7072,19 @@
       <c r="M146" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="147" spans="1:13">
+      <c r="N146" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
       <c r="A147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B147" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C147" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D147" t="n">
         <v>0.42</v>
@@ -6675,16 +7116,19 @@
       <c r="M147" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="148" spans="1:13">
+      <c r="N147" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
       <c r="A148" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B148" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C148" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D148" t="n">
         <v>0.2</v>
@@ -6716,16 +7160,19 @@
       <c r="M148" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="149" spans="1:13">
+      <c r="N148" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
       <c r="A149" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B149" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C149" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D149" t="n">
         <v>0.1</v>
@@ -6757,16 +7204,19 @@
       <c r="M149" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="150" spans="1:13">
+      <c r="N149" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
       <c r="A150" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B150" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C150" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D150" t="n">
         <v>0.13</v>
@@ -6798,16 +7248,19 @@
       <c r="M150" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="151" spans="1:13">
+      <c r="N150" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
       <c r="A151" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B151" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C151" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D151" t="n">
         <v>0.15</v>
@@ -6839,16 +7292,19 @@
       <c r="M151" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="152" spans="1:13">
+      <c r="N151" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
       <c r="A152" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B152" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C152" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -6880,16 +7336,19 @@
       <c r="M152" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="153" spans="1:13">
+      <c r="N152" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
       <c r="A153" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B153" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D153" t="n">
         <v>0.34</v>
@@ -6921,16 +7380,19 @@
       <c r="M153" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="154" spans="1:13">
+      <c r="N153" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
       <c r="A154" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B154" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C154" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D154" t="n">
         <v>0.23</v>
@@ -6962,16 +7424,19 @@
       <c r="M154" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="155" spans="1:13">
+      <c r="N154" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
       <c r="A155" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B155" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C155" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D155" t="n">
         <v>0.1</v>
@@ -7003,16 +7468,19 @@
       <c r="M155" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="156" spans="1:13">
+      <c r="N155" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
       <c r="A156" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B156" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C156" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D156" t="n">
         <v>0.11</v>
@@ -7044,16 +7512,19 @@
       <c r="M156" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="157" spans="1:13">
+      <c r="N156" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
       <c r="A157" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B157" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C157" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D157" t="n">
         <v>0.22</v>
@@ -7085,16 +7556,19 @@
       <c r="M157" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="158" spans="1:13">
+      <c r="N157" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
       <c r="A158" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B158" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C158" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -7124,18 +7598,21 @@
         <v>0.08</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13">
+        <v>0.11</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
       <c r="A159" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B159" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C159" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D159" t="n">
         <v>0.26</v>
@@ -7165,18 +7642,21 @@
         <v>0.2</v>
       </c>
       <c r="M159" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13">
+        <v>0.2</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
       <c r="A160" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B160" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C160" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D160" t="n">
         <v>0.23</v>
@@ -7208,16 +7688,19 @@
       <c r="M160" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="161" spans="1:13">
+      <c r="N160" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
       <c r="A161" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B161" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C161" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D161" t="n">
         <v>0.09</v>
@@ -7249,16 +7732,19 @@
       <c r="M161" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="162" spans="1:13">
+      <c r="N161" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
       <c r="A162" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B162" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C162" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D162" t="n">
         <v>0.16</v>
@@ -7290,16 +7776,19 @@
       <c r="M162" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="163" spans="1:13">
+      <c r="N162" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
       <c r="A163" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B163" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C163" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D163" t="n">
         <v>0.26</v>
@@ -7331,16 +7820,19 @@
       <c r="M163" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="164" spans="1:13">
+      <c r="N163" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
       <c r="A164" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B164" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C164" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -7372,16 +7864,19 @@
       <c r="M164" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="165" spans="1:13">
+      <c r="N164" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
       <c r="A165" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B165" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C165" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D165" t="n">
         <v>0.32</v>
@@ -7413,16 +7908,19 @@
       <c r="M165" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="166" spans="1:13">
+      <c r="N165" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
       <c r="A166" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B166" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C166" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D166" t="n">
         <v>0.23</v>
@@ -7454,16 +7952,19 @@
       <c r="M166" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="167" spans="1:13">
+      <c r="N166" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
       <c r="A167" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B167" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C167" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D167" t="n">
         <v>0.1</v>
@@ -7493,18 +7994,21 @@
         <v>0.11</v>
       </c>
       <c r="M167" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13">
+        <v>0.14</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
       <c r="A168" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B168" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C168" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D168" t="n">
         <v>0.15</v>
@@ -7536,16 +8040,19 @@
       <c r="M168" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="169" spans="1:13">
+      <c r="N168" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
       <c r="A169" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B169" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C169" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D169" t="n">
         <v>0.2</v>
@@ -7575,18 +8082,21 @@
         <v>0.2</v>
       </c>
       <c r="M169" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13">
+        <v>0.17</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
       <c r="A170" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B170" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C170" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -7618,16 +8128,19 @@
       <c r="M170" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="171" spans="1:13">
+      <c r="N170" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
       <c r="A171" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B171" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C171" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D171" t="n">
         <v>0.37</v>
@@ -7659,16 +8172,19 @@
       <c r="M171" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="172" spans="1:13">
+      <c r="N171" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
       <c r="A172" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B172" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C172" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D172" t="n">
         <v>0.21</v>
@@ -7700,16 +8216,19 @@
       <c r="M172" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="173" spans="1:13">
+      <c r="N172" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
       <c r="A173" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B173" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C173" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D173" t="n">
         <v>0.1</v>
@@ -7741,16 +8260,19 @@
       <c r="M173" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="174" spans="1:13">
+      <c r="N173" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
       <c r="A174" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B174" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C174" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D174" t="n">
         <v>0.16</v>
@@ -7782,16 +8304,19 @@
       <c r="M174" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="175" spans="1:13">
+      <c r="N174" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
       <c r="A175" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B175" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C175" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D175" t="n">
         <v>0.16</v>
@@ -7823,16 +8348,19 @@
       <c r="M175" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="176" spans="1:13">
+      <c r="N175" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
       <c r="A176" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B176" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C176" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
@@ -7864,16 +8392,19 @@
       <c r="M176" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="177" spans="1:13">
+      <c r="N176" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14">
       <c r="A177" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B177" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C177" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D177" t="n">
         <v>0.35</v>
@@ -7905,16 +8436,19 @@
       <c r="M177" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="178" spans="1:13">
+      <c r="N177" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14">
       <c r="A178" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B178" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C178" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D178" t="n">
         <v>0.26</v>
@@ -7946,16 +8480,19 @@
       <c r="M178" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="179" spans="1:13">
+      <c r="N178" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14">
       <c r="A179" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B179" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C179" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D179" t="n">
         <v>0.14</v>
@@ -7987,16 +8524,19 @@
       <c r="M179" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="180" spans="1:13">
+      <c r="N179" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14">
       <c r="A180" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B180" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C180" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D180" t="n">
         <v>0.1</v>
@@ -8028,16 +8568,19 @@
       <c r="M180" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="181" spans="1:13">
+      <c r="N180" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14">
       <c r="A181" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B181" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C181" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D181" t="n">
         <v>0.15</v>
@@ -8069,16 +8612,19 @@
       <c r="M181" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="182" spans="1:13">
+      <c r="N181" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14">
       <c r="A182" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C182" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
@@ -8110,16 +8656,19 @@
       <c r="M182" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="183" spans="1:13">
+      <c r="N182" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14">
       <c r="A183" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B183" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C183" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D183" t="n">
         <v>0.24</v>
@@ -8151,16 +8700,19 @@
       <c r="M183" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="184" spans="1:13">
+      <c r="N183" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14">
       <c r="A184" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B184" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C184" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D184" t="n">
         <v>0.26</v>
@@ -8192,16 +8744,19 @@
       <c r="M184" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="185" spans="1:13">
+      <c r="N184" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14">
       <c r="A185" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B185" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C185" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D185" t="n">
         <v>0.11</v>
@@ -8233,16 +8788,19 @@
       <c r="M185" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="186" spans="1:13">
+      <c r="N185" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14">
       <c r="A186" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B186" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C186" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D186" t="n">
         <v>0.15</v>
@@ -8272,18 +8830,21 @@
         <v>0.08</v>
       </c>
       <c r="M186" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13">
+        <v>0.05</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14">
       <c r="A187" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B187" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C187" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D187" t="n">
         <v>0.24</v>
@@ -8313,18 +8874,21 @@
         <v>0.09</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13">
+        <v>0.09</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14">
       <c r="A188" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C188" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D188" t="n">
         <v>0</v>
@@ -8354,18 +8918,21 @@
         <v>0.3</v>
       </c>
       <c r="M188" t="n">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
       <c r="A189" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B189" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C189" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D189" t="n">
         <v>0.3</v>
@@ -8397,16 +8964,19 @@
       <c r="M189" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="190" spans="1:13">
+      <c r="N189" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14">
       <c r="A190" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B190" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C190" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D190" t="n">
         <v>0.22</v>
@@ -8438,16 +9008,19 @@
       <c r="M190" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="191" spans="1:13">
+      <c r="N190" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14">
       <c r="A191" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B191" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C191" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D191" t="n">
         <v>0.12</v>
@@ -8477,18 +9050,21 @@
         <v>0.11</v>
       </c>
       <c r="M191" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13">
+        <v>0.13</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14">
       <c r="A192" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B192" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C192" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D192" t="n">
         <v>0.1</v>
@@ -8520,16 +9096,19 @@
       <c r="M192" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="193" spans="1:13">
+      <c r="N192" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14">
       <c r="A193" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B193" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C193" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D193" t="n">
         <v>0.26</v>
@@ -8561,16 +9140,19 @@
       <c r="M193" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="194" spans="1:13">
+      <c r="N193" t="n">
+        <v>0.065</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14">
       <c r="A194" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B194" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C194" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -8602,16 +9184,19 @@
       <c r="M194" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="195" spans="1:13">
+      <c r="N194" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14">
       <c r="A195" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B195" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C195" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D195" t="n">
         <v>0.48</v>
@@ -8643,16 +9228,19 @@
       <c r="M195" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="196" spans="1:13">
+      <c r="N195" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14">
       <c r="A196" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B196" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C196" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D196" t="n">
         <v>0.19</v>
@@ -8684,16 +9272,19 @@
       <c r="M196" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="197" spans="1:13">
+      <c r="N196" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14">
       <c r="A197" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B197" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C197" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D197" t="n">
         <v>0.09</v>
@@ -8725,16 +9316,19 @@
       <c r="M197" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="198" spans="1:13">
+      <c r="N197" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14">
       <c r="A198" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B198" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C198" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D198" t="n">
         <v>0.1</v>
@@ -8766,16 +9360,19 @@
       <c r="M198" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="199" spans="1:13">
+      <c r="N198" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14">
       <c r="A199" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B199" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C199" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D199" t="n">
         <v>0.14</v>
@@ -8807,16 +9404,19 @@
       <c r="M199" t="n">
         <v>0.065</v>
       </c>
-    </row>
-    <row r="200" spans="1:13">
+      <c r="N199" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14">
       <c r="A200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B200" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C200" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
@@ -8848,16 +9448,19 @@
       <c r="M200" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="201" spans="1:13">
+      <c r="N200" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14">
       <c r="A201" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B201" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C201" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D201" t="n">
         <v>0.31</v>
@@ -8889,16 +9492,19 @@
       <c r="M201" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="202" spans="1:13">
+      <c r="N201" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14">
       <c r="A202" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B202" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C202" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D202" t="n">
         <v>0.25</v>
@@ -8930,16 +9536,19 @@
       <c r="M202" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="203" spans="1:13">
+      <c r="N202" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14">
       <c r="A203" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B203" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C203" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D203" t="n">
         <v>0.13</v>
@@ -8971,16 +9580,19 @@
       <c r="M203" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="204" spans="1:13">
+      <c r="N203" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14">
       <c r="A204" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B204" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C204" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D204" t="n">
         <v>0.09</v>
@@ -9012,16 +9624,19 @@
       <c r="M204" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="205" spans="1:13">
+      <c r="N204" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14">
       <c r="A205" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B205" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C205" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D205" t="n">
         <v>0.22</v>
@@ -9053,16 +9668,19 @@
       <c r="M205" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="206" spans="1:13">
+      <c r="N205" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14">
       <c r="A206" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B206" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C206" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D206" t="n">
         <v>0</v>
@@ -9094,16 +9712,19 @@
       <c r="M206" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="207" spans="1:13">
+      <c r="N206" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14">
       <c r="A207" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B207" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C207" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D207" t="n">
         <v>0.33</v>
@@ -9135,16 +9756,19 @@
       <c r="M207" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="208" spans="1:13">
+      <c r="N207" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14">
       <c r="A208" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B208" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C208" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D208" t="n">
         <v>0.22</v>
@@ -9176,16 +9800,19 @@
       <c r="M208" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="209" spans="1:13">
+      <c r="N208" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14">
       <c r="A209" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B209" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C209" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D209" t="n">
         <v>0.1</v>
@@ -9217,16 +9844,19 @@
       <c r="M209" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="210" spans="1:13">
+      <c r="N209" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14">
       <c r="A210" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B210" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C210" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D210" t="n">
         <v>0.13</v>
@@ -9258,16 +9888,19 @@
       <c r="M210" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="211" spans="1:13">
+      <c r="N210" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14">
       <c r="A211" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B211" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C211" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D211" t="n">
         <v>0.22</v>
@@ -9299,16 +9932,19 @@
       <c r="M211" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="212" spans="1:13">
+      <c r="N211" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14">
       <c r="A212" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B212" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C212" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D212" t="n">
         <v>0</v>
@@ -9340,16 +9976,19 @@
       <c r="M212" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="213" spans="1:13">
+      <c r="N212" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14">
       <c r="A213" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B213" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C213" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D213" t="n">
         <v>0.35</v>
@@ -9381,16 +10020,19 @@
       <c r="M213" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="214" spans="1:13">
+      <c r="N213" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14">
       <c r="A214" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B214" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C214" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D214" t="n">
         <v>0.24</v>
@@ -9420,18 +10062,21 @@
         <v>0.22</v>
       </c>
       <c r="M214" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13">
+        <v>0.19</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14">
       <c r="A215" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B215" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C215" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D215" t="n">
         <v>0.1</v>
@@ -9463,16 +10108,19 @@
       <c r="M215" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="216" spans="1:13">
+      <c r="N215" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14">
       <c r="A216" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B216" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C216" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D216" t="n">
         <v>0.14</v>
@@ -9504,16 +10152,19 @@
       <c r="M216" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="217" spans="1:13">
+      <c r="N216" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14">
       <c r="A217" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B217" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C217" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D217" t="n">
         <v>0.17</v>
@@ -9543,18 +10194,21 @@
         <v>0.09</v>
       </c>
       <c r="M217" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13">
+        <v>0.1</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14">
       <c r="A218" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B218" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C218" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D218" t="n">
         <v>0</v>
@@ -9586,16 +10240,19 @@
       <c r="M218" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="219" spans="1:13">
+      <c r="N218" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14">
       <c r="A219" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B219" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C219" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D219" t="n">
         <v>0.32</v>
@@ -9627,16 +10284,19 @@
       <c r="M219" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="220" spans="1:13">
+      <c r="N219" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14">
       <c r="A220" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B220" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C220" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D220" t="n">
         <v>0.29</v>
@@ -9668,16 +10328,19 @@
       <c r="M220" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="221" spans="1:13">
+      <c r="N220" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14">
       <c r="A221" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B221" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C221" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D221" t="n">
         <v>0.07000000000000001</v>
@@ -9709,16 +10372,19 @@
       <c r="M221" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="222" spans="1:13">
+      <c r="N221" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14">
       <c r="A222" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B222" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C222" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D222" t="n">
         <v>0.11</v>
@@ -9750,16 +10416,19 @@
       <c r="M222" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="223" spans="1:13">
+      <c r="N222" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14">
       <c r="A223" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B223" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C223" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D223" t="n">
         <v>0.21</v>
@@ -9791,16 +10460,19 @@
       <c r="M223" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="224" spans="1:13">
+      <c r="N223" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14">
       <c r="A224" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B224" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C224" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
@@ -9832,16 +10504,19 @@
       <c r="M224" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="225" spans="1:13">
+      <c r="N224" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14">
       <c r="A225" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B225" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C225" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D225" t="n">
         <v>0.4</v>
@@ -9871,18 +10546,21 @@
         <v>0.3</v>
       </c>
       <c r="M225" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13">
+        <v>0.18</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14">
       <c r="A226" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B226" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C226" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D226" t="n">
         <v>0.25</v>
@@ -9914,16 +10592,19 @@
       <c r="M226" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="227" spans="1:13">
+      <c r="N226" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14">
       <c r="A227" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B227" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C227" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D227" t="n">
         <v>0.08</v>
@@ -9955,16 +10636,19 @@
       <c r="M227" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="228" spans="1:13">
+      <c r="N227" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14">
       <c r="A228" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B228" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C228" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D228" t="n">
         <v>0.11</v>
@@ -9996,16 +10680,19 @@
       <c r="M228" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="229" spans="1:13">
+      <c r="N228" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14">
       <c r="A229" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B229" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C229" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D229" t="n">
         <v>0.16</v>
@@ -10035,18 +10722,21 @@
         <v>0.12</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13">
+        <v>0.09</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14">
       <c r="A230" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B230" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C230" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D230" t="n">
         <v>0</v>
@@ -10078,16 +10768,19 @@
       <c r="M230" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="231" spans="1:13">
+      <c r="N230" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14">
       <c r="A231" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B231" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C231" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D231" t="n">
         <v>0.38</v>
@@ -10119,16 +10812,19 @@
       <c r="M231" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="232" spans="1:13">
+      <c r="N231" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14">
       <c r="A232" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B232" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C232" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D232" t="n">
         <v>0.26</v>
@@ -10160,16 +10856,19 @@
       <c r="M232" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="233" spans="1:13">
+      <c r="N232" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14">
       <c r="A233" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B233" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C233" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D233" t="n">
         <v>0.11</v>
@@ -10201,16 +10900,19 @@
       <c r="M233" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="234" spans="1:13">
+      <c r="N233" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14">
       <c r="A234" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B234" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C234" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D234" t="n">
         <v>0.11</v>
@@ -10242,16 +10944,19 @@
       <c r="M234" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="235" spans="1:13">
+      <c r="N234" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14">
       <c r="A235" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B235" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C235" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D235" t="n">
         <v>0.14</v>
@@ -10283,16 +10988,19 @@
       <c r="M235" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="236" spans="1:13">
+      <c r="N235" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14">
       <c r="A236" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B236" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C236" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D236" t="n">
         <v>0</v>
@@ -10324,16 +11032,19 @@
       <c r="M236" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="237" spans="1:13">
+      <c r="N236" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14">
       <c r="A237" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B237" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C237" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D237" t="n">
         <v>0.24</v>
@@ -10365,16 +11076,19 @@
       <c r="M237" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="238" spans="1:13">
+      <c r="N237" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14">
       <c r="A238" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B238" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C238" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D238" t="n">
         <v>0.25</v>
@@ -10404,18 +11118,21 @@
         <v>0.22</v>
       </c>
       <c r="M238" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13">
+        <v>0.18</v>
+      </c>
+      <c r="N238" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14">
       <c r="A239" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B239" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C239" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D239" t="n">
         <v>0.14</v>
@@ -10445,18 +11162,21 @@
         <v>0.12</v>
       </c>
       <c r="M239" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13">
+        <v>0.1</v>
+      </c>
+      <c r="N239" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14">
       <c r="A240" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B240" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C240" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D240" t="n">
         <v>0.11</v>
@@ -10488,16 +11208,19 @@
       <c r="M240" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="241" spans="1:13">
+      <c r="N240" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14">
       <c r="A241" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B241" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C241" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D241" t="n">
         <v>0.26</v>
@@ -10527,18 +11250,21 @@
         <v>0.16</v>
       </c>
       <c r="M241" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13">
+        <v>0.13</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14">
       <c r="A242" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B242" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C242" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D242" t="n">
         <v>0</v>
@@ -10570,16 +11296,19 @@
       <c r="M242" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="243" spans="1:13">
+      <c r="N242" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14">
       <c r="A243" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B243" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C243" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D243" t="n">
         <v>0.4</v>
@@ -10611,16 +11340,19 @@
       <c r="M243" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="244" spans="1:13">
+      <c r="N243" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14">
       <c r="A244" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B244" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C244" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D244" t="n">
         <v>0.22</v>
@@ -10652,16 +11384,19 @@
       <c r="M244" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="245" spans="1:13">
+      <c r="N244" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14">
       <c r="A245" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B245" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C245" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D245" t="n">
         <v>0.12</v>
@@ -10693,16 +11428,19 @@
       <c r="M245" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="246" spans="1:13">
+      <c r="N245" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14">
       <c r="A246" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B246" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C246" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D246" t="n">
         <v>0.11</v>
@@ -10734,16 +11472,19 @@
       <c r="M246" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="247" spans="1:13">
+      <c r="N246" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14">
       <c r="A247" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B247" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C247" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D247" t="n">
         <v>0.15</v>
@@ -10775,16 +11516,19 @@
       <c r="M247" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="248" spans="1:13">
+      <c r="N247" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14">
       <c r="A248" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B248" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C248" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D248" t="n">
         <v>0</v>
@@ -10816,16 +11560,19 @@
       <c r="M248" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="249" spans="1:13">
+      <c r="N248" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14">
       <c r="A249" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B249" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C249" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D249" t="n">
         <v>0.23</v>
@@ -10857,16 +11604,19 @@
       <c r="M249" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="250" spans="1:13">
+      <c r="N249" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14">
       <c r="A250" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B250" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C250" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D250" t="n">
         <v>0.23</v>
@@ -10898,16 +11648,19 @@
       <c r="M250" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="251" spans="1:13">
+      <c r="N250" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14">
       <c r="A251" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B251" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C251" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D251" t="n">
         <v>0.07000000000000001</v>
@@ -10939,16 +11692,19 @@
       <c r="M251" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="252" spans="1:13">
+      <c r="N251" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14">
       <c r="A252" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B252" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C252" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D252" t="n">
         <v>0.17</v>
@@ -10980,16 +11736,19 @@
       <c r="M252" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="253" spans="1:13">
+      <c r="N252" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14">
       <c r="A253" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B253" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C253" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D253" t="n">
         <v>0.3</v>
@@ -11021,16 +11780,19 @@
       <c r="M253" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="254" spans="1:13">
+      <c r="N253" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14">
       <c r="A254" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B254" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C254" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D254" t="n">
         <v>0</v>
@@ -11062,16 +11824,19 @@
       <c r="M254" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="255" spans="1:13">
+      <c r="N254" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14">
       <c r="A255" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B255" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C255" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D255" t="n">
         <v>0.38</v>
@@ -11103,16 +11868,19 @@
       <c r="M255" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="256" spans="1:13">
+      <c r="N255" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14">
       <c r="A256" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B256" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C256" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D256" t="n">
         <v>0.23</v>
@@ -11144,16 +11912,19 @@
       <c r="M256" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="257" spans="1:13">
+      <c r="N256" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14">
       <c r="A257" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B257" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C257" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D257" t="n">
         <v>0.07000000000000001</v>
@@ -11185,16 +11956,19 @@
       <c r="M257" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="258" spans="1:13">
+      <c r="N257" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14">
       <c r="A258" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B258" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C258" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D258" t="n">
         <v>0.17</v>
@@ -11226,16 +12000,19 @@
       <c r="M258" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="259" spans="1:13">
+      <c r="N258" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14">
       <c r="A259" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B259" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C259" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D259" t="n">
         <v>0.15</v>
@@ -11267,16 +12044,19 @@
       <c r="M259" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="260" spans="1:13">
+      <c r="N259" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14">
       <c r="A260" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B260" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C260" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D260" t="n">
         <v>0</v>
@@ -11306,18 +12086,21 @@
         <v>0.16</v>
       </c>
       <c r="M260" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13">
+        <v>0.3</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14">
       <c r="A261" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B261" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C261" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D261" t="n">
         <v>0.33</v>
@@ -11349,16 +12132,19 @@
       <c r="M261" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="262" spans="1:13">
+      <c r="N261" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14">
       <c r="A262" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B262" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C262" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D262" t="n">
         <v>0.28</v>
@@ -11390,16 +12176,19 @@
       <c r="M262" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="263" spans="1:13">
+      <c r="N262" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14">
       <c r="A263" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B263" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C263" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D263" t="n">
         <v>0.09</v>
@@ -11431,16 +12220,19 @@
       <c r="M263" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="264" spans="1:13">
+      <c r="N263" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14">
       <c r="A264" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B264" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C264" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D264" t="n">
         <v>0.13</v>
@@ -11472,16 +12264,19 @@
       <c r="M264" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="265" spans="1:13">
+      <c r="N264" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14">
       <c r="A265" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B265" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C265" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D265" t="n">
         <v>0.17</v>
@@ -11511,18 +12306,21 @@
         <v>0.09</v>
       </c>
       <c r="M265" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N265" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:14">
       <c r="A266" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B266" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C266" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D266" t="n">
         <v>0</v>
@@ -11554,16 +12352,19 @@
       <c r="M266" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="267" spans="1:13">
+      <c r="N266" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14">
       <c r="A267" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B267" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C267" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D267" t="n">
         <v>0.32</v>
@@ -11595,16 +12396,19 @@
       <c r="M267" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="268" spans="1:13">
+      <c r="N267" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14">
       <c r="A268" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B268" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C268" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D268" t="n">
         <v>0.22</v>
@@ -11636,16 +12440,19 @@
       <c r="M268" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="269" spans="1:13">
+      <c r="N268" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14">
       <c r="A269" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B269" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C269" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D269" t="n">
         <v>0.12</v>
@@ -11677,16 +12484,19 @@
       <c r="M269" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="270" spans="1:13">
+      <c r="N269" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14">
       <c r="A270" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B270" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C270" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D270" t="n">
         <v>0.11</v>
@@ -11718,16 +12528,19 @@
       <c r="M270" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="271" spans="1:13">
+      <c r="N270" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14">
       <c r="A271" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B271" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C271" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D271" t="n">
         <v>0.23</v>
@@ -11759,16 +12572,19 @@
       <c r="M271" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="272" spans="1:13">
+      <c r="N271" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14">
       <c r="A272" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B272" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C272" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D272" t="n">
         <v>0</v>
@@ -11800,16 +12616,19 @@
       <c r="M272" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="273" spans="1:13">
+      <c r="N272" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14">
       <c r="A273" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B273" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C273" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D273" t="n">
         <v>0.27</v>
@@ -11841,16 +12660,19 @@
       <c r="M273" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="274" spans="1:13">
+      <c r="N273" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14">
       <c r="A274" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B274" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C274" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D274" t="n">
         <v>0.4</v>
@@ -11882,16 +12704,19 @@
       <c r="M274" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="275" spans="1:13">
+      <c r="N274" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14">
       <c r="A275" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B275" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C275" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D275" t="n">
         <v>0</v>
@@ -11923,16 +12748,19 @@
       <c r="M275" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="276" spans="1:13">
+      <c r="N275" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14">
       <c r="A276" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B276" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C276" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D276" t="n">
         <v>0.16</v>
@@ -11964,16 +12792,19 @@
       <c r="M276" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="277" spans="1:13">
+      <c r="N276" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14">
       <c r="A277" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B277" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C277" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D277" t="n">
         <v>0.17</v>
@@ -12005,16 +12836,19 @@
       <c r="M277" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="278" spans="1:13">
+      <c r="N277" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14">
       <c r="A278" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B278" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C278" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D278" t="n">
         <v>0</v>
@@ -12046,16 +12880,19 @@
       <c r="M278" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="279" spans="1:13">
+      <c r="N278" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14">
       <c r="A279" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B279" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C279" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D279" t="n">
         <v>0.33</v>
@@ -12085,18 +12922,21 @@
         <v>0.28</v>
       </c>
       <c r="M279" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13">
+        <v>0.18</v>
+      </c>
+      <c r="N279" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14">
       <c r="A280" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B280" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C280" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D280" t="n">
         <v>0.23</v>
@@ -12128,16 +12968,19 @@
       <c r="M280" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="281" spans="1:13">
+      <c r="N280" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14">
       <c r="A281" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B281" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C281" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D281" t="n">
         <v>0.11</v>
@@ -12169,16 +13012,19 @@
       <c r="M281" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="282" spans="1:13">
+      <c r="N281" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14">
       <c r="A282" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B282" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C282" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D282" t="n">
         <v>0.12</v>
@@ -12210,16 +13056,19 @@
       <c r="M282" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="283" spans="1:13">
+      <c r="N282" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14">
       <c r="A283" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B283" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C283" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D283" t="n">
         <v>0.21</v>
@@ -12249,18 +13098,21 @@
         <v>0.14</v>
       </c>
       <c r="M283" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N283" t="n">
         <v>0.13</v>
       </c>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:14">
       <c r="A284" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B284" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C284" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D284" t="n">
         <v>0</v>
@@ -12292,16 +13144,19 @@
       <c r="M284" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="285" spans="1:13">
+      <c r="N284" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14">
       <c r="A285" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B285" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C285" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D285" t="n">
         <v>0.26</v>
@@ -12333,16 +13188,19 @@
       <c r="M285" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="286" spans="1:13">
+      <c r="N285" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14">
       <c r="A286" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B286" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C286" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D286" t="n">
         <v>0.19</v>
@@ -12374,16 +13232,19 @@
       <c r="M286" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="287" spans="1:13">
+      <c r="N286" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14">
       <c r="A287" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B287" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C287" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D287" t="n">
         <v>0.08</v>
@@ -12415,16 +13276,19 @@
       <c r="M287" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="288" spans="1:13">
+      <c r="N287" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14">
       <c r="A288" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B288" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C288" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D288" t="n">
         <v>0.15</v>
@@ -12456,16 +13320,19 @@
       <c r="M288" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="289" spans="1:13">
+      <c r="N288" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14">
       <c r="A289" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B289" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C289" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D289" t="n">
         <v>0.32</v>
@@ -12497,16 +13364,19 @@
       <c r="M289" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="290" spans="1:13">
+      <c r="N289" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14">
       <c r="A290" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B290" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C290" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D290" t="n">
         <v>0</v>
@@ -12538,16 +13408,19 @@
       <c r="M290" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="291" spans="1:13">
+      <c r="N290" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14">
       <c r="A291" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B291" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C291" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D291" t="n">
         <v>0.32</v>
@@ -12579,16 +13452,19 @@
       <c r="M291" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="292" spans="1:13">
+      <c r="N291" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14">
       <c r="A292" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B292" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C292" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D292" t="n">
         <v>0.26</v>
@@ -12618,18 +13494,21 @@
         <v>0.21</v>
       </c>
       <c r="M292" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="293" spans="1:13">
+        <v>0.19</v>
+      </c>
+      <c r="N292" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14">
       <c r="A293" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B293" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C293" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D293" t="n">
         <v>0.12</v>
@@ -12661,16 +13540,19 @@
       <c r="M293" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="294" spans="1:13">
+      <c r="N293" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14">
       <c r="A294" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B294" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C294" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D294" t="n">
         <v>0.12</v>
@@ -12702,16 +13584,19 @@
       <c r="M294" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="295" spans="1:13">
+      <c r="N294" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14">
       <c r="A295" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B295" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C295" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D295" t="n">
         <v>0.18</v>
@@ -12741,18 +13626,21 @@
         <v>0.12</v>
       </c>
       <c r="M295" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13">
+        <v>0.1</v>
+      </c>
+      <c r="N295" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14">
       <c r="A296" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B296" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C296" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D296" t="n">
         <v>0</v>
@@ -12784,16 +13672,19 @@
       <c r="M296" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="297" spans="1:13">
+      <c r="N296" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14">
       <c r="A297" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B297" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C297" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D297" t="n">
         <v>0.39</v>
@@ -12825,16 +13716,19 @@
       <c r="M297" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="298" spans="1:13">
+      <c r="N297" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14">
       <c r="A298" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B298" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C298" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D298" t="n">
         <v>0.24</v>
@@ -12866,16 +13760,19 @@
       <c r="M298" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="299" spans="1:13">
+      <c r="N298" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14">
       <c r="A299" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B299" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C299" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D299" t="n">
         <v>0.12</v>
@@ -12907,16 +13804,19 @@
       <c r="M299" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="300" spans="1:13">
+      <c r="N299" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14">
       <c r="A300" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B300" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C300" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D300" t="n">
         <v>0.12</v>
@@ -12948,16 +13848,19 @@
       <c r="M300" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="301" spans="1:13">
+      <c r="N300" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14">
       <c r="A301" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B301" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C301" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D301" t="n">
         <v>0.13</v>
@@ -12989,10 +13892,13 @@
       <c r="M301" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="302" spans="1:13">
+      <c r="N301" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14">
       <c r="A302" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -13006,7 +13912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13014,7 +13920,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13051,13 +13957,16 @@
       <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
         <v>2167</v>
@@ -13087,15 +13996,18 @@
         <v>2059</v>
       </c>
       <c r="L2" t="n">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>2029</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
         <v>509</v>
@@ -13125,15 +14037,18 @@
         <v>491</v>
       </c>
       <c r="L3" t="n">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>480</v>
+      </c>
+      <c r="M3" t="n">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
         <v>799</v>
@@ -13163,15 +14078,18 @@
         <v>754</v>
       </c>
       <c r="L4" t="n">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>749</v>
+      </c>
+      <c r="M4" t="n">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
         <v>859</v>
@@ -13201,15 +14119,18 @@
         <v>814</v>
       </c>
       <c r="L5" t="n">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>800</v>
+      </c>
+      <c r="M5" t="n">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
         <v>989</v>
@@ -13239,15 +14160,18 @@
         <v>953</v>
       </c>
       <c r="L6" t="n">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>935</v>
+      </c>
+      <c r="M6" t="n">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
         <v>744</v>
@@ -13277,15 +14201,18 @@
         <v>702</v>
       </c>
       <c r="L7" t="n">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>693</v>
+      </c>
+      <c r="M7" t="n">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
         <v>434</v>
@@ -13315,15 +14242,18 @@
         <v>404</v>
       </c>
       <c r="L8" t="n">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>401</v>
+      </c>
+      <c r="M8" t="n">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="n">
         <v>504</v>
@@ -13353,15 +14283,18 @@
         <v>490</v>
       </c>
       <c r="L9" t="n">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>477</v>
+      </c>
+      <c r="M9" t="n">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
         <v>510</v>
@@ -13391,15 +14324,18 @@
         <v>482</v>
       </c>
       <c r="L10" t="n">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>479</v>
+      </c>
+      <c r="M10" t="n">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="n">
         <v>294</v>
@@ -13429,15 +14365,18 @@
         <v>273</v>
       </c>
       <c r="L11" t="n">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>274</v>
+      </c>
+      <c r="M11" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="n">
         <v>486</v>
@@ -13469,13 +14408,16 @@
       <c r="L12" t="n">
         <v>459</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" t="n">
         <v>234</v>
@@ -13505,15 +14447,18 @@
         <v>220</v>
       </c>
       <c r="L13" t="n">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>214</v>
+      </c>
+      <c r="M13" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="n">
         <v>139</v>
@@ -13543,15 +14488,18 @@
         <v>130</v>
       </c>
       <c r="L14" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>126</v>
+      </c>
+      <c r="M14" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" t="n">
         <v>1036</v>
@@ -13581,15 +14529,18 @@
         <v>997</v>
       </c>
       <c r="L15" t="n">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>980</v>
+      </c>
+      <c r="M15" t="n">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" t="n">
         <v>1131</v>
@@ -13619,15 +14570,18 @@
         <v>1062</v>
       </c>
       <c r="L16" t="n">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>1049</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" t="n">
         <v>255</v>
@@ -13659,13 +14613,16 @@
       <c r="L17" t="n">
         <v>246</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" t="n">
         <v>404</v>
@@ -13697,13 +14654,16 @@
       <c r="L18" t="n">
         <v>378</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" t="n">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" t="n">
         <v>377</v>
@@ -13733,15 +14693,18 @@
         <v>364</v>
       </c>
       <c r="L19" t="n">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>356</v>
+      </c>
+      <c r="M19" t="n">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" t="n">
         <v>254</v>
@@ -13773,13 +14736,16 @@
       <c r="L20" t="n">
         <v>235</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" t="n">
         <v>395</v>
@@ -13809,15 +14775,18 @@
         <v>372</v>
       </c>
       <c r="L21" t="n">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>371</v>
+      </c>
+      <c r="M21" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" t="n">
         <v>482</v>
@@ -13847,15 +14816,18 @@
         <v>450</v>
       </c>
       <c r="L22" t="n">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>443</v>
+      </c>
+      <c r="M22" t="n">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" t="n">
         <v>1142</v>
@@ -13885,15 +14857,18 @@
         <v>1084</v>
       </c>
       <c r="L23" t="n">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1058</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" t="n">
         <v>507</v>
@@ -13923,15 +14898,18 @@
         <v>462</v>
       </c>
       <c r="L24" t="n">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>466</v>
+      </c>
+      <c r="M24" t="n">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" t="n">
         <v>240</v>
@@ -13963,13 +14941,16 @@
       <c r="L25" t="n">
         <v>238</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" t="n">
         <v>278</v>
@@ -13999,15 +14980,18 @@
         <v>272</v>
       </c>
       <c r="L26" t="n">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>267</v>
+      </c>
+      <c r="M26" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C27" t="n">
         <v>718</v>
@@ -14039,13 +15023,16 @@
       <c r="L27" t="n">
         <v>668</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" t="n">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28" t="n">
         <v>298</v>
@@ -14075,15 +15062,18 @@
         <v>270</v>
       </c>
       <c r="L28" t="n">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>277</v>
+      </c>
+      <c r="M28" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" t="n">
         <v>135</v>
@@ -14115,13 +15105,16 @@
       <c r="L29" t="n">
         <v>142</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C30" t="n">
         <v>156</v>
@@ -14153,13 +15146,16 @@
       <c r="L30" t="n">
         <v>143</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C31" t="n">
         <v>424</v>
@@ -14189,15 +15185,18 @@
         <v>394</v>
       </c>
       <c r="L31" t="n">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>390</v>
+      </c>
+      <c r="M31" t="n">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C32" t="n">
         <v>209</v>
@@ -14227,15 +15226,18 @@
         <v>192</v>
       </c>
       <c r="L32" t="n">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>189</v>
+      </c>
+      <c r="M32" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C33" t="n">
         <v>104</v>
@@ -14267,13 +15269,16 @@
       <c r="L33" t="n">
         <v>96</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C34" t="n">
         <v>123</v>
@@ -14303,15 +15308,18 @@
         <v>127</v>
       </c>
       <c r="L34" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>124</v>
+      </c>
+      <c r="M34" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C35" t="n">
         <v>283</v>
@@ -14341,15 +15349,18 @@
         <v>246</v>
       </c>
       <c r="L35" t="n">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>239</v>
+      </c>
+      <c r="M35" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C36" t="n">
         <v>842</v>
@@ -14381,13 +15392,16 @@
       <c r="L36" t="n">
         <v>736</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36" t="n">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C37" t="n">
         <v>672</v>
@@ -14417,15 +15431,18 @@
         <v>645</v>
       </c>
       <c r="L37" t="n">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>681</v>
+      </c>
+      <c r="M37" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C38" t="n">
         <v>206</v>
@@ -14455,15 +15472,18 @@
         <v>252</v>
       </c>
       <c r="L38" t="n">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>253</v>
+      </c>
+      <c r="M38" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C39" t="n">
         <v>338</v>
@@ -14493,15 +15513,18 @@
         <v>586</v>
       </c>
       <c r="L39" t="n">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>451</v>
+      </c>
+      <c r="M39" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C40" t="n">
         <v>349</v>
@@ -14533,13 +15556,16 @@
       <c r="L40" t="n">
         <v>351</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40" t="n">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C41" t="n">
         <v>271</v>
@@ -14569,15 +15595,18 @@
         <v>302</v>
       </c>
       <c r="L41" t="n">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>338</v>
+      </c>
+      <c r="M41" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C42" t="n">
         <v>494</v>
@@ -14607,15 +15636,18 @@
         <v>228</v>
       </c>
       <c r="L42" t="n">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>303</v>
+      </c>
+      <c r="M42" t="n">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C43" t="n">
         <v>514</v>
@@ -14642,18 +15674,21 @@
         <v>267</v>
       </c>
       <c r="K43" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L43" t="n">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>375</v>
+      </c>
+      <c r="M43" t="n">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C44" t="n">
         <v>252</v>
@@ -14683,15 +15718,18 @@
         <v>554</v>
       </c>
       <c r="L44" t="n">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>493</v>
+      </c>
+      <c r="M44" t="n">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C45" t="n">
         <v>441</v>
@@ -14721,15 +15759,18 @@
         <v>690</v>
       </c>
       <c r="L45" t="n">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>591</v>
+      </c>
+      <c r="M45" t="n">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C46" t="n">
         <v>1474</v>
@@ -14761,13 +15802,16 @@
       <c r="L46" t="n">
         <v>945</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46" t="n">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C47" t="n">
         <v>15</v>
@@ -14799,13 +15843,16 @@
       <c r="L47" t="n">
         <v>292</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47" t="n">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C48" t="n">
         <v>2152</v>
@@ -14835,15 +15882,18 @@
         <v>1771</v>
       </c>
       <c r="L48" t="n">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>1737</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C49" t="n">
         <v>527</v>
@@ -14875,13 +15925,16 @@
       <c r="L49" t="n">
         <v>461</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C50" t="n">
         <v>941</v>
@@ -14913,13 +15966,16 @@
       <c r="L50" t="n">
         <v>831</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50" t="n">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C51" t="n">
         <v>699</v>
@@ -14949,12 +16005,15 @@
         <v>908</v>
       </c>
       <c r="L51" t="n">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>737</v>
+      </c>
+      <c r="M51" t="n">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s"/>
       <c r="C52" t="s"/>
@@ -14967,6 +16026,7 @@
       <c r="J52" t="s"/>
       <c r="K52" t="s"/>
       <c r="L52" t="s"/>
+      <c r="M52" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_07b_ockovani.xlsx
+++ b/ZBP_07b_ockovani.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>trideni</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>25. 5. 2021</t>
+  </si>
+  <si>
+    <t>22. 6. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -266,10 +269,10 @@
     <t>Velké starosti</t>
   </si>
   <si>
-    <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, % respondentů celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, % respondentů celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, velikost dotázaného souboru celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -644,7 +647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N302"/>
+  <dimension ref="A1:O302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,7 +655,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,16 +698,19 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -739,16 +745,19 @@
       <c r="N2" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
         <v>0.33</v>
@@ -783,16 +792,19 @@
       <c r="N3" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
         <v>0.23</v>
@@ -827,16 +839,19 @@
       <c r="N4" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
         <v>0.11</v>
@@ -871,16 +886,19 @@
       <c r="N5" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
         <v>0.12</v>
@@ -915,16 +933,19 @@
       <c r="N6" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
         <v>0.21</v>
@@ -959,16 +980,19 @@
       <c r="N7" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1003,16 +1027,19 @@
       <c r="N8" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="n">
         <v>0.33</v>
@@ -1047,16 +1074,19 @@
       <c r="N9" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
         <v>0.23</v>
@@ -1091,16 +1121,19 @@
       <c r="N10" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
         <v>0.09</v>
@@ -1135,16 +1168,19 @@
       <c r="N11" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
@@ -1179,16 +1215,19 @@
       <c r="N12" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
       </c>
       <c r="D13" t="n">
         <v>0.19</v>
@@ -1223,16 +1262,19 @@
       <c r="N13" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1267,16 +1309,19 @@
       <c r="N14" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" t="n">
         <v>0.32</v>
@@ -1311,16 +1356,19 @@
       <c r="N15" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" t="n">
         <v>0.23</v>
@@ -1355,16 +1403,19 @@
       <c r="N16" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
         <v>0.1</v>
@@ -1399,16 +1450,19 @@
       <c r="N17" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" t="n">
         <v>0.11</v>
@@ -1443,16 +1497,19 @@
       <c r="N18" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
         <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
       </c>
       <c r="D19" t="n">
         <v>0.24</v>
@@ -1487,16 +1544,19 @@
       <c r="N19" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1531,16 +1591,19 @@
       <c r="N20" t="n">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21" t="n">
         <v>0.33</v>
@@ -1575,16 +1638,19 @@
       <c r="N21" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
         <v>0.25</v>
@@ -1619,16 +1685,19 @@
       <c r="N22" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
         <v>0.12</v>
@@ -1663,16 +1732,19 @@
       <c r="N23" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D24" t="n">
         <v>0.11</v>
@@ -1707,16 +1779,19 @@
       <c r="N24" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
         <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
       </c>
       <c r="D25" t="n">
         <v>0.19</v>
@@ -1751,16 +1826,19 @@
       <c r="N25" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25" t="n">
+        <v>0.055</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1795,16 +1873,19 @@
       <c r="N26" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D27" t="n">
         <v>0.32</v>
@@ -1839,16 +1920,19 @@
       <c r="N27" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28" t="n">
         <v>0.23</v>
@@ -1883,16 +1967,19 @@
       <c r="N28" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29" t="n">
         <v>0.12</v>
@@ -1927,16 +2014,19 @@
       <c r="N29" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D30" t="n">
         <v>0.12</v>
@@ -1971,16 +2061,19 @@
       <c r="N30" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D31" t="n">
         <v>0.21</v>
@@ -2015,16 +2108,19 @@
       <c r="N31" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -2059,16 +2155,19 @@
       <c r="N32" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33" t="n">
         <v>0.33</v>
@@ -2103,16 +2202,19 @@
       <c r="N33" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D34" t="n">
         <v>0.23</v>
@@ -2147,16 +2249,19 @@
       <c r="N34" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D35" t="n">
         <v>0.1</v>
@@ -2191,16 +2296,19 @@
       <c r="N35" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D36" t="n">
         <v>0.12</v>
@@ -2235,16 +2343,19 @@
       <c r="N36" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D37" t="n">
         <v>0.22</v>
@@ -2279,16 +2390,19 @@
       <c r="N37" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -2323,16 +2437,19 @@
       <c r="N38" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D39" t="n">
         <v>0.34</v>
@@ -2367,16 +2484,19 @@
       <c r="N39" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="O39" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D40" t="n">
         <v>0.25</v>
@@ -2411,16 +2531,19 @@
       <c r="N40" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="O40" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D41" t="n">
         <v>0.1</v>
@@ -2455,16 +2578,19 @@
       <c r="N41" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="O41" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D42" t="n">
         <v>0.16</v>
@@ -2499,16 +2625,19 @@
       <c r="N42" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="O42" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D43" t="n">
         <v>0.15</v>
@@ -2543,16 +2672,19 @@
       <c r="N43" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="O43" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -2587,16 +2719,19 @@
       <c r="N44" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="O44" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D45" t="n">
         <v>0.38</v>
@@ -2631,16 +2766,19 @@
       <c r="N45" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="O45" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D46" t="n">
         <v>0.22</v>
@@ -2675,16 +2813,19 @@
       <c r="N46" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="O46" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D47" t="n">
         <v>0.1</v>
@@ -2719,16 +2860,19 @@
       <c r="N47" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="O47" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D48" t="n">
         <v>0.1</v>
@@ -2763,16 +2907,19 @@
       <c r="N48" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="O48" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D49" t="n">
         <v>0.2</v>
@@ -2807,16 +2954,19 @@
       <c r="N49" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="O49" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -2851,16 +3001,19 @@
       <c r="N50" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="O50" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D51" t="n">
         <v>0.3</v>
@@ -2895,16 +3048,19 @@
       <c r="N51" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="O51" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D52" t="n">
         <v>0.22</v>
@@ -2939,16 +3095,19 @@
       <c r="N52" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="O52" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D53" t="n">
         <v>0.09</v>
@@ -2983,16 +3142,19 @@
       <c r="N53" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="O53" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D54" t="n">
         <v>0.14</v>
@@ -3027,16 +3189,19 @@
       <c r="N54" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="O54" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D55" t="n">
         <v>0.25</v>
@@ -3071,16 +3236,19 @@
       <c r="N55" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="O55" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -3115,16 +3283,19 @@
       <c r="N56" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="57" spans="1:14">
+      <c r="O56" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D57" t="n">
         <v>0.28</v>
@@ -3159,16 +3330,19 @@
       <c r="N57" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="58" spans="1:14">
+      <c r="O57" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D58" t="n">
         <v>0.25</v>
@@ -3203,16 +3377,19 @@
       <c r="N58" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="O58" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D59" t="n">
         <v>0.11</v>
@@ -3247,16 +3424,19 @@
       <c r="N59" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="60" spans="1:14">
+      <c r="O59" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D60" t="n">
         <v>0.17</v>
@@ -3291,16 +3471,19 @@
       <c r="N60" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="O60" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D61" t="n">
         <v>0.19</v>
@@ -3335,16 +3518,19 @@
       <c r="N61" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="O61" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -3379,16 +3565,19 @@
       <c r="N62" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="63" spans="1:14">
+      <c r="O62" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D63" t="n">
         <v>0.26</v>
@@ -3423,16 +3612,19 @@
       <c r="N63" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="64" spans="1:14">
+      <c r="O63" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D64" t="n">
         <v>0.25</v>
@@ -3467,16 +3659,19 @@
       <c r="N64" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="65" spans="1:14">
+      <c r="O64" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D65" t="n">
         <v>0.14</v>
@@ -3511,16 +3706,19 @@
       <c r="N65" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="66" spans="1:14">
+      <c r="O65" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D66" t="n">
         <v>0.13</v>
@@ -3555,16 +3753,19 @@
       <c r="N66" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="67" spans="1:14">
+      <c r="O66" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D67" t="n">
         <v>0.22</v>
@@ -3599,16 +3800,19 @@
       <c r="N67" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="68" spans="1:14">
+      <c r="O67" t="n">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -3643,16 +3847,19 @@
       <c r="N68" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="69" spans="1:14">
+      <c r="O68" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D69" t="n">
         <v>0.39</v>
@@ -3687,16 +3894,19 @@
       <c r="N69" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="70" spans="1:14">
+      <c r="O69" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D70" t="n">
         <v>0.26</v>
@@ -3731,16 +3941,19 @@
       <c r="N70" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="71" spans="1:14">
+      <c r="O70" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D71" t="n">
         <v>0.12</v>
@@ -3775,16 +3988,19 @@
       <c r="N71" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="72" spans="1:14">
+      <c r="O71" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D72" t="n">
         <v>0.06</v>
@@ -3819,16 +4035,19 @@
       <c r="N72" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="73" spans="1:14">
+      <c r="O72" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D73" t="n">
         <v>0.17</v>
@@ -3863,16 +4082,19 @@
       <c r="N73" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="74" spans="1:14">
+      <c r="O73" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -3907,16 +4129,19 @@
       <c r="N74" t="n">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="75" spans="1:14">
+      <c r="O74" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D75" t="n">
         <v>0.48</v>
@@ -3951,16 +4176,19 @@
       <c r="N75" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="76" spans="1:14">
+      <c r="O75" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D76" t="n">
         <v>0.23</v>
@@ -3995,16 +4223,19 @@
       <c r="N76" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="77" spans="1:14">
+      <c r="O76" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D77" t="n">
         <v>0.07000000000000001</v>
@@ -4039,16 +4270,19 @@
       <c r="N77" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="78" spans="1:14">
+      <c r="O77" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D78" t="n">
         <v>0.13</v>
@@ -4083,16 +4317,19 @@
       <c r="N78" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="79" spans="1:14">
+      <c r="O78" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D79" t="n">
         <v>0.09</v>
@@ -4127,16 +4364,19 @@
       <c r="N79" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="80" spans="1:14">
+      <c r="O79" t="n">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -4171,16 +4411,19 @@
       <c r="N80" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="81" spans="1:14">
+      <c r="O80" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D81" t="n">
         <v>0.39</v>
@@ -4215,16 +4458,19 @@
       <c r="N81" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="82" spans="1:14">
+      <c r="O81" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B82" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D82" t="n">
         <v>0.26</v>
@@ -4259,16 +4505,19 @@
       <c r="N82" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="83" spans="1:14">
+      <c r="O82" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D83" t="n">
         <v>0.09</v>
@@ -4303,16 +4552,19 @@
       <c r="N83" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="84" spans="1:14">
+      <c r="O83" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D84" t="n">
         <v>0.1</v>
@@ -4347,16 +4599,19 @@
       <c r="N84" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="85" spans="1:14">
+      <c r="O84" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D85" t="n">
         <v>0.16</v>
@@ -4391,16 +4646,19 @@
       <c r="N85" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="86" spans="1:14">
+      <c r="O85" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -4435,16 +4693,19 @@
       <c r="N86" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="87" spans="1:14">
+      <c r="O86" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D87" t="n">
         <v>0.27</v>
@@ -4479,16 +4740,19 @@
       <c r="N87" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="88" spans="1:14">
+      <c r="O87" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D88" t="n">
         <v>0.21</v>
@@ -4523,16 +4787,19 @@
       <c r="N88" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="89" spans="1:14">
+      <c r="O88" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D89" t="n">
         <v>0.13</v>
@@ -4567,16 +4834,19 @@
       <c r="N89" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="90" spans="1:14">
+      <c r="O89" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D90" t="n">
         <v>0.15</v>
@@ -4611,16 +4881,19 @@
       <c r="N90" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="91" spans="1:14">
+      <c r="O90" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D91" t="n">
         <v>0.24</v>
@@ -4655,16 +4928,19 @@
       <c r="N91" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="92" spans="1:14">
+      <c r="O91" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -4699,16 +4975,19 @@
       <c r="N92" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="93" spans="1:14">
+      <c r="O92" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D93" t="n">
         <v>0.33</v>
@@ -4743,16 +5022,19 @@
       <c r="N93" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="94" spans="1:14">
+      <c r="O93" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C94" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D94" t="n">
         <v>0.25</v>
@@ -4787,16 +5069,19 @@
       <c r="N94" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="95" spans="1:14">
+      <c r="O94" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D95" t="n">
         <v>0.11</v>
@@ -4831,16 +5116,19 @@
       <c r="N95" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="96" spans="1:14">
+      <c r="O95" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D96" t="n">
         <v>0.1</v>
@@ -4875,16 +5163,19 @@
       <c r="N96" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="97" spans="1:14">
+      <c r="O96" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C97" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D97" t="n">
         <v>0.21</v>
@@ -4919,16 +5210,19 @@
       <c r="N97" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="98" spans="1:14">
+      <c r="O97" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -4963,16 +5257,19 @@
       <c r="N98" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="99" spans="1:14">
+      <c r="O98" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D99" t="n">
         <v>0.39</v>
@@ -5007,16 +5304,19 @@
       <c r="N99" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="100" spans="1:14">
+      <c r="O99" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C100" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D100" t="n">
         <v>0.26</v>
@@ -5051,16 +5351,19 @@
       <c r="N100" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="101" spans="1:14">
+      <c r="O100" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C101" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D101" t="n">
         <v>0.09</v>
@@ -5095,16 +5398,19 @@
       <c r="N101" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="102" spans="1:14">
+      <c r="O101" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C102" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D102" t="n">
         <v>0.11</v>
@@ -5139,16 +5445,19 @@
       <c r="N102" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="103" spans="1:14">
+      <c r="O102" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C103" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D103" t="n">
         <v>0.15</v>
@@ -5183,16 +5492,19 @@
       <c r="N103" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="104" spans="1:14">
+      <c r="O103" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -5227,16 +5539,19 @@
       <c r="N104" t="n">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="105" spans="1:14">
+      <c r="O104" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D105" t="n">
         <v>0.42</v>
@@ -5271,16 +5586,19 @@
       <c r="N105" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="106" spans="1:14">
+      <c r="O105" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C106" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D106" t="n">
         <v>0.27</v>
@@ -5315,16 +5633,19 @@
       <c r="N106" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="107" spans="1:14">
+      <c r="O106" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D107" t="n">
         <v>0.07000000000000001</v>
@@ -5359,16 +5680,19 @@
       <c r="N107" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="108" spans="1:14">
+      <c r="O107" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D108" t="n">
         <v>0.09</v>
@@ -5403,16 +5727,19 @@
       <c r="N108" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="109" spans="1:14">
+      <c r="O108" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C109" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D109" t="n">
         <v>0.15</v>
@@ -5447,16 +5774,19 @@
       <c r="N109" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="110" spans="1:14">
+      <c r="O109" t="n">
+        <v>0.065</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -5491,16 +5821,19 @@
       <c r="N110" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="111" spans="1:14">
+      <c r="O110" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C111" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D111" t="n">
         <v>0.32</v>
@@ -5535,16 +5868,19 @@
       <c r="N111" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="112" spans="1:14">
+      <c r="O111" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C112" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D112" t="n">
         <v>0.2</v>
@@ -5579,16 +5915,19 @@
       <c r="N112" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="113" spans="1:14">
+      <c r="O112" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C113" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D113" t="n">
         <v>0.06</v>
@@ -5623,16 +5962,19 @@
       <c r="N113" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="114" spans="1:14">
+      <c r="O113" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D114" t="n">
         <v>0.22</v>
@@ -5667,16 +6009,19 @@
       <c r="N114" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="115" spans="1:14">
+      <c r="O114" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C115" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D115" t="n">
         <v>0.2</v>
@@ -5711,16 +6056,19 @@
       <c r="N115" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="116" spans="1:14">
+      <c r="O115" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -5755,16 +6103,19 @@
       <c r="N116" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="117" spans="1:14">
+      <c r="O116" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
       <c r="A117" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C117" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D117" t="n">
         <v>0.25</v>
@@ -5799,16 +6150,19 @@
       <c r="N117" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="118" spans="1:14">
+      <c r="O117" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B118" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C118" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D118" t="n">
         <v>0.2</v>
@@ -5843,16 +6197,19 @@
       <c r="N118" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="119" spans="1:14">
+      <c r="O118" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
       <c r="A119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C119" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D119" t="n">
         <v>0.11</v>
@@ -5887,16 +6244,19 @@
       <c r="N119" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="120" spans="1:14">
+      <c r="O119" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
       <c r="A120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C120" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D120" t="n">
         <v>0.11</v>
@@ -5931,16 +6291,19 @@
       <c r="N120" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="121" spans="1:14">
+      <c r="O120" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
       <c r="A121" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C121" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D121" t="n">
         <v>0.33</v>
@@ -5975,16 +6338,19 @@
       <c r="N121" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="122" spans="1:14">
+      <c r="O121" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
       <c r="A122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -6019,16 +6385,19 @@
       <c r="N122" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="123" spans="1:14">
+      <c r="O122" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
       <c r="A123" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C123" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D123" t="n">
         <v>0.26</v>
@@ -6063,16 +6432,19 @@
       <c r="N123" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="124" spans="1:14">
+      <c r="O123" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
       <c r="A124" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C124" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D124" t="n">
         <v>0.23</v>
@@ -6107,16 +6479,19 @@
       <c r="N124" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="125" spans="1:14">
+      <c r="O124" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
       <c r="A125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D125" t="n">
         <v>0.17</v>
@@ -6151,16 +6526,19 @@
       <c r="N125" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="126" spans="1:14">
+      <c r="O125" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
       <c r="A126" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C126" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D126" t="n">
         <v>0.13</v>
@@ -6195,16 +6573,19 @@
       <c r="N126" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="O126" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
       <c r="A127" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C127" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D127" t="n">
         <v>0.21</v>
@@ -6239,16 +6620,19 @@
       <c r="N127" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="128" spans="1:14">
+      <c r="O127" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
       <c r="A128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B128" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -6283,16 +6667,19 @@
       <c r="N128" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="129" spans="1:14">
+      <c r="O128" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B129" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C129" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D129" t="n">
         <v>0.34</v>
@@ -6327,16 +6714,19 @@
       <c r="N129" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="130" spans="1:14">
+      <c r="O129" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B130" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C130" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D130" t="n">
         <v>0.24</v>
@@ -6371,16 +6761,19 @@
       <c r="N130" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="131" spans="1:14">
+      <c r="O130" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C131" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D131" t="n">
         <v>0.12</v>
@@ -6415,16 +6808,19 @@
       <c r="N131" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="132" spans="1:14">
+      <c r="O131" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C132" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D132" t="n">
         <v>0.11</v>
@@ -6459,16 +6855,19 @@
       <c r="N132" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="133" spans="1:14">
+      <c r="O132" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C133" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D133" t="n">
         <v>0.19</v>
@@ -6503,16 +6902,19 @@
       <c r="N133" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="134" spans="1:14">
+      <c r="O133" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -6547,16 +6949,19 @@
       <c r="N134" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="135" spans="1:14">
+      <c r="O134" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B135" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C135" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D135" t="n">
         <v>0.25</v>
@@ -6591,16 +6996,19 @@
       <c r="N135" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="136" spans="1:14">
+      <c r="O135" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B136" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C136" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D136" t="n">
         <v>0.24</v>
@@ -6635,16 +7043,19 @@
       <c r="N136" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="137" spans="1:14">
+      <c r="O136" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C137" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D137" t="n">
         <v>0.1</v>
@@ -6679,16 +7090,19 @@
       <c r="N137" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="138" spans="1:14">
+      <c r="O137" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B138" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C138" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D138" t="n">
         <v>0.16</v>
@@ -6723,16 +7137,19 @@
       <c r="N138" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="139" spans="1:14">
+      <c r="O138" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
       <c r="A139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B139" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C139" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D139" t="n">
         <v>0.25</v>
@@ -6767,16 +7184,19 @@
       <c r="N139" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="140" spans="1:14">
+      <c r="O139" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B140" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -6811,16 +7231,19 @@
       <c r="N140" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="141" spans="1:14">
+      <c r="O140" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B141" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C141" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D141" t="n">
         <v>0.31</v>
@@ -6855,16 +7278,19 @@
       <c r="N141" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="142" spans="1:14">
+      <c r="O141" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B142" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C142" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D142" t="n">
         <v>0.22</v>
@@ -6899,16 +7325,19 @@
       <c r="N142" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="143" spans="1:14">
+      <c r="O142" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B143" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C143" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D143" t="n">
         <v>0.11</v>
@@ -6943,16 +7372,19 @@
       <c r="N143" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="144" spans="1:14">
+      <c r="O143" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B144" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C144" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D144" t="n">
         <v>0.13</v>
@@ -6987,16 +7419,19 @@
       <c r="N144" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="145" spans="1:14">
+      <c r="O144" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B145" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C145" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D145" t="n">
         <v>0.23</v>
@@ -7031,16 +7466,19 @@
       <c r="N145" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="146" spans="1:14">
+      <c r="O145" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B146" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C146" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
@@ -7075,16 +7513,19 @@
       <c r="N146" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="147" spans="1:14">
+      <c r="O146" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B147" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C147" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D147" t="n">
         <v>0.42</v>
@@ -7119,16 +7560,19 @@
       <c r="N147" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="148" spans="1:14">
+      <c r="O147" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B148" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C148" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D148" t="n">
         <v>0.2</v>
@@ -7163,16 +7607,19 @@
       <c r="N148" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="149" spans="1:14">
+      <c r="O148" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B149" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C149" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D149" t="n">
         <v>0.1</v>
@@ -7207,16 +7654,19 @@
       <c r="N149" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="150" spans="1:14">
+      <c r="O149" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B150" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C150" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D150" t="n">
         <v>0.13</v>
@@ -7251,16 +7701,19 @@
       <c r="N150" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="151" spans="1:14">
+      <c r="O150" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B151" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C151" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D151" t="n">
         <v>0.15</v>
@@ -7295,16 +7748,19 @@
       <c r="N151" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="152" spans="1:14">
+      <c r="O151" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B152" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C152" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -7339,16 +7795,19 @@
       <c r="N152" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="153" spans="1:14">
+      <c r="O152" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B153" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C153" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D153" t="n">
         <v>0.34</v>
@@ -7383,16 +7842,19 @@
       <c r="N153" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="154" spans="1:14">
+      <c r="O153" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B154" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C154" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D154" t="n">
         <v>0.23</v>
@@ -7427,16 +7889,19 @@
       <c r="N154" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="155" spans="1:14">
+      <c r="O154" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B155" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C155" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D155" t="n">
         <v>0.1</v>
@@ -7471,16 +7936,19 @@
       <c r="N155" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="156" spans="1:14">
+      <c r="O155" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B156" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C156" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D156" t="n">
         <v>0.11</v>
@@ -7515,16 +7983,19 @@
       <c r="N156" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="157" spans="1:14">
+      <c r="O156" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B157" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C157" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D157" t="n">
         <v>0.22</v>
@@ -7559,16 +8030,19 @@
       <c r="N157" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="158" spans="1:14">
+      <c r="O157" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B158" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C158" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -7603,16 +8077,19 @@
       <c r="N158" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="159" spans="1:14">
+      <c r="O158" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
       <c r="A159" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B159" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C159" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D159" t="n">
         <v>0.26</v>
@@ -7647,16 +8124,19 @@
       <c r="N159" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="160" spans="1:14">
+      <c r="O159" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
       <c r="A160" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B160" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C160" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D160" t="n">
         <v>0.23</v>
@@ -7691,16 +8171,19 @@
       <c r="N160" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="161" spans="1:14">
+      <c r="O160" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
       <c r="A161" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B161" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C161" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D161" t="n">
         <v>0.09</v>
@@ -7735,16 +8218,19 @@
       <c r="N161" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="162" spans="1:14">
+      <c r="O161" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
       <c r="A162" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B162" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C162" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D162" t="n">
         <v>0.16</v>
@@ -7779,16 +8265,19 @@
       <c r="N162" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="163" spans="1:14">
+      <c r="O162" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
       <c r="A163" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B163" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C163" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D163" t="n">
         <v>0.26</v>
@@ -7823,16 +8312,19 @@
       <c r="N163" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="164" spans="1:14">
+      <c r="O163" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
       <c r="A164" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B164" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C164" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -7867,16 +8359,19 @@
       <c r="N164" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="165" spans="1:14">
+      <c r="O164" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
       <c r="A165" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B165" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C165" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D165" t="n">
         <v>0.32</v>
@@ -7911,16 +8406,19 @@
       <c r="N165" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="166" spans="1:14">
+      <c r="O165" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
       <c r="A166" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B166" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C166" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D166" t="n">
         <v>0.23</v>
@@ -7955,16 +8453,19 @@
       <c r="N166" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="167" spans="1:14">
+      <c r="O166" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
       <c r="A167" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B167" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C167" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D167" t="n">
         <v>0.1</v>
@@ -7999,16 +8500,19 @@
       <c r="N167" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="168" spans="1:14">
+      <c r="O167" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
       <c r="A168" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B168" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C168" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D168" t="n">
         <v>0.15</v>
@@ -8043,16 +8547,19 @@
       <c r="N168" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="169" spans="1:14">
+      <c r="O168" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
       <c r="A169" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B169" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C169" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D169" t="n">
         <v>0.2</v>
@@ -8087,16 +8594,19 @@
       <c r="N169" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="170" spans="1:14">
+      <c r="O169" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
       <c r="A170" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B170" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C170" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -8131,16 +8641,19 @@
       <c r="N170" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="171" spans="1:14">
+      <c r="O170" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
       <c r="A171" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B171" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C171" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D171" t="n">
         <v>0.37</v>
@@ -8175,16 +8688,19 @@
       <c r="N171" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="172" spans="1:14">
+      <c r="O171" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
       <c r="A172" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B172" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C172" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D172" t="n">
         <v>0.21</v>
@@ -8219,16 +8735,19 @@
       <c r="N172" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="173" spans="1:14">
+      <c r="O172" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
       <c r="A173" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B173" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C173" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D173" t="n">
         <v>0.1</v>
@@ -8263,16 +8782,19 @@
       <c r="N173" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="174" spans="1:14">
+      <c r="O173" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
       <c r="A174" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B174" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C174" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D174" t="n">
         <v>0.16</v>
@@ -8307,16 +8829,19 @@
       <c r="N174" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="175" spans="1:14">
+      <c r="O174" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
       <c r="A175" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B175" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C175" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D175" t="n">
         <v>0.16</v>
@@ -8351,16 +8876,19 @@
       <c r="N175" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="176" spans="1:14">
+      <c r="O175" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B176" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C176" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
@@ -8395,16 +8923,19 @@
       <c r="N176" t="n">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="177" spans="1:14">
+      <c r="O176" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15">
       <c r="A177" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B177" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C177" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D177" t="n">
         <v>0.35</v>
@@ -8439,16 +8970,19 @@
       <c r="N177" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="178" spans="1:14">
+      <c r="O177" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15">
       <c r="A178" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B178" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C178" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D178" t="n">
         <v>0.26</v>
@@ -8483,16 +9017,19 @@
       <c r="N178" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="179" spans="1:14">
+      <c r="O178" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15">
       <c r="A179" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B179" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C179" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D179" t="n">
         <v>0.14</v>
@@ -8527,16 +9064,19 @@
       <c r="N179" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="180" spans="1:14">
+      <c r="O179" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15">
       <c r="A180" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B180" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C180" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D180" t="n">
         <v>0.1</v>
@@ -8571,16 +9111,19 @@
       <c r="N180" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="181" spans="1:14">
+      <c r="O180" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15">
       <c r="A181" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C181" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D181" t="n">
         <v>0.15</v>
@@ -8615,16 +9158,19 @@
       <c r="N181" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="182" spans="1:14">
+      <c r="O181" t="n">
+        <v>0.065</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15">
       <c r="A182" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B182" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C182" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
@@ -8659,16 +9205,19 @@
       <c r="N182" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="183" spans="1:14">
+      <c r="O182" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15">
       <c r="A183" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C183" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D183" t="n">
         <v>0.24</v>
@@ -8703,16 +9252,19 @@
       <c r="N183" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="184" spans="1:14">
+      <c r="O183" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15">
       <c r="A184" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B184" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C184" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D184" t="n">
         <v>0.26</v>
@@ -8747,16 +9299,19 @@
       <c r="N184" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="185" spans="1:14">
+      <c r="O184" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15">
       <c r="A185" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B185" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C185" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D185" t="n">
         <v>0.11</v>
@@ -8791,16 +9346,19 @@
       <c r="N185" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="186" spans="1:14">
+      <c r="O185" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15">
       <c r="A186" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B186" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C186" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D186" t="n">
         <v>0.15</v>
@@ -8835,16 +9393,19 @@
       <c r="N186" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="O186" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15">
       <c r="A187" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C187" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D187" t="n">
         <v>0.24</v>
@@ -8879,16 +9440,19 @@
       <c r="N187" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="O187" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15">
       <c r="A188" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B188" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C188" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D188" t="n">
         <v>0</v>
@@ -8923,16 +9487,19 @@
       <c r="N188" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="O188" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15">
       <c r="A189" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B189" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C189" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D189" t="n">
         <v>0.3</v>
@@ -8967,16 +9534,19 @@
       <c r="N189" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="190" spans="1:14">
+      <c r="O189" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15">
       <c r="A190" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B190" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C190" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D190" t="n">
         <v>0.22</v>
@@ -9011,16 +9581,19 @@
       <c r="N190" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="191" spans="1:14">
+      <c r="O190" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15">
       <c r="A191" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B191" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C191" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D191" t="n">
         <v>0.12</v>
@@ -9055,16 +9628,19 @@
       <c r="N191" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="192" spans="1:14">
+      <c r="O191" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15">
       <c r="A192" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B192" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C192" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D192" t="n">
         <v>0.1</v>
@@ -9099,16 +9675,19 @@
       <c r="N192" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="193" spans="1:14">
+      <c r="O192" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15">
       <c r="A193" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B193" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C193" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D193" t="n">
         <v>0.26</v>
@@ -9143,16 +9722,19 @@
       <c r="N193" t="n">
         <v>0.065</v>
       </c>
-    </row>
-    <row r="194" spans="1:14">
+      <c r="O193" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15">
       <c r="A194" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B194" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C194" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -9187,16 +9769,19 @@
       <c r="N194" t="n">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="195" spans="1:14">
+      <c r="O194" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15">
       <c r="A195" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B195" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C195" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D195" t="n">
         <v>0.48</v>
@@ -9231,16 +9816,19 @@
       <c r="N195" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="196" spans="1:14">
+      <c r="O195" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15">
       <c r="A196" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B196" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C196" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D196" t="n">
         <v>0.19</v>
@@ -9275,16 +9863,19 @@
       <c r="N196" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="197" spans="1:14">
+      <c r="O196" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15">
       <c r="A197" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B197" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C197" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D197" t="n">
         <v>0.09</v>
@@ -9319,16 +9910,19 @@
       <c r="N197" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="198" spans="1:14">
+      <c r="O197" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15">
       <c r="A198" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B198" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C198" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D198" t="n">
         <v>0.1</v>
@@ -9363,16 +9957,19 @@
       <c r="N198" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="199" spans="1:14">
+      <c r="O198" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15">
       <c r="A199" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B199" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C199" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D199" t="n">
         <v>0.14</v>
@@ -9407,16 +10004,19 @@
       <c r="N199" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="200" spans="1:14">
+      <c r="O199" t="n">
+        <v>0.065</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15">
       <c r="A200" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B200" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C200" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
@@ -9451,16 +10051,19 @@
       <c r="N200" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="201" spans="1:14">
+      <c r="O200" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15">
       <c r="A201" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B201" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C201" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D201" t="n">
         <v>0.31</v>
@@ -9495,16 +10098,19 @@
       <c r="N201" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="202" spans="1:14">
+      <c r="O201" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15">
       <c r="A202" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B202" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C202" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D202" t="n">
         <v>0.25</v>
@@ -9539,16 +10145,19 @@
       <c r="N202" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="203" spans="1:14">
+      <c r="O202" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15">
       <c r="A203" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B203" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C203" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D203" t="n">
         <v>0.13</v>
@@ -9583,16 +10192,19 @@
       <c r="N203" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="204" spans="1:14">
+      <c r="O203" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15">
       <c r="A204" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B204" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C204" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D204" t="n">
         <v>0.09</v>
@@ -9627,16 +10239,19 @@
       <c r="N204" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="205" spans="1:14">
+      <c r="O204" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15">
       <c r="A205" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B205" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C205" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D205" t="n">
         <v>0.22</v>
@@ -9671,16 +10286,19 @@
       <c r="N205" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="206" spans="1:14">
+      <c r="O205" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15">
       <c r="A206" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B206" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C206" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D206" t="n">
         <v>0</v>
@@ -9715,16 +10333,19 @@
       <c r="N206" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="207" spans="1:14">
+      <c r="O206" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15">
       <c r="A207" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B207" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C207" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D207" t="n">
         <v>0.33</v>
@@ -9759,16 +10380,19 @@
       <c r="N207" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="208" spans="1:14">
+      <c r="O207" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15">
       <c r="A208" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B208" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C208" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D208" t="n">
         <v>0.22</v>
@@ -9803,16 +10427,19 @@
       <c r="N208" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="209" spans="1:14">
+      <c r="O208" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15">
       <c r="A209" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B209" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C209" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D209" t="n">
         <v>0.1</v>
@@ -9847,16 +10474,19 @@
       <c r="N209" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="210" spans="1:14">
+      <c r="O209" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15">
       <c r="A210" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B210" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C210" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D210" t="n">
         <v>0.13</v>
@@ -9891,16 +10521,19 @@
       <c r="N210" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="211" spans="1:14">
+      <c r="O210" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15">
       <c r="A211" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B211" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C211" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D211" t="n">
         <v>0.22</v>
@@ -9935,16 +10568,19 @@
       <c r="N211" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="212" spans="1:14">
+      <c r="O211" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15">
       <c r="A212" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B212" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C212" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D212" t="n">
         <v>0</v>
@@ -9979,16 +10615,19 @@
       <c r="N212" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="213" spans="1:14">
+      <c r="O212" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15">
       <c r="A213" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B213" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C213" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D213" t="n">
         <v>0.35</v>
@@ -10023,16 +10662,19 @@
       <c r="N213" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="214" spans="1:14">
+      <c r="O213" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15">
       <c r="A214" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B214" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C214" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D214" t="n">
         <v>0.24</v>
@@ -10067,16 +10709,19 @@
       <c r="N214" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="215" spans="1:14">
+      <c r="O214" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15">
       <c r="A215" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B215" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C215" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D215" t="n">
         <v>0.1</v>
@@ -10111,16 +10756,19 @@
       <c r="N215" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="216" spans="1:14">
+      <c r="O215" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15">
       <c r="A216" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B216" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C216" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D216" t="n">
         <v>0.14</v>
@@ -10155,16 +10803,19 @@
       <c r="N216" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="217" spans="1:14">
+      <c r="O216" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15">
       <c r="A217" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B217" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C217" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D217" t="n">
         <v>0.17</v>
@@ -10199,16 +10850,19 @@
       <c r="N217" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="218" spans="1:14">
+      <c r="O217" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15">
       <c r="A218" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B218" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C218" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D218" t="n">
         <v>0</v>
@@ -10243,16 +10897,19 @@
       <c r="N218" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="219" spans="1:14">
+      <c r="O218" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15">
       <c r="A219" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B219" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C219" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D219" t="n">
         <v>0.32</v>
@@ -10287,16 +10944,19 @@
       <c r="N219" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="220" spans="1:14">
+      <c r="O219" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15">
       <c r="A220" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B220" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C220" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D220" t="n">
         <v>0.29</v>
@@ -10331,16 +10991,19 @@
       <c r="N220" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="221" spans="1:14">
+      <c r="O220" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15">
       <c r="A221" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B221" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C221" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D221" t="n">
         <v>0.07000000000000001</v>
@@ -10375,16 +11038,19 @@
       <c r="N221" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="222" spans="1:14">
+      <c r="O221" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15">
       <c r="A222" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B222" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C222" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D222" t="n">
         <v>0.11</v>
@@ -10419,16 +11085,19 @@
       <c r="N222" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="223" spans="1:14">
+      <c r="O222" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15">
       <c r="A223" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B223" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C223" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D223" t="n">
         <v>0.21</v>
@@ -10463,16 +11132,19 @@
       <c r="N223" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="224" spans="1:14">
+      <c r="O223" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15">
       <c r="A224" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B224" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C224" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
@@ -10507,16 +11179,19 @@
       <c r="N224" t="n">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="225" spans="1:14">
+      <c r="O224" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15">
       <c r="A225" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B225" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C225" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D225" t="n">
         <v>0.4</v>
@@ -10551,16 +11226,19 @@
       <c r="N225" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="226" spans="1:14">
+      <c r="O225" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15">
       <c r="A226" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B226" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C226" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D226" t="n">
         <v>0.25</v>
@@ -10595,16 +11273,19 @@
       <c r="N226" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="227" spans="1:14">
+      <c r="O226" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15">
       <c r="A227" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B227" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C227" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D227" t="n">
         <v>0.08</v>
@@ -10639,16 +11320,19 @@
       <c r="N227" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="228" spans="1:14">
+      <c r="O227" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15">
       <c r="A228" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B228" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C228" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D228" t="n">
         <v>0.11</v>
@@ -10683,16 +11367,19 @@
       <c r="N228" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="229" spans="1:14">
+      <c r="O228" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15">
       <c r="A229" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B229" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C229" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D229" t="n">
         <v>0.16</v>
@@ -10727,16 +11414,19 @@
       <c r="N229" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="230" spans="1:14">
+      <c r="O229" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15">
       <c r="A230" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B230" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C230" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D230" t="n">
         <v>0</v>
@@ -10771,16 +11461,19 @@
       <c r="N230" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="231" spans="1:14">
+      <c r="O230" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15">
       <c r="A231" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B231" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C231" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D231" t="n">
         <v>0.38</v>
@@ -10815,16 +11508,19 @@
       <c r="N231" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="232" spans="1:14">
+      <c r="O231" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15">
       <c r="A232" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B232" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C232" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D232" t="n">
         <v>0.26</v>
@@ -10859,16 +11555,19 @@
       <c r="N232" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="233" spans="1:14">
+      <c r="O232" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15">
       <c r="A233" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B233" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C233" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D233" t="n">
         <v>0.11</v>
@@ -10903,16 +11602,19 @@
       <c r="N233" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="234" spans="1:14">
+      <c r="O233" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15">
       <c r="A234" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B234" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C234" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D234" t="n">
         <v>0.11</v>
@@ -10947,16 +11649,19 @@
       <c r="N234" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="235" spans="1:14">
+      <c r="O234" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15">
       <c r="A235" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B235" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C235" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D235" t="n">
         <v>0.14</v>
@@ -10991,16 +11696,19 @@
       <c r="N235" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="236" spans="1:14">
+      <c r="O235" t="n">
+        <v>0.065</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15">
       <c r="A236" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B236" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C236" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D236" t="n">
         <v>0</v>
@@ -11035,16 +11743,19 @@
       <c r="N236" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="O236" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15">
       <c r="A237" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B237" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C237" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D237" t="n">
         <v>0.24</v>
@@ -11079,16 +11790,19 @@
       <c r="N237" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="238" spans="1:14">
+      <c r="O237" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15">
       <c r="A238" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B238" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C238" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D238" t="n">
         <v>0.25</v>
@@ -11123,16 +11837,19 @@
       <c r="N238" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="239" spans="1:14">
+      <c r="O238" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15">
       <c r="A239" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B239" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C239" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D239" t="n">
         <v>0.14</v>
@@ -11167,16 +11884,19 @@
       <c r="N239" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="240" spans="1:14">
+      <c r="O239" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15">
       <c r="A240" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B240" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C240" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D240" t="n">
         <v>0.11</v>
@@ -11211,16 +11931,19 @@
       <c r="N240" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="241" spans="1:14">
+      <c r="O240" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15">
       <c r="A241" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B241" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C241" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D241" t="n">
         <v>0.26</v>
@@ -11255,16 +11978,19 @@
       <c r="N241" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="242" spans="1:14">
+      <c r="O241" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15">
       <c r="A242" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B242" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C242" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D242" t="n">
         <v>0</v>
@@ -11299,16 +12025,19 @@
       <c r="N242" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="243" spans="1:14">
+      <c r="O242" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15">
       <c r="A243" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B243" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C243" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D243" t="n">
         <v>0.4</v>
@@ -11343,16 +12072,19 @@
       <c r="N243" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="O243" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15">
       <c r="A244" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B244" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C244" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D244" t="n">
         <v>0.22</v>
@@ -11387,16 +12119,19 @@
       <c r="N244" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="245" spans="1:14">
+      <c r="O244" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15">
       <c r="A245" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B245" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C245" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D245" t="n">
         <v>0.12</v>
@@ -11431,16 +12166,19 @@
       <c r="N245" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="246" spans="1:14">
+      <c r="O245" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15">
       <c r="A246" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B246" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C246" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D246" t="n">
         <v>0.11</v>
@@ -11475,16 +12213,19 @@
       <c r="N246" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="247" spans="1:14">
+      <c r="O246" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15">
       <c r="A247" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B247" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C247" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D247" t="n">
         <v>0.15</v>
@@ -11519,16 +12260,19 @@
       <c r="N247" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="248" spans="1:14">
+      <c r="O247" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15">
       <c r="A248" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B248" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C248" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D248" t="n">
         <v>0</v>
@@ -11563,16 +12307,19 @@
       <c r="N248" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="249" spans="1:14">
+      <c r="O248" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15">
       <c r="A249" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B249" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C249" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D249" t="n">
         <v>0.23</v>
@@ -11607,16 +12354,19 @@
       <c r="N249" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="250" spans="1:14">
+      <c r="O249" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15">
       <c r="A250" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B250" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C250" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D250" t="n">
         <v>0.23</v>
@@ -11651,16 +12401,19 @@
       <c r="N250" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="251" spans="1:14">
+      <c r="O250" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15">
       <c r="A251" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B251" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C251" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D251" t="n">
         <v>0.07000000000000001</v>
@@ -11695,16 +12448,19 @@
       <c r="N251" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="252" spans="1:14">
+      <c r="O251" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15">
       <c r="A252" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B252" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C252" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D252" t="n">
         <v>0.17</v>
@@ -11739,16 +12495,19 @@
       <c r="N252" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="253" spans="1:14">
+      <c r="O252" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15">
       <c r="A253" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B253" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C253" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D253" t="n">
         <v>0.3</v>
@@ -11783,16 +12542,19 @@
       <c r="N253" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="254" spans="1:14">
+      <c r="O253" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15">
       <c r="A254" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B254" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C254" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D254" t="n">
         <v>0</v>
@@ -11827,16 +12589,19 @@
       <c r="N254" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="255" spans="1:14">
+      <c r="O254" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15">
       <c r="A255" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B255" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C255" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D255" t="n">
         <v>0.38</v>
@@ -11871,16 +12636,19 @@
       <c r="N255" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="256" spans="1:14">
+      <c r="O255" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15">
       <c r="A256" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B256" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C256" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D256" t="n">
         <v>0.23</v>
@@ -11915,16 +12683,19 @@
       <c r="N256" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="257" spans="1:14">
+      <c r="O256" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15">
       <c r="A257" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B257" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C257" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D257" t="n">
         <v>0.07000000000000001</v>
@@ -11959,16 +12730,19 @@
       <c r="N257" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="258" spans="1:14">
+      <c r="O257" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15">
       <c r="A258" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B258" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C258" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D258" t="n">
         <v>0.17</v>
@@ -12003,16 +12777,19 @@
       <c r="N258" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="259" spans="1:14">
+      <c r="O258" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15">
       <c r="A259" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B259" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C259" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D259" t="n">
         <v>0.15</v>
@@ -12047,16 +12824,19 @@
       <c r="N259" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="260" spans="1:14">
+      <c r="O259" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15">
       <c r="A260" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B260" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C260" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D260" t="n">
         <v>0</v>
@@ -12091,16 +12871,19 @@
       <c r="N260" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="261" spans="1:14">
+      <c r="O260" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15">
       <c r="A261" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B261" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C261" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D261" t="n">
         <v>0.33</v>
@@ -12135,16 +12918,19 @@
       <c r="N261" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="262" spans="1:14">
+      <c r="O261" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15">
       <c r="A262" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B262" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C262" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D262" t="n">
         <v>0.28</v>
@@ -12179,16 +12965,19 @@
       <c r="N262" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="263" spans="1:14">
+      <c r="O262" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15">
       <c r="A263" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B263" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C263" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D263" t="n">
         <v>0.09</v>
@@ -12223,16 +13012,19 @@
       <c r="N263" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="264" spans="1:14">
+      <c r="O263" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15">
       <c r="A264" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B264" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C264" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D264" t="n">
         <v>0.13</v>
@@ -12267,16 +13059,19 @@
       <c r="N264" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="265" spans="1:14">
+      <c r="O264" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15">
       <c r="A265" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B265" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C265" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D265" t="n">
         <v>0.17</v>
@@ -12311,16 +13106,19 @@
       <c r="N265" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="266" spans="1:14">
+      <c r="O265" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15">
       <c r="A266" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B266" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C266" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D266" t="n">
         <v>0</v>
@@ -12355,16 +13153,19 @@
       <c r="N266" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="267" spans="1:14">
+      <c r="O266" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15">
       <c r="A267" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B267" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C267" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D267" t="n">
         <v>0.32</v>
@@ -12399,16 +13200,19 @@
       <c r="N267" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="268" spans="1:14">
+      <c r="O267" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15">
       <c r="A268" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B268" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C268" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D268" t="n">
         <v>0.22</v>
@@ -12443,16 +13247,19 @@
       <c r="N268" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="269" spans="1:14">
+      <c r="O268" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15">
       <c r="A269" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B269" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C269" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D269" t="n">
         <v>0.12</v>
@@ -12487,16 +13294,19 @@
       <c r="N269" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="270" spans="1:14">
+      <c r="O269" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15">
       <c r="A270" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B270" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C270" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D270" t="n">
         <v>0.11</v>
@@ -12531,16 +13341,19 @@
       <c r="N270" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="271" spans="1:14">
+      <c r="O270" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15">
       <c r="A271" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B271" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C271" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D271" t="n">
         <v>0.23</v>
@@ -12575,16 +13388,19 @@
       <c r="N271" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="272" spans="1:14">
+      <c r="O271" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15">
       <c r="A272" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B272" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C272" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D272" t="n">
         <v>0</v>
@@ -12619,16 +13435,19 @@
       <c r="N272" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="273" spans="1:14">
+      <c r="O272" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15">
       <c r="A273" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B273" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C273" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D273" t="n">
         <v>0.27</v>
@@ -12663,16 +13482,19 @@
       <c r="N273" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="274" spans="1:14">
+      <c r="O273" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15">
       <c r="A274" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B274" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C274" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D274" t="n">
         <v>0.4</v>
@@ -12707,16 +13529,19 @@
       <c r="N274" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="275" spans="1:14">
+      <c r="O274" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15">
       <c r="A275" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B275" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C275" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D275" t="n">
         <v>0</v>
@@ -12751,16 +13576,19 @@
       <c r="N275" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="276" spans="1:14">
+      <c r="O275" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15">
       <c r="A276" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B276" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C276" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D276" t="n">
         <v>0.16</v>
@@ -12795,16 +13623,19 @@
       <c r="N276" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="277" spans="1:14">
+      <c r="O276" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15">
       <c r="A277" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B277" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C277" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D277" t="n">
         <v>0.17</v>
@@ -12839,16 +13670,19 @@
       <c r="N277" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="278" spans="1:14">
+      <c r="O277" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15">
       <c r="A278" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B278" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C278" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D278" t="n">
         <v>0</v>
@@ -12883,16 +13717,19 @@
       <c r="N278" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="279" spans="1:14">
+      <c r="O278" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15">
       <c r="A279" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B279" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C279" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D279" t="n">
         <v>0.33</v>
@@ -12927,16 +13764,19 @@
       <c r="N279" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="280" spans="1:14">
+      <c r="O279" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15">
       <c r="A280" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B280" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C280" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D280" t="n">
         <v>0.23</v>
@@ -12971,16 +13811,19 @@
       <c r="N280" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="281" spans="1:14">
+      <c r="O280" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15">
       <c r="A281" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B281" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C281" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D281" t="n">
         <v>0.11</v>
@@ -13015,16 +13858,19 @@
       <c r="N281" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="282" spans="1:14">
+      <c r="O281" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15">
       <c r="A282" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B282" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C282" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D282" t="n">
         <v>0.12</v>
@@ -13059,16 +13905,19 @@
       <c r="N282" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="283" spans="1:14">
+      <c r="O282" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15">
       <c r="A283" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B283" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C283" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D283" t="n">
         <v>0.21</v>
@@ -13103,16 +13952,19 @@
       <c r="N283" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="284" spans="1:14">
+      <c r="O283" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15">
       <c r="A284" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B284" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C284" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D284" t="n">
         <v>0</v>
@@ -13147,16 +13999,19 @@
       <c r="N284" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="285" spans="1:14">
+      <c r="O284" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15">
       <c r="A285" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B285" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C285" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D285" t="n">
         <v>0.26</v>
@@ -13191,16 +14046,19 @@
       <c r="N285" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="286" spans="1:14">
+      <c r="O285" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15">
       <c r="A286" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B286" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C286" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D286" t="n">
         <v>0.19</v>
@@ -13235,16 +14093,19 @@
       <c r="N286" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="287" spans="1:14">
+      <c r="O286" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15">
       <c r="A287" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B287" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C287" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D287" t="n">
         <v>0.08</v>
@@ -13279,16 +14140,19 @@
       <c r="N287" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="288" spans="1:14">
+      <c r="O287" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15">
       <c r="A288" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B288" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C288" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D288" t="n">
         <v>0.15</v>
@@ -13323,16 +14187,19 @@
       <c r="N288" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="289" spans="1:14">
+      <c r="O288" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15">
       <c r="A289" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B289" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C289" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D289" t="n">
         <v>0.32</v>
@@ -13367,16 +14234,19 @@
       <c r="N289" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="290" spans="1:14">
+      <c r="O289" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15">
       <c r="A290" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B290" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C290" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D290" t="n">
         <v>0</v>
@@ -13411,16 +14281,19 @@
       <c r="N290" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="291" spans="1:14">
+      <c r="O290" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15">
       <c r="A291" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B291" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C291" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D291" t="n">
         <v>0.32</v>
@@ -13455,16 +14328,19 @@
       <c r="N291" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="292" spans="1:14">
+      <c r="O291" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15">
       <c r="A292" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B292" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C292" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D292" t="n">
         <v>0.26</v>
@@ -13499,16 +14375,19 @@
       <c r="N292" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="293" spans="1:14">
+      <c r="O292" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15">
       <c r="A293" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B293" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C293" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D293" t="n">
         <v>0.12</v>
@@ -13543,16 +14422,19 @@
       <c r="N293" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="294" spans="1:14">
+      <c r="O293" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15">
       <c r="A294" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B294" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C294" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D294" t="n">
         <v>0.12</v>
@@ -13587,16 +14469,19 @@
       <c r="N294" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="295" spans="1:14">
+      <c r="O294" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15">
       <c r="A295" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B295" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C295" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D295" t="n">
         <v>0.18</v>
@@ -13631,16 +14516,19 @@
       <c r="N295" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="296" spans="1:14">
+      <c r="O295" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15">
       <c r="A296" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B296" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C296" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D296" t="n">
         <v>0</v>
@@ -13675,16 +14563,19 @@
       <c r="N296" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="297" spans="1:14">
+      <c r="O296" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15">
       <c r="A297" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B297" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C297" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D297" t="n">
         <v>0.39</v>
@@ -13719,16 +14610,19 @@
       <c r="N297" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="298" spans="1:14">
+      <c r="O297" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15">
       <c r="A298" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B298" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C298" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D298" t="n">
         <v>0.24</v>
@@ -13763,16 +14657,19 @@
       <c r="N298" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="299" spans="1:14">
+      <c r="O298" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15">
       <c r="A299" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B299" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C299" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D299" t="n">
         <v>0.12</v>
@@ -13807,16 +14704,19 @@
       <c r="N299" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="300" spans="1:14">
+      <c r="O299" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15">
       <c r="A300" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B300" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C300" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D300" t="n">
         <v>0.12</v>
@@ -13851,16 +14751,19 @@
       <c r="N300" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="301" spans="1:14">
+      <c r="O300" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15">
       <c r="A301" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B301" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C301" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D301" t="n">
         <v>0.13</v>
@@ -13895,10 +14798,13 @@
       <c r="N301" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="302" spans="1:14">
+      <c r="O301" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15">
       <c r="A302" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -13912,7 +14818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13920,7 +14826,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13960,13 +14866,16 @@
       <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
         <v>2167</v>
@@ -14001,13 +14910,16 @@
       <c r="M2" t="n">
         <v>1975</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" t="n">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
         <v>509</v>
@@ -14042,13 +14954,16 @@
       <c r="M3" t="n">
         <v>471</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" t="n">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
         <v>799</v>
@@ -14083,13 +14998,16 @@
       <c r="M4" t="n">
         <v>729</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" t="n">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
         <v>859</v>
@@ -14124,13 +15042,16 @@
       <c r="M5" t="n">
         <v>775</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
         <v>989</v>
@@ -14165,13 +15086,16 @@
       <c r="M6" t="n">
         <v>903</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" t="n">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
         <v>744</v>
@@ -14206,13 +15130,16 @@
       <c r="M7" t="n">
         <v>681</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" t="n">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
         <v>434</v>
@@ -14247,13 +15174,16 @@
       <c r="M8" t="n">
         <v>391</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" t="n">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="n">
         <v>504</v>
@@ -14288,13 +15218,16 @@
       <c r="M9" t="n">
         <v>459</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" t="n">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="n">
         <v>510</v>
@@ -14329,13 +15262,16 @@
       <c r="M10" t="n">
         <v>473</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" t="n">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" t="n">
         <v>294</v>
@@ -14370,13 +15306,16 @@
       <c r="M11" t="n">
         <v>268</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="n">
         <v>486</v>
@@ -14411,13 +15350,16 @@
       <c r="M12" t="n">
         <v>444</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" t="n">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" t="n">
         <v>234</v>
@@ -14452,13 +15394,16 @@
       <c r="M13" t="n">
         <v>208</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" t="n">
         <v>139</v>
@@ -14493,13 +15438,16 @@
       <c r="M14" t="n">
         <v>123</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" t="n">
         <v>1036</v>
@@ -14534,13 +15482,16 @@
       <c r="M15" t="n">
         <v>956</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" t="n">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" t="n">
         <v>1131</v>
@@ -14575,13 +15526,16 @@
       <c r="M16" t="n">
         <v>1019</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" t="n">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" t="n">
         <v>255</v>
@@ -14616,13 +15570,16 @@
       <c r="M17" t="n">
         <v>239</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="n">
         <v>404</v>
@@ -14657,13 +15614,16 @@
       <c r="M18" t="n">
         <v>369</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" t="n">
         <v>377</v>
@@ -14698,13 +15658,16 @@
       <c r="M19" t="n">
         <v>348</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" t="n">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" t="n">
         <v>254</v>
@@ -14739,13 +15702,16 @@
       <c r="M20" t="n">
         <v>232</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" t="n">
         <v>395</v>
@@ -14780,13 +15746,16 @@
       <c r="M21" t="n">
         <v>360</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" t="n">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" t="n">
         <v>482</v>
@@ -14821,13 +15790,16 @@
       <c r="M22" t="n">
         <v>427</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" t="n">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" t="n">
         <v>1142</v>
@@ -14862,13 +15834,16 @@
       <c r="M23" t="n">
         <v>1029</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" t="n">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" t="n">
         <v>507</v>
@@ -14903,13 +15878,16 @@
       <c r="M24" t="n">
         <v>456</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" t="n">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" t="n">
         <v>240</v>
@@ -14944,13 +15922,16 @@
       <c r="M25" t="n">
         <v>230</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" t="n">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" t="n">
         <v>278</v>
@@ -14985,13 +15966,16 @@
       <c r="M26" t="n">
         <v>260</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" t="n">
         <v>718</v>
@@ -15026,13 +16010,16 @@
       <c r="M27" t="n">
         <v>641</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28" t="n">
         <v>298</v>
@@ -15067,13 +16054,16 @@
       <c r="M28" t="n">
         <v>280</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" t="n">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" t="n">
         <v>135</v>
@@ -15108,13 +16098,16 @@
       <c r="M29" t="n">
         <v>139</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30" t="n">
         <v>156</v>
@@ -15149,13 +16142,16 @@
       <c r="M30" t="n">
         <v>139</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C31" t="n">
         <v>424</v>
@@ -15190,13 +16186,16 @@
       <c r="M31" t="n">
         <v>388</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" t="n">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C32" t="n">
         <v>209</v>
@@ -15231,13 +16230,16 @@
       <c r="M32" t="n">
         <v>176</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C33" t="n">
         <v>104</v>
@@ -15272,13 +16274,16 @@
       <c r="M33" t="n">
         <v>91</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C34" t="n">
         <v>123</v>
@@ -15313,13 +16318,16 @@
       <c r="M34" t="n">
         <v>121</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C35" t="n">
         <v>283</v>
@@ -15354,13 +16362,16 @@
       <c r="M35" t="n">
         <v>225</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C36" t="n">
         <v>842</v>
@@ -15395,13 +16406,16 @@
       <c r="M36" t="n">
         <v>738</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C37" t="n">
         <v>672</v>
@@ -15436,13 +16450,16 @@
       <c r="M37" t="n">
         <v>639</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C38" t="n">
         <v>206</v>
@@ -15477,13 +16494,16 @@
       <c r="M38" t="n">
         <v>249</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C39" t="n">
         <v>338</v>
@@ -15518,13 +16538,16 @@
       <c r="M39" t="n">
         <v>373</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C40" t="n">
         <v>349</v>
@@ -15559,13 +16582,16 @@
       <c r="M40" t="n">
         <v>339</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C41" t="n">
         <v>271</v>
@@ -15600,13 +16626,16 @@
       <c r="M41" t="n">
         <v>304</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C42" t="n">
         <v>494</v>
@@ -15641,13 +16670,16 @@
       <c r="M42" t="n">
         <v>291</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C43" t="n">
         <v>514</v>
@@ -15682,13 +16714,16 @@
       <c r="M43" t="n">
         <v>428</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C44" t="n">
         <v>252</v>
@@ -15723,13 +16758,16 @@
       <c r="M44" t="n">
         <v>443</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" t="n">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C45" t="n">
         <v>441</v>
@@ -15764,13 +16802,16 @@
       <c r="M45" t="n">
         <v>528</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C46" t="n">
         <v>1474</v>
@@ -15805,13 +16846,16 @@
       <c r="M46" t="n">
         <v>1004</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" t="n">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C47" t="n">
         <v>15</v>
@@ -15846,13 +16890,16 @@
       <c r="M47" t="n">
         <v>293</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C48" t="n">
         <v>2152</v>
@@ -15887,13 +16934,16 @@
       <c r="M48" t="n">
         <v>1682</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" t="n">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C49" t="n">
         <v>527</v>
@@ -15928,13 +16978,16 @@
       <c r="M49" t="n">
         <v>512</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" t="n">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C50" t="n">
         <v>941</v>
@@ -15969,13 +17022,16 @@
       <c r="M50" t="n">
         <v>844</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" t="n">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C51" t="n">
         <v>699</v>
@@ -16010,10 +17066,13 @@
       <c r="M51" t="n">
         <v>619</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" t="n">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s"/>
       <c r="C52" t="s"/>
@@ -16027,6 +17086,7 @@
       <c r="K52" t="s"/>
       <c r="L52" t="s"/>
       <c r="M52" t="s"/>
+      <c r="N52" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_07b_ockovani.xlsx
+++ b/ZBP_07b_ockovani.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P302"/>
+  <dimension ref="A1:Q302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,6 +540,11 @@
           <t>20. 7. 2021</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>24. 8. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -596,6 +601,9 @@
       <c r="P2" t="n">
         <v>0.64</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -652,6 +660,9 @@
       <c r="P3" t="n">
         <v>0.02</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -708,6 +719,9 @@
       <c r="P4" t="n">
         <v>0.04</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -764,6 +778,9 @@
       <c r="P5" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -820,6 +837,9 @@
       <c r="P6" t="n">
         <v>0.09</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -876,6 +896,9 @@
       <c r="P7" t="n">
         <v>0.11</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -932,6 +955,9 @@
       <c r="P8" t="n">
         <v>0.49</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -988,6 +1014,9 @@
       <c r="P9" t="n">
         <v>0.04</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1044,6 +1073,9 @@
       <c r="P10" t="n">
         <v>0.04</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1100,6 +1132,9 @@
       <c r="P11" t="n">
         <v>0.13</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1156,6 +1191,9 @@
       <c r="P12" t="n">
         <v>0.15</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1212,6 +1250,9 @@
       <c r="P13" t="n">
         <v>0.15</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1268,6 +1309,9 @@
       <c r="P14" t="n">
         <v>0.6</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1324,6 +1368,9 @@
       <c r="P15" t="n">
         <v>0.015</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1380,6 +1427,9 @@
       <c r="P16" t="n">
         <v>0.05</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1436,6 +1486,9 @@
       <c r="P17" t="n">
         <v>0.11</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1492,6 +1545,9 @@
       <c r="P18" t="n">
         <v>0.08</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1548,6 +1604,9 @@
       <c r="P19" t="n">
         <v>0.145</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1604,6 +1663,9 @@
       <c r="P20" t="n">
         <v>0.76</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1660,6 +1722,9 @@
       <c r="P21" t="n">
         <v>0.015</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1716,6 +1781,9 @@
       <c r="P22" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1772,6 +1840,9 @@
       <c r="P23" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1828,6 +1899,9 @@
       <c r="P24" t="n">
         <v>0.06</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1884,6 +1958,9 @@
       <c r="P25" t="n">
         <v>0.065</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1940,6 +2017,9 @@
       <c r="P26" t="n">
         <v>0.57</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1996,6 +2076,9 @@
       <c r="P27" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2052,6 +2135,9 @@
       <c r="P28" t="n">
         <v>0.04</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2108,6 +2194,9 @@
       <c r="P29" t="n">
         <v>0.13</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2164,6 +2253,9 @@
       <c r="P30" t="n">
         <v>0.09</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2220,6 +2312,9 @@
       <c r="P31" t="n">
         <v>0.14</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0.135</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2276,6 +2371,9 @@
       <c r="P32" t="n">
         <v>0.63</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2332,6 +2430,9 @@
       <c r="P33" t="n">
         <v>0.01</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2388,6 +2489,9 @@
       <c r="P34" t="n">
         <v>0.04</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2444,6 +2548,9 @@
       <c r="P35" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2500,6 +2607,9 @@
       <c r="P36" t="n">
         <v>0.09</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2556,6 +2666,9 @@
       <c r="P37" t="n">
         <v>0.13</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2612,6 +2725,9 @@
       <c r="P38" t="n">
         <v>0.79</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2668,6 +2784,9 @@
       <c r="P39" t="n">
         <v>0.02</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2724,6 +2843,9 @@
       <c r="P40" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2780,6 +2902,9 @@
       <c r="P41" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2836,6 +2961,9 @@
       <c r="P42" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2892,6 +3020,9 @@
       <c r="P43" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2948,6 +3079,9 @@
       <c r="P44" t="n">
         <v>0.46</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3004,6 +3138,9 @@
       <c r="P45" t="n">
         <v>0.04</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3060,6 +3197,9 @@
       <c r="P46" t="n">
         <v>0.05</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3116,6 +3256,9 @@
       <c r="P47" t="n">
         <v>0.16</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3172,6 +3315,9 @@
       <c r="P48" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3228,6 +3374,9 @@
       <c r="P49" t="n">
         <v>0.19</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3284,6 +3433,9 @@
       <c r="P50" t="n">
         <v>0.53</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3340,6 +3492,9 @@
       <c r="P51" t="n">
         <v>0.015</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3396,6 +3551,9 @@
       <c r="P52" t="n">
         <v>0.05</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3452,6 +3610,9 @@
       <c r="P53" t="n">
         <v>0.12</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3508,6 +3669,9 @@
       <c r="P54" t="n">
         <v>0.12</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3564,6 +3728,9 @@
       <c r="P55" t="n">
         <v>0.165</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0.145</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3620,6 +3787,9 @@
       <c r="P56" t="n">
         <v>0.74</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3676,6 +3846,9 @@
       <c r="P57" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3732,6 +3905,9 @@
       <c r="P58" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3788,6 +3964,9 @@
       <c r="P59" t="n">
         <v>0.04</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3844,6 +4023,9 @@
       <c r="P60" t="n">
         <v>0.12</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3900,6 +4082,9 @@
       <c r="P61" t="n">
         <v>0.04</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3956,6 +4141,9 @@
       <c r="P62" t="n">
         <v>0.68</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4012,6 +4200,9 @@
       <c r="P63" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4068,6 +4259,9 @@
       <c r="P64" t="n">
         <v>0.04</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4124,6 +4318,9 @@
       <c r="P65" t="n">
         <v>0.09</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4180,6 +4377,9 @@
       <c r="P66" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4236,6 +4436,9 @@
       <c r="P67" t="n">
         <v>0.09</v>
       </c>
+      <c r="Q67" t="n">
+        <v>0.105</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4292,6 +4495,9 @@
       <c r="P68" t="n">
         <v>0.88</v>
       </c>
+      <c r="Q68" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4348,6 +4554,9 @@
       <c r="P69" t="n">
         <v>0</v>
       </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4404,6 +4613,9 @@
       <c r="P70" t="n">
         <v>0.01</v>
       </c>
+      <c r="Q70" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4460,6 +4672,9 @@
       <c r="P71" t="n">
         <v>0.04</v>
       </c>
+      <c r="Q71" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4516,6 +4731,9 @@
       <c r="P72" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q72" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4572,6 +4790,9 @@
       <c r="P73" t="n">
         <v>0.04</v>
       </c>
+      <c r="Q73" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4628,6 +4849,9 @@
       <c r="P74" t="n">
         <v>0.89</v>
       </c>
+      <c r="Q74" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4684,6 +4908,9 @@
       <c r="P75" t="n">
         <v>0.01</v>
       </c>
+      <c r="Q75" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4740,6 +4967,9 @@
       <c r="P76" t="n">
         <v>0.015</v>
       </c>
+      <c r="Q76" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4796,6 +5026,9 @@
       <c r="P77" t="n">
         <v>0.015</v>
       </c>
+      <c r="Q77" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4852,6 +5085,9 @@
       <c r="P78" t="n">
         <v>0.05</v>
       </c>
+      <c r="Q78" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4908,6 +5144,9 @@
       <c r="P79" t="n">
         <v>0.02</v>
       </c>
+      <c r="Q79" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4964,6 +5203,9 @@
       <c r="P80" t="n">
         <v>0.67</v>
       </c>
+      <c r="Q80" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5020,6 +5262,9 @@
       <c r="P81" t="n">
         <v>0.01</v>
       </c>
+      <c r="Q81" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5076,6 +5321,9 @@
       <c r="P82" t="n">
         <v>0.04</v>
       </c>
+      <c r="Q82" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5132,6 +5380,9 @@
       <c r="P83" t="n">
         <v>0.08</v>
       </c>
+      <c r="Q83" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5188,6 +5439,9 @@
       <c r="P84" t="n">
         <v>0.09</v>
       </c>
+      <c r="Q84" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5244,6 +5498,9 @@
       <c r="P85" t="n">
         <v>0.11</v>
       </c>
+      <c r="Q85" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5300,6 +5557,9 @@
       <c r="P86" t="n">
         <v>0.6</v>
       </c>
+      <c r="Q86" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5356,6 +5616,9 @@
       <c r="P87" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q87" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5412,6 +5675,9 @@
       <c r="P88" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q88" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5468,6 +5734,9 @@
       <c r="P89" t="n">
         <v>0.11</v>
       </c>
+      <c r="Q89" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5524,6 +5793,9 @@
       <c r="P90" t="n">
         <v>0.09</v>
       </c>
+      <c r="Q90" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5580,6 +5852,9 @@
       <c r="P91" t="n">
         <v>0.14</v>
       </c>
+      <c r="Q91" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5636,6 +5911,9 @@
       <c r="P92" t="n">
         <v>0.55</v>
       </c>
+      <c r="Q92" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5692,6 +5970,9 @@
       <c r="P93" t="n">
         <v>0.005</v>
       </c>
+      <c r="Q93" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5748,6 +6029,9 @@
       <c r="P94" t="n">
         <v>0.05</v>
       </c>
+      <c r="Q94" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5804,6 +6088,9 @@
       <c r="P95" t="n">
         <v>0.14</v>
       </c>
+      <c r="Q95" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5860,6 +6147,9 @@
       <c r="P96" t="n">
         <v>0.14</v>
       </c>
+      <c r="Q96" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5916,6 +6206,9 @@
       <c r="P97" t="n">
         <v>0.115</v>
       </c>
+      <c r="Q97" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5972,6 +6265,9 @@
       <c r="P98" t="n">
         <v>0.62</v>
       </c>
+      <c r="Q98" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6028,6 +6324,9 @@
       <c r="P99" t="n">
         <v>0.02</v>
       </c>
+      <c r="Q99" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6084,6 +6383,9 @@
       <c r="P100" t="n">
         <v>0.06</v>
       </c>
+      <c r="Q100" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6140,6 +6442,9 @@
       <c r="P101" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q101" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6196,6 +6501,9 @@
       <c r="P102" t="n">
         <v>0.08</v>
       </c>
+      <c r="Q102" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6252,6 +6560,9 @@
       <c r="P103" t="n">
         <v>0.12</v>
       </c>
+      <c r="Q103" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6308,6 +6619,9 @@
       <c r="P104" t="n">
         <v>0.82</v>
       </c>
+      <c r="Q104" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6364,6 +6678,9 @@
       <c r="P105" t="n">
         <v>0.005</v>
       </c>
+      <c r="Q105" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6420,6 +6737,9 @@
       <c r="P106" t="n">
         <v>0.02</v>
       </c>
+      <c r="Q106" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6476,6 +6796,9 @@
       <c r="P107" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q107" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6532,6 +6855,9 @@
       <c r="P108" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Q108" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6588,6 +6914,9 @@
       <c r="P109" t="n">
         <v>0.055</v>
       </c>
+      <c r="Q109" t="n">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6644,6 +6973,9 @@
       <c r="P110" t="n">
         <v>0.42</v>
       </c>
+      <c r="Q110" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6700,6 +7032,9 @@
       <c r="P111" t="n">
         <v>0.08</v>
       </c>
+      <c r="Q111" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6756,6 +7091,9 @@
       <c r="P112" t="n">
         <v>0.04</v>
       </c>
+      <c r="Q112" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6812,6 +7150,9 @@
       <c r="P113" t="n">
         <v>0.12</v>
       </c>
+      <c r="Q113" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6868,6 +7209,9 @@
       <c r="P114" t="n">
         <v>0.16</v>
       </c>
+      <c r="Q114" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6924,6 +7268,9 @@
       <c r="P115" t="n">
         <v>0.18</v>
       </c>
+      <c r="Q115" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6980,6 +7327,9 @@
       <c r="P116" t="n">
         <v>0.57</v>
       </c>
+      <c r="Q116" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7036,6 +7386,9 @@
       <c r="P117" t="n">
         <v>0.015</v>
       </c>
+      <c r="Q117" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7092,6 +7445,9 @@
       <c r="P118" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q118" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7148,6 +7504,9 @@
       <c r="P119" t="n">
         <v>0.12</v>
       </c>
+      <c r="Q119" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7204,6 +7563,9 @@
       <c r="P120" t="n">
         <v>0.09</v>
       </c>
+      <c r="Q120" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7260,6 +7622,9 @@
       <c r="P121" t="n">
         <v>0.175</v>
       </c>
+      <c r="Q121" t="n">
+        <v>0.165</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7316,6 +7681,9 @@
       <c r="P122" t="n">
         <v>0.72</v>
       </c>
+      <c r="Q122" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7372,6 +7740,9 @@
       <c r="P123" t="n">
         <v>0.02</v>
       </c>
+      <c r="Q123" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7428,6 +7799,9 @@
       <c r="P124" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q124" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7484,6 +7858,9 @@
       <c r="P125" t="n">
         <v>0.09</v>
       </c>
+      <c r="Q125" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7540,6 +7917,9 @@
       <c r="P126" t="n">
         <v>0.05</v>
       </c>
+      <c r="Q126" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7596,6 +7976,9 @@
       <c r="P127" t="n">
         <v>0.09</v>
       </c>
+      <c r="Q127" t="n">
+        <v>0.08500000000000001</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7652,6 +8035,9 @@
       <c r="P128" t="n">
         <v>0.62</v>
       </c>
+      <c r="Q128" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7708,6 +8094,9 @@
       <c r="P129" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q129" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7764,6 +8153,9 @@
       <c r="P130" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q130" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7820,6 +8212,9 @@
       <c r="P131" t="n">
         <v>0.11</v>
       </c>
+      <c r="Q131" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7876,6 +8271,9 @@
       <c r="P132" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q132" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7932,6 +8330,9 @@
       <c r="P133" t="n">
         <v>0.11</v>
       </c>
+      <c r="Q133" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7988,6 +8389,9 @@
       <c r="P134" t="n">
         <v>0.62</v>
       </c>
+      <c r="Q134" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -8044,6 +8448,9 @@
       <c r="P135" t="n">
         <v>0.005</v>
       </c>
+      <c r="Q135" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8100,6 +8507,9 @@
       <c r="P136" t="n">
         <v>0.04</v>
       </c>
+      <c r="Q136" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8156,6 +8566,9 @@
       <c r="P137" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q137" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8212,6 +8625,9 @@
       <c r="P138" t="n">
         <v>0.08</v>
       </c>
+      <c r="Q138" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -8268,6 +8684,9 @@
       <c r="P139" t="n">
         <v>0.155</v>
       </c>
+      <c r="Q139" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8324,6 +8743,9 @@
       <c r="P140" t="n">
         <v>0.58</v>
       </c>
+      <c r="Q140" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8380,6 +8802,9 @@
       <c r="P141" t="n">
         <v>0.005</v>
       </c>
+      <c r="Q141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8436,6 +8861,9 @@
       <c r="P142" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Q142" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8492,6 +8920,9 @@
       <c r="P143" t="n">
         <v>0.08</v>
       </c>
+      <c r="Q143" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8548,6 +8979,9 @@
       <c r="P144" t="n">
         <v>0.13</v>
       </c>
+      <c r="Q144" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8604,6 +9038,9 @@
       <c r="P145" t="n">
         <v>0.135</v>
       </c>
+      <c r="Q145" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8660,6 +9097,9 @@
       <c r="P146" t="n">
         <v>0.75</v>
       </c>
+      <c r="Q146" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8716,6 +9156,9 @@
       <c r="P147" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q147" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8772,6 +9215,9 @@
       <c r="P148" t="n">
         <v>0.04</v>
       </c>
+      <c r="Q148" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8828,6 +9274,9 @@
       <c r="P149" t="n">
         <v>0.06</v>
       </c>
+      <c r="Q149" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8884,6 +9333,9 @@
       <c r="P150" t="n">
         <v>0.06</v>
       </c>
+      <c r="Q150" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8940,6 +9392,9 @@
       <c r="P151" t="n">
         <v>0.06</v>
       </c>
+      <c r="Q151" t="n">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8996,6 +9451,9 @@
       <c r="P152" t="n">
         <v>0.54</v>
       </c>
+      <c r="Q152" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -9052,6 +9510,9 @@
       <c r="P153" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q153" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -9108,6 +9569,9 @@
       <c r="P154" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q154" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -9164,6 +9628,9 @@
       <c r="P155" t="n">
         <v>0.13</v>
       </c>
+      <c r="Q155" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -9220,6 +9687,9 @@
       <c r="P156" t="n">
         <v>0.12</v>
       </c>
+      <c r="Q156" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -9276,6 +9746,9 @@
       <c r="P157" t="n">
         <v>0.15</v>
       </c>
+      <c r="Q157" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -9332,6 +9805,9 @@
       <c r="P158" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="Q158" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9388,6 +9864,9 @@
       <c r="P159" t="n">
         <v>0</v>
       </c>
+      <c r="Q159" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9444,6 +9923,9 @@
       <c r="P160" t="n">
         <v>0.05</v>
       </c>
+      <c r="Q160" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9500,6 +9982,9 @@
       <c r="P161" t="n">
         <v>0.11</v>
       </c>
+      <c r="Q161" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9556,6 +10041,9 @@
       <c r="P162" t="n">
         <v>0.08</v>
       </c>
+      <c r="Q162" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -9612,6 +10100,9 @@
       <c r="P163" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q163" t="n">
+        <v>0.135</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -9668,6 +10159,9 @@
       <c r="P164" t="n">
         <v>0.49</v>
       </c>
+      <c r="Q164" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9724,6 +10218,9 @@
       <c r="P165" t="n">
         <v>0</v>
       </c>
+      <c r="Q165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9780,6 +10277,9 @@
       <c r="P166" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q166" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9836,6 +10336,9 @@
       <c r="P167" t="n">
         <v>0.09</v>
       </c>
+      <c r="Q167" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -9892,6 +10395,9 @@
       <c r="P168" t="n">
         <v>0.15</v>
       </c>
+      <c r="Q168" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -9948,6 +10454,9 @@
       <c r="P169" t="n">
         <v>0.17</v>
       </c>
+      <c r="Q169" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -10004,6 +10513,9 @@
       <c r="P170" t="n">
         <v>0.65</v>
       </c>
+      <c r="Q170" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -10060,6 +10572,9 @@
       <c r="P171" t="n">
         <v>0.06</v>
       </c>
+      <c r="Q171" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -10116,6 +10631,9 @@
       <c r="P172" t="n">
         <v>0.05</v>
       </c>
+      <c r="Q172" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -10172,6 +10690,9 @@
       <c r="P173" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q173" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -10228,6 +10749,9 @@
       <c r="P174" t="n">
         <v>0.08</v>
       </c>
+      <c r="Q174" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -10284,6 +10808,9 @@
       <c r="P175" t="n">
         <v>0.06</v>
       </c>
+      <c r="Q175" t="n">
+        <v>0.08500000000000001</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -10340,6 +10867,9 @@
       <c r="P176" t="n">
         <v>0.75</v>
       </c>
+      <c r="Q176" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -10396,6 +10926,9 @@
       <c r="P177" t="n">
         <v>0.02</v>
       </c>
+      <c r="Q177" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10452,6 +10985,9 @@
       <c r="P178" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q178" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -10508,6 +11044,9 @@
       <c r="P179" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Q179" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10564,6 +11103,9 @@
       <c r="P180" t="n">
         <v>0.06</v>
       </c>
+      <c r="Q180" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -10620,6 +11162,9 @@
       <c r="P181" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Q181" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -10676,6 +11221,9 @@
       <c r="P182" t="n">
         <v>0.74</v>
       </c>
+      <c r="Q182" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -10732,6 +11280,9 @@
       <c r="P183" t="n">
         <v>0.01</v>
       </c>
+      <c r="Q183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -10788,6 +11339,9 @@
       <c r="P184" t="n">
         <v>0.02</v>
       </c>
+      <c r="Q184" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -10844,6 +11398,9 @@
       <c r="P185" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Q185" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -10900,6 +11457,9 @@
       <c r="P186" t="n">
         <v>0.06</v>
       </c>
+      <c r="Q186" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -10956,6 +11516,9 @@
       <c r="P187" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q187" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -11012,6 +11575,9 @@
       <c r="P188" t="n">
         <v>0.72</v>
       </c>
+      <c r="Q188" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -11068,6 +11634,9 @@
       <c r="P189" t="n">
         <v>0.015</v>
       </c>
+      <c r="Q189" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -11124,6 +11693,9 @@
       <c r="P190" t="n">
         <v>0.02</v>
       </c>
+      <c r="Q190" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -11180,6 +11752,9 @@
       <c r="P191" t="n">
         <v>0.08</v>
       </c>
+      <c r="Q191" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -11236,6 +11811,9 @@
       <c r="P192" t="n">
         <v>0.09</v>
       </c>
+      <c r="Q192" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -11292,6 +11870,9 @@
       <c r="P193" t="n">
         <v>0.075</v>
       </c>
+      <c r="Q193" t="n">
+        <v>0.105</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -11348,6 +11929,9 @@
       <c r="P194" t="n">
         <v>0.87</v>
       </c>
+      <c r="Q194" t="n">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -11404,6 +11988,9 @@
       <c r="P195" t="n">
         <v>0.005</v>
       </c>
+      <c r="Q195" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -11460,6 +12047,9 @@
       <c r="P196" t="n">
         <v>0.02</v>
       </c>
+      <c r="Q196" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -11516,6 +12106,9 @@
       <c r="P197" t="n">
         <v>0.02</v>
       </c>
+      <c r="Q197" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -11572,6 +12165,9 @@
       <c r="P198" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q198" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -11628,6 +12224,9 @@
       <c r="P199" t="n">
         <v>0.055</v>
       </c>
+      <c r="Q199" t="n">
+        <v>0.055</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -11684,6 +12283,9 @@
       <c r="P200" t="n">
         <v>0.4</v>
       </c>
+      <c r="Q200" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -11740,6 +12342,9 @@
       <c r="P201" t="n">
         <v>0.05</v>
       </c>
+      <c r="Q201" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -11796,6 +12401,9 @@
       <c r="P202" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Q202" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -11852,6 +12460,9 @@
       <c r="P203" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q203" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -11908,6 +12519,9 @@
       <c r="P204" t="n">
         <v>0.08</v>
       </c>
+      <c r="Q204" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -11964,6 +12578,9 @@
       <c r="P205" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q205" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -12020,6 +12637,9 @@
       <c r="P206" t="n">
         <v>0.63</v>
       </c>
+      <c r="Q206" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -12076,6 +12696,9 @@
       <c r="P207" t="n">
         <v>0.02</v>
       </c>
+      <c r="Q207" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -12132,6 +12755,9 @@
       <c r="P208" t="n">
         <v>0.04</v>
       </c>
+      <c r="Q208" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -12188,6 +12814,9 @@
       <c r="P209" t="n">
         <v>0.08</v>
       </c>
+      <c r="Q209" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -12244,6 +12873,9 @@
       <c r="P210" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q210" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -12300,6 +12932,9 @@
       <c r="P211" t="n">
         <v>0.13</v>
       </c>
+      <c r="Q211" t="n">
+        <v>0.105</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -12356,6 +12991,9 @@
       <c r="P212" t="n">
         <v>0.72</v>
       </c>
+      <c r="Q212" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -12412,6 +13050,9 @@
       <c r="P213" t="n">
         <v>0.015</v>
       </c>
+      <c r="Q213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -12468,6 +13109,9 @@
       <c r="P214" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q214" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -12524,6 +13168,9 @@
       <c r="P215" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Q215" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -12580,6 +13227,9 @@
       <c r="P216" t="n">
         <v>0.09</v>
       </c>
+      <c r="Q216" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -12636,6 +13286,9 @@
       <c r="P217" t="n">
         <v>0.075</v>
       </c>
+      <c r="Q217" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -12692,6 +13345,9 @@
       <c r="P218" t="n">
         <v>0.71</v>
       </c>
+      <c r="Q218" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -12748,6 +13404,9 @@
       <c r="P219" t="n">
         <v>0.02</v>
       </c>
+      <c r="Q219" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -12804,6 +13463,9 @@
       <c r="P220" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q220" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -12860,6 +13522,9 @@
       <c r="P221" t="n">
         <v>0.04</v>
       </c>
+      <c r="Q221" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -12916,6 +13581,9 @@
       <c r="P222" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Q222" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -12972,6 +13640,9 @@
       <c r="P223" t="n">
         <v>0.13</v>
       </c>
+      <c r="Q223" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -13028,6 +13699,9 @@
       <c r="P224" t="n">
         <v>0.61</v>
       </c>
+      <c r="Q224" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -13084,6 +13758,9 @@
       <c r="P225" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q225" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -13140,6 +13817,9 @@
       <c r="P226" t="n">
         <v>0.04</v>
       </c>
+      <c r="Q226" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -13196,6 +13876,9 @@
       <c r="P227" t="n">
         <v>0.09</v>
       </c>
+      <c r="Q227" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -13252,6 +13935,9 @@
       <c r="P228" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q228" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -13308,6 +13994,9 @@
       <c r="P229" t="n">
         <v>0.13</v>
       </c>
+      <c r="Q229" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -13364,6 +14053,9 @@
       <c r="P230" t="n">
         <v>0.85</v>
       </c>
+      <c r="Q230" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -13420,6 +14112,9 @@
       <c r="P231" t="n">
         <v>0.015</v>
       </c>
+      <c r="Q231" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -13476,6 +14171,9 @@
       <c r="P232" t="n">
         <v>0.02</v>
       </c>
+      <c r="Q232" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -13532,6 +14230,9 @@
       <c r="P233" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Q233" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -13588,6 +14289,9 @@
       <c r="P234" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q234" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -13644,6 +14348,9 @@
       <c r="P235" t="n">
         <v>0.015</v>
       </c>
+      <c r="Q235" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -13700,6 +14407,9 @@
       <c r="P236" t="n">
         <v>0.66</v>
       </c>
+      <c r="Q236" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -13756,6 +14466,9 @@
       <c r="P237" t="n">
         <v>0.02</v>
       </c>
+      <c r="Q237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -13812,6 +14525,9 @@
       <c r="P238" t="n">
         <v>0.06</v>
       </c>
+      <c r="Q238" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -13868,6 +14584,9 @@
       <c r="P239" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Q239" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -13924,6 +14643,9 @@
       <c r="P240" t="n">
         <v>0.11</v>
       </c>
+      <c r="Q240" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -13980,6 +14702,9 @@
       <c r="P241" t="n">
         <v>0.08</v>
       </c>
+      <c r="Q241" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -14036,6 +14761,9 @@
       <c r="P242" t="n">
         <v>0.7</v>
       </c>
+      <c r="Q242" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -14092,6 +14820,9 @@
       <c r="P243" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q243" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -14148,6 +14879,9 @@
       <c r="P244" t="n">
         <v>0.02</v>
       </c>
+      <c r="Q244" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -14204,6 +14938,9 @@
       <c r="P245" t="n">
         <v>0.09</v>
       </c>
+      <c r="Q245" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -14260,6 +14997,9 @@
       <c r="P246" t="n">
         <v>0.08</v>
       </c>
+      <c r="Q246" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -14316,6 +15056,9 @@
       <c r="P247" t="n">
         <v>0.08</v>
       </c>
+      <c r="Q247" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -14372,6 +15115,9 @@
       <c r="P248" t="n">
         <v>0.55</v>
       </c>
+      <c r="Q248" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -14428,6 +15174,9 @@
       <c r="P249" t="n">
         <v>0.02</v>
       </c>
+      <c r="Q249" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -14484,6 +15233,9 @@
       <c r="P250" t="n">
         <v>0.04</v>
       </c>
+      <c r="Q250" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -14540,6 +15292,9 @@
       <c r="P251" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Q251" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -14596,6 +15351,9 @@
       <c r="P252" t="n">
         <v>0.12</v>
       </c>
+      <c r="Q252" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -14652,6 +15410,9 @@
       <c r="P253" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q253" t="n">
+        <v>0.195</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -14708,6 +15469,9 @@
       <c r="P254" t="n">
         <v>0.66</v>
       </c>
+      <c r="Q254" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -14764,6 +15528,9 @@
       <c r="P255" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q255" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -14820,6 +15587,9 @@
       <c r="P256" t="n">
         <v>0.05</v>
       </c>
+      <c r="Q256" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -14876,6 +15646,9 @@
       <c r="P257" t="n">
         <v>0.06</v>
       </c>
+      <c r="Q257" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -14932,6 +15705,9 @@
       <c r="P258" t="n">
         <v>0.09</v>
       </c>
+      <c r="Q258" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -14988,6 +15764,9 @@
       <c r="P259" t="n">
         <v>0.11</v>
       </c>
+      <c r="Q259" t="n">
+        <v>0.095</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -15044,6 +15823,9 @@
       <c r="P260" t="n">
         <v>0.7</v>
       </c>
+      <c r="Q260" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -15100,6 +15882,9 @@
       <c r="P261" t="n">
         <v>0.02</v>
       </c>
+      <c r="Q261" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -15156,6 +15941,9 @@
       <c r="P262" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q262" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -15212,6 +16000,9 @@
       <c r="P263" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q263" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -15268,6 +16059,9 @@
       <c r="P264" t="n">
         <v>0.06</v>
       </c>
+      <c r="Q264" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -15324,6 +16118,9 @@
       <c r="P265" t="n">
         <v>0.09</v>
       </c>
+      <c r="Q265" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -15380,6 +16177,9 @@
       <c r="P266" t="n">
         <v>0.61</v>
       </c>
+      <c r="Q266" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -15436,6 +16236,9 @@
       <c r="P267" t="n">
         <v>0.02</v>
       </c>
+      <c r="Q267" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -15492,6 +16295,9 @@
       <c r="P268" t="n">
         <v>0.04</v>
       </c>
+      <c r="Q268" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -15548,6 +16354,9 @@
       <c r="P269" t="n">
         <v>0.11</v>
       </c>
+      <c r="Q269" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -15604,6 +16413,9 @@
       <c r="P270" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q270" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -15660,6 +16472,9 @@
       <c r="P271" t="n">
         <v>0.12</v>
       </c>
+      <c r="Q271" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -15716,6 +16531,9 @@
       <c r="P272" t="n">
         <v>0.61</v>
       </c>
+      <c r="Q272" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -15772,6 +16590,9 @@
       <c r="P273" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q273" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -15828,6 +16649,9 @@
       <c r="P274" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Q274" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -15884,6 +16708,9 @@
       <c r="P275" t="n">
         <v>0.11</v>
       </c>
+      <c r="Q275" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -15940,6 +16767,9 @@
       <c r="P276" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q276" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -15996,6 +16826,9 @@
       <c r="P277" t="n">
         <v>0.08</v>
       </c>
+      <c r="Q277" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -16052,6 +16885,9 @@
       <c r="P278" t="n">
         <v>0.64</v>
       </c>
+      <c r="Q278" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -16108,6 +16944,9 @@
       <c r="P279" t="n">
         <v>0.02</v>
       </c>
+      <c r="Q279" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -16164,6 +17003,9 @@
       <c r="P280" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q280" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -16220,6 +17062,9 @@
       <c r="P281" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q281" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -16276,6 +17121,9 @@
       <c r="P282" t="n">
         <v>0.09</v>
       </c>
+      <c r="Q282" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -16332,6 +17180,9 @@
       <c r="P283" t="n">
         <v>0.12</v>
       </c>
+      <c r="Q283" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -16388,6 +17239,9 @@
       <c r="P284" t="n">
         <v>0.54</v>
       </c>
+      <c r="Q284" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -16444,6 +17298,9 @@
       <c r="P285" t="n">
         <v>0.04</v>
       </c>
+      <c r="Q285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -16500,6 +17357,9 @@
       <c r="P286" t="n">
         <v>0.04</v>
       </c>
+      <c r="Q286" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -16556,6 +17416,9 @@
       <c r="P287" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q287" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -16612,6 +17475,9 @@
       <c r="P288" t="n">
         <v>0.09</v>
       </c>
+      <c r="Q288" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -16668,6 +17534,9 @@
       <c r="P289" t="n">
         <v>0.19</v>
       </c>
+      <c r="Q289" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -16724,6 +17593,9 @@
       <c r="P290" t="n">
         <v>0.66</v>
       </c>
+      <c r="Q290" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -16780,6 +17652,9 @@
       <c r="P291" t="n">
         <v>0.015</v>
       </c>
+      <c r="Q291" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -16836,6 +17711,9 @@
       <c r="P292" t="n">
         <v>0.05</v>
       </c>
+      <c r="Q292" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -16892,6 +17770,9 @@
       <c r="P293" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q293" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -16948,6 +17829,9 @@
       <c r="P294" t="n">
         <v>0.1</v>
       </c>
+      <c r="Q294" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -17004,6 +17888,9 @@
       <c r="P295" t="n">
         <v>0.075</v>
       </c>
+      <c r="Q295" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -17060,6 +17947,9 @@
       <c r="P296" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="Q296" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -17116,6 +18006,9 @@
       <c r="P297" t="n">
         <v>0.02</v>
       </c>
+      <c r="Q297" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -17172,6 +18065,9 @@
       <c r="P298" t="n">
         <v>0.03</v>
       </c>
+      <c r="Q298" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -17228,6 +18124,9 @@
       <c r="P299" t="n">
         <v>0.09</v>
       </c>
+      <c r="Q299" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -17284,6 +18183,9 @@
       <c r="P300" t="n">
         <v>0.08</v>
       </c>
+      <c r="Q300" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -17340,11 +18242,14 @@
       <c r="P301" t="n">
         <v>0.09</v>
       </c>
+      <c r="Q301" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, % respondentů celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+          <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, % respondentů celkově a ve skupinách, aktualizace 1. 9. 2021</t>
         </is>
       </c>
     </row>
@@ -17359,7 +18264,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17443,6 +18348,11 @@
           <t>20. 7. 2021</t>
         </is>
       </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>24. 8. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -17494,6 +18404,9 @@
       <c r="O2" t="n">
         <v>1782</v>
       </c>
+      <c r="P2" t="n">
+        <v>1901</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -17545,6 +18458,9 @@
       <c r="O3" t="n">
         <v>430</v>
       </c>
+      <c r="P3" t="n">
+        <v>452</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -17596,6 +18512,9 @@
       <c r="O4" t="n">
         <v>648</v>
       </c>
+      <c r="P4" t="n">
+        <v>709</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -17647,6 +18566,9 @@
       <c r="O5" t="n">
         <v>704</v>
       </c>
+      <c r="P5" t="n">
+        <v>740</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -17698,6 +18620,9 @@
       <c r="O6" t="n">
         <v>805</v>
       </c>
+      <c r="P6" t="n">
+        <v>872</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -17749,6 +18674,9 @@
       <c r="O7" t="n">
         <v>622</v>
       </c>
+      <c r="P7" t="n">
+        <v>654</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -17800,6 +18728,9 @@
       <c r="O8" t="n">
         <v>355</v>
       </c>
+      <c r="P8" t="n">
+        <v>375</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -17851,6 +18782,9 @@
       <c r="O9" t="n">
         <v>399</v>
       </c>
+      <c r="P9" t="n">
+        <v>445</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -17902,6 +18836,9 @@
       <c r="O10" t="n">
         <v>435</v>
       </c>
+      <c r="P10" t="n">
+        <v>458</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -17953,6 +18890,9 @@
       <c r="O11" t="n">
         <v>245</v>
       </c>
+      <c r="P11" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -18004,6 +18944,9 @@
       <c r="O12" t="n">
         <v>406</v>
       </c>
+      <c r="P12" t="n">
+        <v>427</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -18055,6 +18998,9 @@
       <c r="O13" t="n">
         <v>187</v>
       </c>
+      <c r="P13" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -18106,6 +19052,9 @@
       <c r="O14" t="n">
         <v>110</v>
       </c>
+      <c r="P14" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -18157,6 +19106,9 @@
       <c r="O15" t="n">
         <v>863</v>
       </c>
+      <c r="P15" t="n">
+        <v>937</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -18208,6 +19160,9 @@
       <c r="O16" t="n">
         <v>919</v>
       </c>
+      <c r="P16" t="n">
+        <v>964</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -18259,6 +19214,9 @@
       <c r="O17" t="n">
         <v>225</v>
       </c>
+      <c r="P17" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -18310,6 +19268,9 @@
       <c r="O18" t="n">
         <v>326</v>
       </c>
+      <c r="P18" t="n">
+        <v>370</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -18361,6 +19322,9 @@
       <c r="O19" t="n">
         <v>312</v>
       </c>
+      <c r="P19" t="n">
+        <v>332</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -18412,6 +19376,9 @@
       <c r="O20" t="n">
         <v>206</v>
       </c>
+      <c r="P20" t="n">
+        <v>217</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18463,6 +19430,9 @@
       <c r="O21" t="n">
         <v>322</v>
       </c>
+      <c r="P21" t="n">
+        <v>339</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18514,6 +19484,9 @@
       <c r="O22" t="n">
         <v>391</v>
       </c>
+      <c r="P22" t="n">
+        <v>408</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18565,6 +19538,9 @@
       <c r="O23" t="n">
         <v>923</v>
       </c>
+      <c r="P23" t="n">
+        <v>988</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18616,6 +19592,9 @@
       <c r="O24" t="n">
         <v>417</v>
       </c>
+      <c r="P24" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18667,6 +19646,9 @@
       <c r="O25" t="n">
         <v>208</v>
       </c>
+      <c r="P25" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18718,6 +19700,9 @@
       <c r="O26" t="n">
         <v>234</v>
       </c>
+      <c r="P26" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18769,6 +19754,9 @@
       <c r="O27" t="n">
         <v>565</v>
       </c>
+      <c r="P27" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18820,6 +19808,9 @@
       <c r="O28" t="n">
         <v>259</v>
       </c>
+      <c r="P28" t="n">
+        <v>273</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18871,6 +19862,9 @@
       <c r="O29" t="n">
         <v>126</v>
       </c>
+      <c r="P29" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -18922,6 +19916,9 @@
       <c r="O30" t="n">
         <v>129</v>
       </c>
+      <c r="P30" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -18973,6 +19970,9 @@
       <c r="O31" t="n">
         <v>358</v>
       </c>
+      <c r="P31" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -19024,6 +20024,9 @@
       <c r="O32" t="n">
         <v>157</v>
       </c>
+      <c r="P32" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -19075,6 +20078,9 @@
       <c r="O33" t="n">
         <v>82</v>
       </c>
+      <c r="P33" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -19126,6 +20132,9 @@
       <c r="O34" t="n">
         <v>106</v>
       </c>
+      <c r="P34" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -19177,6 +20186,9 @@
       <c r="O35" t="n">
         <v>201</v>
       </c>
+      <c r="P35" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -19228,6 +20240,9 @@
       <c r="O36" t="n">
         <v>684</v>
       </c>
+      <c r="P36" t="n">
+        <v>729</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -19279,6 +20294,9 @@
       <c r="O37" t="n">
         <v>557</v>
       </c>
+      <c r="P37" t="n">
+        <v>583</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -19330,6 +20348,9 @@
       <c r="O38" t="n">
         <v>236</v>
       </c>
+      <c r="P38" t="n">
+        <v>263</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -19381,6 +20402,9 @@
       <c r="O39" t="n">
         <v>281</v>
       </c>
+      <c r="P39" t="n">
+        <v>263</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -19432,6 +20456,9 @@
       <c r="O40" t="n">
         <v>223</v>
       </c>
+      <c r="P40" t="n">
+        <v>257</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -19483,6 +20510,9 @@
       <c r="O41" t="n">
         <v>292</v>
       </c>
+      <c r="P41" t="n">
+        <v>354</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -19534,6 +20564,9 @@
       <c r="O42" t="n">
         <v>267</v>
       </c>
+      <c r="P42" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -19585,6 +20618,9 @@
       <c r="O43" t="n">
         <v>463</v>
       </c>
+      <c r="P43" t="n">
+        <v>515</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -19636,6 +20672,9 @@
       <c r="O44" t="n">
         <v>327</v>
       </c>
+      <c r="P44" t="n">
+        <v>314</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -19687,6 +20726,9 @@
       <c r="O45" t="n">
         <v>349</v>
       </c>
+      <c r="P45" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -19738,6 +20780,9 @@
       <c r="O46" t="n">
         <v>1106</v>
       </c>
+      <c r="P46" t="n">
+        <v>1237</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -19789,6 +20834,9 @@
       <c r="O47" t="n">
         <v>251</v>
       </c>
+      <c r="P47" t="n">
+        <v>265</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -19840,6 +20888,9 @@
       <c r="O48" t="n">
         <v>1531</v>
       </c>
+      <c r="P48" t="n">
+        <v>1636</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -19891,6 +20942,9 @@
       <c r="O49" t="n">
         <v>459</v>
       </c>
+      <c r="P49" t="n">
+        <v>522</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -19942,6 +20996,9 @@
       <c r="O50" t="n">
         <v>767</v>
       </c>
+      <c r="P50" t="n">
+        <v>847</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -19993,11 +21050,14 @@
       <c r="O51" t="n">
         <v>556</v>
       </c>
+      <c r="P51" t="n">
+        <v>529</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, velikost dotázaného souboru celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+          <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -20014,6 +21074,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_07b_ockovani.xlsx
+++ b/ZBP_07b_ockovani.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q302"/>
+  <dimension ref="A1:R302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,11 @@
           <t>24. 8. 2021</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>28. 9. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -604,6 +609,9 @@
       <c r="Q2" t="n">
         <v>0.68</v>
       </c>
+      <c r="R2" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -663,6 +671,9 @@
       <c r="Q3" t="n">
         <v>0.01</v>
       </c>
+      <c r="R3" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -722,6 +733,9 @@
       <c r="Q4" t="n">
         <v>0.04</v>
       </c>
+      <c r="R4" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -781,6 +795,9 @@
       <c r="Q5" t="n">
         <v>0.08</v>
       </c>
+      <c r="R5" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -840,6 +857,9 @@
       <c r="Q6" t="n">
         <v>0.08</v>
       </c>
+      <c r="R6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -899,6 +919,9 @@
       <c r="Q7" t="n">
         <v>0.11</v>
       </c>
+      <c r="R7" t="n">
+        <v>0.115</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -958,6 +981,9 @@
       <c r="Q8" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="R8" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1017,6 +1043,9 @@
       <c r="Q9" t="n">
         <v>0.02</v>
       </c>
+      <c r="R9" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1076,6 +1105,9 @@
       <c r="Q10" t="n">
         <v>0.06</v>
       </c>
+      <c r="R10" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1135,6 +1167,9 @@
       <c r="Q11" t="n">
         <v>0.1</v>
       </c>
+      <c r="R11" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1194,6 +1229,9 @@
       <c r="Q12" t="n">
         <v>0.13</v>
       </c>
+      <c r="R12" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1253,6 +1291,9 @@
       <c r="Q13" t="n">
         <v>0.13</v>
       </c>
+      <c r="R13" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1312,6 +1353,9 @@
       <c r="Q14" t="n">
         <v>0.63</v>
       </c>
+      <c r="R14" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1371,6 +1415,9 @@
       <c r="Q15" t="n">
         <v>0.01</v>
       </c>
+      <c r="R15" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1430,6 +1477,9 @@
       <c r="Q16" t="n">
         <v>0.05</v>
       </c>
+      <c r="R16" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1489,6 +1539,9 @@
       <c r="Q17" t="n">
         <v>0.08</v>
       </c>
+      <c r="R17" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1548,6 +1601,9 @@
       <c r="Q18" t="n">
         <v>0.08</v>
       </c>
+      <c r="R18" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1607,6 +1663,9 @@
       <c r="Q19" t="n">
         <v>0.15</v>
       </c>
+      <c r="R19" t="n">
+        <v>0.155</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1666,6 +1725,9 @@
       <c r="Q20" t="n">
         <v>0.8</v>
       </c>
+      <c r="R20" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1725,6 +1787,9 @@
       <c r="Q21" t="n">
         <v>0.005</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1784,6 +1849,9 @@
       <c r="Q22" t="n">
         <v>0.015</v>
       </c>
+      <c r="R22" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1843,6 +1911,9 @@
       <c r="Q23" t="n">
         <v>0.06</v>
       </c>
+      <c r="R23" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1902,6 +1973,9 @@
       <c r="Q24" t="n">
         <v>0.04</v>
       </c>
+      <c r="R24" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1961,6 +2035,9 @@
       <c r="Q25" t="n">
         <v>0.08</v>
       </c>
+      <c r="R25" t="n">
+        <v>0.08500000000000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2020,6 +2097,9 @@
       <c r="Q26" t="n">
         <v>0.63</v>
       </c>
+      <c r="R26" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2079,6 +2159,9 @@
       <c r="Q27" t="n">
         <v>0.015</v>
       </c>
+      <c r="R27" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2138,6 +2221,9 @@
       <c r="Q28" t="n">
         <v>0.05</v>
       </c>
+      <c r="R28" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2197,6 +2283,9 @@
       <c r="Q29" t="n">
         <v>0.11</v>
       </c>
+      <c r="R29" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2256,6 +2345,9 @@
       <c r="Q30" t="n">
         <v>0.06</v>
       </c>
+      <c r="R30" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2315,6 +2407,9 @@
       <c r="Q31" t="n">
         <v>0.135</v>
       </c>
+      <c r="R31" t="n">
+        <v>0.145</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2374,6 +2469,9 @@
       <c r="Q32" t="n">
         <v>0.67</v>
       </c>
+      <c r="R32" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2433,6 +2531,9 @@
       <c r="Q33" t="n">
         <v>0.01</v>
       </c>
+      <c r="R33" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2492,6 +2593,9 @@
       <c r="Q34" t="n">
         <v>0.04</v>
       </c>
+      <c r="R34" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2551,6 +2655,9 @@
       <c r="Q35" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="R35" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2610,6 +2717,9 @@
       <c r="Q36" t="n">
         <v>0.1</v>
       </c>
+      <c r="R36" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2669,6 +2779,9 @@
       <c r="Q37" t="n">
         <v>0.11</v>
       </c>
+      <c r="R37" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2728,6 +2841,9 @@
       <c r="Q38" t="n">
         <v>0.8</v>
       </c>
+      <c r="R38" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2787,6 +2903,9 @@
       <c r="Q39" t="n">
         <v>0.01</v>
       </c>
+      <c r="R39" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2846,6 +2965,9 @@
       <c r="Q40" t="n">
         <v>0.03</v>
       </c>
+      <c r="R40" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2905,6 +3027,9 @@
       <c r="Q41" t="n">
         <v>0.04</v>
       </c>
+      <c r="R41" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2964,6 +3089,9 @@
       <c r="Q42" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="R42" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3023,6 +3151,9 @@
       <c r="Q43" t="n">
         <v>0.05</v>
       </c>
+      <c r="R43" t="n">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3082,6 +3213,9 @@
       <c r="Q44" t="n">
         <v>0.53</v>
       </c>
+      <c r="R44" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3141,6 +3275,9 @@
       <c r="Q45" t="n">
         <v>0.02</v>
       </c>
+      <c r="R45" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3200,6 +3337,9 @@
       <c r="Q46" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="R46" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3259,6 +3399,9 @@
       <c r="Q47" t="n">
         <v>0.13</v>
       </c>
+      <c r="R47" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3318,6 +3461,9 @@
       <c r="Q48" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="R48" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3377,6 +3523,9 @@
       <c r="Q49" t="n">
         <v>0.18</v>
       </c>
+      <c r="R49" t="n">
+        <v>0.175</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3436,6 +3585,9 @@
       <c r="Q50" t="n">
         <v>0.58</v>
       </c>
+      <c r="R50" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3495,6 +3647,9 @@
       <c r="Q51" t="n">
         <v>0.015</v>
       </c>
+      <c r="R51" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3554,6 +3709,9 @@
       <c r="Q52" t="n">
         <v>0.05</v>
       </c>
+      <c r="R52" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3613,6 +3771,9 @@
       <c r="Q53" t="n">
         <v>0.08</v>
       </c>
+      <c r="R53" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3672,6 +3833,9 @@
       <c r="Q54" t="n">
         <v>0.13</v>
       </c>
+      <c r="R54" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3731,6 +3895,9 @@
       <c r="Q55" t="n">
         <v>0.145</v>
       </c>
+      <c r="R55" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3790,6 +3957,9 @@
       <c r="Q56" t="n">
         <v>0.76</v>
       </c>
+      <c r="R56" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3849,6 +4019,9 @@
       <c r="Q57" t="n">
         <v>0.01</v>
       </c>
+      <c r="R57" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3908,6 +4081,9 @@
       <c r="Q58" t="n">
         <v>0.03</v>
       </c>
+      <c r="R58" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3967,6 +4143,9 @@
       <c r="Q59" t="n">
         <v>0.05</v>
       </c>
+      <c r="R59" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4026,6 +4205,9 @@
       <c r="Q60" t="n">
         <v>0.08</v>
       </c>
+      <c r="R60" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4085,6 +4267,9 @@
       <c r="Q61" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="R61" t="n">
+        <v>0.095</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4144,6 +4329,9 @@
       <c r="Q62" t="n">
         <v>0.73</v>
       </c>
+      <c r="R62" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4203,6 +4391,9 @@
       <c r="Q63" t="n">
         <v>0.01</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4262,6 +4453,9 @@
       <c r="Q64" t="n">
         <v>0.015</v>
       </c>
+      <c r="R64" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4321,6 +4515,9 @@
       <c r="Q65" t="n">
         <v>0.09</v>
       </c>
+      <c r="R65" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4380,6 +4577,9 @@
       <c r="Q66" t="n">
         <v>0.05</v>
       </c>
+      <c r="R66" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4439,6 +4639,9 @@
       <c r="Q67" t="n">
         <v>0.105</v>
       </c>
+      <c r="R67" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4498,6 +4701,9 @@
       <c r="Q68" t="n">
         <v>0.88</v>
       </c>
+      <c r="R68" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4557,6 +4763,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4616,6 +4825,9 @@
       <c r="Q70" t="n">
         <v>0.01</v>
       </c>
+      <c r="R70" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4675,6 +4887,9 @@
       <c r="Q71" t="n">
         <v>0.03</v>
       </c>
+      <c r="R71" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4734,6 +4949,9 @@
       <c r="Q72" t="n">
         <v>0.03</v>
       </c>
+      <c r="R72" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4793,6 +5011,9 @@
       <c r="Q73" t="n">
         <v>0.05</v>
       </c>
+      <c r="R73" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4852,6 +5073,9 @@
       <c r="Q74" t="n">
         <v>0.9</v>
       </c>
+      <c r="R74" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4911,6 +5135,9 @@
       <c r="Q75" t="n">
         <v>0.005</v>
       </c>
+      <c r="R75" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4970,6 +5197,9 @@
       <c r="Q76" t="n">
         <v>0.015</v>
       </c>
+      <c r="R76" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5029,6 +5259,9 @@
       <c r="Q77" t="n">
         <v>0.015</v>
       </c>
+      <c r="R77" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5088,6 +5321,9 @@
       <c r="Q78" t="n">
         <v>0.04</v>
       </c>
+      <c r="R78" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5147,6 +5383,9 @@
       <c r="Q79" t="n">
         <v>0.025</v>
       </c>
+      <c r="R79" t="n">
+        <v>0.035</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5206,6 +5445,9 @@
       <c r="Q80" t="n">
         <v>0.72</v>
       </c>
+      <c r="R80" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5265,6 +5507,9 @@
       <c r="Q81" t="n">
         <v>0.01</v>
       </c>
+      <c r="R81" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5324,6 +5569,9 @@
       <c r="Q82" t="n">
         <v>0.04</v>
       </c>
+      <c r="R82" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5383,6 +5631,9 @@
       <c r="Q83" t="n">
         <v>0.06</v>
       </c>
+      <c r="R83" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5442,6 +5693,9 @@
       <c r="Q84" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="R84" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5501,6 +5755,9 @@
       <c r="Q85" t="n">
         <v>0.1</v>
       </c>
+      <c r="R85" t="n">
+        <v>0.095</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5560,6 +5817,9 @@
       <c r="Q86" t="n">
         <v>0.64</v>
       </c>
+      <c r="R86" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5619,6 +5879,9 @@
       <c r="Q87" t="n">
         <v>0.015</v>
       </c>
+      <c r="R87" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5678,6 +5941,9 @@
       <c r="Q88" t="n">
         <v>0.04</v>
       </c>
+      <c r="R88" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5737,6 +6003,9 @@
       <c r="Q89" t="n">
         <v>0.1</v>
       </c>
+      <c r="R89" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5796,6 +6065,9 @@
       <c r="Q90" t="n">
         <v>0.08</v>
       </c>
+      <c r="R90" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5855,6 +6127,9 @@
       <c r="Q91" t="n">
         <v>0.125</v>
       </c>
+      <c r="R91" t="n">
+        <v>0.145</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5914,6 +6189,9 @@
       <c r="Q92" t="n">
         <v>0.63</v>
       </c>
+      <c r="R92" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5973,6 +6251,9 @@
       <c r="Q93" t="n">
         <v>0.01</v>
       </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6032,6 +6313,9 @@
       <c r="Q94" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="R94" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6091,6 +6375,9 @@
       <c r="Q95" t="n">
         <v>0.1</v>
       </c>
+      <c r="R95" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6150,6 +6437,9 @@
       <c r="Q96" t="n">
         <v>0.08</v>
       </c>
+      <c r="R96" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6209,6 +6499,9 @@
       <c r="Q97" t="n">
         <v>0.11</v>
       </c>
+      <c r="R97" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6268,6 +6561,9 @@
       <c r="Q98" t="n">
         <v>0.67</v>
       </c>
+      <c r="R98" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6327,6 +6623,9 @@
       <c r="Q99" t="n">
         <v>0.01</v>
       </c>
+      <c r="R99" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6386,6 +6685,9 @@
       <c r="Q100" t="n">
         <v>0.05</v>
       </c>
+      <c r="R100" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6445,6 +6747,9 @@
       <c r="Q101" t="n">
         <v>0.06</v>
       </c>
+      <c r="R101" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6504,6 +6809,9 @@
       <c r="Q102" t="n">
         <v>0.09</v>
       </c>
+      <c r="R102" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6563,6 +6871,9 @@
       <c r="Q103" t="n">
         <v>0.12</v>
       </c>
+      <c r="R103" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6622,6 +6933,9 @@
       <c r="Q104" t="n">
         <v>0.84</v>
       </c>
+      <c r="R104" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6681,6 +6995,9 @@
       <c r="Q105" t="n">
         <v>0.005</v>
       </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6740,6 +7057,9 @@
       <c r="Q106" t="n">
         <v>0.01</v>
       </c>
+      <c r="R106" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6799,6 +7119,9 @@
       <c r="Q107" t="n">
         <v>0.02</v>
       </c>
+      <c r="R107" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6858,6 +7181,9 @@
       <c r="Q108" t="n">
         <v>0.05</v>
       </c>
+      <c r="R108" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6917,6 +7243,9 @@
       <c r="Q109" t="n">
         <v>0.075</v>
       </c>
+      <c r="R109" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6976,6 +7305,9 @@
       <c r="Q110" t="n">
         <v>0.48</v>
       </c>
+      <c r="R110" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7035,6 +7367,9 @@
       <c r="Q111" t="n">
         <v>0.04</v>
       </c>
+      <c r="R111" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7094,6 +7429,9 @@
       <c r="Q112" t="n">
         <v>0.04</v>
       </c>
+      <c r="R112" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7153,6 +7491,9 @@
       <c r="Q113" t="n">
         <v>0.1</v>
       </c>
+      <c r="R113" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7212,6 +7553,9 @@
       <c r="Q114" t="n">
         <v>0.18</v>
       </c>
+      <c r="R114" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7271,6 +7615,9 @@
       <c r="Q115" t="n">
         <v>0.16</v>
       </c>
+      <c r="R115" t="n">
+        <v>0.165</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7330,6 +7677,9 @@
       <c r="Q116" t="n">
         <v>0.59</v>
       </c>
+      <c r="R116" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7389,6 +7739,9 @@
       <c r="Q117" t="n">
         <v>0.005</v>
       </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7448,6 +7801,9 @@
       <c r="Q118" t="n">
         <v>0.06</v>
       </c>
+      <c r="R118" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7507,6 +7863,9 @@
       <c r="Q119" t="n">
         <v>0.11</v>
       </c>
+      <c r="R119" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7566,6 +7925,9 @@
       <c r="Q120" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="R120" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7625,6 +7987,9 @@
       <c r="Q121" t="n">
         <v>0.165</v>
       </c>
+      <c r="R121" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7684,6 +8049,9 @@
       <c r="Q122" t="n">
         <v>0.76</v>
       </c>
+      <c r="R122" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7743,6 +8111,9 @@
       <c r="Q123" t="n">
         <v>0.01</v>
       </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7802,6 +8173,9 @@
       <c r="Q124" t="n">
         <v>0.015</v>
       </c>
+      <c r="R124" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7861,6 +8235,9 @@
       <c r="Q125" t="n">
         <v>0.09</v>
       </c>
+      <c r="R125" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7920,6 +8297,9 @@
       <c r="Q126" t="n">
         <v>0.04</v>
       </c>
+      <c r="R126" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7979,6 +8359,9 @@
       <c r="Q127" t="n">
         <v>0.08500000000000001</v>
       </c>
+      <c r="R127" t="n">
+        <v>0.105</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -8038,6 +8421,9 @@
       <c r="Q128" t="n">
         <v>0.66</v>
       </c>
+      <c r="R128" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -8097,6 +8483,9 @@
       <c r="Q129" t="n">
         <v>0.02</v>
       </c>
+      <c r="R129" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -8156,6 +8545,9 @@
       <c r="Q130" t="n">
         <v>0.03</v>
       </c>
+      <c r="R130" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -8215,6 +8607,9 @@
       <c r="Q131" t="n">
         <v>0.08</v>
       </c>
+      <c r="R131" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -8274,6 +8669,9 @@
       <c r="Q132" t="n">
         <v>0.08</v>
       </c>
+      <c r="R132" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -8333,6 +8731,9 @@
       <c r="Q133" t="n">
         <v>0.13</v>
       </c>
+      <c r="R133" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8392,6 +8793,9 @@
       <c r="Q134" t="n">
         <v>0.66</v>
       </c>
+      <c r="R134" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -8451,6 +8855,9 @@
       <c r="Q135" t="n">
         <v>0.01</v>
       </c>
+      <c r="R135" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8510,6 +8917,9 @@
       <c r="Q136" t="n">
         <v>0.05</v>
       </c>
+      <c r="R136" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8569,6 +8979,9 @@
       <c r="Q137" t="n">
         <v>0.09</v>
       </c>
+      <c r="R137" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8628,6 +9041,9 @@
       <c r="Q138" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="R138" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -8687,6 +9103,9 @@
       <c r="Q139" t="n">
         <v>0.12</v>
       </c>
+      <c r="R139" t="n">
+        <v>0.135</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8746,6 +9165,9 @@
       <c r="Q140" t="n">
         <v>0.66</v>
       </c>
+      <c r="R140" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8805,6 +9227,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
+      <c r="R141" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8864,6 +9289,9 @@
       <c r="Q142" t="n">
         <v>0.04</v>
       </c>
+      <c r="R142" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8923,6 +9351,9 @@
       <c r="Q143" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="R143" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8982,6 +9413,9 @@
       <c r="Q144" t="n">
         <v>0.1</v>
       </c>
+      <c r="R144" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -9041,6 +9475,9 @@
       <c r="Q145" t="n">
         <v>0.13</v>
       </c>
+      <c r="R145" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9100,6 +9537,9 @@
       <c r="Q146" t="n">
         <v>0.79</v>
       </c>
+      <c r="R146" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -9159,6 +9599,9 @@
       <c r="Q147" t="n">
         <v>0.005</v>
       </c>
+      <c r="R147" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -9218,6 +9661,9 @@
       <c r="Q148" t="n">
         <v>0.04</v>
       </c>
+      <c r="R148" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -9277,6 +9723,9 @@
       <c r="Q149" t="n">
         <v>0.05</v>
       </c>
+      <c r="R149" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -9336,6 +9785,9 @@
       <c r="Q150" t="n">
         <v>0.04</v>
       </c>
+      <c r="R150" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -9395,6 +9847,9 @@
       <c r="Q151" t="n">
         <v>0.075</v>
       </c>
+      <c r="R151" t="n">
+        <v>0.08500000000000001</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -9454,6 +9909,9 @@
       <c r="Q152" t="n">
         <v>0.58</v>
       </c>
+      <c r="R152" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -9513,6 +9971,9 @@
       <c r="Q153" t="n">
         <v>0.02</v>
       </c>
+      <c r="R153" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -9572,6 +10033,9 @@
       <c r="Q154" t="n">
         <v>0.05</v>
       </c>
+      <c r="R154" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -9631,6 +10095,9 @@
       <c r="Q155" t="n">
         <v>0.1</v>
       </c>
+      <c r="R155" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -9690,6 +10157,9 @@
       <c r="Q156" t="n">
         <v>0.11</v>
       </c>
+      <c r="R156" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -9749,6 +10219,9 @@
       <c r="Q157" t="n">
         <v>0.14</v>
       </c>
+      <c r="R157" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -9808,6 +10281,9 @@
       <c r="Q158" t="n">
         <v>0.59</v>
       </c>
+      <c r="R158" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9867,6 +10343,9 @@
       <c r="Q159" t="n">
         <v>0.015</v>
       </c>
+      <c r="R159" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9926,6 +10405,9 @@
       <c r="Q160" t="n">
         <v>0.08</v>
       </c>
+      <c r="R160" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9985,6 +10467,9 @@
       <c r="Q161" t="n">
         <v>0.1</v>
       </c>
+      <c r="R161" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -10044,6 +10529,9 @@
       <c r="Q162" t="n">
         <v>0.08</v>
       </c>
+      <c r="R162" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -10103,6 +10591,9 @@
       <c r="Q163" t="n">
         <v>0.135</v>
       </c>
+      <c r="R163" t="n">
+        <v>0.135</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -10162,6 +10653,9 @@
       <c r="Q164" t="n">
         <v>0.61</v>
       </c>
+      <c r="R164" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -10221,6 +10715,9 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -10280,6 +10777,9 @@
       <c r="Q166" t="n">
         <v>0.05</v>
       </c>
+      <c r="R166" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -10339,6 +10839,9 @@
       <c r="Q167" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="R167" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -10398,6 +10901,9 @@
       <c r="Q168" t="n">
         <v>0.12</v>
       </c>
+      <c r="R168" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -10457,6 +10963,9 @@
       <c r="Q169" t="n">
         <v>0.15</v>
       </c>
+      <c r="R169" t="n">
+        <v>0.145</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -10516,6 +11025,9 @@
       <c r="Q170" t="n">
         <v>0.72</v>
       </c>
+      <c r="R170" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -10575,6 +11087,9 @@
       <c r="Q171" t="n">
         <v>0.005</v>
       </c>
+      <c r="R171" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -10634,6 +11149,9 @@
       <c r="Q172" t="n">
         <v>0.05</v>
       </c>
+      <c r="R172" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -10693,6 +11211,9 @@
       <c r="Q173" t="n">
         <v>0.08</v>
       </c>
+      <c r="R173" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -10752,6 +11273,9 @@
       <c r="Q174" t="n">
         <v>0.06</v>
       </c>
+      <c r="R174" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -10811,6 +11335,9 @@
       <c r="Q175" t="n">
         <v>0.08500000000000001</v>
       </c>
+      <c r="R175" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -10870,6 +11397,9 @@
       <c r="Q176" t="n">
         <v>0.79</v>
       </c>
+      <c r="R176" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -10929,6 +11459,9 @@
       <c r="Q177" t="n">
         <v>0.015</v>
       </c>
+      <c r="R177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10988,6 +11521,9 @@
       <c r="Q178" t="n">
         <v>0.015</v>
       </c>
+      <c r="R178" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -11047,6 +11583,9 @@
       <c r="Q179" t="n">
         <v>0.06</v>
       </c>
+      <c r="R179" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -11106,6 +11645,9 @@
       <c r="Q180" t="n">
         <v>0.04</v>
       </c>
+      <c r="R180" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -11165,6 +11707,9 @@
       <c r="Q181" t="n">
         <v>0.08</v>
       </c>
+      <c r="R181" t="n">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -11224,6 +11769,9 @@
       <c r="Q182" t="n">
         <v>0.78</v>
       </c>
+      <c r="R182" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -11283,6 +11831,9 @@
       <c r="Q183" t="n">
         <v>0</v>
       </c>
+      <c r="R183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -11342,6 +11893,9 @@
       <c r="Q184" t="n">
         <v>0.01</v>
       </c>
+      <c r="R184" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -11401,6 +11955,9 @@
       <c r="Q185" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="R185" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -11460,6 +12017,9 @@
       <c r="Q186" t="n">
         <v>0.05</v>
       </c>
+      <c r="R186" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -11519,6 +12079,9 @@
       <c r="Q187" t="n">
         <v>0.09</v>
       </c>
+      <c r="R187" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -11578,6 +12141,9 @@
       <c r="Q188" t="n">
         <v>0.74</v>
       </c>
+      <c r="R188" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -11637,6 +12203,9 @@
       <c r="Q189" t="n">
         <v>0.005</v>
       </c>
+      <c r="R189" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -11696,6 +12265,9 @@
       <c r="Q190" t="n">
         <v>0.01</v>
       </c>
+      <c r="R190" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -11755,6 +12327,9 @@
       <c r="Q191" t="n">
         <v>0.08</v>
       </c>
+      <c r="R191" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -11814,6 +12389,9 @@
       <c r="Q192" t="n">
         <v>0.06</v>
       </c>
+      <c r="R192" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -11873,6 +12451,9 @@
       <c r="Q193" t="n">
         <v>0.105</v>
       </c>
+      <c r="R193" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -11932,6 +12513,9 @@
       <c r="Q194" t="n">
         <v>0.89</v>
       </c>
+      <c r="R194" t="n">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -11991,6 +12575,9 @@
       <c r="Q195" t="n">
         <v>0.005</v>
       </c>
+      <c r="R195" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -12050,6 +12637,9 @@
       <c r="Q196" t="n">
         <v>0.015</v>
       </c>
+      <c r="R196" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -12109,6 +12699,9 @@
       <c r="Q197" t="n">
         <v>0.015</v>
       </c>
+      <c r="R197" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -12168,6 +12761,9 @@
       <c r="Q198" t="n">
         <v>0.02</v>
       </c>
+      <c r="R198" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -12227,6 +12823,9 @@
       <c r="Q199" t="n">
         <v>0.055</v>
       </c>
+      <c r="R199" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -12286,6 +12885,9 @@
       <c r="Q200" t="n">
         <v>0.51</v>
       </c>
+      <c r="R200" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -12345,6 +12947,9 @@
       <c r="Q201" t="n">
         <v>0.03</v>
       </c>
+      <c r="R201" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -12404,6 +13009,9 @@
       <c r="Q202" t="n">
         <v>0.08</v>
       </c>
+      <c r="R202" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -12463,6 +13071,9 @@
       <c r="Q203" t="n">
         <v>0.12</v>
       </c>
+      <c r="R203" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -12522,6 +13133,9 @@
       <c r="Q204" t="n">
         <v>0.05</v>
       </c>
+      <c r="R204" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -12581,6 +13195,9 @@
       <c r="Q205" t="n">
         <v>0.21</v>
       </c>
+      <c r="R205" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -12640,6 +13257,9 @@
       <c r="Q206" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="R206" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -12699,6 +13319,9 @@
       <c r="Q207" t="n">
         <v>0.015</v>
       </c>
+      <c r="R207" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -12758,6 +13381,9 @@
       <c r="Q208" t="n">
         <v>0.05</v>
       </c>
+      <c r="R208" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -12817,6 +13443,9 @@
       <c r="Q209" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="R209" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -12876,6 +13505,9 @@
       <c r="Q210" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="R210" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -12935,6 +13567,9 @@
       <c r="Q211" t="n">
         <v>0.105</v>
       </c>
+      <c r="R211" t="n">
+        <v>0.135</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -12994,6 +13629,9 @@
       <c r="Q212" t="n">
         <v>0.73</v>
       </c>
+      <c r="R212" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -13053,6 +13691,9 @@
       <c r="Q213" t="n">
         <v>0</v>
       </c>
+      <c r="R213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -13112,6 +13753,9 @@
       <c r="Q214" t="n">
         <v>0.02</v>
       </c>
+      <c r="R214" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -13171,6 +13815,9 @@
       <c r="Q215" t="n">
         <v>0.08</v>
       </c>
+      <c r="R215" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -13230,6 +13877,9 @@
       <c r="Q216" t="n">
         <v>0.08</v>
       </c>
+      <c r="R216" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -13289,6 +13939,9 @@
       <c r="Q217" t="n">
         <v>0.09</v>
       </c>
+      <c r="R217" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -13348,6 +14001,9 @@
       <c r="Q218" t="n">
         <v>0.74</v>
       </c>
+      <c r="R218" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -13407,6 +14063,9 @@
       <c r="Q219" t="n">
         <v>0.02</v>
       </c>
+      <c r="R219" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -13466,6 +14125,9 @@
       <c r="Q220" t="n">
         <v>0.04</v>
       </c>
+      <c r="R220" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -13525,6 +14187,9 @@
       <c r="Q221" t="n">
         <v>0.04</v>
       </c>
+      <c r="R221" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -13584,6 +14249,9 @@
       <c r="Q222" t="n">
         <v>0.08</v>
       </c>
+      <c r="R222" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -13643,6 +14311,9 @@
       <c r="Q223" t="n">
         <v>0.08</v>
       </c>
+      <c r="R223" t="n">
+        <v>0.115</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -13702,6 +14373,9 @@
       <c r="Q224" t="n">
         <v>0.66</v>
       </c>
+      <c r="R224" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -13761,6 +14435,9 @@
       <c r="Q225" t="n">
         <v>0.02</v>
       </c>
+      <c r="R225" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -13820,6 +14497,9 @@
       <c r="Q226" t="n">
         <v>0.05</v>
       </c>
+      <c r="R226" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -13879,6 +14559,9 @@
       <c r="Q227" t="n">
         <v>0.1</v>
       </c>
+      <c r="R227" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -13938,6 +14621,9 @@
       <c r="Q228" t="n">
         <v>0.05</v>
       </c>
+      <c r="R228" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -13997,6 +14683,9 @@
       <c r="Q229" t="n">
         <v>0.12</v>
       </c>
+      <c r="R229" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -14056,6 +14745,9 @@
       <c r="Q230" t="n">
         <v>0.73</v>
       </c>
+      <c r="R230" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -14115,6 +14807,9 @@
       <c r="Q231" t="n">
         <v>0.03</v>
       </c>
+      <c r="R231" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -14174,6 +14869,9 @@
       <c r="Q232" t="n">
         <v>0.04</v>
       </c>
+      <c r="R232" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -14233,6 +14931,9 @@
       <c r="Q233" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="R233" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -14292,6 +14993,9 @@
       <c r="Q234" t="n">
         <v>0.08</v>
       </c>
+      <c r="R234" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -14351,6 +15055,9 @@
       <c r="Q235" t="n">
         <v>0.05</v>
       </c>
+      <c r="R235" t="n">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -14410,6 +15117,9 @@
       <c r="Q236" t="n">
         <v>0.7</v>
       </c>
+      <c r="R236" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -14469,6 +15179,9 @@
       <c r="Q237" t="n">
         <v>0</v>
       </c>
+      <c r="R237" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -14528,6 +15241,9 @@
       <c r="Q238" t="n">
         <v>0.05</v>
       </c>
+      <c r="R238" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -14587,6 +15303,9 @@
       <c r="Q239" t="n">
         <v>0.08</v>
       </c>
+      <c r="R239" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -14646,6 +15365,9 @@
       <c r="Q240" t="n">
         <v>0.08</v>
       </c>
+      <c r="R240" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -14705,6 +15427,9 @@
       <c r="Q241" t="n">
         <v>0.09</v>
       </c>
+      <c r="R241" t="n">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -14764,6 +15489,9 @@
       <c r="Q242" t="n">
         <v>0.83</v>
       </c>
+      <c r="R242" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -14823,6 +15551,9 @@
       <c r="Q243" t="n">
         <v>0.005</v>
       </c>
+      <c r="R243" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -14882,6 +15613,9 @@
       <c r="Q244" t="n">
         <v>0.03</v>
       </c>
+      <c r="R244" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -14941,6 +15675,9 @@
       <c r="Q245" t="n">
         <v>0.04</v>
       </c>
+      <c r="R245" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -15000,6 +15737,9 @@
       <c r="Q246" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="R246" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -15059,6 +15799,9 @@
       <c r="Q247" t="n">
         <v>0.025</v>
       </c>
+      <c r="R247" t="n">
+        <v>0.045</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -15118,6 +15861,9 @@
       <c r="Q248" t="n">
         <v>0.6</v>
       </c>
+      <c r="R248" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -15177,6 +15923,9 @@
       <c r="Q249" t="n">
         <v>0.015</v>
       </c>
+      <c r="R249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -15236,6 +15985,9 @@
       <c r="Q250" t="n">
         <v>0.03</v>
       </c>
+      <c r="R250" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -15295,6 +16047,9 @@
       <c r="Q251" t="n">
         <v>0.06</v>
       </c>
+      <c r="R251" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -15354,6 +16109,9 @@
       <c r="Q252" t="n">
         <v>0.1</v>
       </c>
+      <c r="R252" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -15413,6 +16171,9 @@
       <c r="Q253" t="n">
         <v>0.195</v>
       </c>
+      <c r="R253" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -15472,6 +16233,9 @@
       <c r="Q254" t="n">
         <v>0.72</v>
       </c>
+      <c r="R254" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -15531,6 +16295,9 @@
       <c r="Q255" t="n">
         <v>0.015</v>
       </c>
+      <c r="R255" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -15590,6 +16357,9 @@
       <c r="Q256" t="n">
         <v>0.03</v>
       </c>
+      <c r="R256" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -15649,6 +16419,9 @@
       <c r="Q257" t="n">
         <v>0.06</v>
       </c>
+      <c r="R257" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -15708,6 +16481,9 @@
       <c r="Q258" t="n">
         <v>0.08</v>
       </c>
+      <c r="R258" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -15767,6 +16543,9 @@
       <c r="Q259" t="n">
         <v>0.095</v>
       </c>
+      <c r="R259" t="n">
+        <v>0.105</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -15826,6 +16605,9 @@
       <c r="Q260" t="n">
         <v>0.73</v>
       </c>
+      <c r="R260" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -15885,6 +16667,9 @@
       <c r="Q261" t="n">
         <v>0.01</v>
       </c>
+      <c r="R261" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -15944,6 +16729,9 @@
       <c r="Q262" t="n">
         <v>0.04</v>
       </c>
+      <c r="R262" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -16003,6 +16791,9 @@
       <c r="Q263" t="n">
         <v>0.08</v>
       </c>
+      <c r="R263" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -16062,6 +16853,9 @@
       <c r="Q264" t="n">
         <v>0.05</v>
       </c>
+      <c r="R264" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -16121,6 +16915,9 @@
       <c r="Q265" t="n">
         <v>0.09</v>
       </c>
+      <c r="R265" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -16180,6 +16977,9 @@
       <c r="Q266" t="n">
         <v>0.65</v>
       </c>
+      <c r="R266" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -16239,6 +17039,9 @@
       <c r="Q267" t="n">
         <v>0.015</v>
       </c>
+      <c r="R267" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -16298,6 +17101,9 @@
       <c r="Q268" t="n">
         <v>0.04</v>
       </c>
+      <c r="R268" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -16357,6 +17163,9 @@
       <c r="Q269" t="n">
         <v>0.09</v>
       </c>
+      <c r="R269" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -16416,6 +17225,9 @@
       <c r="Q270" t="n">
         <v>0.08</v>
       </c>
+      <c r="R270" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -16475,6 +17287,9 @@
       <c r="Q271" t="n">
         <v>0.125</v>
       </c>
+      <c r="R271" t="n">
+        <v>0.135</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -16534,6 +17349,9 @@
       <c r="Q272" t="n">
         <v>0.68</v>
       </c>
+      <c r="R272" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -16593,6 +17411,9 @@
       <c r="Q273" t="n">
         <v>0.02</v>
       </c>
+      <c r="R273" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -16652,6 +17473,9 @@
       <c r="Q274" t="n">
         <v>0.08</v>
       </c>
+      <c r="R274" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -16711,6 +17535,9 @@
       <c r="Q275" t="n">
         <v>0.09</v>
       </c>
+      <c r="R275" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -16770,6 +17597,9 @@
       <c r="Q276" t="n">
         <v>0.06</v>
       </c>
+      <c r="R276" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -16829,6 +17659,9 @@
       <c r="Q277" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="R277" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -16888,6 +17721,9 @@
       <c r="Q278" t="n">
         <v>0.68</v>
       </c>
+      <c r="R278" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -16947,6 +17783,9 @@
       <c r="Q279" t="n">
         <v>0.01</v>
       </c>
+      <c r="R279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -17006,6 +17845,9 @@
       <c r="Q280" t="n">
         <v>0.03</v>
       </c>
+      <c r="R280" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -17065,6 +17907,9 @@
       <c r="Q281" t="n">
         <v>0.08</v>
       </c>
+      <c r="R281" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -17124,6 +17969,9 @@
       <c r="Q282" t="n">
         <v>0.08</v>
       </c>
+      <c r="R282" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -17183,6 +18031,9 @@
       <c r="Q283" t="n">
         <v>0.12</v>
       </c>
+      <c r="R283" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -17242,6 +18093,9 @@
       <c r="Q284" t="n">
         <v>0.6</v>
       </c>
+      <c r="R284" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -17301,6 +18155,9 @@
       <c r="Q285" t="n">
         <v>0</v>
       </c>
+      <c r="R285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -17360,6 +18217,9 @@
       <c r="Q286" t="n">
         <v>0.04</v>
       </c>
+      <c r="R286" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -17419,6 +18279,9 @@
       <c r="Q287" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="R287" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -17478,6 +18341,9 @@
       <c r="Q288" t="n">
         <v>0.1</v>
       </c>
+      <c r="R288" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -17537,6 +18403,9 @@
       <c r="Q289" t="n">
         <v>0.19</v>
       </c>
+      <c r="R289" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -17596,6 +18465,9 @@
       <c r="Q290" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="R290" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -17655,6 +18527,9 @@
       <c r="Q291" t="n">
         <v>0.02</v>
       </c>
+      <c r="R291" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -17714,6 +18589,9 @@
       <c r="Q292" t="n">
         <v>0.04</v>
       </c>
+      <c r="R292" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -17773,6 +18651,9 @@
       <c r="Q293" t="n">
         <v>0.1</v>
       </c>
+      <c r="R293" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -17832,6 +18713,9 @@
       <c r="Q294" t="n">
         <v>0.06</v>
       </c>
+      <c r="R294" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -17891,6 +18775,9 @@
       <c r="Q295" t="n">
         <v>0.09</v>
       </c>
+      <c r="R295" t="n">
+        <v>0.095</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -17950,6 +18837,9 @@
       <c r="Q296" t="n">
         <v>0.73</v>
       </c>
+      <c r="R296" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -18009,6 +18899,9 @@
       <c r="Q297" t="n">
         <v>0.01</v>
       </c>
+      <c r="R297" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -18068,6 +18961,9 @@
       <c r="Q298" t="n">
         <v>0.04</v>
       </c>
+      <c r="R298" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -18127,6 +19023,9 @@
       <c r="Q299" t="n">
         <v>0.06</v>
       </c>
+      <c r="R299" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -18186,6 +19085,9 @@
       <c r="Q300" t="n">
         <v>0.08</v>
       </c>
+      <c r="R300" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -18245,11 +19147,14 @@
       <c r="Q301" t="n">
         <v>0.08</v>
       </c>
+      <c r="R301" t="n">
+        <v>0.095</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, % respondentů celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+          <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, % respondentů celkově a ve skupinách, aktualizace 6. 10. 2021</t>
         </is>
       </c>
     </row>
@@ -18264,7 +19169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18353,6 +19258,11 @@
           <t>24. 8. 2021</t>
         </is>
       </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>28. 9. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -18407,6 +19317,9 @@
       <c r="P2" t="n">
         <v>1901</v>
       </c>
+      <c r="Q2" t="n">
+        <v>1855</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -18461,6 +19374,9 @@
       <c r="P3" t="n">
         <v>452</v>
       </c>
+      <c r="Q3" t="n">
+        <v>456</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -18515,6 +19431,9 @@
       <c r="P4" t="n">
         <v>709</v>
       </c>
+      <c r="Q4" t="n">
+        <v>678</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -18569,6 +19488,9 @@
       <c r="P5" t="n">
         <v>740</v>
       </c>
+      <c r="Q5" t="n">
+        <v>721</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -18623,6 +19545,9 @@
       <c r="P6" t="n">
         <v>872</v>
       </c>
+      <c r="Q6" t="n">
+        <v>859</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -18677,6 +19602,9 @@
       <c r="P7" t="n">
         <v>654</v>
       </c>
+      <c r="Q7" t="n">
+        <v>631</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -18731,6 +19659,9 @@
       <c r="P8" t="n">
         <v>375</v>
       </c>
+      <c r="Q8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -18785,6 +19716,9 @@
       <c r="P9" t="n">
         <v>445</v>
       </c>
+      <c r="Q9" t="n">
+        <v>441</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -18839,6 +19773,9 @@
       <c r="P10" t="n">
         <v>458</v>
       </c>
+      <c r="Q10" t="n">
+        <v>444</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -18893,6 +19830,9 @@
       <c r="P11" t="n">
         <v>258</v>
       </c>
+      <c r="Q11" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -18947,6 +19887,9 @@
       <c r="P12" t="n">
         <v>427</v>
       </c>
+      <c r="Q12" t="n">
+        <v>418</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -19001,6 +19944,9 @@
       <c r="P13" t="n">
         <v>196</v>
       </c>
+      <c r="Q13" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -19055,6 +20001,9 @@
       <c r="P14" t="n">
         <v>117</v>
       </c>
+      <c r="Q14" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -19109,6 +20058,9 @@
       <c r="P15" t="n">
         <v>937</v>
       </c>
+      <c r="Q15" t="n">
+        <v>897</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -19163,6 +20115,9 @@
       <c r="P16" t="n">
         <v>964</v>
       </c>
+      <c r="Q16" t="n">
+        <v>958</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -19217,6 +20172,9 @@
       <c r="P17" t="n">
         <v>235</v>
       </c>
+      <c r="Q17" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -19271,6 +20229,9 @@
       <c r="P18" t="n">
         <v>370</v>
       </c>
+      <c r="Q18" t="n">
+        <v>343</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -19325,6 +20286,9 @@
       <c r="P19" t="n">
         <v>332</v>
       </c>
+      <c r="Q19" t="n">
+        <v>317</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -19379,6 +20343,9 @@
       <c r="P20" t="n">
         <v>217</v>
       </c>
+      <c r="Q20" t="n">
+        <v>219</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -19433,6 +20400,9 @@
       <c r="P21" t="n">
         <v>339</v>
       </c>
+      <c r="Q21" t="n">
+        <v>336</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -19487,6 +20457,9 @@
       <c r="P22" t="n">
         <v>408</v>
       </c>
+      <c r="Q22" t="n">
+        <v>403</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -19541,6 +20514,9 @@
       <c r="P23" t="n">
         <v>988</v>
       </c>
+      <c r="Q23" t="n">
+        <v>965</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19595,6 +20571,9 @@
       <c r="P24" t="n">
         <v>442</v>
       </c>
+      <c r="Q24" t="n">
+        <v>429</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19649,6 +20628,9 @@
       <c r="P25" t="n">
         <v>220</v>
       </c>
+      <c r="Q25" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19703,6 +20685,9 @@
       <c r="P26" t="n">
         <v>251</v>
       </c>
+      <c r="Q26" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19757,6 +20742,9 @@
       <c r="P27" t="n">
         <v>623</v>
       </c>
+      <c r="Q27" t="n">
+        <v>598</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19811,6 +20799,9 @@
       <c r="P28" t="n">
         <v>273</v>
       </c>
+      <c r="Q28" t="n">
+        <v>271</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19865,6 +20856,9 @@
       <c r="P29" t="n">
         <v>129</v>
       </c>
+      <c r="Q29" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19919,6 +20913,9 @@
       <c r="P30" t="n">
         <v>136</v>
       </c>
+      <c r="Q30" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -19973,6 +20970,9 @@
       <c r="P31" t="n">
         <v>365</v>
       </c>
+      <c r="Q31" t="n">
+        <v>367</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20027,6 +21027,9 @@
       <c r="P32" t="n">
         <v>170</v>
       </c>
+      <c r="Q32" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -20081,6 +21084,9 @@
       <c r="P33" t="n">
         <v>91</v>
       </c>
+      <c r="Q33" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -20135,6 +21141,9 @@
       <c r="P34" t="n">
         <v>114</v>
       </c>
+      <c r="Q34" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -20189,6 +21198,9 @@
       <c r="P35" t="n">
         <v>200</v>
       </c>
+      <c r="Q35" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -20243,6 +21255,9 @@
       <c r="P36" t="n">
         <v>729</v>
       </c>
+      <c r="Q36" t="n">
+        <v>679</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -20297,6 +21312,9 @@
       <c r="P37" t="n">
         <v>583</v>
       </c>
+      <c r="Q37" t="n">
+        <v>613</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -20351,6 +21369,9 @@
       <c r="P38" t="n">
         <v>263</v>
       </c>
+      <c r="Q38" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -20405,6 +21426,9 @@
       <c r="P39" t="n">
         <v>263</v>
       </c>
+      <c r="Q39" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -20459,6 +21483,9 @@
       <c r="P40" t="n">
         <v>257</v>
       </c>
+      <c r="Q40" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -20513,6 +21540,9 @@
       <c r="P41" t="n">
         <v>354</v>
       </c>
+      <c r="Q41" t="n">
+        <v>265</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -20567,6 +21597,9 @@
       <c r="P42" t="n">
         <v>249</v>
       </c>
+      <c r="Q42" t="n">
+        <v>278</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -20621,6 +21654,9 @@
       <c r="P43" t="n">
         <v>515</v>
       </c>
+      <c r="Q43" t="n">
+        <v>584</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -20675,6 +21711,9 @@
       <c r="P44" t="n">
         <v>314</v>
       </c>
+      <c r="Q44" t="n">
+        <v>317</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -20729,6 +21768,9 @@
       <c r="P45" t="n">
         <v>350</v>
       </c>
+      <c r="Q45" t="n">
+        <v>325</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -20783,6 +21825,9 @@
       <c r="P46" t="n">
         <v>1237</v>
       </c>
+      <c r="Q46" t="n">
+        <v>1213</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -20837,6 +21882,9 @@
       <c r="P47" t="n">
         <v>265</v>
       </c>
+      <c r="Q47" t="n">
+        <v>262</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -20891,6 +21939,9 @@
       <c r="P48" t="n">
         <v>1636</v>
       </c>
+      <c r="Q48" t="n">
+        <v>1593</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -20945,6 +21996,9 @@
       <c r="P49" t="n">
         <v>522</v>
       </c>
+      <c r="Q49" t="n">
+        <v>539</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -20999,6 +22053,9 @@
       <c r="P50" t="n">
         <v>847</v>
       </c>
+      <c r="Q50" t="n">
+        <v>801</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -21053,11 +22110,14 @@
       <c r="P51" t="n">
         <v>529</v>
       </c>
+      <c r="Q51" t="n">
+        <v>515</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+          <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -21075,6 +22135,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_07b_ockovani.xlsx
+++ b/ZBP_07b_ockovani.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R302"/>
+  <dimension ref="A1:S302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,6 +550,11 @@
           <t>28. 9. 2021</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>12. 10. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -612,6 +617,9 @@
       <c r="R2" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="S2" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -674,6 +682,9 @@
       <c r="R3" t="n">
         <v>0.005</v>
       </c>
+      <c r="S3" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -736,6 +747,9 @@
       <c r="R4" t="n">
         <v>0.03</v>
       </c>
+      <c r="S4" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -798,6 +812,9 @@
       <c r="R5" t="n">
         <v>0.09</v>
       </c>
+      <c r="S5" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -860,6 +877,9 @@
       <c r="R6" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="S6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -922,6 +942,9 @@
       <c r="R7" t="n">
         <v>0.115</v>
       </c>
+      <c r="S7" t="n">
+        <v>0.115</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -984,6 +1007,9 @@
       <c r="R8" t="n">
         <v>0.61</v>
       </c>
+      <c r="S8" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1046,6 +1072,9 @@
       <c r="R9" t="n">
         <v>0.01</v>
       </c>
+      <c r="S9" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1108,6 +1137,9 @@
       <c r="R10" t="n">
         <v>0.05</v>
       </c>
+      <c r="S10" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1170,6 +1202,9 @@
       <c r="R11" t="n">
         <v>0.11</v>
       </c>
+      <c r="S11" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1232,6 +1267,9 @@
       <c r="R12" t="n">
         <v>0.11</v>
       </c>
+      <c r="S12" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1294,6 +1332,9 @@
       <c r="R13" t="n">
         <v>0.11</v>
       </c>
+      <c r="S13" t="n">
+        <v>0.175</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1356,6 +1397,9 @@
       <c r="R14" t="n">
         <v>0.63</v>
       </c>
+      <c r="S14" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1418,6 +1462,9 @@
       <c r="R15" t="n">
         <v>0.005</v>
       </c>
+      <c r="S15" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1480,6 +1527,9 @@
       <c r="R16" t="n">
         <v>0.03</v>
       </c>
+      <c r="S16" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1542,6 +1592,9 @@
       <c r="R17" t="n">
         <v>0.09</v>
       </c>
+      <c r="S17" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1604,6 +1657,9 @@
       <c r="R18" t="n">
         <v>0.09</v>
       </c>
+      <c r="S18" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1666,6 +1722,9 @@
       <c r="R19" t="n">
         <v>0.155</v>
       </c>
+      <c r="S19" t="n">
+        <v>0.145</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1728,6 +1787,9 @@
       <c r="R20" t="n">
         <v>0.8</v>
       </c>
+      <c r="S20" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1790,6 +1852,9 @@
       <c r="R21" t="n">
         <v>0</v>
       </c>
+      <c r="S21" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1852,6 +1917,9 @@
       <c r="R22" t="n">
         <v>0.015</v>
       </c>
+      <c r="S22" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1914,6 +1982,9 @@
       <c r="R23" t="n">
         <v>0.06</v>
       </c>
+      <c r="S23" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1976,6 +2047,9 @@
       <c r="R24" t="n">
         <v>0.04</v>
       </c>
+      <c r="S24" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2038,6 +2112,9 @@
       <c r="R25" t="n">
         <v>0.08500000000000001</v>
       </c>
+      <c r="S25" t="n">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2100,6 +2177,9 @@
       <c r="R26" t="n">
         <v>0.64</v>
       </c>
+      <c r="S26" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2162,6 +2242,9 @@
       <c r="R27" t="n">
         <v>0.005</v>
       </c>
+      <c r="S27" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2224,6 +2307,9 @@
       <c r="R28" t="n">
         <v>0.04</v>
       </c>
+      <c r="S28" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2286,6 +2372,9 @@
       <c r="R29" t="n">
         <v>0.11</v>
       </c>
+      <c r="S29" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2348,6 +2437,9 @@
       <c r="R30" t="n">
         <v>0.06</v>
       </c>
+      <c r="S30" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2410,6 +2502,9 @@
       <c r="R31" t="n">
         <v>0.145</v>
       </c>
+      <c r="S31" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2472,6 +2567,9 @@
       <c r="R32" t="n">
         <v>0.67</v>
       </c>
+      <c r="S32" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2534,6 +2632,9 @@
       <c r="R33" t="n">
         <v>0.005</v>
       </c>
+      <c r="S33" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2596,6 +2697,9 @@
       <c r="R34" t="n">
         <v>0.02</v>
       </c>
+      <c r="S34" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2658,6 +2762,9 @@
       <c r="R35" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="S35" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2720,6 +2827,9 @@
       <c r="R36" t="n">
         <v>0.11</v>
       </c>
+      <c r="S36" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2782,6 +2892,9 @@
       <c r="R37" t="n">
         <v>0.125</v>
       </c>
+      <c r="S37" t="n">
+        <v>0.115</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2844,6 +2957,9 @@
       <c r="R38" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="S38" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2906,6 +3022,9 @@
       <c r="R39" t="n">
         <v>0.005</v>
       </c>
+      <c r="S39" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2968,6 +3087,9 @@
       <c r="R40" t="n">
         <v>0.02</v>
       </c>
+      <c r="S40" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3030,6 +3152,9 @@
       <c r="R41" t="n">
         <v>0.04</v>
       </c>
+      <c r="S41" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3092,6 +3217,9 @@
       <c r="R42" t="n">
         <v>0.05</v>
       </c>
+      <c r="S42" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3154,6 +3282,9 @@
       <c r="R43" t="n">
         <v>0.075</v>
       </c>
+      <c r="S43" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3216,6 +3347,9 @@
       <c r="R44" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="S44" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3278,6 +3412,9 @@
       <c r="R45" t="n">
         <v>0.005</v>
       </c>
+      <c r="S45" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3340,6 +3477,9 @@
       <c r="R46" t="n">
         <v>0.05</v>
       </c>
+      <c r="S46" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3402,6 +3542,9 @@
       <c r="R47" t="n">
         <v>0.14</v>
       </c>
+      <c r="S47" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3464,6 +3607,9 @@
       <c r="R48" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="S48" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3526,6 +3672,9 @@
       <c r="R49" t="n">
         <v>0.175</v>
       </c>
+      <c r="S49" t="n">
+        <v>0.205</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3588,6 +3737,9 @@
       <c r="R50" t="n">
         <v>0.59</v>
       </c>
+      <c r="S50" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3650,6 +3802,9 @@
       <c r="R51" t="n">
         <v>0.01</v>
       </c>
+      <c r="S51" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3712,6 +3867,9 @@
       <c r="R52" t="n">
         <v>0.03</v>
       </c>
+      <c r="S52" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3774,6 +3932,9 @@
       <c r="R53" t="n">
         <v>0.09</v>
       </c>
+      <c r="S53" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3836,6 +3997,9 @@
       <c r="R54" t="n">
         <v>0.15</v>
       </c>
+      <c r="S54" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3898,6 +4062,9 @@
       <c r="R55" t="n">
         <v>0.13</v>
       </c>
+      <c r="S55" t="n">
+        <v>0.155</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3960,6 +4127,9 @@
       <c r="R56" t="n">
         <v>0.77</v>
       </c>
+      <c r="S56" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4022,6 +4192,9 @@
       <c r="R57" t="n">
         <v>0.005</v>
       </c>
+      <c r="S57" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4084,6 +4257,9 @@
       <c r="R58" t="n">
         <v>0.02</v>
       </c>
+      <c r="S58" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4146,6 +4322,9 @@
       <c r="R59" t="n">
         <v>0.05</v>
       </c>
+      <c r="S59" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4208,6 +4387,9 @@
       <c r="R60" t="n">
         <v>0.06</v>
       </c>
+      <c r="S60" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4270,6 +4452,9 @@
       <c r="R61" t="n">
         <v>0.095</v>
       </c>
+      <c r="S61" t="n">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4332,6 +4517,9 @@
       <c r="R62" t="n">
         <v>0.73</v>
       </c>
+      <c r="S62" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4394,6 +4582,9 @@
       <c r="R63" t="n">
         <v>0</v>
       </c>
+      <c r="S63" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4456,6 +4647,9 @@
       <c r="R64" t="n">
         <v>0.02</v>
       </c>
+      <c r="S64" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4518,6 +4712,9 @@
       <c r="R65" t="n">
         <v>0.09</v>
       </c>
+      <c r="S65" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4580,6 +4777,9 @@
       <c r="R66" t="n">
         <v>0.05</v>
       </c>
+      <c r="S66" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4642,6 +4842,9 @@
       <c r="R67" t="n">
         <v>0.11</v>
       </c>
+      <c r="S67" t="n">
+        <v>0.115</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4704,6 +4907,9 @@
       <c r="R68" t="n">
         <v>0.88</v>
       </c>
+      <c r="S68" t="n">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4766,6 +4972,9 @@
       <c r="R69" t="n">
         <v>0</v>
       </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4828,6 +5037,9 @@
       <c r="R70" t="n">
         <v>0.005</v>
       </c>
+      <c r="S70" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4890,6 +5102,9 @@
       <c r="R71" t="n">
         <v>0.04</v>
       </c>
+      <c r="S71" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4952,6 +5167,9 @@
       <c r="R72" t="n">
         <v>0.015</v>
       </c>
+      <c r="S72" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5014,6 +5232,9 @@
       <c r="R73" t="n">
         <v>0.06</v>
       </c>
+      <c r="S73" t="n">
+        <v>0.055</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5076,6 +5297,9 @@
       <c r="R74" t="n">
         <v>0.9</v>
       </c>
+      <c r="S74" t="n">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5138,6 +5362,9 @@
       <c r="R75" t="n">
         <v>0.005</v>
       </c>
+      <c r="S75" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5200,6 +5427,9 @@
       <c r="R76" t="n">
         <v>0.01</v>
       </c>
+      <c r="S76" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5262,6 +5492,9 @@
       <c r="R77" t="n">
         <v>0.02</v>
       </c>
+      <c r="S77" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5324,6 +5557,9 @@
       <c r="R78" t="n">
         <v>0.03</v>
       </c>
+      <c r="S78" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5386,6 +5622,9 @@
       <c r="R79" t="n">
         <v>0.035</v>
       </c>
+      <c r="S79" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5448,6 +5687,9 @@
       <c r="R80" t="n">
         <v>0.75</v>
       </c>
+      <c r="S80" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5510,6 +5752,9 @@
       <c r="R81" t="n">
         <v>0.005</v>
       </c>
+      <c r="S81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5572,6 +5817,9 @@
       <c r="R82" t="n">
         <v>0.02</v>
       </c>
+      <c r="S82" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5634,6 +5882,9 @@
       <c r="R83" t="n">
         <v>0.05</v>
       </c>
+      <c r="S83" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5696,6 +5947,9 @@
       <c r="R84" t="n">
         <v>0.08</v>
       </c>
+      <c r="S84" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5758,6 +6012,9 @@
       <c r="R85" t="n">
         <v>0.095</v>
       </c>
+      <c r="S85" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5820,6 +6077,9 @@
       <c r="R86" t="n">
         <v>0.63</v>
       </c>
+      <c r="S86" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5882,6 +6142,9 @@
       <c r="R87" t="n">
         <v>0.005</v>
       </c>
+      <c r="S87" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5944,6 +6207,9 @@
       <c r="R88" t="n">
         <v>0.03</v>
       </c>
+      <c r="S88" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6006,6 +6272,9 @@
       <c r="R89" t="n">
         <v>0.12</v>
       </c>
+      <c r="S89" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6068,6 +6337,9 @@
       <c r="R90" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="S90" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6130,6 +6402,9 @@
       <c r="R91" t="n">
         <v>0.145</v>
       </c>
+      <c r="S91" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6192,6 +6467,9 @@
       <c r="R92" t="n">
         <v>0.7</v>
       </c>
+      <c r="S92" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6254,6 +6532,9 @@
       <c r="R93" t="n">
         <v>0</v>
       </c>
+      <c r="S93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6316,6 +6597,9 @@
       <c r="R94" t="n">
         <v>0.04</v>
       </c>
+      <c r="S94" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6378,6 +6662,9 @@
       <c r="R95" t="n">
         <v>0.08</v>
       </c>
+      <c r="S95" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6440,6 +6727,9 @@
       <c r="R96" t="n">
         <v>0.11</v>
       </c>
+      <c r="S96" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6502,6 +6792,9 @@
       <c r="R97" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="S97" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6564,6 +6857,9 @@
       <c r="R98" t="n">
         <v>0.68</v>
       </c>
+      <c r="S98" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6626,6 +6922,9 @@
       <c r="R99" t="n">
         <v>0.01</v>
       </c>
+      <c r="S99" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6688,6 +6987,9 @@
       <c r="R100" t="n">
         <v>0.03</v>
       </c>
+      <c r="S100" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6750,6 +7052,9 @@
       <c r="R101" t="n">
         <v>0.06</v>
       </c>
+      <c r="S101" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6812,6 +7117,9 @@
       <c r="R102" t="n">
         <v>0.1</v>
       </c>
+      <c r="S102" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6874,6 +7182,9 @@
       <c r="R103" t="n">
         <v>0.12</v>
       </c>
+      <c r="S103" t="n">
+        <v>0.105</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6936,6 +7247,9 @@
       <c r="R104" t="n">
         <v>0.85</v>
       </c>
+      <c r="S104" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6998,6 +7312,9 @@
       <c r="R105" t="n">
         <v>0</v>
       </c>
+      <c r="S105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7060,6 +7377,9 @@
       <c r="R106" t="n">
         <v>0.01</v>
       </c>
+      <c r="S106" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7122,6 +7442,9 @@
       <c r="R107" t="n">
         <v>0.02</v>
       </c>
+      <c r="S107" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7184,6 +7507,9 @@
       <c r="R108" t="n">
         <v>0.04</v>
       </c>
+      <c r="S108" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7246,6 +7572,9 @@
       <c r="R109" t="n">
         <v>0.08</v>
       </c>
+      <c r="S109" t="n">
+        <v>0.065</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7308,6 +7637,9 @@
       <c r="R110" t="n">
         <v>0.5</v>
       </c>
+      <c r="S110" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7370,6 +7702,9 @@
       <c r="R111" t="n">
         <v>0.015</v>
       </c>
+      <c r="S111" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7432,6 +7767,9 @@
       <c r="R112" t="n">
         <v>0.06</v>
       </c>
+      <c r="S112" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7494,6 +7832,9 @@
       <c r="R113" t="n">
         <v>0.15</v>
       </c>
+      <c r="S113" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7556,6 +7897,9 @@
       <c r="R114" t="n">
         <v>0.11</v>
       </c>
+      <c r="S114" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7618,6 +7962,9 @@
       <c r="R115" t="n">
         <v>0.165</v>
       </c>
+      <c r="S115" t="n">
+        <v>0.195</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7680,6 +8027,9 @@
       <c r="R116" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="S116" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7742,6 +8092,9 @@
       <c r="R117" t="n">
         <v>0</v>
       </c>
+      <c r="S117" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7804,6 +8157,9 @@
       <c r="R118" t="n">
         <v>0.03</v>
       </c>
+      <c r="S118" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7866,6 +8222,9 @@
       <c r="R119" t="n">
         <v>0.12</v>
       </c>
+      <c r="S119" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7928,6 +8287,9 @@
       <c r="R120" t="n">
         <v>0.08</v>
       </c>
+      <c r="S120" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7990,6 +8352,9 @@
       <c r="R121" t="n">
         <v>0.21</v>
       </c>
+      <c r="S121" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8052,6 +8417,9 @@
       <c r="R122" t="n">
         <v>0.75</v>
       </c>
+      <c r="S122" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8114,6 +8482,9 @@
       <c r="R123" t="n">
         <v>0</v>
       </c>
+      <c r="S123" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8176,6 +8547,9 @@
       <c r="R124" t="n">
         <v>0.015</v>
       </c>
+      <c r="S124" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8238,6 +8612,9 @@
       <c r="R125" t="n">
         <v>0.1</v>
       </c>
+      <c r="S125" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8300,6 +8677,9 @@
       <c r="R126" t="n">
         <v>0.03</v>
       </c>
+      <c r="S126" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8362,6 +8742,9 @@
       <c r="R127" t="n">
         <v>0.105</v>
       </c>
+      <c r="S127" t="n">
+        <v>0.08500000000000001</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -8424,6 +8807,9 @@
       <c r="R128" t="n">
         <v>0.66</v>
       </c>
+      <c r="S128" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -8486,6 +8872,9 @@
       <c r="R129" t="n">
         <v>0.005</v>
       </c>
+      <c r="S129" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -8548,6 +8937,9 @@
       <c r="R130" t="n">
         <v>0.04</v>
       </c>
+      <c r="S130" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -8610,6 +9002,9 @@
       <c r="R131" t="n">
         <v>0.1</v>
       </c>
+      <c r="S131" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -8672,6 +9067,9 @@
       <c r="R132" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="S132" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -8734,6 +9132,9 @@
       <c r="R133" t="n">
         <v>0.125</v>
       </c>
+      <c r="S133" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8796,6 +9197,9 @@
       <c r="R134" t="n">
         <v>0.68</v>
       </c>
+      <c r="S134" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -8858,6 +9262,9 @@
       <c r="R135" t="n">
         <v>0.005</v>
       </c>
+      <c r="S135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8920,6 +9327,9 @@
       <c r="R136" t="n">
         <v>0.02</v>
       </c>
+      <c r="S136" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8982,6 +9392,9 @@
       <c r="R137" t="n">
         <v>0.08</v>
       </c>
+      <c r="S137" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9044,6 +9457,9 @@
       <c r="R138" t="n">
         <v>0.08</v>
       </c>
+      <c r="S138" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -9106,6 +9522,9 @@
       <c r="R139" t="n">
         <v>0.135</v>
       </c>
+      <c r="S139" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -9168,6 +9587,9 @@
       <c r="R140" t="n">
         <v>0.67</v>
       </c>
+      <c r="S140" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -9230,6 +9652,9 @@
       <c r="R141" t="n">
         <v>0.005</v>
       </c>
+      <c r="S141" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -9292,6 +9717,9 @@
       <c r="R142" t="n">
         <v>0.02</v>
       </c>
+      <c r="S142" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -9354,6 +9782,9 @@
       <c r="R143" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="S143" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -9416,6 +9847,9 @@
       <c r="R144" t="n">
         <v>0.11</v>
       </c>
+      <c r="S144" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -9478,6 +9912,9 @@
       <c r="R145" t="n">
         <v>0.125</v>
       </c>
+      <c r="S145" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9540,6 +9977,9 @@
       <c r="R146" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="S146" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -9602,6 +10042,9 @@
       <c r="R147" t="n">
         <v>0.005</v>
       </c>
+      <c r="S147" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -9664,6 +10107,9 @@
       <c r="R148" t="n">
         <v>0.01</v>
       </c>
+      <c r="S148" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -9726,6 +10172,9 @@
       <c r="R149" t="n">
         <v>0.05</v>
       </c>
+      <c r="S149" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -9788,6 +10237,9 @@
       <c r="R150" t="n">
         <v>0.04</v>
       </c>
+      <c r="S150" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -9850,6 +10302,9 @@
       <c r="R151" t="n">
         <v>0.08500000000000001</v>
       </c>
+      <c r="S151" t="n">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -9912,6 +10367,9 @@
       <c r="R152" t="n">
         <v>0.58</v>
       </c>
+      <c r="S152" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -9974,6 +10432,9 @@
       <c r="R153" t="n">
         <v>0.01</v>
       </c>
+      <c r="S153" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -10036,6 +10497,9 @@
       <c r="R154" t="n">
         <v>0.05</v>
       </c>
+      <c r="S154" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -10098,6 +10562,9 @@
       <c r="R155" t="n">
         <v>0.11</v>
       </c>
+      <c r="S155" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -10160,6 +10627,9 @@
       <c r="R156" t="n">
         <v>0.1</v>
       </c>
+      <c r="S156" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -10222,6 +10692,9 @@
       <c r="R157" t="n">
         <v>0.15</v>
       </c>
+      <c r="S157" t="n">
+        <v>0.165</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -10284,6 +10757,9 @@
       <c r="R158" t="n">
         <v>0.64</v>
       </c>
+      <c r="S158" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -10346,6 +10822,9 @@
       <c r="R159" t="n">
         <v>0.005</v>
       </c>
+      <c r="S159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -10408,6 +10887,9 @@
       <c r="R160" t="n">
         <v>0.03</v>
       </c>
+      <c r="S160" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -10470,6 +10952,9 @@
       <c r="R161" t="n">
         <v>0.09</v>
       </c>
+      <c r="S161" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -10532,6 +11017,9 @@
       <c r="R162" t="n">
         <v>0.1</v>
       </c>
+      <c r="S162" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -10594,6 +11082,9 @@
       <c r="R163" t="n">
         <v>0.135</v>
       </c>
+      <c r="S163" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -10656,6 +11147,9 @@
       <c r="R164" t="n">
         <v>0.6</v>
       </c>
+      <c r="S164" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -10718,6 +11212,9 @@
       <c r="R165" t="n">
         <v>0</v>
       </c>
+      <c r="S165" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -10780,6 +11277,9 @@
       <c r="R166" t="n">
         <v>0.015</v>
       </c>
+      <c r="S166" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -10842,6 +11342,9 @@
       <c r="R167" t="n">
         <v>0.09</v>
       </c>
+      <c r="S167" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -10904,6 +11407,9 @@
       <c r="R168" t="n">
         <v>0.15</v>
       </c>
+      <c r="S168" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -10966,6 +11472,9 @@
       <c r="R169" t="n">
         <v>0.145</v>
       </c>
+      <c r="S169" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -11028,6 +11537,9 @@
       <c r="R170" t="n">
         <v>0.74</v>
       </c>
+      <c r="S170" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -11090,6 +11602,9 @@
       <c r="R171" t="n">
         <v>0.005</v>
       </c>
+      <c r="S171" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -11152,6 +11667,9 @@
       <c r="R172" t="n">
         <v>0.015</v>
       </c>
+      <c r="S172" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -11214,6 +11732,9 @@
       <c r="R173" t="n">
         <v>0.09</v>
       </c>
+      <c r="S173" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -11276,6 +11797,9 @@
       <c r="R174" t="n">
         <v>0.06</v>
       </c>
+      <c r="S174" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -11338,6 +11862,9 @@
       <c r="R175" t="n">
         <v>0.09</v>
       </c>
+      <c r="S175" t="n">
+        <v>0.08500000000000001</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -11400,6 +11927,9 @@
       <c r="R176" t="n">
         <v>0.79</v>
       </c>
+      <c r="S176" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -11462,6 +11992,9 @@
       <c r="R177" t="n">
         <v>0</v>
       </c>
+      <c r="S177" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -11524,6 +12057,9 @@
       <c r="R178" t="n">
         <v>0.015</v>
       </c>
+      <c r="S178" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -11586,6 +12122,9 @@
       <c r="R179" t="n">
         <v>0.09</v>
       </c>
+      <c r="S179" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -11648,6 +12187,9 @@
       <c r="R180" t="n">
         <v>0.03</v>
       </c>
+      <c r="S180" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -11710,6 +12252,9 @@
       <c r="R181" t="n">
         <v>0.075</v>
       </c>
+      <c r="S181" t="n">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -11772,6 +12317,9 @@
       <c r="R182" t="n">
         <v>0.76</v>
       </c>
+      <c r="S182" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -11834,6 +12382,9 @@
       <c r="R183" t="n">
         <v>0</v>
       </c>
+      <c r="S183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -11896,6 +12447,9 @@
       <c r="R184" t="n">
         <v>0.005</v>
       </c>
+      <c r="S184" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -11958,6 +12512,9 @@
       <c r="R185" t="n">
         <v>0.05</v>
       </c>
+      <c r="S185" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -12020,6 +12577,9 @@
       <c r="R186" t="n">
         <v>0.06</v>
       </c>
+      <c r="S186" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -12082,6 +12642,9 @@
       <c r="R187" t="n">
         <v>0.125</v>
       </c>
+      <c r="S187" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -12144,6 +12707,9 @@
       <c r="R188" t="n">
         <v>0.77</v>
       </c>
+      <c r="S188" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -12206,6 +12772,9 @@
       <c r="R189" t="n">
         <v>0.01</v>
       </c>
+      <c r="S189" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -12268,6 +12837,9 @@
       <c r="R190" t="n">
         <v>0.03</v>
       </c>
+      <c r="S190" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -12330,6 +12902,9 @@
       <c r="R191" t="n">
         <v>0.04</v>
       </c>
+      <c r="S191" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -12392,6 +12967,9 @@
       <c r="R192" t="n">
         <v>0.05</v>
       </c>
+      <c r="S192" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -12454,6 +13032,9 @@
       <c r="R193" t="n">
         <v>0.1</v>
       </c>
+      <c r="S193" t="n">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -12516,6 +13097,9 @@
       <c r="R194" t="n">
         <v>0.89</v>
       </c>
+      <c r="S194" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -12578,6 +13162,9 @@
       <c r="R195" t="n">
         <v>0.005</v>
       </c>
+      <c r="S195" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -12640,6 +13227,9 @@
       <c r="R196" t="n">
         <v>0.005</v>
       </c>
+      <c r="S196" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -12702,6 +13292,9 @@
       <c r="R197" t="n">
         <v>0.01</v>
       </c>
+      <c r="S197" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -12764,6 +13357,9 @@
       <c r="R198" t="n">
         <v>0.03</v>
       </c>
+      <c r="S198" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -12826,6 +13422,9 @@
       <c r="R199" t="n">
         <v>0.06</v>
       </c>
+      <c r="S199" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -12888,6 +13487,9 @@
       <c r="R200" t="n">
         <v>0.49</v>
       </c>
+      <c r="S200" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -12950,6 +13552,9 @@
       <c r="R201" t="n">
         <v>0.01</v>
       </c>
+      <c r="S201" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -13012,6 +13617,9 @@
       <c r="R202" t="n">
         <v>0.05</v>
       </c>
+      <c r="S202" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -13074,6 +13682,9 @@
       <c r="R203" t="n">
         <v>0.18</v>
       </c>
+      <c r="S203" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -13136,6 +13747,9 @@
       <c r="R204" t="n">
         <v>0.05</v>
       </c>
+      <c r="S204" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -13198,6 +13812,9 @@
       <c r="R205" t="n">
         <v>0.22</v>
       </c>
+      <c r="S205" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -13260,6 +13877,9 @@
       <c r="R206" t="n">
         <v>0.67</v>
       </c>
+      <c r="S206" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -13322,6 +13942,9 @@
       <c r="R207" t="n">
         <v>0.005</v>
       </c>
+      <c r="S207" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -13384,6 +14007,9 @@
       <c r="R208" t="n">
         <v>0.04</v>
       </c>
+      <c r="S208" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -13446,6 +14072,9 @@
       <c r="R209" t="n">
         <v>0.08</v>
       </c>
+      <c r="S209" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -13508,6 +14137,9 @@
       <c r="R210" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="S210" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -13570,6 +14202,9 @@
       <c r="R211" t="n">
         <v>0.135</v>
       </c>
+      <c r="S211" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -13632,6 +14267,9 @@
       <c r="R212" t="n">
         <v>0.74</v>
       </c>
+      <c r="S212" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -13694,6 +14332,9 @@
       <c r="R213" t="n">
         <v>0</v>
       </c>
+      <c r="S213" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -13756,6 +14397,9 @@
       <c r="R214" t="n">
         <v>0.02</v>
       </c>
+      <c r="S214" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -13818,6 +14462,9 @@
       <c r="R215" t="n">
         <v>0.06</v>
       </c>
+      <c r="S215" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -13880,6 +14527,9 @@
       <c r="R216" t="n">
         <v>0.09</v>
       </c>
+      <c r="S216" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -13942,6 +14592,9 @@
       <c r="R217" t="n">
         <v>0.09</v>
       </c>
+      <c r="S217" t="n">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -14004,6 +14657,9 @@
       <c r="R218" t="n">
         <v>0.79</v>
       </c>
+      <c r="S218" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -14066,6 +14722,9 @@
       <c r="R219" t="n">
         <v>0.005</v>
       </c>
+      <c r="S219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -14128,6 +14787,9 @@
       <c r="R220" t="n">
         <v>0.01</v>
       </c>
+      <c r="S220" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -14190,6 +14852,9 @@
       <c r="R221" t="n">
         <v>0.05</v>
       </c>
+      <c r="S221" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -14252,6 +14917,9 @@
       <c r="R222" t="n">
         <v>0.03</v>
       </c>
+      <c r="S222" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -14314,6 +14982,9 @@
       <c r="R223" t="n">
         <v>0.115</v>
       </c>
+      <c r="S223" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -14376,6 +15047,9 @@
       <c r="R224" t="n">
         <v>0.71</v>
       </c>
+      <c r="S224" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -14438,6 +15112,9 @@
       <c r="R225" t="n">
         <v>0.005</v>
       </c>
+      <c r="S225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -14500,6 +15177,9 @@
       <c r="R226" t="n">
         <v>0.05</v>
       </c>
+      <c r="S226" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -14562,6 +15242,9 @@
       <c r="R227" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="S227" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -14624,6 +15307,9 @@
       <c r="R228" t="n">
         <v>0.04</v>
       </c>
+      <c r="S228" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -14686,6 +15372,9 @@
       <c r="R229" t="n">
         <v>0.125</v>
       </c>
+      <c r="S229" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -14748,6 +15437,9 @@
       <c r="R230" t="n">
         <v>0.79</v>
       </c>
+      <c r="S230" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -14810,6 +15502,9 @@
       <c r="R231" t="n">
         <v>0.005</v>
       </c>
+      <c r="S231" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -14872,6 +15567,9 @@
       <c r="R232" t="n">
         <v>0.03</v>
       </c>
+      <c r="S232" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -14934,6 +15632,9 @@
       <c r="R233" t="n">
         <v>0.06</v>
       </c>
+      <c r="S233" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -14996,6 +15697,9 @@
       <c r="R234" t="n">
         <v>0.04</v>
       </c>
+      <c r="S234" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -15058,6 +15762,9 @@
       <c r="R235" t="n">
         <v>0.075</v>
       </c>
+      <c r="S235" t="n">
+        <v>0.055</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -15120,6 +15827,9 @@
       <c r="R236" t="n">
         <v>0.68</v>
       </c>
+      <c r="S236" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -15182,6 +15892,9 @@
       <c r="R237" t="n">
         <v>0.015</v>
       </c>
+      <c r="S237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -15244,6 +15957,9 @@
       <c r="R238" t="n">
         <v>0.03</v>
       </c>
+      <c r="S238" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -15306,6 +16022,9 @@
       <c r="R239" t="n">
         <v>0.09</v>
       </c>
+      <c r="S239" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -15368,6 +16087,9 @@
       <c r="R240" t="n">
         <v>0.11</v>
       </c>
+      <c r="S240" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -15430,6 +16152,9 @@
       <c r="R241" t="n">
         <v>0.075</v>
       </c>
+      <c r="S241" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -15492,6 +16217,9 @@
       <c r="R242" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="S242" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -15554,6 +16282,9 @@
       <c r="R243" t="n">
         <v>0.005</v>
       </c>
+      <c r="S243" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -15616,6 +16347,9 @@
       <c r="R244" t="n">
         <v>0.02</v>
       </c>
+      <c r="S244" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -15678,6 +16412,9 @@
       <c r="R245" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="S245" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -15740,6 +16477,9 @@
       <c r="R246" t="n">
         <v>0.05</v>
       </c>
+      <c r="S246" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -15802,6 +16542,9 @@
       <c r="R247" t="n">
         <v>0.045</v>
       </c>
+      <c r="S247" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -15864,6 +16607,9 @@
       <c r="R248" t="n">
         <v>0.62</v>
       </c>
+      <c r="S248" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -15926,6 +16672,9 @@
       <c r="R249" t="n">
         <v>0</v>
       </c>
+      <c r="S249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -15988,6 +16737,9 @@
       <c r="R250" t="n">
         <v>0.02</v>
       </c>
+      <c r="S250" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -16050,6 +16802,9 @@
       <c r="R251" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="S251" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -16112,6 +16867,9 @@
       <c r="R252" t="n">
         <v>0.1</v>
       </c>
+      <c r="S252" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -16174,6 +16932,9 @@
       <c r="R253" t="n">
         <v>0.19</v>
       </c>
+      <c r="S253" t="n">
+        <v>0.175</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -16236,6 +16997,9 @@
       <c r="R254" t="n">
         <v>0.71</v>
       </c>
+      <c r="S254" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -16298,6 +17062,9 @@
       <c r="R255" t="n">
         <v>0.01</v>
       </c>
+      <c r="S255" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -16360,6 +17127,9 @@
       <c r="R256" t="n">
         <v>0.015</v>
       </c>
+      <c r="S256" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -16422,6 +17192,9 @@
       <c r="R257" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="S257" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -16484,6 +17257,9 @@
       <c r="R258" t="n">
         <v>0.09</v>
       </c>
+      <c r="S258" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -16546,6 +17322,9 @@
       <c r="R259" t="n">
         <v>0.105</v>
       </c>
+      <c r="S259" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -16608,6 +17387,9 @@
       <c r="R260" t="n">
         <v>0.75</v>
       </c>
+      <c r="S260" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -16670,6 +17452,9 @@
       <c r="R261" t="n">
         <v>0.01</v>
       </c>
+      <c r="S261" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -16732,6 +17517,9 @@
       <c r="R262" t="n">
         <v>0.03</v>
       </c>
+      <c r="S262" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -16794,6 +17582,9 @@
       <c r="R263" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="S263" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -16856,6 +17647,9 @@
       <c r="R264" t="n">
         <v>0.05</v>
       </c>
+      <c r="S264" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -16918,6 +17712,9 @@
       <c r="R265" t="n">
         <v>0.09</v>
       </c>
+      <c r="S265" t="n">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -16980,6 +17777,9 @@
       <c r="R266" t="n">
         <v>0.66</v>
       </c>
+      <c r="S266" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -17042,6 +17842,9 @@
       <c r="R267" t="n">
         <v>0.005</v>
       </c>
+      <c r="S267" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -17104,6 +17907,9 @@
       <c r="R268" t="n">
         <v>0.03</v>
       </c>
+      <c r="S268" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -17166,6 +17972,9 @@
       <c r="R269" t="n">
         <v>0.09</v>
       </c>
+      <c r="S269" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -17228,6 +18037,9 @@
       <c r="R270" t="n">
         <v>0.08</v>
       </c>
+      <c r="S270" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -17290,6 +18102,9 @@
       <c r="R271" t="n">
         <v>0.135</v>
       </c>
+      <c r="S271" t="n">
+        <v>0.135</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -17352,6 +18167,9 @@
       <c r="R272" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="S272" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -17414,6 +18232,9 @@
       <c r="R273" t="n">
         <v>0.02</v>
       </c>
+      <c r="S273" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -17476,6 +18297,9 @@
       <c r="R274" t="n">
         <v>0.03</v>
       </c>
+      <c r="S274" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -17538,6 +18362,9 @@
       <c r="R275" t="n">
         <v>0.08</v>
       </c>
+      <c r="S275" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -17600,6 +18427,9 @@
       <c r="R276" t="n">
         <v>0.08</v>
       </c>
+      <c r="S276" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -17662,6 +18492,9 @@
       <c r="R277" t="n">
         <v>0.1</v>
       </c>
+      <c r="S277" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -17724,6 +18557,9 @@
       <c r="R278" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="S278" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -17786,6 +18622,9 @@
       <c r="R279" t="n">
         <v>0</v>
       </c>
+      <c r="S279" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -17848,6 +18687,9 @@
       <c r="R280" t="n">
         <v>0.03</v>
       </c>
+      <c r="S280" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -17910,6 +18752,9 @@
       <c r="R281" t="n">
         <v>0.09</v>
       </c>
+      <c r="S281" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -17972,6 +18817,9 @@
       <c r="R282" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="S282" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -18034,6 +18882,9 @@
       <c r="R283" t="n">
         <v>0.12</v>
       </c>
+      <c r="S283" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -18096,6 +18947,9 @@
       <c r="R284" t="n">
         <v>0.65</v>
       </c>
+      <c r="S284" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -18158,6 +19012,9 @@
       <c r="R285" t="n">
         <v>0</v>
       </c>
+      <c r="S285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -18220,6 +19077,9 @@
       <c r="R286" t="n">
         <v>0.01</v>
       </c>
+      <c r="S286" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -18282,6 +19142,9 @@
       <c r="R287" t="n">
         <v>0.06</v>
       </c>
+      <c r="S287" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -18344,6 +19207,9 @@
       <c r="R288" t="n">
         <v>0.11</v>
       </c>
+      <c r="S288" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -18406,6 +19272,9 @@
       <c r="R289" t="n">
         <v>0.17</v>
       </c>
+      <c r="S289" t="n">
+        <v>0.175</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -18468,6 +19337,9 @@
       <c r="R290" t="n">
         <v>0.7</v>
       </c>
+      <c r="S290" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -18530,6 +19402,9 @@
       <c r="R291" t="n">
         <v>0.005</v>
       </c>
+      <c r="S291" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -18592,6 +19467,9 @@
       <c r="R292" t="n">
         <v>0.04</v>
       </c>
+      <c r="S292" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -18654,6 +19532,9 @@
       <c r="R293" t="n">
         <v>0.09</v>
       </c>
+      <c r="S293" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -18716,6 +19597,9 @@
       <c r="R294" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="S294" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -18778,6 +19662,9 @@
       <c r="R295" t="n">
         <v>0.095</v>
       </c>
+      <c r="S295" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -18840,6 +19727,9 @@
       <c r="R296" t="n">
         <v>0.71</v>
       </c>
+      <c r="S296" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -18902,6 +19792,9 @@
       <c r="R297" t="n">
         <v>0.015</v>
       </c>
+      <c r="S297" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -18964,6 +19857,9 @@
       <c r="R298" t="n">
         <v>0.03</v>
       </c>
+      <c r="S298" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -19026,6 +19922,9 @@
       <c r="R299" t="n">
         <v>0.1</v>
       </c>
+      <c r="S299" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -19088,6 +19987,9 @@
       <c r="R300" t="n">
         <v>0.05</v>
       </c>
+      <c r="S300" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -19150,11 +20052,14 @@
       <c r="R301" t="n">
         <v>0.095</v>
       </c>
+      <c r="S301" t="n">
+        <v>0.095</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, % respondentů celkově a ve skupinách, aktualizace 6. 10. 2021</t>
+          <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, % respondentů celkově a ve skupinách, aktualizace 20. 10. 2021</t>
         </is>
       </c>
     </row>
@@ -19169,7 +20074,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19263,6 +20168,11 @@
           <t>28. 9. 2021</t>
         </is>
       </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>12. 10. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -19320,6 +20230,9 @@
       <c r="Q2" t="n">
         <v>1855</v>
       </c>
+      <c r="R2" t="n">
+        <v>1836</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -19377,6 +20290,9 @@
       <c r="Q3" t="n">
         <v>456</v>
       </c>
+      <c r="R3" t="n">
+        <v>454</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -19434,6 +20350,9 @@
       <c r="Q4" t="n">
         <v>678</v>
       </c>
+      <c r="R4" t="n">
+        <v>670</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -19491,6 +20410,9 @@
       <c r="Q5" t="n">
         <v>721</v>
       </c>
+      <c r="R5" t="n">
+        <v>712</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -19548,6 +20470,9 @@
       <c r="Q6" t="n">
         <v>859</v>
       </c>
+      <c r="R6" t="n">
+        <v>850</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -19605,6 +20530,9 @@
       <c r="Q7" t="n">
         <v>631</v>
       </c>
+      <c r="R7" t="n">
+        <v>625</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -19662,6 +20590,9 @@
       <c r="Q8" t="n">
         <v>365</v>
       </c>
+      <c r="R8" t="n">
+        <v>361</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -19719,6 +20650,9 @@
       <c r="Q9" t="n">
         <v>441</v>
       </c>
+      <c r="R9" t="n">
+        <v>439</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -19776,6 +20710,9 @@
       <c r="Q10" t="n">
         <v>444</v>
       </c>
+      <c r="R10" t="n">
+        <v>438</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -19833,6 +20770,9 @@
       <c r="Q11" t="n">
         <v>250</v>
       </c>
+      <c r="R11" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -19890,6 +20830,9 @@
       <c r="Q12" t="n">
         <v>418</v>
       </c>
+      <c r="R12" t="n">
+        <v>411</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -19947,6 +20890,9 @@
       <c r="Q13" t="n">
         <v>187</v>
       </c>
+      <c r="R13" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -20004,6 +20950,9 @@
       <c r="Q14" t="n">
         <v>115</v>
       </c>
+      <c r="R14" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -20061,6 +21010,9 @@
       <c r="Q15" t="n">
         <v>897</v>
       </c>
+      <c r="R15" t="n">
+        <v>895</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -20118,6 +21070,9 @@
       <c r="Q16" t="n">
         <v>958</v>
       </c>
+      <c r="R16" t="n">
+        <v>941</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -20175,6 +21130,9 @@
       <c r="Q17" t="n">
         <v>237</v>
       </c>
+      <c r="R17" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -20232,6 +21190,9 @@
       <c r="Q18" t="n">
         <v>343</v>
       </c>
+      <c r="R18" t="n">
+        <v>336</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -20289,6 +21250,9 @@
       <c r="Q19" t="n">
         <v>317</v>
       </c>
+      <c r="R19" t="n">
+        <v>319</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -20346,6 +21310,9 @@
       <c r="Q20" t="n">
         <v>219</v>
       </c>
+      <c r="R20" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -20403,6 +21370,9 @@
       <c r="Q21" t="n">
         <v>336</v>
       </c>
+      <c r="R21" t="n">
+        <v>334</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -20460,6 +21430,9 @@
       <c r="Q22" t="n">
         <v>403</v>
       </c>
+      <c r="R22" t="n">
+        <v>393</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -20517,6 +21490,9 @@
       <c r="Q23" t="n">
         <v>965</v>
       </c>
+      <c r="R23" t="n">
+        <v>960</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -20574,6 +21550,9 @@
       <c r="Q24" t="n">
         <v>429</v>
       </c>
+      <c r="R24" t="n">
+        <v>418</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20631,6 +21610,9 @@
       <c r="Q25" t="n">
         <v>216</v>
       </c>
+      <c r="R25" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20688,6 +21670,9 @@
       <c r="Q26" t="n">
         <v>245</v>
       </c>
+      <c r="R26" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20745,6 +21730,9 @@
       <c r="Q27" t="n">
         <v>598</v>
       </c>
+      <c r="R27" t="n">
+        <v>602</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20802,6 +21790,9 @@
       <c r="Q28" t="n">
         <v>271</v>
       </c>
+      <c r="R28" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20859,6 +21850,9 @@
       <c r="Q29" t="n">
         <v>133</v>
       </c>
+      <c r="R29" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20916,6 +21910,9 @@
       <c r="Q30" t="n">
         <v>133</v>
       </c>
+      <c r="R30" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20973,6 +21970,9 @@
       <c r="Q31" t="n">
         <v>367</v>
       </c>
+      <c r="R31" t="n">
+        <v>359</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21030,6 +22030,9 @@
       <c r="Q32" t="n">
         <v>159</v>
       </c>
+      <c r="R32" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21087,6 +22090,9 @@
       <c r="Q33" t="n">
         <v>83</v>
       </c>
+      <c r="R33" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21144,6 +22150,9 @@
       <c r="Q34" t="n">
         <v>111</v>
       </c>
+      <c r="R34" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -21201,6 +22210,9 @@
       <c r="Q35" t="n">
         <v>180</v>
       </c>
+      <c r="R35" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -21258,6 +22270,9 @@
       <c r="Q36" t="n">
         <v>679</v>
       </c>
+      <c r="R36" t="n">
+        <v>666</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -21315,6 +22330,9 @@
       <c r="Q37" t="n">
         <v>613</v>
       </c>
+      <c r="R37" t="n">
+        <v>611</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -21372,6 +22390,9 @@
       <c r="Q38" t="n">
         <v>255</v>
       </c>
+      <c r="R38" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -21429,6 +22450,9 @@
       <c r="Q39" t="n">
         <v>238</v>
       </c>
+      <c r="R39" t="n">
+        <v>272</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -21486,6 +22510,9 @@
       <c r="Q40" t="n">
         <v>218</v>
       </c>
+      <c r="R40" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -21543,6 +22570,9 @@
       <c r="Q41" t="n">
         <v>265</v>
       </c>
+      <c r="R41" t="n">
+        <v>276</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -21600,6 +22630,9 @@
       <c r="Q42" t="n">
         <v>278</v>
       </c>
+      <c r="R42" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -21657,6 +22690,9 @@
       <c r="Q43" t="n">
         <v>584</v>
       </c>
+      <c r="R43" t="n">
+        <v>569</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -21714,6 +22750,9 @@
       <c r="Q44" t="n">
         <v>317</v>
       </c>
+      <c r="R44" t="n">
+        <v>296</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -21771,6 +22810,9 @@
       <c r="Q45" t="n">
         <v>325</v>
       </c>
+      <c r="R45" t="n">
+        <v>316</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -21828,6 +22870,9 @@
       <c r="Q46" t="n">
         <v>1213</v>
       </c>
+      <c r="R46" t="n">
+        <v>1224</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -21885,6 +22930,9 @@
       <c r="Q47" t="n">
         <v>262</v>
       </c>
+      <c r="R47" t="n">
+        <v>268</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -21942,6 +22990,9 @@
       <c r="Q48" t="n">
         <v>1593</v>
       </c>
+      <c r="R48" t="n">
+        <v>1568</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -21999,6 +23050,9 @@
       <c r="Q49" t="n">
         <v>539</v>
       </c>
+      <c r="R49" t="n">
+        <v>522</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -22056,6 +23110,9 @@
       <c r="Q50" t="n">
         <v>801</v>
       </c>
+      <c r="R50" t="n">
+        <v>819</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -22113,11 +23170,14 @@
       <c r="Q51" t="n">
         <v>515</v>
       </c>
+      <c r="R51" t="n">
+        <v>495</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
+          <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, velikost dotázaného souboru celkově a ve skupinách, aktualizace 20. 10. 2021</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -22136,6 +23196,7 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_07b_ockovani.xlsx
+++ b/ZBP_07b_ockovani.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T350"/>
+  <dimension ref="A1:U350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,11 @@
           <t>11. 11. 2021</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>30. 11. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -628,6 +633,9 @@
       <c r="T2" t="n">
         <v>0.72</v>
       </c>
+      <c r="U2" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -696,6 +704,9 @@
       <c r="T3" t="n">
         <v>0.01</v>
       </c>
+      <c r="U3" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -764,6 +775,9 @@
       <c r="T4" t="n">
         <v>0.03</v>
       </c>
+      <c r="U4" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -832,6 +846,9 @@
       <c r="T5" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="U5" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -900,6 +917,9 @@
       <c r="T6" t="n">
         <v>0.06</v>
       </c>
+      <c r="U6" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -968,6 +988,9 @@
       <c r="T7" t="n">
         <v>0.11</v>
       </c>
+      <c r="U7" t="n">
+        <v>0.095</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1036,6 +1059,9 @@
       <c r="T8" t="n">
         <v>0.65</v>
       </c>
+      <c r="U8" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1104,6 +1130,9 @@
       <c r="T9" t="n">
         <v>0.02</v>
       </c>
+      <c r="U9" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1172,6 +1201,9 @@
       <c r="T10" t="n">
         <v>0.05</v>
       </c>
+      <c r="U10" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1240,6 +1272,9 @@
       <c r="T11" t="n">
         <v>0.06</v>
       </c>
+      <c r="U11" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1308,6 +1343,9 @@
       <c r="T12" t="n">
         <v>0.09</v>
       </c>
+      <c r="U12" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1376,6 +1414,9 @@
       <c r="T13" t="n">
         <v>0.13</v>
       </c>
+      <c r="U13" t="n">
+        <v>0.095</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1444,6 +1485,9 @@
       <c r="T14" t="n">
         <v>0.67</v>
       </c>
+      <c r="U14" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1512,6 +1556,9 @@
       <c r="T15" t="n">
         <v>0.01</v>
       </c>
+      <c r="U15" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1580,6 +1627,9 @@
       <c r="T16" t="n">
         <v>0.03</v>
       </c>
+      <c r="U16" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1648,6 +1698,9 @@
       <c r="T17" t="n">
         <v>0.09</v>
       </c>
+      <c r="U17" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1716,6 +1769,9 @@
       <c r="T18" t="n">
         <v>0.05</v>
       </c>
+      <c r="U18" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1784,6 +1840,9 @@
       <c r="T19" t="n">
         <v>0.15</v>
       </c>
+      <c r="U19" t="n">
+        <v>0.115</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1852,6 +1911,9 @@
       <c r="T20" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="U20" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1920,6 +1982,9 @@
       <c r="T21" t="n">
         <v>0</v>
       </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1988,6 +2053,9 @@
       <c r="T22" t="n">
         <v>0.02</v>
       </c>
+      <c r="U22" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2056,6 +2124,9 @@
       <c r="T23" t="n">
         <v>0.05</v>
       </c>
+      <c r="U23" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2124,6 +2195,9 @@
       <c r="T24" t="n">
         <v>0.04</v>
       </c>
+      <c r="U24" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2192,6 +2266,9 @@
       <c r="T25" t="n">
         <v>0.08</v>
       </c>
+      <c r="U25" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2260,6 +2337,9 @@
       <c r="T26" t="n">
         <v>0.67</v>
       </c>
+      <c r="U26" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2328,6 +2408,9 @@
       <c r="T27" t="n">
         <v>0.01</v>
       </c>
+      <c r="U27" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2396,6 +2479,9 @@
       <c r="T28" t="n">
         <v>0.03</v>
       </c>
+      <c r="U28" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2464,6 +2550,9 @@
       <c r="T29" t="n">
         <v>0.09</v>
       </c>
+      <c r="U29" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2532,6 +2621,9 @@
       <c r="T30" t="n">
         <v>0.05</v>
       </c>
+      <c r="U30" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2600,6 +2692,9 @@
       <c r="T31" t="n">
         <v>0.15</v>
       </c>
+      <c r="U31" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2668,6 +2763,9 @@
       <c r="T32" t="n">
         <v>0.71</v>
       </c>
+      <c r="U32" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2736,6 +2834,9 @@
       <c r="T33" t="n">
         <v>0.01</v>
       </c>
+      <c r="U33" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2804,6 +2905,9 @@
       <c r="T34" t="n">
         <v>0.03</v>
       </c>
+      <c r="U34" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2872,6 +2976,9 @@
       <c r="T35" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="U35" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2940,6 +3047,9 @@
       <c r="T36" t="n">
         <v>0.08</v>
       </c>
+      <c r="U36" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3008,6 +3118,9 @@
       <c r="T37" t="n">
         <v>0.1</v>
       </c>
+      <c r="U37" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3076,6 +3189,9 @@
       <c r="T38" t="n">
         <v>0.86</v>
       </c>
+      <c r="U38" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3144,6 +3260,9 @@
       <c r="T39" t="n">
         <v>0</v>
       </c>
+      <c r="U39" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3212,6 +3331,9 @@
       <c r="T40" t="n">
         <v>0.03</v>
       </c>
+      <c r="U40" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3280,6 +3402,9 @@
       <c r="T41" t="n">
         <v>0.015</v>
       </c>
+      <c r="U41" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3348,6 +3473,9 @@
       <c r="T42" t="n">
         <v>0.04</v>
       </c>
+      <c r="U42" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3416,6 +3544,9 @@
       <c r="T43" t="n">
         <v>0.055</v>
       </c>
+      <c r="U43" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3484,6 +3615,9 @@
       <c r="T44" t="n">
         <v>0.6</v>
       </c>
+      <c r="U44" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3552,6 +3686,9 @@
       <c r="T45" t="n">
         <v>0.02</v>
       </c>
+      <c r="U45" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3620,6 +3757,9 @@
       <c r="T46" t="n">
         <v>0.03</v>
       </c>
+      <c r="U46" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3688,6 +3828,9 @@
       <c r="T47" t="n">
         <v>0.11</v>
       </c>
+      <c r="U47" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3756,6 +3899,9 @@
       <c r="T48" t="n">
         <v>0.04</v>
       </c>
+      <c r="U48" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3824,6 +3970,9 @@
       <c r="T49" t="n">
         <v>0.2</v>
       </c>
+      <c r="U49" t="n">
+        <v>0.135</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3892,6 +4041,9 @@
       <c r="T50" t="n">
         <v>0.63</v>
       </c>
+      <c r="U50" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3960,6 +4112,9 @@
       <c r="T51" t="n">
         <v>0.015</v>
       </c>
+      <c r="U51" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4028,6 +4183,9 @@
       <c r="T52" t="n">
         <v>0.03</v>
       </c>
+      <c r="U52" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4096,6 +4254,9 @@
       <c r="T53" t="n">
         <v>0.08</v>
       </c>
+      <c r="U53" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4164,6 +4325,9 @@
       <c r="T54" t="n">
         <v>0.1</v>
       </c>
+      <c r="U54" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4232,6 +4396,9 @@
       <c r="T55" t="n">
         <v>0.145</v>
       </c>
+      <c r="U55" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4300,6 +4467,9 @@
       <c r="T56" t="n">
         <v>0.83</v>
       </c>
+      <c r="U56" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4368,6 +4538,9 @@
       <c r="T57" t="n">
         <v>0</v>
       </c>
+      <c r="U57" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4436,6 +4609,9 @@
       <c r="T58" t="n">
         <v>0.04</v>
       </c>
+      <c r="U58" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4504,6 +4680,9 @@
       <c r="T59" t="n">
         <v>0.015</v>
       </c>
+      <c r="U59" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4572,6 +4751,9 @@
       <c r="T60" t="n">
         <v>0.05</v>
       </c>
+      <c r="U60" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4640,6 +4822,9 @@
       <c r="T61" t="n">
         <v>0.065</v>
       </c>
+      <c r="U61" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4708,6 +4893,9 @@
       <c r="T62" t="n">
         <v>0.75</v>
       </c>
+      <c r="U62" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4776,6 +4964,9 @@
       <c r="T63" t="n">
         <v>0</v>
       </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4844,6 +5035,9 @@
       <c r="T64" t="n">
         <v>0.04</v>
       </c>
+      <c r="U64" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4912,6 +5106,9 @@
       <c r="T65" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="U65" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4980,6 +5177,9 @@
       <c r="T66" t="n">
         <v>0.05</v>
       </c>
+      <c r="U66" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5048,6 +5248,9 @@
       <c r="T67" t="n">
         <v>0.09</v>
       </c>
+      <c r="U67" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5116,6 +5319,9 @@
       <c r="T68" t="n">
         <v>0.88</v>
       </c>
+      <c r="U68" t="n">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5184,6 +5390,9 @@
       <c r="T69" t="n">
         <v>0</v>
       </c>
+      <c r="U69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5252,6 +5461,9 @@
       <c r="T70" t="n">
         <v>0.005</v>
       </c>
+      <c r="U70" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5320,6 +5532,9 @@
       <c r="T71" t="n">
         <v>0.03</v>
       </c>
+      <c r="U71" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5388,6 +5603,9 @@
       <c r="T72" t="n">
         <v>0.04</v>
       </c>
+      <c r="U72" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5456,6 +5674,9 @@
       <c r="T73" t="n">
         <v>0.045</v>
       </c>
+      <c r="U73" t="n">
+        <v>0.055</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5524,6 +5745,9 @@
       <c r="T74" t="n">
         <v>0.91</v>
       </c>
+      <c r="U74" t="n">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5592,6 +5816,9 @@
       <c r="T75" t="n">
         <v>0.005</v>
       </c>
+      <c r="U75" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5660,6 +5887,9 @@
       <c r="T76" t="n">
         <v>0.01</v>
       </c>
+      <c r="U76" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5728,6 +5958,9 @@
       <c r="T77" t="n">
         <v>0.02</v>
       </c>
+      <c r="U77" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5796,6 +6029,9 @@
       <c r="T78" t="n">
         <v>0.02</v>
       </c>
+      <c r="U78" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5864,6 +6100,9 @@
       <c r="T79" t="n">
         <v>0.035</v>
       </c>
+      <c r="U79" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5932,6 +6171,9 @@
       <c r="T80" t="n">
         <v>0.72</v>
       </c>
+      <c r="U80" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6000,6 +6242,9 @@
       <c r="T81" t="n">
         <v>0.01</v>
       </c>
+      <c r="U81" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6068,6 +6313,9 @@
       <c r="T82" t="n">
         <v>0.03</v>
       </c>
+      <c r="U82" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6136,6 +6384,9 @@
       <c r="T83" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="U83" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6204,6 +6455,9 @@
       <c r="T84" t="n">
         <v>0.06</v>
       </c>
+      <c r="U84" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6272,6 +6526,9 @@
       <c r="T85" t="n">
         <v>0.11</v>
       </c>
+      <c r="U85" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6340,6 +6597,9 @@
       <c r="T86" t="n">
         <v>0.77</v>
       </c>
+      <c r="U86" t="n">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6408,6 +6668,9 @@
       <c r="T87" t="n">
         <v>0</v>
       </c>
+      <c r="U87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6476,6 +6739,9 @@
       <c r="T88" t="n">
         <v>0.05</v>
       </c>
+      <c r="U88" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6544,6 +6810,9 @@
       <c r="T89" t="n">
         <v>0.05</v>
       </c>
+      <c r="U89" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6612,6 +6881,9 @@
       <c r="T90" t="n">
         <v>0.06</v>
       </c>
+      <c r="U90" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6680,6 +6952,9 @@
       <c r="T91" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="U91" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6748,6 +7023,9 @@
       <c r="T92" t="n">
         <v>0.61</v>
       </c>
+      <c r="U92" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6816,6 +7094,9 @@
       <c r="T93" t="n">
         <v>0</v>
       </c>
+      <c r="U93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6884,6 +7165,9 @@
       <c r="T94" t="n">
         <v>0</v>
       </c>
+      <c r="U94" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6952,6 +7236,9 @@
       <c r="T95" t="n">
         <v>0.13</v>
       </c>
+      <c r="U95" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7020,6 +7307,9 @@
       <c r="T96" t="n">
         <v>0.13</v>
       </c>
+      <c r="U96" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7088,6 +7378,9 @@
       <c r="T97" t="n">
         <v>0.13</v>
       </c>
+      <c r="U97" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7156,6 +7449,9 @@
       <c r="T98" t="n">
         <v>0.65</v>
       </c>
+      <c r="U98" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7224,6 +7520,9 @@
       <c r="T99" t="n">
         <v>0</v>
       </c>
+      <c r="U99" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7292,6 +7591,9 @@
       <c r="T100" t="n">
         <v>0.02</v>
       </c>
+      <c r="U100" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7360,6 +7662,9 @@
       <c r="T101" t="n">
         <v>0.15</v>
       </c>
+      <c r="U101" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7428,6 +7733,9 @@
       <c r="T102" t="n">
         <v>0.03</v>
       </c>
+      <c r="U102" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7496,6 +7804,9 @@
       <c r="T103" t="n">
         <v>0.15</v>
       </c>
+      <c r="U103" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7564,6 +7875,9 @@
       <c r="T104" t="n">
         <v>0.72</v>
       </c>
+      <c r="U104" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7632,6 +7946,9 @@
       <c r="T105" t="n">
         <v>0.005</v>
       </c>
+      <c r="U105" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7700,6 +8017,9 @@
       <c r="T106" t="n">
         <v>0.03</v>
       </c>
+      <c r="U106" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7768,6 +8088,9 @@
       <c r="T107" t="n">
         <v>0.06</v>
       </c>
+      <c r="U107" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7836,6 +8159,9 @@
       <c r="T108" t="n">
         <v>0.06</v>
       </c>
+      <c r="U108" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7904,6 +8230,9 @@
       <c r="T109" t="n">
         <v>0.125</v>
       </c>
+      <c r="U109" t="n">
+        <v>0.08500000000000001</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7972,6 +8301,9 @@
       <c r="T110" t="n">
         <v>0.71</v>
       </c>
+      <c r="U110" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8040,6 +8372,9 @@
       <c r="T111" t="n">
         <v>0</v>
       </c>
+      <c r="U111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8108,6 +8443,9 @@
       <c r="T112" t="n">
         <v>0.015</v>
       </c>
+      <c r="U112" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8176,6 +8514,9 @@
       <c r="T113" t="n">
         <v>0.11</v>
       </c>
+      <c r="U113" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8244,6 +8585,9 @@
       <c r="T114" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="U114" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8312,6 +8656,9 @@
       <c r="T115" t="n">
         <v>0.095</v>
       </c>
+      <c r="U115" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8380,6 +8727,9 @@
       <c r="T116" t="n">
         <v>0.77</v>
       </c>
+      <c r="U116" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8448,6 +8798,9 @@
       <c r="T117" t="n">
         <v>0.03</v>
       </c>
+      <c r="U117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8516,6 +8869,9 @@
       <c r="T118" t="n">
         <v>0.05</v>
       </c>
+      <c r="U118" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8584,6 +8940,9 @@
       <c r="T119" t="n">
         <v>0.04</v>
       </c>
+      <c r="U119" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8652,6 +9011,9 @@
       <c r="T120" t="n">
         <v>0.04</v>
       </c>
+      <c r="U120" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8720,6 +9082,9 @@
       <c r="T121" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="U121" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8788,6 +9153,9 @@
       <c r="T122" t="n">
         <v>0.71</v>
       </c>
+      <c r="U122" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8856,6 +9224,9 @@
       <c r="T123" t="n">
         <v>0.01</v>
       </c>
+      <c r="U123" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8924,6 +9295,9 @@
       <c r="T124" t="n">
         <v>0.03</v>
       </c>
+      <c r="U124" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8992,6 +9366,9 @@
       <c r="T125" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="U125" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -9060,6 +9437,9 @@
       <c r="T126" t="n">
         <v>0.06</v>
       </c>
+      <c r="U126" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -9128,6 +9508,9 @@
       <c r="T127" t="n">
         <v>0.12</v>
       </c>
+      <c r="U127" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9196,6 +9579,9 @@
       <c r="T128" t="n">
         <v>0.77</v>
       </c>
+      <c r="U128" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -9264,6 +9650,9 @@
       <c r="T129" t="n">
         <v>0.005</v>
       </c>
+      <c r="U129" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -9332,6 +9721,9 @@
       <c r="T130" t="n">
         <v>0.03</v>
       </c>
+      <c r="U130" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9400,6 +9792,9 @@
       <c r="T131" t="n">
         <v>0.05</v>
       </c>
+      <c r="U131" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9468,6 +9863,9 @@
       <c r="T132" t="n">
         <v>0.06</v>
       </c>
+      <c r="U132" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9536,6 +9934,9 @@
       <c r="T133" t="n">
         <v>0.08500000000000001</v>
       </c>
+      <c r="U133" t="n">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -9604,6 +10005,9 @@
       <c r="T134" t="n">
         <v>0.67</v>
       </c>
+      <c r="U134" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9672,6 +10076,9 @@
       <c r="T135" t="n">
         <v>0.01</v>
       </c>
+      <c r="U135" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9740,6 +10147,9 @@
       <c r="T136" t="n">
         <v>0.03</v>
       </c>
+      <c r="U136" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -9808,6 +10218,9 @@
       <c r="T137" t="n">
         <v>0.08</v>
       </c>
+      <c r="U137" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9876,6 +10289,9 @@
       <c r="T138" t="n">
         <v>0.06</v>
       </c>
+      <c r="U138" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -9944,6 +10360,9 @@
       <c r="T139" t="n">
         <v>0.15</v>
       </c>
+      <c r="U139" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -10012,6 +10431,9 @@
       <c r="T140" t="n">
         <v>0.72</v>
       </c>
+      <c r="U140" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -10080,6 +10502,9 @@
       <c r="T141" t="n">
         <v>0.01</v>
       </c>
+      <c r="U141" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -10148,6 +10573,9 @@
       <c r="T142" t="n">
         <v>0.05</v>
       </c>
+      <c r="U142" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -10216,6 +10644,9 @@
       <c r="T143" t="n">
         <v>0.06</v>
       </c>
+      <c r="U143" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -10284,6 +10715,9 @@
       <c r="T144" t="n">
         <v>0.09</v>
       </c>
+      <c r="U144" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -10352,6 +10786,9 @@
       <c r="T145" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="U145" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -10420,6 +10857,9 @@
       <c r="T146" t="n">
         <v>0.71</v>
       </c>
+      <c r="U146" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -10488,6 +10928,9 @@
       <c r="T147" t="n">
         <v>0</v>
       </c>
+      <c r="U147" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -10556,6 +10999,9 @@
       <c r="T148" t="n">
         <v>0.03</v>
       </c>
+      <c r="U148" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -10624,6 +11070,9 @@
       <c r="T149" t="n">
         <v>0.08</v>
       </c>
+      <c r="U149" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -10692,6 +11141,9 @@
       <c r="T150" t="n">
         <v>0.06</v>
       </c>
+      <c r="U150" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -10760,6 +11212,9 @@
       <c r="T151" t="n">
         <v>0.12</v>
       </c>
+      <c r="U151" t="n">
+        <v>0.095</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -10828,6 +11283,9 @@
       <c r="T152" t="n">
         <v>0.85</v>
       </c>
+      <c r="U152" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -10896,6 +11354,9 @@
       <c r="T153" t="n">
         <v>0</v>
       </c>
+      <c r="U153" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -10964,6 +11425,9 @@
       <c r="T154" t="n">
         <v>0.02</v>
       </c>
+      <c r="U154" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -11032,6 +11496,9 @@
       <c r="T155" t="n">
         <v>0.01</v>
       </c>
+      <c r="U155" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -11100,6 +11567,9 @@
       <c r="T156" t="n">
         <v>0.03</v>
       </c>
+      <c r="U156" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -11168,6 +11638,9 @@
       <c r="T157" t="n">
         <v>0.09</v>
       </c>
+      <c r="U157" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -11236,6 +11709,9 @@
       <c r="T158" t="n">
         <v>0.57</v>
       </c>
+      <c r="U158" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -11304,6 +11780,9 @@
       <c r="T159" t="n">
         <v>0.02</v>
       </c>
+      <c r="U159" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -11372,6 +11851,9 @@
       <c r="T160" t="n">
         <v>0.05</v>
       </c>
+      <c r="U160" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -11440,6 +11922,9 @@
       <c r="T161" t="n">
         <v>0.06</v>
       </c>
+      <c r="U161" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -11508,6 +11993,9 @@
       <c r="T162" t="n">
         <v>0.09</v>
       </c>
+      <c r="U162" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -11576,6 +12064,9 @@
       <c r="T163" t="n">
         <v>0.21</v>
       </c>
+      <c r="U163" t="n">
+        <v>0.115</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -11644,6 +12135,9 @@
       <c r="T164" t="n">
         <v>0.64</v>
       </c>
+      <c r="U164" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -11712,6 +12206,9 @@
       <c r="T165" t="n">
         <v>0.015</v>
       </c>
+      <c r="U165" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -11780,6 +12277,9 @@
       <c r="T166" t="n">
         <v>0.015</v>
       </c>
+      <c r="U166" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -11848,6 +12348,9 @@
       <c r="T167" t="n">
         <v>0.1</v>
       </c>
+      <c r="U167" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -11916,6 +12419,9 @@
       <c r="T168" t="n">
         <v>0.05</v>
       </c>
+      <c r="U168" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -11984,6 +12490,9 @@
       <c r="T169" t="n">
         <v>0.18</v>
       </c>
+      <c r="U169" t="n">
+        <v>0.105</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -12052,6 +12561,9 @@
       <c r="T170" t="n">
         <v>0.77</v>
       </c>
+      <c r="U170" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -12120,6 +12632,9 @@
       <c r="T171" t="n">
         <v>0</v>
       </c>
+      <c r="U171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -12188,6 +12703,9 @@
       <c r="T172" t="n">
         <v>0.03</v>
       </c>
+      <c r="U172" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -12256,6 +12774,9 @@
       <c r="T173" t="n">
         <v>0.08</v>
       </c>
+      <c r="U173" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -12324,6 +12845,9 @@
       <c r="T174" t="n">
         <v>0.05</v>
       </c>
+      <c r="U174" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -12392,6 +12916,9 @@
       <c r="T175" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="U175" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -12460,6 +12987,9 @@
       <c r="T176" t="n">
         <v>0.71</v>
       </c>
+      <c r="U176" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -12528,6 +13058,9 @@
       <c r="T177" t="n">
         <v>0.015</v>
       </c>
+      <c r="U177" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -12596,6 +13129,9 @@
       <c r="T178" t="n">
         <v>0.04</v>
       </c>
+      <c r="U178" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -12664,6 +13200,9 @@
       <c r="T179" t="n">
         <v>0.05</v>
       </c>
+      <c r="U179" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -12732,6 +13271,9 @@
       <c r="T180" t="n">
         <v>0.05</v>
       </c>
+      <c r="U180" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -12800,6 +13342,9 @@
       <c r="T181" t="n">
         <v>0.135</v>
       </c>
+      <c r="U181" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -12868,6 +13413,9 @@
       <c r="T182" t="n">
         <v>0.7</v>
       </c>
+      <c r="U182" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -12936,6 +13484,9 @@
       <c r="T183" t="n">
         <v>0</v>
       </c>
+      <c r="U183" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -13004,6 +13555,9 @@
       <c r="T184" t="n">
         <v>0.03</v>
       </c>
+      <c r="U184" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -13072,6 +13626,9 @@
       <c r="T185" t="n">
         <v>0.09</v>
       </c>
+      <c r="U185" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -13140,6 +13697,9 @@
       <c r="T186" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="U186" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -13208,6 +13768,9 @@
       <c r="T187" t="n">
         <v>0.11</v>
       </c>
+      <c r="U187" t="n">
+        <v>0.08500000000000001</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -13276,6 +13839,9 @@
       <c r="T188" t="n">
         <v>0.68</v>
       </c>
+      <c r="U188" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -13344,6 +13910,9 @@
       <c r="T189" t="n">
         <v>0.005</v>
       </c>
+      <c r="U189" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -13412,6 +13981,9 @@
       <c r="T190" t="n">
         <v>0.005</v>
       </c>
+      <c r="U190" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -13480,6 +14052,9 @@
       <c r="T191" t="n">
         <v>0.12</v>
       </c>
+      <c r="U191" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -13548,6 +14123,9 @@
       <c r="T192" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="U192" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -13616,6 +14194,9 @@
       <c r="T193" t="n">
         <v>0.12</v>
       </c>
+      <c r="U193" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -13684,6 +14265,9 @@
       <c r="T194" t="n">
         <v>0.82</v>
       </c>
+      <c r="U194" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -13752,6 +14336,9 @@
       <c r="T195" t="n">
         <v>0</v>
       </c>
+      <c r="U195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -13820,6 +14407,9 @@
       <c r="T196" t="n">
         <v>0.02</v>
       </c>
+      <c r="U196" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -13888,6 +14478,9 @@
       <c r="T197" t="n">
         <v>0.04</v>
       </c>
+      <c r="U197" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -13956,6 +14549,9 @@
       <c r="T198" t="n">
         <v>0.05</v>
       </c>
+      <c r="U198" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -14024,6 +14620,9 @@
       <c r="T199" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="U199" t="n">
+        <v>0.055</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -14092,6 +14691,9 @@
       <c r="T200" t="n">
         <v>0.66</v>
       </c>
+      <c r="U200" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -14160,6 +14762,9 @@
       <c r="T201" t="n">
         <v>0.02</v>
       </c>
+      <c r="U201" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -14228,6 +14833,9 @@
       <c r="T202" t="n">
         <v>0.04</v>
       </c>
+      <c r="U202" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -14296,6 +14904,9 @@
       <c r="T203" t="n">
         <v>0.05</v>
       </c>
+      <c r="U203" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -14364,6 +14975,9 @@
       <c r="T204" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="U204" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -14432,6 +15046,9 @@
       <c r="T205" t="n">
         <v>0.16</v>
       </c>
+      <c r="U205" t="n">
+        <v>0.105</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -14500,6 +15117,9 @@
       <c r="T206" t="n">
         <v>0.66</v>
       </c>
+      <c r="U206" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -14568,6 +15188,9 @@
       <c r="T207" t="n">
         <v>0</v>
       </c>
+      <c r="U207" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -14636,6 +15259,9 @@
       <c r="T208" t="n">
         <v>0.04</v>
       </c>
+      <c r="U208" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -14704,6 +15330,9 @@
       <c r="T209" t="n">
         <v>0.12</v>
       </c>
+      <c r="U209" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -14772,6 +15401,9 @@
       <c r="T210" t="n">
         <v>0.05</v>
       </c>
+      <c r="U210" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -14840,6 +15472,9 @@
       <c r="T211" t="n">
         <v>0.13</v>
       </c>
+      <c r="U211" t="n">
+        <v>0.105</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -14908,6 +15543,9 @@
       <c r="T212" t="n">
         <v>0.61</v>
       </c>
+      <c r="U212" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -14976,6 +15614,9 @@
       <c r="T213" t="n">
         <v>0.005</v>
       </c>
+      <c r="U213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -15044,6 +15685,9 @@
       <c r="T214" t="n">
         <v>0.005</v>
       </c>
+      <c r="U214" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -15112,6 +15756,9 @@
       <c r="T215" t="n">
         <v>0.14</v>
       </c>
+      <c r="U215" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -15180,6 +15827,9 @@
       <c r="T216" t="n">
         <v>0.08</v>
       </c>
+      <c r="U216" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -15248,6 +15898,9 @@
       <c r="T217" t="n">
         <v>0.16</v>
       </c>
+      <c r="U217" t="n">
+        <v>0.105</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -15316,6 +15969,9 @@
       <c r="T218" t="n">
         <v>0.76</v>
       </c>
+      <c r="U218" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -15384,6 +16040,9 @@
       <c r="T219" t="n">
         <v>0</v>
       </c>
+      <c r="U219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -15452,6 +16111,9 @@
       <c r="T220" t="n">
         <v>0.02</v>
       </c>
+      <c r="U220" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -15520,6 +16182,9 @@
       <c r="T221" t="n">
         <v>0.05</v>
       </c>
+      <c r="U221" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -15588,6 +16253,9 @@
       <c r="T222" t="n">
         <v>0.08</v>
       </c>
+      <c r="U222" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -15656,6 +16324,9 @@
       <c r="T223" t="n">
         <v>0.09</v>
       </c>
+      <c r="U223" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -15724,6 +16395,9 @@
       <c r="T224" t="n">
         <v>0.8</v>
       </c>
+      <c r="U224" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -15792,6 +16466,9 @@
       <c r="T225" t="n">
         <v>0</v>
       </c>
+      <c r="U225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -15860,6 +16537,9 @@
       <c r="T226" t="n">
         <v>0.04</v>
       </c>
+      <c r="U226" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -15928,6 +16608,9 @@
       <c r="T227" t="n">
         <v>0.06</v>
       </c>
+      <c r="U227" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -15996,6 +16679,9 @@
       <c r="T228" t="n">
         <v>0.03</v>
       </c>
+      <c r="U228" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -16064,6 +16750,9 @@
       <c r="T229" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="U229" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -16132,6 +16821,9 @@
       <c r="T230" t="n">
         <v>0.77</v>
       </c>
+      <c r="U230" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -16200,6 +16892,9 @@
       <c r="T231" t="n">
         <v>0</v>
       </c>
+      <c r="U231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -16268,6 +16963,9 @@
       <c r="T232" t="n">
         <v>0.005</v>
       </c>
+      <c r="U232" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -16336,6 +17034,9 @@
       <c r="T233" t="n">
         <v>0.04</v>
       </c>
+      <c r="U233" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -16404,6 +17105,9 @@
       <c r="T234" t="n">
         <v>0.09</v>
       </c>
+      <c r="U234" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -16472,6 +17176,9 @@
       <c r="T235" t="n">
         <v>0.095</v>
       </c>
+      <c r="U235" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -16540,6 +17247,9 @@
       <c r="T236" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="U236" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -16608,6 +17318,9 @@
       <c r="T237" t="n">
         <v>0.005</v>
       </c>
+      <c r="U237" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -16676,6 +17389,9 @@
       <c r="T238" t="n">
         <v>0.005</v>
       </c>
+      <c r="U238" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -16744,6 +17460,9 @@
       <c r="T239" t="n">
         <v>0.08</v>
       </c>
+      <c r="U239" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -16812,6 +17531,9 @@
       <c r="T240" t="n">
         <v>0.06</v>
       </c>
+      <c r="U240" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -16880,6 +17602,9 @@
       <c r="T241" t="n">
         <v>0.04</v>
       </c>
+      <c r="U241" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -16948,6 +17673,9 @@
       <c r="T242" t="n">
         <v>0.89</v>
       </c>
+      <c r="U242" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -17016,6 +17744,9 @@
       <c r="T243" t="n">
         <v>0.005</v>
       </c>
+      <c r="U243" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -17084,6 +17815,9 @@
       <c r="T244" t="n">
         <v>0.015</v>
       </c>
+      <c r="U244" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -17152,6 +17886,9 @@
       <c r="T245" t="n">
         <v>0.015</v>
       </c>
+      <c r="U245" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -17220,6 +17957,9 @@
       <c r="T246" t="n">
         <v>0.03</v>
       </c>
+      <c r="U246" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -17288,6 +18028,9 @@
       <c r="T247" t="n">
         <v>0.045</v>
       </c>
+      <c r="U247" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -17356,6 +18099,9 @@
       <c r="T248" t="n">
         <v>0.58</v>
       </c>
+      <c r="U248" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -17424,6 +18170,9 @@
       <c r="T249" t="n">
         <v>0.03</v>
       </c>
+      <c r="U249" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -17492,6 +18241,9 @@
       <c r="T250" t="n">
         <v>0.02</v>
       </c>
+      <c r="U250" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -17560,6 +18312,9 @@
       <c r="T251" t="n">
         <v>0.12</v>
       </c>
+      <c r="U251" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -17626,7 +18381,10 @@
         <v>0.08</v>
       </c>
       <c r="T252" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
+      </c>
+      <c r="U252" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="253">
@@ -17694,7 +18452,10 @@
         <v>0.18</v>
       </c>
       <c r="T253" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
+      </c>
+      <c r="U253" t="n">
+        <v>0.165</v>
       </c>
     </row>
     <row r="254">
@@ -17762,7 +18523,10 @@
         <v>0.68</v>
       </c>
       <c r="T254" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
+      </c>
+      <c r="U254" t="n">
+        <v>0.76</v>
       </c>
     </row>
     <row r="255">
@@ -17832,6 +18596,9 @@
       <c r="T255" t="n">
         <v>0.005</v>
       </c>
+      <c r="U255" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -17900,6 +18667,9 @@
       <c r="T256" t="n">
         <v>0.05</v>
       </c>
+      <c r="U256" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -17968,6 +18738,9 @@
       <c r="T257" t="n">
         <v>0.06</v>
       </c>
+      <c r="U257" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -18036,6 +18809,9 @@
       <c r="T258" t="n">
         <v>0.04</v>
       </c>
+      <c r="U258" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -18102,7 +18878,10 @@
         <v>0.12</v>
       </c>
       <c r="T259" t="n">
-        <v>0.125</v>
+        <v>0.135</v>
+      </c>
+      <c r="U259" t="n">
+        <v>0.105</v>
       </c>
     </row>
     <row r="260">
@@ -18172,6 +18951,9 @@
       <c r="T260" t="n">
         <v>0.75</v>
       </c>
+      <c r="U260" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -18240,6 +19022,9 @@
       <c r="T261" t="n">
         <v>0.01</v>
       </c>
+      <c r="U261" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -18308,6 +19093,9 @@
       <c r="T262" t="n">
         <v>0.015</v>
       </c>
+      <c r="U262" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -18376,6 +19164,9 @@
       <c r="T263" t="n">
         <v>0.04</v>
       </c>
+      <c r="U263" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -18442,7 +19233,10 @@
         <v>0.06</v>
       </c>
       <c r="T264" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
+      </c>
+      <c r="U264" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="265">
@@ -18510,7 +19304,10 @@
         <v>0.075</v>
       </c>
       <c r="T265" t="n">
-        <v>0.105</v>
+        <v>0.095</v>
+      </c>
+      <c r="U265" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="266">
@@ -18580,6 +19377,9 @@
       <c r="T266" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="U266" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -18648,6 +19448,9 @@
       <c r="T267" t="n">
         <v>0</v>
       </c>
+      <c r="U267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -18716,6 +19519,9 @@
       <c r="T268" t="n">
         <v>0.02</v>
       </c>
+      <c r="U268" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -18784,6 +19590,9 @@
       <c r="T269" t="n">
         <v>0.03</v>
       </c>
+      <c r="U269" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -18852,6 +19661,9 @@
       <c r="T270" t="n">
         <v>0.08</v>
       </c>
+      <c r="U270" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -18920,6 +19732,9 @@
       <c r="T271" t="n">
         <v>0.06</v>
       </c>
+      <c r="U271" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -18988,6 +19803,9 @@
       <c r="T272" t="n">
         <v>0.66</v>
       </c>
+      <c r="U272" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -19056,6 +19874,9 @@
       <c r="T273" t="n">
         <v>0.01</v>
       </c>
+      <c r="U273" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -19124,6 +19945,9 @@
       <c r="T274" t="n">
         <v>0.04</v>
       </c>
+      <c r="U274" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -19192,6 +20016,9 @@
       <c r="T275" t="n">
         <v>0.09</v>
       </c>
+      <c r="U275" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -19260,6 +20087,9 @@
       <c r="T276" t="n">
         <v>0.05</v>
       </c>
+      <c r="U276" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -19328,6 +20158,9 @@
       <c r="T277" t="n">
         <v>0.15</v>
       </c>
+      <c r="U277" t="n">
+        <v>0.105</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -19396,6 +20229,9 @@
       <c r="T278" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="U278" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -19464,6 +20300,9 @@
       <c r="T279" t="n">
         <v>0.01</v>
       </c>
+      <c r="U279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -19532,6 +20371,9 @@
       <c r="T280" t="n">
         <v>0.015</v>
       </c>
+      <c r="U280" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -19600,6 +20442,9 @@
       <c r="T281" t="n">
         <v>0.04</v>
       </c>
+      <c r="U281" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -19668,6 +20513,9 @@
       <c r="T282" t="n">
         <v>0.08</v>
       </c>
+      <c r="U282" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -19736,6 +20584,9 @@
       <c r="T283" t="n">
         <v>0.045</v>
       </c>
+      <c r="U283" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -19804,6 +20655,9 @@
       <c r="T284" t="n">
         <v>0.71</v>
       </c>
+      <c r="U284" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -19872,6 +20726,9 @@
       <c r="T285" t="n">
         <v>0</v>
       </c>
+      <c r="U285" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -19940,6 +20797,9 @@
       <c r="T286" t="n">
         <v>0.05</v>
       </c>
+      <c r="U286" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -20008,6 +20868,9 @@
       <c r="T287" t="n">
         <v>0.06</v>
       </c>
+      <c r="U287" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -20076,6 +20939,9 @@
       <c r="T288" t="n">
         <v>0.06</v>
       </c>
+      <c r="U288" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -20144,6 +21010,9 @@
       <c r="T289" t="n">
         <v>0.12</v>
       </c>
+      <c r="U289" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -20212,6 +21081,9 @@
       <c r="T290" t="n">
         <v>0.88</v>
       </c>
+      <c r="U290" t="n">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -20280,6 +21152,9 @@
       <c r="T291" t="n">
         <v>0.01</v>
       </c>
+      <c r="U291" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -20348,6 +21223,9 @@
       <c r="T292" t="n">
         <v>0.015</v>
       </c>
+      <c r="U292" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -20416,6 +21294,9 @@
       <c r="T293" t="n">
         <v>0.03</v>
       </c>
+      <c r="U293" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -20484,6 +21365,9 @@
       <c r="T294" t="n">
         <v>0.06</v>
       </c>
+      <c r="U294" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -20552,6 +21436,9 @@
       <c r="T295" t="n">
         <v>0.005</v>
       </c>
+      <c r="U295" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -20620,6 +21507,9 @@
       <c r="T296" t="n">
         <v>0.68</v>
       </c>
+      <c r="U296" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -20688,6 +21578,9 @@
       <c r="T297" t="n">
         <v>0.005</v>
       </c>
+      <c r="U297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -20756,6 +21649,9 @@
       <c r="T298" t="n">
         <v>0.03</v>
       </c>
+      <c r="U298" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -20824,6 +21720,9 @@
       <c r="T299" t="n">
         <v>0.06</v>
       </c>
+      <c r="U299" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -20892,6 +21791,9 @@
       <c r="T300" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="U300" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -20960,6 +21862,9 @@
       <c r="T301" t="n">
         <v>0.155</v>
       </c>
+      <c r="U301" t="n">
+        <v>0.115</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -21028,6 +21933,9 @@
       <c r="T302" t="n">
         <v>0.71</v>
       </c>
+      <c r="U302" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -21096,6 +22004,9 @@
       <c r="T303" t="n">
         <v>0.005</v>
       </c>
+      <c r="U303" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -21164,6 +22075,9 @@
       <c r="T304" t="n">
         <v>0.02</v>
       </c>
+      <c r="U304" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -21232,6 +22146,9 @@
       <c r="T305" t="n">
         <v>0.06</v>
       </c>
+      <c r="U305" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -21300,6 +22217,9 @@
       <c r="T306" t="n">
         <v>0.1</v>
       </c>
+      <c r="U306" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -21368,6 +22288,9 @@
       <c r="T307" t="n">
         <v>0.105</v>
       </c>
+      <c r="U307" t="n">
+        <v>0.095</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -21436,6 +22359,9 @@
       <c r="T308" t="n">
         <v>0.77</v>
       </c>
+      <c r="U308" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -21504,6 +22430,9 @@
       <c r="T309" t="n">
         <v>0.015</v>
       </c>
+      <c r="U309" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -21572,6 +22501,9 @@
       <c r="T310" t="n">
         <v>0.03</v>
       </c>
+      <c r="U310" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -21640,6 +22572,9 @@
       <c r="T311" t="n">
         <v>0.05</v>
       </c>
+      <c r="U311" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -21708,6 +22643,9 @@
       <c r="T312" t="n">
         <v>0.06</v>
       </c>
+      <c r="U312" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -21776,6 +22714,9 @@
       <c r="T313" t="n">
         <v>0.075</v>
       </c>
+      <c r="U313" t="n">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -21844,6 +22785,9 @@
       <c r="T314" t="n">
         <v>0.7</v>
       </c>
+      <c r="U314" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -21912,6 +22856,9 @@
       <c r="T315" t="n">
         <v>0.005</v>
       </c>
+      <c r="U315" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -21980,6 +22927,9 @@
       <c r="T316" t="n">
         <v>0.04</v>
       </c>
+      <c r="U316" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -22048,6 +22998,9 @@
       <c r="T317" t="n">
         <v>0.08</v>
       </c>
+      <c r="U317" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -22116,6 +23069,9 @@
       <c r="T318" t="n">
         <v>0.04</v>
       </c>
+      <c r="U318" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -22184,6 +23140,9 @@
       <c r="T319" t="n">
         <v>0.135</v>
       </c>
+      <c r="U319" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -22252,6 +23211,9 @@
       <c r="T320" t="n">
         <v>0.67</v>
       </c>
+      <c r="U320" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -22320,6 +23282,9 @@
       <c r="T321" t="n">
         <v>0.02</v>
       </c>
+      <c r="U321" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -22388,6 +23353,9 @@
       <c r="T322" t="n">
         <v>0.05</v>
       </c>
+      <c r="U322" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -22456,6 +23424,9 @@
       <c r="T323" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="U323" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -22524,6 +23495,9 @@
       <c r="T324" t="n">
         <v>0.05</v>
       </c>
+      <c r="U324" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -22592,6 +23566,9 @@
       <c r="T325" t="n">
         <v>0.14</v>
       </c>
+      <c r="U325" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -22660,6 +23637,9 @@
       <c r="T326" t="n">
         <v>0.73</v>
       </c>
+      <c r="U326" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -22728,6 +23708,9 @@
       <c r="T327" t="n">
         <v>0.005</v>
       </c>
+      <c r="U327" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -22796,6 +23779,9 @@
       <c r="T328" t="n">
         <v>0.03</v>
       </c>
+      <c r="U328" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -22864,6 +23850,9 @@
       <c r="T329" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="U329" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -22932,6 +23921,9 @@
       <c r="T330" t="n">
         <v>0.06</v>
       </c>
+      <c r="U330" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -23000,6 +23992,9 @@
       <c r="T331" t="n">
         <v>0.105</v>
       </c>
+      <c r="U331" t="n">
+        <v>0.08500000000000001</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -23068,6 +24063,9 @@
       <c r="T332" t="n">
         <v>0.6</v>
       </c>
+      <c r="U332" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -23136,6 +24134,9 @@
       <c r="T333" t="n">
         <v>0.005</v>
       </c>
+      <c r="U333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -23204,6 +24205,9 @@
       <c r="T334" t="n">
         <v>0.03</v>
       </c>
+      <c r="U334" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -23272,6 +24276,9 @@
       <c r="T335" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="U335" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -23340,6 +24347,9 @@
       <c r="T336" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="U336" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -23408,6 +24418,9 @@
       <c r="T337" t="n">
         <v>0.225</v>
       </c>
+      <c r="U337" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -23476,6 +24489,9 @@
       <c r="T338" t="n">
         <v>0.73</v>
       </c>
+      <c r="U338" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -23544,6 +24560,9 @@
       <c r="T339" t="n">
         <v>0.005</v>
       </c>
+      <c r="U339" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -23612,6 +24631,9 @@
       <c r="T340" t="n">
         <v>0.04</v>
       </c>
+      <c r="U340" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -23680,6 +24702,9 @@
       <c r="T341" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="U341" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -23748,6 +24773,9 @@
       <c r="T342" t="n">
         <v>0.05</v>
       </c>
+      <c r="U342" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -23816,6 +24844,9 @@
       <c r="T343" t="n">
         <v>0.105</v>
       </c>
+      <c r="U343" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -23884,6 +24915,9 @@
       <c r="T344" t="n">
         <v>0.78</v>
       </c>
+      <c r="U344" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -23952,6 +24986,9 @@
       <c r="T345" t="n">
         <v>0.01</v>
       </c>
+      <c r="U345" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -24020,6 +25057,9 @@
       <c r="T346" t="n">
         <v>0.02</v>
       </c>
+      <c r="U346" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -24088,6 +25128,9 @@
       <c r="T347" t="n">
         <v>0.06</v>
       </c>
+      <c r="U347" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -24156,6 +25199,9 @@
       <c r="T348" t="n">
         <v>0.06</v>
       </c>
+      <c r="U348" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -24224,11 +25270,14 @@
       <c r="T349" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="U349" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, % respondentů celkově a ve skupinách, aktualizace 18. 11. 2021</t>
+          <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, % respondentů celkově a ve skupinách, aktualizace 8. 12. 2021</t>
         </is>
       </c>
     </row>
@@ -24243,7 +25292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24347,6 +25396,11 @@
           <t>11. 11. 2021</t>
         </is>
       </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>30. 11. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -24410,6 +25464,9 @@
       <c r="S2" t="n">
         <v>1709</v>
       </c>
+      <c r="T2" t="n">
+        <v>1790</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -24473,6 +25530,9 @@
       <c r="S3" t="n">
         <v>425</v>
       </c>
+      <c r="T3" t="n">
+        <v>452</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -24536,6 +25596,9 @@
       <c r="S4" t="n">
         <v>627</v>
       </c>
+      <c r="T4" t="n">
+        <v>647</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -24599,6 +25662,9 @@
       <c r="S5" t="n">
         <v>657</v>
       </c>
+      <c r="T5" t="n">
+        <v>691</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -24662,6 +25728,9 @@
       <c r="S6" t="n">
         <v>788</v>
       </c>
+      <c r="T6" t="n">
+        <v>829</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -24725,6 +25794,9 @@
       <c r="S7" t="n">
         <v>590</v>
       </c>
+      <c r="T7" t="n">
+        <v>608</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -24788,6 +25860,9 @@
       <c r="S8" t="n">
         <v>331</v>
       </c>
+      <c r="T8" t="n">
+        <v>353</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -24851,6 +25926,9 @@
       <c r="S9" t="n">
         <v>410</v>
       </c>
+      <c r="T9" t="n">
+        <v>430</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -24914,6 +25992,9 @@
       <c r="S10" t="n">
         <v>416</v>
       </c>
+      <c r="T10" t="n">
+        <v>426</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -24977,6 +26058,9 @@
       <c r="S11" t="n">
         <v>226</v>
       </c>
+      <c r="T11" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -25040,6 +26124,9 @@
       <c r="S12" t="n">
         <v>377</v>
       </c>
+      <c r="T12" t="n">
+        <v>399</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -25103,6 +26190,9 @@
       <c r="S13" t="n">
         <v>174</v>
       </c>
+      <c r="T13" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -25166,6 +26256,9 @@
       <c r="S14" t="n">
         <v>106</v>
       </c>
+      <c r="T14" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -25229,6 +26322,9 @@
       <c r="S15" t="n">
         <v>728</v>
       </c>
+      <c r="T15" t="n">
+        <v>777</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -25292,6 +26388,9 @@
       <c r="S16" t="n">
         <v>72</v>
       </c>
+      <c r="T16" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -25355,6 +26454,9 @@
       <c r="S17" t="n">
         <v>71</v>
       </c>
+      <c r="T17" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -25418,6 +26520,9 @@
       <c r="S18" t="n">
         <v>84</v>
       </c>
+      <c r="T18" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -25481,6 +26586,9 @@
       <c r="S19" t="n">
         <v>783</v>
       </c>
+      <c r="T19" t="n">
+        <v>829</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -25544,6 +26652,9 @@
       <c r="S20" t="n">
         <v>140</v>
       </c>
+      <c r="T20" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -25607,6 +26718,9 @@
       <c r="S21" t="n">
         <v>103</v>
       </c>
+      <c r="T21" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -25670,6 +26784,9 @@
       <c r="S22" t="n">
         <v>683</v>
       </c>
+      <c r="T22" t="n">
+        <v>704</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -25733,6 +26850,9 @@
       <c r="S23" t="n">
         <v>833</v>
       </c>
+      <c r="T23" t="n">
+        <v>872</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -25796,6 +26916,9 @@
       <c r="S24" t="n">
         <v>876</v>
       </c>
+      <c r="T24" t="n">
+        <v>918</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -25859,6 +26982,9 @@
       <c r="S25" t="n">
         <v>226</v>
       </c>
+      <c r="T25" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -25922,6 +27048,9 @@
       <c r="S26" t="n">
         <v>313</v>
       </c>
+      <c r="T26" t="n">
+        <v>319</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -25985,6 +27114,9 @@
       <c r="S27" t="n">
         <v>295</v>
       </c>
+      <c r="T27" t="n">
+        <v>311</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -26048,6 +27180,9 @@
       <c r="S28" t="n">
         <v>199</v>
       </c>
+      <c r="T28" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -26111,6 +27246,9 @@
       <c r="S29" t="n">
         <v>314</v>
       </c>
+      <c r="T29" t="n">
+        <v>328</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -26174,6 +27312,9 @@
       <c r="S30" t="n">
         <v>362</v>
       </c>
+      <c r="T30" t="n">
+        <v>380</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -26237,6 +27378,9 @@
       <c r="S31" t="n">
         <v>888</v>
       </c>
+      <c r="T31" t="n">
+        <v>929</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -26300,6 +27444,9 @@
       <c r="S32" t="n">
         <v>397</v>
       </c>
+      <c r="T32" t="n">
+        <v>419</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -26363,6 +27510,9 @@
       <c r="S33" t="n">
         <v>199</v>
       </c>
+      <c r="T33" t="n">
+        <v>206</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26426,6 +27576,9 @@
       <c r="S34" t="n">
         <v>225</v>
       </c>
+      <c r="T34" t="n">
+        <v>236</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26489,6 +27642,9 @@
       <c r="S35" t="n">
         <v>561</v>
       </c>
+      <c r="T35" t="n">
+        <v>580</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26552,6 +27708,9 @@
       <c r="S36" t="n">
         <v>243</v>
       </c>
+      <c r="T36" t="n">
+        <v>259</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26615,6 +27774,9 @@
       <c r="S37" t="n">
         <v>123</v>
       </c>
+      <c r="T37" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26678,6 +27840,9 @@
       <c r="S38" t="n">
         <v>124</v>
       </c>
+      <c r="T38" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26741,6 +27906,9 @@
       <c r="S39" t="n">
         <v>327</v>
       </c>
+      <c r="T39" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26804,6 +27972,9 @@
       <c r="S40" t="n">
         <v>153</v>
       </c>
+      <c r="T40" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26867,6 +28038,9 @@
       <c r="S41" t="n">
         <v>75</v>
       </c>
+      <c r="T41" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26930,6 +28104,9 @@
       <c r="S42" t="n">
         <v>103</v>
       </c>
+      <c r="T42" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -26991,7 +28168,10 @@
         <v>193</v>
       </c>
       <c r="S43" t="n">
-        <v>182</v>
+        <v>184</v>
+      </c>
+      <c r="T43" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="44">
@@ -27054,7 +28234,10 @@
         <v>666</v>
       </c>
       <c r="S44" t="n">
-        <v>618</v>
+        <v>621</v>
+      </c>
+      <c r="T44" t="n">
+        <v>633</v>
       </c>
     </row>
     <row r="45">
@@ -27117,7 +28300,10 @@
         <v>611</v>
       </c>
       <c r="S45" t="n">
-        <v>536</v>
+        <v>537</v>
+      </c>
+      <c r="T45" t="n">
+        <v>585</v>
       </c>
     </row>
     <row r="46">
@@ -27180,7 +28366,10 @@
         <v>245</v>
       </c>
       <c r="S46" t="n">
-        <v>250</v>
+        <v>252</v>
+      </c>
+      <c r="T46" t="n">
+        <v>266</v>
       </c>
     </row>
     <row r="47">
@@ -27245,6 +28434,9 @@
       <c r="S47" t="n">
         <v>287</v>
       </c>
+      <c r="T47" t="n">
+        <v>331</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -27308,6 +28500,9 @@
       <c r="S48" t="n">
         <v>243</v>
       </c>
+      <c r="T48" t="n">
+        <v>256</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -27371,6 +28566,9 @@
       <c r="S49" t="n">
         <v>246</v>
       </c>
+      <c r="T49" t="n">
+        <v>274</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -27434,6 +28632,9 @@
       <c r="S50" t="n">
         <v>219</v>
       </c>
+      <c r="T50" t="n">
+        <v>268</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -27497,6 +28698,9 @@
       <c r="S51" t="n">
         <v>484</v>
       </c>
+      <c r="T51" t="n">
+        <v>424</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -27560,6 +28764,9 @@
       <c r="S52" t="n">
         <v>374</v>
       </c>
+      <c r="T52" t="n">
+        <v>517</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -27623,6 +28830,9 @@
       <c r="S53" t="n">
         <v>468</v>
       </c>
+      <c r="T53" t="n">
+        <v>610</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -27686,6 +28896,9 @@
       <c r="S54" t="n">
         <v>867</v>
       </c>
+      <c r="T54" t="n">
+        <v>663</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -27749,6 +28962,9 @@
       <c r="S55" t="n">
         <v>273</v>
       </c>
+      <c r="T55" t="n">
+        <v>322</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -27812,6 +29028,9 @@
       <c r="S56" t="n">
         <v>1436</v>
       </c>
+      <c r="T56" t="n">
+        <v>1468</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -27875,6 +29094,9 @@
       <c r="S57" t="n">
         <v>385</v>
       </c>
+      <c r="T57" t="n">
+        <v>339</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -27938,6 +29160,9 @@
       <c r="S58" t="n">
         <v>658</v>
       </c>
+      <c r="T58" t="n">
+        <v>653</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -28001,11 +29226,14 @@
       <c r="S59" t="n">
         <v>666</v>
       </c>
+      <c r="T59" t="n">
+        <v>798</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, velikost dotázaného souboru celkově a ve skupinách, aktualizace 18. 11. 2021</t>
+          <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, velikost dotázaného souboru celkově a ve skupinách, aktualizace 8. 12. 2021</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -28026,6 +29254,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_07b_ockovani.xlsx
+++ b/ZBP_07b_ockovani.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U350"/>
+  <dimension ref="A1:V350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,6 +565,11 @@
           <t>30. 11. 2021</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>28. 12. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -636,6 +641,9 @@
       <c r="U2" t="n">
         <v>0.77</v>
       </c>
+      <c r="V2" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -707,6 +715,9 @@
       <c r="U3" t="n">
         <v>0.005</v>
       </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -778,6 +789,9 @@
       <c r="U4" t="n">
         <v>0.02</v>
       </c>
+      <c r="V4" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -849,6 +863,9 @@
       <c r="U5" t="n">
         <v>0.06</v>
       </c>
+      <c r="V5" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -920,6 +937,9 @@
       <c r="U6" t="n">
         <v>0.05</v>
       </c>
+      <c r="V6" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -991,6 +1011,9 @@
       <c r="U7" t="n">
         <v>0.095</v>
       </c>
+      <c r="V7" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1062,6 +1085,9 @@
       <c r="U8" t="n">
         <v>0.68</v>
       </c>
+      <c r="V8" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1133,6 +1159,9 @@
       <c r="U9" t="n">
         <v>0.015</v>
       </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1204,6 +1233,9 @@
       <c r="U10" t="n">
         <v>0.03</v>
       </c>
+      <c r="V10" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1275,6 +1307,9 @@
       <c r="U11" t="n">
         <v>0.11</v>
       </c>
+      <c r="V11" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1346,6 +1381,9 @@
       <c r="U12" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="V12" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1417,6 +1455,9 @@
       <c r="U13" t="n">
         <v>0.095</v>
       </c>
+      <c r="V13" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1488,6 +1529,9 @@
       <c r="U14" t="n">
         <v>0.73</v>
       </c>
+      <c r="V14" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1559,6 +1603,9 @@
       <c r="U15" t="n">
         <v>0.005</v>
       </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1630,6 +1677,9 @@
       <c r="U16" t="n">
         <v>0.02</v>
       </c>
+      <c r="V16" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1701,6 +1751,9 @@
       <c r="U17" t="n">
         <v>0.06</v>
       </c>
+      <c r="V17" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1772,6 +1825,9 @@
       <c r="U18" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="V18" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1843,6 +1899,9 @@
       <c r="U19" t="n">
         <v>0.115</v>
       </c>
+      <c r="V19" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1914,6 +1973,9 @@
       <c r="U20" t="n">
         <v>0.86</v>
       </c>
+      <c r="V20" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1985,6 +2047,9 @@
       <c r="U21" t="n">
         <v>0</v>
       </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2056,6 +2121,9 @@
       <c r="U22" t="n">
         <v>0.02</v>
       </c>
+      <c r="V22" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2127,6 +2195,9 @@
       <c r="U23" t="n">
         <v>0.04</v>
       </c>
+      <c r="V23" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2198,6 +2269,9 @@
       <c r="U24" t="n">
         <v>0.02</v>
       </c>
+      <c r="V24" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2269,6 +2343,9 @@
       <c r="U25" t="n">
         <v>0.06</v>
       </c>
+      <c r="V25" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2340,6 +2417,9 @@
       <c r="U26" t="n">
         <v>0.72</v>
       </c>
+      <c r="V26" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2411,6 +2491,9 @@
       <c r="U27" t="n">
         <v>0.01</v>
       </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2482,6 +2565,9 @@
       <c r="U28" t="n">
         <v>0.03</v>
       </c>
+      <c r="V28" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2553,6 +2639,9 @@
       <c r="U29" t="n">
         <v>0.09</v>
       </c>
+      <c r="V29" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2624,6 +2713,9 @@
       <c r="U30" t="n">
         <v>0.05</v>
       </c>
+      <c r="V30" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2695,6 +2787,9 @@
       <c r="U31" t="n">
         <v>0.1</v>
       </c>
+      <c r="V31" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2766,6 +2861,9 @@
       <c r="U32" t="n">
         <v>0.76</v>
       </c>
+      <c r="V32" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2837,6 +2935,9 @@
       <c r="U33" t="n">
         <v>0.01</v>
       </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2908,6 +3009,9 @@
       <c r="U34" t="n">
         <v>0.02</v>
       </c>
+      <c r="V34" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2979,6 +3083,9 @@
       <c r="U35" t="n">
         <v>0.06</v>
       </c>
+      <c r="V35" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3050,6 +3157,9 @@
       <c r="U36" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="V36" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3121,6 +3231,9 @@
       <c r="U37" t="n">
         <v>0.08</v>
       </c>
+      <c r="V37" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3192,6 +3305,9 @@
       <c r="U38" t="n">
         <v>0.9</v>
       </c>
+      <c r="V38" t="n">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3263,6 +3379,9 @@
       <c r="U39" t="n">
         <v>0.005</v>
       </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3334,6 +3453,9 @@
       <c r="U40" t="n">
         <v>0.015</v>
       </c>
+      <c r="V40" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3405,6 +3527,9 @@
       <c r="U41" t="n">
         <v>0.02</v>
       </c>
+      <c r="V41" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3476,6 +3601,9 @@
       <c r="U42" t="n">
         <v>0.03</v>
       </c>
+      <c r="V42" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3547,6 +3675,9 @@
       <c r="U43" t="n">
         <v>0.03</v>
       </c>
+      <c r="V43" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3618,6 +3749,9 @@
       <c r="U44" t="n">
         <v>0.63</v>
       </c>
+      <c r="V44" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3689,6 +3823,9 @@
       <c r="U45" t="n">
         <v>0.015</v>
       </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3760,6 +3897,9 @@
       <c r="U46" t="n">
         <v>0.03</v>
       </c>
+      <c r="V46" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3831,6 +3971,9 @@
       <c r="U47" t="n">
         <v>0.12</v>
       </c>
+      <c r="V47" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3902,6 +4045,9 @@
       <c r="U48" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="V48" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3973,6 +4119,9 @@
       <c r="U49" t="n">
         <v>0.135</v>
       </c>
+      <c r="V49" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4044,6 +4193,9 @@
       <c r="U50" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="V50" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4115,6 +4267,9 @@
       <c r="U51" t="n">
         <v>0.01</v>
       </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4186,6 +4341,9 @@
       <c r="U52" t="n">
         <v>0.02</v>
       </c>
+      <c r="V52" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4257,6 +4415,9 @@
       <c r="U53" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="V53" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4328,6 +4489,9 @@
       <c r="U54" t="n">
         <v>0.09</v>
       </c>
+      <c r="V54" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4399,6 +4563,9 @@
       <c r="U55" t="n">
         <v>0.12</v>
       </c>
+      <c r="V55" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4470,6 +4637,9 @@
       <c r="U56" t="n">
         <v>0.88</v>
       </c>
+      <c r="V56" t="n">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4541,6 +4711,9 @@
       <c r="U57" t="n">
         <v>0.005</v>
       </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4612,6 +4785,9 @@
       <c r="U58" t="n">
         <v>0.015</v>
       </c>
+      <c r="V58" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4683,6 +4859,9 @@
       <c r="U59" t="n">
         <v>0.02</v>
       </c>
+      <c r="V59" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4754,6 +4933,9 @@
       <c r="U60" t="n">
         <v>0.04</v>
       </c>
+      <c r="V60" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4825,6 +5007,9 @@
       <c r="U61" t="n">
         <v>0.04</v>
       </c>
+      <c r="V61" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4896,6 +5081,9 @@
       <c r="U62" t="n">
         <v>0.82</v>
       </c>
+      <c r="V62" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4967,6 +5155,9 @@
       <c r="U63" t="n">
         <v>0</v>
       </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5038,6 +5229,9 @@
       <c r="U64" t="n">
         <v>0.03</v>
       </c>
+      <c r="V64" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5109,6 +5303,9 @@
       <c r="U65" t="n">
         <v>0.05</v>
       </c>
+      <c r="V65" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5180,6 +5377,9 @@
       <c r="U66" t="n">
         <v>0.02</v>
       </c>
+      <c r="V66" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5251,6 +5451,9 @@
       <c r="U67" t="n">
         <v>0.08</v>
       </c>
+      <c r="V67" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5322,6 +5525,9 @@
       <c r="U68" t="n">
         <v>0.91</v>
       </c>
+      <c r="V68" t="n">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5393,6 +5599,9 @@
       <c r="U69" t="n">
         <v>0</v>
       </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5464,6 +5673,9 @@
       <c r="U70" t="n">
         <v>0.005</v>
       </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5535,6 +5747,9 @@
       <c r="U71" t="n">
         <v>0.02</v>
       </c>
+      <c r="V71" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5606,6 +5821,9 @@
       <c r="U72" t="n">
         <v>0.01</v>
       </c>
+      <c r="V72" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5677,6 +5895,9 @@
       <c r="U73" t="n">
         <v>0.055</v>
       </c>
+      <c r="V73" t="n">
+        <v>0.045</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5748,6 +5969,9 @@
       <c r="U74" t="n">
         <v>0.92</v>
       </c>
+      <c r="V74" t="n">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5819,6 +6043,9 @@
       <c r="U75" t="n">
         <v>0.005</v>
       </c>
+      <c r="V75" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5890,6 +6117,9 @@
       <c r="U76" t="n">
         <v>0.015</v>
       </c>
+      <c r="V76" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5961,6 +6191,9 @@
       <c r="U77" t="n">
         <v>0.02</v>
       </c>
+      <c r="V77" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6032,6 +6265,9 @@
       <c r="U78" t="n">
         <v>0.02</v>
       </c>
+      <c r="V78" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6103,6 +6339,9 @@
       <c r="U79" t="n">
         <v>0.02</v>
       </c>
+      <c r="V79" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6174,6 +6413,9 @@
       <c r="U80" t="n">
         <v>0.77</v>
       </c>
+      <c r="V80" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6245,6 +6487,9 @@
       <c r="U81" t="n">
         <v>0.01</v>
       </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6316,6 +6561,9 @@
       <c r="U82" t="n">
         <v>0.02</v>
       </c>
+      <c r="V82" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6387,6 +6635,9 @@
       <c r="U83" t="n">
         <v>0.06</v>
       </c>
+      <c r="V83" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6458,6 +6709,9 @@
       <c r="U84" t="n">
         <v>0.05</v>
       </c>
+      <c r="V84" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6529,6 +6783,9 @@
       <c r="U85" t="n">
         <v>0.09</v>
       </c>
+      <c r="V85" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6600,6 +6857,9 @@
       <c r="U86" t="n">
         <v>0.96</v>
       </c>
+      <c r="V86" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6671,6 +6931,9 @@
       <c r="U87" t="n">
         <v>0</v>
       </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6742,6 +7005,9 @@
       <c r="U88" t="n">
         <v>0.005</v>
       </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6813,6 +7079,9 @@
       <c r="U89" t="n">
         <v>0.015</v>
       </c>
+      <c r="V89" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6884,6 +7153,9 @@
       <c r="U90" t="n">
         <v>0.015</v>
       </c>
+      <c r="V90" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6955,6 +7227,9 @@
       <c r="U91" t="n">
         <v>0.005</v>
       </c>
+      <c r="V91" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7026,6 +7301,9 @@
       <c r="U92" t="n">
         <v>0.68</v>
       </c>
+      <c r="V92" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7097,6 +7375,9 @@
       <c r="U93" t="n">
         <v>0</v>
       </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7168,6 +7449,9 @@
       <c r="U94" t="n">
         <v>0.005</v>
       </c>
+      <c r="V94" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7239,6 +7523,9 @@
       <c r="U95" t="n">
         <v>0.1</v>
       </c>
+      <c r="V95" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7310,6 +7597,9 @@
       <c r="U96" t="n">
         <v>0.09</v>
       </c>
+      <c r="V96" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7381,6 +7671,9 @@
       <c r="U97" t="n">
         <v>0.125</v>
       </c>
+      <c r="V97" t="n">
+        <v>0.095</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7452,6 +7745,9 @@
       <c r="U98" t="n">
         <v>0.58</v>
       </c>
+      <c r="V98" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7523,6 +7819,9 @@
       <c r="U99" t="n">
         <v>0.005</v>
       </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7594,6 +7893,9 @@
       <c r="U100" t="n">
         <v>0.005</v>
       </c>
+      <c r="V100" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7665,6 +7967,9 @@
       <c r="U101" t="n">
         <v>0.1</v>
       </c>
+      <c r="V101" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7736,6 +8041,9 @@
       <c r="U102" t="n">
         <v>0.13</v>
       </c>
+      <c r="V102" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7807,6 +8115,9 @@
       <c r="U103" t="n">
         <v>0.18</v>
       </c>
+      <c r="V103" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7878,6 +8189,9 @@
       <c r="U104" t="n">
         <v>0.77</v>
       </c>
+      <c r="V104" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7949,6 +8263,9 @@
       <c r="U105" t="n">
         <v>0.005</v>
       </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -8020,6 +8337,9 @@
       <c r="U106" t="n">
         <v>0.02</v>
       </c>
+      <c r="V106" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -8091,6 +8411,9 @@
       <c r="U107" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="V107" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -8162,6 +8485,9 @@
       <c r="U108" t="n">
         <v>0.05</v>
       </c>
+      <c r="V108" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -8233,6 +8559,9 @@
       <c r="U109" t="n">
         <v>0.08500000000000001</v>
       </c>
+      <c r="V109" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -8304,6 +8633,9 @@
       <c r="U110" t="n">
         <v>0.7</v>
       </c>
+      <c r="V110" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8375,6 +8707,9 @@
       <c r="U111" t="n">
         <v>0</v>
       </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8446,6 +8781,9 @@
       <c r="U112" t="n">
         <v>0.03</v>
       </c>
+      <c r="V112" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8517,6 +8855,9 @@
       <c r="U113" t="n">
         <v>0.05</v>
       </c>
+      <c r="V113" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8588,6 +8929,9 @@
       <c r="U114" t="n">
         <v>0.12</v>
       </c>
+      <c r="V114" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8659,6 +9003,9 @@
       <c r="U115" t="n">
         <v>0.1</v>
       </c>
+      <c r="V115" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8730,6 +9077,9 @@
       <c r="U116" t="n">
         <v>0.77</v>
       </c>
+      <c r="V116" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8801,6 +9151,9 @@
       <c r="U117" t="n">
         <v>0</v>
       </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8872,6 +9225,9 @@
       <c r="U118" t="n">
         <v>0.01</v>
       </c>
+      <c r="V118" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8943,6 +9299,9 @@
       <c r="U119" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="V119" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -9014,6 +9373,9 @@
       <c r="U120" t="n">
         <v>0.09</v>
       </c>
+      <c r="V120" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -9085,6 +9447,9 @@
       <c r="U121" t="n">
         <v>0.06</v>
       </c>
+      <c r="V121" t="n">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -9156,6 +9521,9 @@
       <c r="U122" t="n">
         <v>0.78</v>
       </c>
+      <c r="V122" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -9227,6 +9595,9 @@
       <c r="U123" t="n">
         <v>0.01</v>
       </c>
+      <c r="V123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -9298,6 +9669,9 @@
       <c r="U124" t="n">
         <v>0.03</v>
       </c>
+      <c r="V124" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -9369,6 +9743,9 @@
       <c r="U125" t="n">
         <v>0.06</v>
       </c>
+      <c r="V125" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -9440,6 +9817,9 @@
       <c r="U126" t="n">
         <v>0.04</v>
       </c>
+      <c r="V126" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -9511,6 +9891,9 @@
       <c r="U127" t="n">
         <v>0.08</v>
       </c>
+      <c r="V127" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9582,6 +9965,9 @@
       <c r="U128" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="V128" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -9653,6 +10039,9 @@
       <c r="U129" t="n">
         <v>0.005</v>
       </c>
+      <c r="V129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -9724,6 +10113,9 @@
       <c r="U130" t="n">
         <v>0.02</v>
       </c>
+      <c r="V130" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9795,6 +10187,9 @@
       <c r="U131" t="n">
         <v>0.04</v>
       </c>
+      <c r="V131" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9866,6 +10261,9 @@
       <c r="U132" t="n">
         <v>0.05</v>
       </c>
+      <c r="V132" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9937,6 +10335,9 @@
       <c r="U133" t="n">
         <v>0.075</v>
       </c>
+      <c r="V133" t="n">
+        <v>0.08500000000000001</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -10008,6 +10409,9 @@
       <c r="U134" t="n">
         <v>0.74</v>
       </c>
+      <c r="V134" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -10079,6 +10483,9 @@
       <c r="U135" t="n">
         <v>0.01</v>
       </c>
+      <c r="V135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -10150,6 +10557,9 @@
       <c r="U136" t="n">
         <v>0.02</v>
       </c>
+      <c r="V136" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -10221,6 +10631,9 @@
       <c r="U137" t="n">
         <v>0.08</v>
       </c>
+      <c r="V137" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -10292,6 +10705,9 @@
       <c r="U138" t="n">
         <v>0.05</v>
       </c>
+      <c r="V138" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -10363,6 +10779,9 @@
       <c r="U139" t="n">
         <v>0.1</v>
       </c>
+      <c r="V139" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -10434,6 +10853,9 @@
       <c r="U140" t="n">
         <v>0.72</v>
       </c>
+      <c r="V140" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -10505,6 +10927,9 @@
       <c r="U141" t="n">
         <v>0.01</v>
       </c>
+      <c r="V141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -10576,6 +11001,9 @@
       <c r="U142" t="n">
         <v>0.03</v>
       </c>
+      <c r="V142" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -10647,6 +11075,9 @@
       <c r="U143" t="n">
         <v>0.09</v>
       </c>
+      <c r="V143" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -10718,6 +11149,9 @@
       <c r="U144" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="V144" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -10789,6 +11223,9 @@
       <c r="U145" t="n">
         <v>0.08</v>
       </c>
+      <c r="V145" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -10860,6 +11297,9 @@
       <c r="U146" t="n">
         <v>0.78</v>
       </c>
+      <c r="V146" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -10931,6 +11371,9 @@
       <c r="U147" t="n">
         <v>0.005</v>
       </c>
+      <c r="V147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -11002,6 +11445,9 @@
       <c r="U148" t="n">
         <v>0.02</v>
       </c>
+      <c r="V148" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -11073,6 +11519,9 @@
       <c r="U149" t="n">
         <v>0.04</v>
       </c>
+      <c r="V149" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -11144,6 +11593,9 @@
       <c r="U150" t="n">
         <v>0.06</v>
       </c>
+      <c r="V150" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -11215,6 +11667,9 @@
       <c r="U151" t="n">
         <v>0.095</v>
       </c>
+      <c r="V151" t="n">
+        <v>0.115</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -11286,6 +11741,9 @@
       <c r="U152" t="n">
         <v>0.9</v>
       </c>
+      <c r="V152" t="n">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -11357,6 +11815,9 @@
       <c r="U153" t="n">
         <v>0.005</v>
       </c>
+      <c r="V153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -11428,6 +11889,9 @@
       <c r="U154" t="n">
         <v>0.015</v>
       </c>
+      <c r="V154" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -11499,6 +11963,9 @@
       <c r="U155" t="n">
         <v>0.01</v>
       </c>
+      <c r="V155" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -11570,6 +12037,9 @@
       <c r="U156" t="n">
         <v>0.02</v>
       </c>
+      <c r="V156" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -11641,6 +12111,9 @@
       <c r="U157" t="n">
         <v>0.05</v>
       </c>
+      <c r="V157" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -11712,6 +12185,9 @@
       <c r="U158" t="n">
         <v>0.64</v>
       </c>
+      <c r="V158" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -11783,6 +12259,9 @@
       <c r="U159" t="n">
         <v>0.03</v>
       </c>
+      <c r="V159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -11854,6 +12333,9 @@
       <c r="U160" t="n">
         <v>0.015</v>
       </c>
+      <c r="V160" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -11925,6 +12407,9 @@
       <c r="U161" t="n">
         <v>0.12</v>
       </c>
+      <c r="V161" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -11996,6 +12481,9 @@
       <c r="U162" t="n">
         <v>0.08</v>
       </c>
+      <c r="V162" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -12067,6 +12555,9 @@
       <c r="U163" t="n">
         <v>0.115</v>
       </c>
+      <c r="V163" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -12138,6 +12629,9 @@
       <c r="U164" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="V164" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -12209,6 +12703,9 @@
       <c r="U165" t="n">
         <v>0.005</v>
       </c>
+      <c r="V165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -12280,6 +12777,9 @@
       <c r="U166" t="n">
         <v>0.03</v>
       </c>
+      <c r="V166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -12351,6 +12851,9 @@
       <c r="U167" t="n">
         <v>0.09</v>
       </c>
+      <c r="V167" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -12422,6 +12925,9 @@
       <c r="U168" t="n">
         <v>0.08</v>
       </c>
+      <c r="V168" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -12493,6 +12999,9 @@
       <c r="U169" t="n">
         <v>0.105</v>
       </c>
+      <c r="V169" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -12564,6 +13073,9 @@
       <c r="U170" t="n">
         <v>0.83</v>
       </c>
+      <c r="V170" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -12635,6 +13147,9 @@
       <c r="U171" t="n">
         <v>0</v>
       </c>
+      <c r="V171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -12706,6 +13221,9 @@
       <c r="U172" t="n">
         <v>0.03</v>
       </c>
+      <c r="V172" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -12777,6 +13295,9 @@
       <c r="U173" t="n">
         <v>0.06</v>
       </c>
+      <c r="V173" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -12848,6 +13369,9 @@
       <c r="U174" t="n">
         <v>0.02</v>
       </c>
+      <c r="V174" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -12919,6 +13443,9 @@
       <c r="U175" t="n">
         <v>0.06</v>
       </c>
+      <c r="V175" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -12990,6 +13517,9 @@
       <c r="U176" t="n">
         <v>0.76</v>
       </c>
+      <c r="V176" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -13061,6 +13591,9 @@
       <c r="U177" t="n">
         <v>0.01</v>
       </c>
+      <c r="V177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -13132,6 +13665,9 @@
       <c r="U178" t="n">
         <v>0.02</v>
       </c>
+      <c r="V178" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -13203,6 +13739,9 @@
       <c r="U179" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="V179" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -13274,6 +13813,9 @@
       <c r="U180" t="n">
         <v>0.04</v>
       </c>
+      <c r="V180" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -13345,6 +13887,9 @@
       <c r="U181" t="n">
         <v>0.1</v>
       </c>
+      <c r="V181" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -13416,6 +13961,9 @@
       <c r="U182" t="n">
         <v>0.76</v>
       </c>
+      <c r="V182" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -13487,6 +14035,9 @@
       <c r="U183" t="n">
         <v>0.005</v>
       </c>
+      <c r="V183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -13558,6 +14109,9 @@
       <c r="U184" t="n">
         <v>0.03</v>
       </c>
+      <c r="V184" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -13629,6 +14183,9 @@
       <c r="U185" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="V185" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -13700,6 +14257,9 @@
       <c r="U186" t="n">
         <v>0.05</v>
       </c>
+      <c r="V186" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -13771,6 +14331,9 @@
       <c r="U187" t="n">
         <v>0.08500000000000001</v>
       </c>
+      <c r="V187" t="n">
+        <v>0.115</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -13842,6 +14405,9 @@
       <c r="U188" t="n">
         <v>0.74</v>
       </c>
+      <c r="V188" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -13913,6 +14479,9 @@
       <c r="U189" t="n">
         <v>0.005</v>
       </c>
+      <c r="V189" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -13984,6 +14553,9 @@
       <c r="U190" t="n">
         <v>0.015</v>
       </c>
+      <c r="V190" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -14055,6 +14627,9 @@
       <c r="U191" t="n">
         <v>0.05</v>
       </c>
+      <c r="V191" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -14126,6 +14701,9 @@
       <c r="U192" t="n">
         <v>0.1</v>
       </c>
+      <c r="V192" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -14197,6 +14775,9 @@
       <c r="U193" t="n">
         <v>0.09</v>
       </c>
+      <c r="V193" t="n">
+        <v>0.08500000000000001</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -14268,6 +14849,9 @@
       <c r="U194" t="n">
         <v>0.85</v>
       </c>
+      <c r="V194" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -14339,6 +14923,9 @@
       <c r="U195" t="n">
         <v>0</v>
       </c>
+      <c r="V195" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -14410,6 +14997,9 @@
       <c r="U196" t="n">
         <v>0.015</v>
       </c>
+      <c r="V196" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -14481,6 +15071,9 @@
       <c r="U197" t="n">
         <v>0.03</v>
       </c>
+      <c r="V197" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -14552,6 +15145,9 @@
       <c r="U198" t="n">
         <v>0.05</v>
       </c>
+      <c r="V198" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -14623,6 +15219,9 @@
       <c r="U199" t="n">
         <v>0.055</v>
       </c>
+      <c r="V199" t="n">
+        <v>0.045</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -14694,6 +15293,9 @@
       <c r="U200" t="n">
         <v>0.7</v>
       </c>
+      <c r="V200" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -14765,6 +15367,9 @@
       <c r="U201" t="n">
         <v>0.015</v>
       </c>
+      <c r="V201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -14836,6 +15441,9 @@
       <c r="U202" t="n">
         <v>0.02</v>
       </c>
+      <c r="V202" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -14907,6 +15515,9 @@
       <c r="U203" t="n">
         <v>0.1</v>
       </c>
+      <c r="V203" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -14978,6 +15589,9 @@
       <c r="U204" t="n">
         <v>0.06</v>
       </c>
+      <c r="V204" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -15049,6 +15663,9 @@
       <c r="U205" t="n">
         <v>0.105</v>
       </c>
+      <c r="V205" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -15120,6 +15737,9 @@
       <c r="U206" t="n">
         <v>0.71</v>
       </c>
+      <c r="V206" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -15191,6 +15811,9 @@
       <c r="U207" t="n">
         <v>0.005</v>
       </c>
+      <c r="V207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -15262,6 +15885,9 @@
       <c r="U208" t="n">
         <v>0.04</v>
       </c>
+      <c r="V208" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -15333,6 +15959,9 @@
       <c r="U209" t="n">
         <v>0.08</v>
       </c>
+      <c r="V209" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -15404,6 +16033,9 @@
       <c r="U210" t="n">
         <v>0.06</v>
       </c>
+      <c r="V210" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -15475,6 +16107,9 @@
       <c r="U211" t="n">
         <v>0.105</v>
       </c>
+      <c r="V211" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -15546,6 +16181,9 @@
       <c r="U212" t="n">
         <v>0.7</v>
       </c>
+      <c r="V212" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -15617,6 +16255,9 @@
       <c r="U213" t="n">
         <v>0</v>
       </c>
+      <c r="V213" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -15688,6 +16329,9 @@
       <c r="U214" t="n">
         <v>0.015</v>
       </c>
+      <c r="V214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -15759,6 +16403,9 @@
       <c r="U215" t="n">
         <v>0.05</v>
       </c>
+      <c r="V215" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -15830,6 +16477,9 @@
       <c r="U216" t="n">
         <v>0.13</v>
       </c>
+      <c r="V216" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -15901,6 +16551,9 @@
       <c r="U217" t="n">
         <v>0.105</v>
       </c>
+      <c r="V217" t="n">
+        <v>0.135</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -15972,6 +16625,9 @@
       <c r="U218" t="n">
         <v>0.8</v>
       </c>
+      <c r="V218" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -16043,6 +16699,9 @@
       <c r="U219" t="n">
         <v>0</v>
       </c>
+      <c r="V219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -16114,6 +16773,9 @@
       <c r="U220" t="n">
         <v>0.02</v>
       </c>
+      <c r="V220" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -16185,6 +16847,9 @@
       <c r="U221" t="n">
         <v>0.05</v>
       </c>
+      <c r="V221" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -16256,6 +16921,9 @@
       <c r="U222" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="V222" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -16327,6 +16995,9 @@
       <c r="U223" t="n">
         <v>0.06</v>
       </c>
+      <c r="V223" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -16398,6 +17069,9 @@
       <c r="U224" t="n">
         <v>0.87</v>
       </c>
+      <c r="V224" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -16469,6 +17143,9 @@
       <c r="U225" t="n">
         <v>0</v>
       </c>
+      <c r="V225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -16540,6 +17217,9 @@
       <c r="U226" t="n">
         <v>0.02</v>
       </c>
+      <c r="V226" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -16611,6 +17291,9 @@
       <c r="U227" t="n">
         <v>0.04</v>
       </c>
+      <c r="V227" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -16682,6 +17365,9 @@
       <c r="U228" t="n">
         <v>0.01</v>
       </c>
+      <c r="V228" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -16753,6 +17439,9 @@
       <c r="U229" t="n">
         <v>0.06</v>
       </c>
+      <c r="V229" t="n">
+        <v>0.08500000000000001</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -16824,6 +17513,9 @@
       <c r="U230" t="n">
         <v>0.83</v>
       </c>
+      <c r="V230" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -16895,6 +17587,9 @@
       <c r="U231" t="n">
         <v>0</v>
       </c>
+      <c r="V231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -16966,6 +17661,9 @@
       <c r="U232" t="n">
         <v>0.03</v>
       </c>
+      <c r="V232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -17037,6 +17735,9 @@
       <c r="U233" t="n">
         <v>0.04</v>
       </c>
+      <c r="V233" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -17108,6 +17809,9 @@
       <c r="U234" t="n">
         <v>0.03</v>
       </c>
+      <c r="V234" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -17179,6 +17883,9 @@
       <c r="U235" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="V235" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -17250,6 +17957,9 @@
       <c r="U236" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="V236" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -17321,6 +18031,9 @@
       <c r="U237" t="n">
         <v>0.01</v>
       </c>
+      <c r="V237" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -17392,6 +18105,9 @@
       <c r="U238" t="n">
         <v>0.01</v>
       </c>
+      <c r="V238" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -17463,6 +18179,9 @@
       <c r="U239" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="V239" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -17534,6 +18253,9 @@
       <c r="U240" t="n">
         <v>0.04</v>
       </c>
+      <c r="V240" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -17605,6 +18327,9 @@
       <c r="U241" t="n">
         <v>0.06</v>
       </c>
+      <c r="V241" t="n">
+        <v>0.045</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -17676,6 +18401,9 @@
       <c r="U242" t="n">
         <v>0.9</v>
       </c>
+      <c r="V242" t="n">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -17747,6 +18475,9 @@
       <c r="U243" t="n">
         <v>0.005</v>
       </c>
+      <c r="V243" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -17818,6 +18549,9 @@
       <c r="U244" t="n">
         <v>0.01</v>
       </c>
+      <c r="V244" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -17889,6 +18623,9 @@
       <c r="U245" t="n">
         <v>0.01</v>
       </c>
+      <c r="V245" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -17960,6 +18697,9 @@
       <c r="U246" t="n">
         <v>0.015</v>
       </c>
+      <c r="V246" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -18031,6 +18771,9 @@
       <c r="U247" t="n">
         <v>0.06</v>
       </c>
+      <c r="V247" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -18102,6 +18845,9 @@
       <c r="U248" t="n">
         <v>0.61</v>
       </c>
+      <c r="V248" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -18173,6 +18919,9 @@
       <c r="U249" t="n">
         <v>0.03</v>
       </c>
+      <c r="V249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -18244,6 +18993,9 @@
       <c r="U250" t="n">
         <v>0.015</v>
       </c>
+      <c r="V250" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -18315,6 +19067,9 @@
       <c r="U251" t="n">
         <v>0.11</v>
       </c>
+      <c r="V251" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -18386,6 +19141,9 @@
       <c r="U252" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="V252" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -18457,6 +19215,9 @@
       <c r="U253" t="n">
         <v>0.165</v>
       </c>
+      <c r="V253" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -18528,6 +19289,9 @@
       <c r="U254" t="n">
         <v>0.76</v>
       </c>
+      <c r="V254" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -18599,6 +19363,9 @@
       <c r="U255" t="n">
         <v>0.005</v>
       </c>
+      <c r="V255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -18670,6 +19437,9 @@
       <c r="U256" t="n">
         <v>0.04</v>
       </c>
+      <c r="V256" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -18741,6 +19511,9 @@
       <c r="U257" t="n">
         <v>0.04</v>
       </c>
+      <c r="V257" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -18812,6 +19585,9 @@
       <c r="U258" t="n">
         <v>0.05</v>
       </c>
+      <c r="V258" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -18883,6 +19659,9 @@
       <c r="U259" t="n">
         <v>0.105</v>
       </c>
+      <c r="V259" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -18954,6 +19733,9 @@
       <c r="U260" t="n">
         <v>0.82</v>
       </c>
+      <c r="V260" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -19025,6 +19807,9 @@
       <c r="U261" t="n">
         <v>0.005</v>
       </c>
+      <c r="V261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -19096,6 +19881,9 @@
       <c r="U262" t="n">
         <v>0.015</v>
       </c>
+      <c r="V262" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -19167,6 +19955,9 @@
       <c r="U263" t="n">
         <v>0.06</v>
       </c>
+      <c r="V263" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -19238,6 +20029,9 @@
       <c r="U264" t="n">
         <v>0.05</v>
       </c>
+      <c r="V264" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -19309,6 +20103,9 @@
       <c r="U265" t="n">
         <v>0.05</v>
       </c>
+      <c r="V265" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -19380,6 +20177,9 @@
       <c r="U266" t="n">
         <v>0.83</v>
       </c>
+      <c r="V266" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -19451,6 +20251,9 @@
       <c r="U267" t="n">
         <v>0</v>
       </c>
+      <c r="V267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -19522,6 +20325,9 @@
       <c r="U268" t="n">
         <v>0.01</v>
       </c>
+      <c r="V268" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -19593,6 +20399,9 @@
       <c r="U269" t="n">
         <v>0.05</v>
       </c>
+      <c r="V269" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -19664,6 +20473,9 @@
       <c r="U270" t="n">
         <v>0.05</v>
       </c>
+      <c r="V270" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -19735,6 +20547,9 @@
       <c r="U271" t="n">
         <v>0.06</v>
       </c>
+      <c r="V271" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -19806,6 +20621,9 @@
       <c r="U272" t="n">
         <v>0.72</v>
       </c>
+      <c r="V272" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -19877,6 +20695,9 @@
       <c r="U273" t="n">
         <v>0.015</v>
       </c>
+      <c r="V273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -19948,6 +20769,9 @@
       <c r="U274" t="n">
         <v>0.04</v>
       </c>
+      <c r="V274" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -20019,6 +20843,9 @@
       <c r="U275" t="n">
         <v>0.08</v>
       </c>
+      <c r="V275" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -20090,6 +20917,9 @@
       <c r="U276" t="n">
         <v>0.04</v>
       </c>
+      <c r="V276" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -20161,6 +20991,9 @@
       <c r="U277" t="n">
         <v>0.105</v>
       </c>
+      <c r="V277" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -20232,6 +21065,9 @@
       <c r="U278" t="n">
         <v>0.86</v>
       </c>
+      <c r="V278" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -20303,6 +21139,9 @@
       <c r="U279" t="n">
         <v>0</v>
       </c>
+      <c r="V279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -20374,6 +21213,9 @@
       <c r="U280" t="n">
         <v>0.03</v>
       </c>
+      <c r="V280" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -20445,6 +21287,9 @@
       <c r="U281" t="n">
         <v>0.04</v>
       </c>
+      <c r="V281" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -20516,6 +21361,9 @@
       <c r="U282" t="n">
         <v>0.05</v>
       </c>
+      <c r="V282" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -20587,6 +21435,9 @@
       <c r="U283" t="n">
         <v>0.02</v>
       </c>
+      <c r="V283" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -20658,6 +21509,9 @@
       <c r="U284" t="n">
         <v>0.76</v>
       </c>
+      <c r="V284" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -20729,6 +21583,9 @@
       <c r="U285" t="n">
         <v>0.005</v>
       </c>
+      <c r="V285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -20800,6 +21657,9 @@
       <c r="U286" t="n">
         <v>0.015</v>
       </c>
+      <c r="V286" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -20871,6 +21731,9 @@
       <c r="U287" t="n">
         <v>0.05</v>
       </c>
+      <c r="V287" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -20942,6 +21805,9 @@
       <c r="U288" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="V288" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -21013,6 +21879,9 @@
       <c r="U289" t="n">
         <v>0.1</v>
       </c>
+      <c r="V289" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -21084,6 +21953,9 @@
       <c r="U290" t="n">
         <v>0.89</v>
       </c>
+      <c r="V290" t="n">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -21155,6 +22027,9 @@
       <c r="U291" t="n">
         <v>0.005</v>
       </c>
+      <c r="V291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -21226,6 +22101,9 @@
       <c r="U292" t="n">
         <v>0.02</v>
       </c>
+      <c r="V292" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -21297,6 +22175,9 @@
       <c r="U293" t="n">
         <v>0.04</v>
       </c>
+      <c r="V293" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -21368,6 +22249,9 @@
       <c r="U294" t="n">
         <v>0.02</v>
       </c>
+      <c r="V294" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -21439,6 +22323,9 @@
       <c r="U295" t="n">
         <v>0.025</v>
       </c>
+      <c r="V295" t="n">
+        <v>0.045</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -21510,6 +22397,9 @@
       <c r="U296" t="n">
         <v>0.75</v>
       </c>
+      <c r="V296" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -21581,6 +22471,9 @@
       <c r="U297" t="n">
         <v>0</v>
       </c>
+      <c r="V297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -21652,6 +22545,9 @@
       <c r="U298" t="n">
         <v>0.015</v>
       </c>
+      <c r="V298" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -21723,6 +22619,9 @@
       <c r="U299" t="n">
         <v>0.05</v>
       </c>
+      <c r="V299" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -21794,6 +22693,9 @@
       <c r="U300" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="V300" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -21865,6 +22767,9 @@
       <c r="U301" t="n">
         <v>0.115</v>
       </c>
+      <c r="V301" t="n">
+        <v>0.135</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -21936,6 +22841,9 @@
       <c r="U302" t="n">
         <v>0.73</v>
       </c>
+      <c r="V302" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -22007,6 +22915,9 @@
       <c r="U303" t="n">
         <v>0.005</v>
       </c>
+      <c r="V303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -22078,6 +22989,9 @@
       <c r="U304" t="n">
         <v>0.01</v>
       </c>
+      <c r="V304" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -22149,6 +23063,9 @@
       <c r="U305" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="V305" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -22220,6 +23137,9 @@
       <c r="U306" t="n">
         <v>0.09</v>
       </c>
+      <c r="V306" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -22291,6 +23211,9 @@
       <c r="U307" t="n">
         <v>0.095</v>
       </c>
+      <c r="V307" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -22362,6 +23285,9 @@
       <c r="U308" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="V308" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -22433,6 +23359,9 @@
       <c r="U309" t="n">
         <v>0.005</v>
       </c>
+      <c r="V309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -22504,6 +23433,9 @@
       <c r="U310" t="n">
         <v>0.03</v>
       </c>
+      <c r="V310" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -22575,6 +23507,9 @@
       <c r="U311" t="n">
         <v>0.04</v>
       </c>
+      <c r="V311" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -22646,6 +23581,9 @@
       <c r="U312" t="n">
         <v>0.04</v>
       </c>
+      <c r="V312" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -22717,6 +23655,9 @@
       <c r="U313" t="n">
         <v>0.075</v>
       </c>
+      <c r="V313" t="n">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -22788,6 +23729,9 @@
       <c r="U314" t="n">
         <v>0.76</v>
       </c>
+      <c r="V314" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -22859,6 +23803,9 @@
       <c r="U315" t="n">
         <v>0.01</v>
       </c>
+      <c r="V315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -22930,6 +23877,9 @@
       <c r="U316" t="n">
         <v>0.02</v>
       </c>
+      <c r="V316" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -23001,6 +23951,9 @@
       <c r="U317" t="n">
         <v>0.08</v>
       </c>
+      <c r="V317" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -23072,6 +24025,9 @@
       <c r="U318" t="n">
         <v>0.04</v>
       </c>
+      <c r="V318" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -23143,6 +24099,9 @@
       <c r="U319" t="n">
         <v>0.09</v>
       </c>
+      <c r="V319" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -23170,49 +24129,52 @@
         <v>0</v>
       </c>
       <c r="G320" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I320" t="n">
         <v>0.03</v>
       </c>
-      <c r="H320" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I320" t="n">
-        <v>0.04</v>
-      </c>
       <c r="J320" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K320" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="K320" t="n">
-        <v>0.06</v>
-      </c>
       <c r="L320" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="M320" t="n">
         <v>0.17</v>
       </c>
       <c r="N320" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="O320" t="n">
-        <v>0.52</v>
+        <v>0.46</v>
       </c>
       <c r="P320" t="n">
-        <v>0.61</v>
+        <v>0.55</v>
       </c>
       <c r="Q320" t="n">
-        <v>0.68</v>
+        <v>0.58</v>
       </c>
       <c r="R320" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="S320" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="T320" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="U320" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="S320" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="T320" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="U320" t="n">
-        <v>0.7</v>
+      <c r="V320" t="n">
+        <v>0.72</v>
       </c>
     </row>
     <row r="321">
@@ -23232,40 +24194,40 @@
         </is>
       </c>
       <c r="D321" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F321" t="n">
         <v>0.27</v>
       </c>
-      <c r="E321" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="F321" t="n">
-        <v>0.34</v>
-      </c>
       <c r="G321" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="H321" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="I321" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="J321" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="K321" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="L321" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="M321" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="N321" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="O321" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P321" t="n">
         <v>0.03</v>
@@ -23280,10 +24242,13 @@
         <v>0.02</v>
       </c>
       <c r="T321" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="U321" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
+      </c>
+      <c r="V321" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -23303,59 +24268,62 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="E322" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F322" t="n">
         <v>0.24</v>
       </c>
-      <c r="F322" t="n">
-        <v>0.25</v>
-      </c>
       <c r="G322" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I322" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K322" t="n">
         <v>0.27</v>
       </c>
-      <c r="H322" t="n">
+      <c r="L322" t="n">
         <v>0.28</v>
       </c>
-      <c r="I322" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="J322" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="K322" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L322" t="n">
-        <v>0.33</v>
-      </c>
       <c r="M322" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="N322" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="O322" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="P322" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="Q322" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R322" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="S322" t="n">
         <v>0.04</v>
       </c>
       <c r="T322" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U322" t="n">
         <v>0.03</v>
       </c>
+      <c r="V322" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -23374,25 +24342,25 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="E323" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="F323" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="G323" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="H323" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I323" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="J323" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="K323" t="n">
         <v>0.15</v>
@@ -23401,10 +24369,10 @@
         <v>0.14</v>
       </c>
       <c r="M323" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="N323" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="O323" t="n">
         <v>0.13</v>
@@ -23413,20 +24381,23 @@
         <v>0.11</v>
       </c>
       <c r="Q323" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="R323" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S323" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T323" t="n">
         <v>0.08</v>
-      </c>
-      <c r="S323" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T323" t="n">
-        <v>0.07000000000000001</v>
       </c>
       <c r="U323" t="n">
         <v>0.08</v>
       </c>
+      <c r="V323" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -23445,59 +24416,62 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="E324" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="F324" t="n">
         <v>0.21</v>
       </c>
       <c r="G324" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I324" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K324" t="n">
         <v>0.15</v>
       </c>
-      <c r="H324" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="I324" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="J324" t="n">
+      <c r="L324" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M324" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N324" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O324" t="n">
         <v>0.13</v>
       </c>
-      <c r="K324" t="n">
+      <c r="P324" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q324" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="R324" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S324" t="n">
         <v>0.13</v>
       </c>
-      <c r="L324" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="M324" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="N324" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="O324" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P324" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Q324" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="R324" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S324" t="n">
-        <v>0.1</v>
-      </c>
       <c r="T324" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U324" t="n">
         <v>0.09</v>
       </c>
+      <c r="V324" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -23516,59 +24490,62 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="E325" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="F325" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I325" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J325" t="n">
         <v>0.12</v>
       </c>
-      <c r="G325" t="n">
+      <c r="K325" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L325" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M325" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N325" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O325" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="P325" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R325" t="n">
         <v>0.13</v>
       </c>
-      <c r="H325" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="I325" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J325" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K325" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L325" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M325" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="N325" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O325" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="P325" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Q325" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="R325" t="n">
-        <v>0.1</v>
-      </c>
       <c r="S325" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="T325" t="n">
-        <v>0.14</v>
+        <v>0.145</v>
       </c>
       <c r="U325" t="n">
         <v>0.08</v>
       </c>
+      <c r="V325" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -23586,60 +24563,6 @@
           <t>Již očkován/a aspoň jednou dávkou</t>
         </is>
       </c>
-      <c r="D326" t="n">
-        <v>0</v>
-      </c>
-      <c r="E326" t="n">
-        <v>0</v>
-      </c>
-      <c r="F326" t="n">
-        <v>0</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="I326" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J326" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="K326" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L326" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="M326" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="N326" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="O326" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="P326" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Q326" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="R326" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="S326" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="T326" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="U326" t="n">
-        <v>0.79</v>
-      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -23657,60 +24580,6 @@
           <t>Rozhodně ano</t>
         </is>
       </c>
-      <c r="D327" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E327" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="F327" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="I327" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="J327" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="K327" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="L327" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="M327" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="N327" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O327" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="P327" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Q327" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="R327" t="n">
-        <v>0</v>
-      </c>
-      <c r="S327" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T327" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="U327" t="n">
-        <v>0.005</v>
-      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -23728,60 +24597,6 @@
           <t>Spíše ano</t>
         </is>
       </c>
-      <c r="D328" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="E328" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="F328" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="I328" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J328" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K328" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="L328" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="M328" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="N328" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O328" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="P328" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q328" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R328" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S328" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T328" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="U328" t="n">
-        <v>0.02</v>
-      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -23799,60 +24614,6 @@
           <t>Nevím</t>
         </is>
       </c>
-      <c r="D329" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E329" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F329" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="I329" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J329" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="K329" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="L329" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="M329" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="N329" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O329" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P329" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Q329" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="R329" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S329" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T329" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="U329" t="n">
-        <v>0.06</v>
-      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -23870,60 +24631,6 @@
           <t>Spíše ne</t>
         </is>
       </c>
-      <c r="D330" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E330" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F330" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="I330" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="J330" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="K330" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="L330" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M330" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="N330" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O330" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P330" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Q330" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="R330" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S330" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T330" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="U330" t="n">
-        <v>0.04</v>
-      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -23941,60 +24648,6 @@
           <t>Rozhodně ne</t>
         </is>
       </c>
-      <c r="D331" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="E331" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="F331" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="I331" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="J331" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="K331" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="L331" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="M331" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="N331" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O331" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="P331" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Q331" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="R331" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="S331" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="T331" t="n">
-        <v>0.105</v>
-      </c>
-      <c r="U331" t="n">
-        <v>0.08500000000000001</v>
-      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -24066,6 +24719,9 @@
       <c r="U332" t="n">
         <v>0.68</v>
       </c>
+      <c r="V332" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -24137,6 +24793,9 @@
       <c r="U333" t="n">
         <v>0</v>
       </c>
+      <c r="V333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -24208,6 +24867,9 @@
       <c r="U334" t="n">
         <v>0.02</v>
       </c>
+      <c r="V334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -24279,6 +24941,9 @@
       <c r="U335" t="n">
         <v>0.05</v>
       </c>
+      <c r="V335" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -24350,6 +25015,9 @@
       <c r="U336" t="n">
         <v>0.09</v>
       </c>
+      <c r="V336" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -24421,6 +25089,9 @@
       <c r="U337" t="n">
         <v>0.16</v>
       </c>
+      <c r="V337" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -24492,6 +25163,9 @@
       <c r="U338" t="n">
         <v>0.74</v>
       </c>
+      <c r="V338" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -24563,6 +25237,9 @@
       <c r="U339" t="n">
         <v>0.01</v>
       </c>
+      <c r="V339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -24634,6 +25311,9 @@
       <c r="U340" t="n">
         <v>0.03</v>
       </c>
+      <c r="V340" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -24705,6 +25385,9 @@
       <c r="U341" t="n">
         <v>0.1</v>
       </c>
+      <c r="V341" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -24776,6 +25459,9 @@
       <c r="U342" t="n">
         <v>0.05</v>
       </c>
+      <c r="V342" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -24847,6 +25533,9 @@
       <c r="U343" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="V343" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -24918,6 +25607,9 @@
       <c r="U344" t="n">
         <v>0.83</v>
       </c>
+      <c r="V344" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -24989,6 +25681,9 @@
       <c r="U345" t="n">
         <v>0.01</v>
       </c>
+      <c r="V345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -25060,6 +25755,9 @@
       <c r="U346" t="n">
         <v>0.02</v>
       </c>
+      <c r="V346" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -25131,6 +25829,9 @@
       <c r="U347" t="n">
         <v>0.05</v>
       </c>
+      <c r="V347" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -25202,6 +25903,9 @@
       <c r="U348" t="n">
         <v>0.04</v>
       </c>
+      <c r="V348" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -25273,11 +25977,14 @@
       <c r="U349" t="n">
         <v>0.05</v>
       </c>
+      <c r="V349" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, % respondentů celkově a ve skupinách, aktualizace 8. 12. 2021</t>
+          <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, % respondentů celkově a ve skupinách, aktualizace 6. 1. 2022</t>
         </is>
       </c>
     </row>
@@ -25292,7 +25999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T60"/>
+  <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25401,6 +26108,11 @@
           <t>30. 11. 2021</t>
         </is>
       </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>28. 12. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -25467,6 +26179,9 @@
       <c r="T2" t="n">
         <v>1790</v>
       </c>
+      <c r="U2" t="n">
+        <v>1767</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -25533,6 +26248,9 @@
       <c r="T3" t="n">
         <v>452</v>
       </c>
+      <c r="U3" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -25599,6 +26317,9 @@
       <c r="T4" t="n">
         <v>647</v>
       </c>
+      <c r="U4" t="n">
+        <v>647</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -25665,6 +26386,9 @@
       <c r="T5" t="n">
         <v>691</v>
       </c>
+      <c r="U5" t="n">
+        <v>678</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -25731,6 +26455,9 @@
       <c r="T6" t="n">
         <v>829</v>
       </c>
+      <c r="U6" t="n">
+        <v>818</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -25797,6 +26524,9 @@
       <c r="T7" t="n">
         <v>608</v>
       </c>
+      <c r="U7" t="n">
+        <v>606</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -25863,6 +26593,9 @@
       <c r="T8" t="n">
         <v>353</v>
       </c>
+      <c r="U8" t="n">
+        <v>343</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -25929,6 +26662,9 @@
       <c r="T9" t="n">
         <v>430</v>
       </c>
+      <c r="U9" t="n">
+        <v>427</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -25995,6 +26731,9 @@
       <c r="T10" t="n">
         <v>426</v>
       </c>
+      <c r="U10" t="n">
+        <v>429</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -26061,6 +26800,9 @@
       <c r="T11" t="n">
         <v>243</v>
       </c>
+      <c r="U11" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -26127,6 +26869,9 @@
       <c r="T12" t="n">
         <v>399</v>
       </c>
+      <c r="U12" t="n">
+        <v>391</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -26193,6 +26938,9 @@
       <c r="T13" t="n">
         <v>182</v>
       </c>
+      <c r="U13" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -26259,6 +27007,9 @@
       <c r="T14" t="n">
         <v>110</v>
       </c>
+      <c r="U14" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -26325,6 +27076,9 @@
       <c r="T15" t="n">
         <v>777</v>
       </c>
+      <c r="U15" t="n">
+        <v>567</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -26391,6 +27145,9 @@
       <c r="T16" t="n">
         <v>59</v>
       </c>
+      <c r="U16" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -26457,6 +27214,9 @@
       <c r="T17" t="n">
         <v>97</v>
       </c>
+      <c r="U17" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -26523,6 +27283,9 @@
       <c r="T18" t="n">
         <v>85</v>
       </c>
+      <c r="U18" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -26589,6 +27352,9 @@
       <c r="T19" t="n">
         <v>829</v>
       </c>
+      <c r="U19" t="n">
+        <v>817</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -26655,6 +27421,9 @@
       <c r="T20" t="n">
         <v>144</v>
       </c>
+      <c r="U20" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -26721,6 +27490,9 @@
       <c r="T21" t="n">
         <v>113</v>
       </c>
+      <c r="U21" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -26787,6 +27559,9 @@
       <c r="T22" t="n">
         <v>704</v>
       </c>
+      <c r="U22" t="n">
+        <v>695</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -26853,6 +27628,9 @@
       <c r="T23" t="n">
         <v>872</v>
       </c>
+      <c r="U23" t="n">
+        <v>862</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -26919,6 +27697,9 @@
       <c r="T24" t="n">
         <v>918</v>
       </c>
+      <c r="U24" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -26985,6 +27766,9 @@
       <c r="T25" t="n">
         <v>242</v>
       </c>
+      <c r="U25" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -27051,6 +27835,9 @@
       <c r="T26" t="n">
         <v>319</v>
       </c>
+      <c r="U26" t="n">
+        <v>331</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -27117,6 +27904,9 @@
       <c r="T27" t="n">
         <v>311</v>
       </c>
+      <c r="U27" t="n">
+        <v>304</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -27183,6 +27973,9 @@
       <c r="T28" t="n">
         <v>210</v>
       </c>
+      <c r="U28" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -27249,6 +28042,9 @@
       <c r="T29" t="n">
         <v>328</v>
       </c>
+      <c r="U29" t="n">
+        <v>316</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -27315,6 +28111,9 @@
       <c r="T30" t="n">
         <v>380</v>
       </c>
+      <c r="U30" t="n">
+        <v>373</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -27381,6 +28180,9 @@
       <c r="T31" t="n">
         <v>929</v>
       </c>
+      <c r="U31" t="n">
+        <v>916</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -27447,6 +28249,9 @@
       <c r="T32" t="n">
         <v>419</v>
       </c>
+      <c r="U32" t="n">
+        <v>413</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -27513,6 +28318,9 @@
       <c r="T33" t="n">
         <v>206</v>
       </c>
+      <c r="U33" t="n">
+        <v>205</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -27579,6 +28387,9 @@
       <c r="T34" t="n">
         <v>236</v>
       </c>
+      <c r="U34" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -27645,6 +28456,9 @@
       <c r="T35" t="n">
         <v>580</v>
       </c>
+      <c r="U35" t="n">
+        <v>574</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27711,6 +28525,9 @@
       <c r="T36" t="n">
         <v>259</v>
       </c>
+      <c r="U36" t="n">
+        <v>266</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27777,6 +28594,9 @@
       <c r="T37" t="n">
         <v>131</v>
       </c>
+      <c r="U37" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27843,6 +28663,9 @@
       <c r="T38" t="n">
         <v>130</v>
       </c>
+      <c r="U38" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27909,6 +28732,9 @@
       <c r="T39" t="n">
         <v>349</v>
       </c>
+      <c r="U39" t="n">
+        <v>342</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27975,6 +28801,9 @@
       <c r="T40" t="n">
         <v>160</v>
       </c>
+      <c r="U40" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28041,6 +28870,9 @@
       <c r="T41" t="n">
         <v>75</v>
       </c>
+      <c r="U41" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28107,6 +28939,9 @@
       <c r="T42" t="n">
         <v>106</v>
       </c>
+      <c r="U42" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28173,6 +29008,9 @@
       <c r="T43" t="n">
         <v>204</v>
       </c>
+      <c r="U43" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28239,6 +29077,9 @@
       <c r="T44" t="n">
         <v>633</v>
       </c>
+      <c r="U44" t="n">
+        <v>640</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -28305,6 +29146,9 @@
       <c r="T45" t="n">
         <v>585</v>
       </c>
+      <c r="U45" t="n">
+        <v>596</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -28371,6 +29215,9 @@
       <c r="T46" t="n">
         <v>266</v>
       </c>
+      <c r="U46" t="n">
+        <v>244</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -28437,6 +29284,9 @@
       <c r="T47" t="n">
         <v>331</v>
       </c>
+      <c r="U47" t="n">
+        <v>277</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -28503,6 +29353,9 @@
       <c r="T48" t="n">
         <v>256</v>
       </c>
+      <c r="U48" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -28569,6 +29422,9 @@
       <c r="T49" t="n">
         <v>274</v>
       </c>
+      <c r="U49" t="n">
+        <v>334</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -28635,6 +29491,9 @@
       <c r="T50" t="n">
         <v>268</v>
       </c>
+      <c r="U50" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -28701,6 +29560,9 @@
       <c r="T51" t="n">
         <v>424</v>
       </c>
+      <c r="U51" t="n">
+        <v>444</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -28767,6 +29629,9 @@
       <c r="T52" t="n">
         <v>517</v>
       </c>
+      <c r="U52" t="n">
+        <v>579</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -28833,6 +29698,9 @@
       <c r="T53" t="n">
         <v>610</v>
       </c>
+      <c r="U53" t="n">
+        <v>447</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -28899,6 +29767,9 @@
       <c r="T54" t="n">
         <v>663</v>
       </c>
+      <c r="U54" t="n">
+        <v>741</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -28912,58 +29783,61 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>15</v>
+        <v>384</v>
       </c>
       <c r="D55" t="n">
-        <v>110</v>
+        <v>403</v>
       </c>
       <c r="E55" t="n">
-        <v>155</v>
+        <v>412</v>
       </c>
       <c r="F55" t="n">
-        <v>175</v>
+        <v>391</v>
       </c>
       <c r="G55" t="n">
-        <v>220</v>
+        <v>412</v>
       </c>
       <c r="H55" t="n">
-        <v>241</v>
+        <v>404</v>
       </c>
       <c r="I55" t="n">
-        <v>280</v>
+        <v>414</v>
       </c>
       <c r="J55" t="n">
-        <v>284</v>
+        <v>403</v>
       </c>
       <c r="K55" t="n">
-        <v>288</v>
+        <v>390</v>
       </c>
       <c r="L55" t="n">
-        <v>292</v>
+        <v>404</v>
       </c>
       <c r="M55" t="n">
-        <v>293</v>
+        <v>400</v>
       </c>
       <c r="N55" t="n">
-        <v>273</v>
+        <v>375</v>
       </c>
       <c r="O55" t="n">
-        <v>251</v>
+        <v>338</v>
       </c>
       <c r="P55" t="n">
-        <v>265</v>
+        <v>368</v>
       </c>
       <c r="Q55" t="n">
-        <v>262</v>
+        <v>366</v>
       </c>
       <c r="R55" t="n">
-        <v>268</v>
+        <v>367</v>
       </c>
       <c r="S55" t="n">
-        <v>273</v>
+        <v>339</v>
       </c>
       <c r="T55" t="n">
-        <v>322</v>
+        <v>353</v>
+      </c>
+      <c r="U55" t="n">
+        <v>366</v>
       </c>
     </row>
     <row r="56">
@@ -28978,58 +29852,61 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2152</v>
+        <v>1783</v>
       </c>
       <c r="D56" t="n">
-        <v>2045</v>
+        <v>1752</v>
       </c>
       <c r="E56" t="n">
-        <v>2031</v>
+        <v>1774</v>
       </c>
       <c r="F56" t="n">
-        <v>1956</v>
+        <v>1740</v>
       </c>
       <c r="G56" t="n">
-        <v>1900</v>
+        <v>1708</v>
       </c>
       <c r="H56" t="n">
-        <v>1889</v>
+        <v>1726</v>
       </c>
       <c r="I56" t="n">
-        <v>1821</v>
+        <v>1687</v>
       </c>
       <c r="J56" t="n">
-        <v>1777</v>
+        <v>1658</v>
       </c>
       <c r="K56" t="n">
-        <v>1771</v>
+        <v>1669</v>
       </c>
       <c r="L56" t="n">
-        <v>1737</v>
+        <v>1625</v>
       </c>
       <c r="M56" t="n">
-        <v>1682</v>
+        <v>1575</v>
       </c>
       <c r="N56" t="n">
-        <v>1631</v>
+        <v>1529</v>
       </c>
       <c r="O56" t="n">
-        <v>1531</v>
+        <v>1444</v>
       </c>
       <c r="P56" t="n">
-        <v>1636</v>
+        <v>1533</v>
       </c>
       <c r="Q56" t="n">
-        <v>1593</v>
+        <v>1489</v>
       </c>
       <c r="R56" t="n">
-        <v>1568</v>
+        <v>1469</v>
       </c>
       <c r="S56" t="n">
-        <v>1436</v>
+        <v>1370</v>
       </c>
       <c r="T56" t="n">
-        <v>1468</v>
+        <v>1437</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1401</v>
       </c>
     </row>
     <row r="57">
@@ -29097,6 +29974,9 @@
       <c r="T57" t="n">
         <v>339</v>
       </c>
+      <c r="U57" t="n">
+        <v>422</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -29163,6 +30043,9 @@
       <c r="T58" t="n">
         <v>653</v>
       </c>
+      <c r="U58" t="n">
+        <v>723</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -29229,11 +30112,14 @@
       <c r="T59" t="n">
         <v>798</v>
       </c>
+      <c r="U59" t="n">
+        <v>622</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, velikost dotázaného souboru celkově a ve skupinách, aktualizace 8. 12. 2021</t>
+          <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 1. 2022</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -29255,6 +30141,7 @@
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_07b_ockovani.xlsx
+++ b/ZBP_07b_ockovani.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V350"/>
+  <dimension ref="A1:W350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,6 +570,11 @@
           <t>28. 12. 2021</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25. 1. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -644,6 +649,9 @@
       <c r="V2" t="n">
         <v>0.77</v>
       </c>
+      <c r="W2" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -718,6 +726,9 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -792,6 +803,9 @@
       <c r="V4" t="n">
         <v>0.02</v>
       </c>
+      <c r="W4" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -866,6 +880,9 @@
       <c r="V5" t="n">
         <v>0.05</v>
       </c>
+      <c r="W5" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -940,6 +957,9 @@
       <c r="V6" t="n">
         <v>0.06</v>
       </c>
+      <c r="W6" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1014,6 +1034,9 @@
       <c r="V7" t="n">
         <v>0.1</v>
       </c>
+      <c r="W7" t="n">
+        <v>0.115</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1088,6 +1111,9 @@
       <c r="V8" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="W8" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1162,6 +1188,9 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1236,6 +1265,9 @@
       <c r="V10" t="n">
         <v>0.06</v>
       </c>
+      <c r="W10" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1310,6 +1342,9 @@
       <c r="V11" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="W11" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1384,6 +1419,9 @@
       <c r="V12" t="n">
         <v>0.09</v>
       </c>
+      <c r="W12" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1458,6 +1496,9 @@
       <c r="V13" t="n">
         <v>0.09</v>
       </c>
+      <c r="W13" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1532,6 +1573,9 @@
       <c r="V14" t="n">
         <v>0.75</v>
       </c>
+      <c r="W14" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1606,6 +1650,9 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1680,6 +1727,9 @@
       <c r="V16" t="n">
         <v>0.005</v>
       </c>
+      <c r="W16" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1754,6 +1804,9 @@
       <c r="V17" t="n">
         <v>0.06</v>
       </c>
+      <c r="W17" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1828,6 +1881,9 @@
       <c r="V18" t="n">
         <v>0.06</v>
       </c>
+      <c r="W18" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1902,6 +1958,9 @@
       <c r="V19" t="n">
         <v>0.125</v>
       </c>
+      <c r="W19" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1976,6 +2035,9 @@
       <c r="V20" t="n">
         <v>0.84</v>
       </c>
+      <c r="W20" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2050,6 +2112,9 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2124,6 +2189,9 @@
       <c r="V22" t="n">
         <v>0.02</v>
       </c>
+      <c r="W22" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2198,6 +2266,9 @@
       <c r="V23" t="n">
         <v>0.03</v>
       </c>
+      <c r="W23" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2272,6 +2343,9 @@
       <c r="V24" t="n">
         <v>0.03</v>
       </c>
+      <c r="W24" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2346,6 +2420,9 @@
       <c r="V25" t="n">
         <v>0.08</v>
       </c>
+      <c r="W25" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2420,6 +2497,9 @@
       <c r="V26" t="n">
         <v>0.71</v>
       </c>
+      <c r="W26" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2494,6 +2574,9 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2568,6 +2651,9 @@
       <c r="V28" t="n">
         <v>0.03</v>
       </c>
+      <c r="W28" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2642,6 +2728,9 @@
       <c r="V29" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="W29" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2716,6 +2805,9 @@
       <c r="V30" t="n">
         <v>0.06</v>
       </c>
+      <c r="W30" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2790,6 +2882,9 @@
       <c r="V31" t="n">
         <v>0.13</v>
       </c>
+      <c r="W31" t="n">
+        <v>0.145</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2864,6 +2959,9 @@
       <c r="V32" t="n">
         <v>0.77</v>
       </c>
+      <c r="W32" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2938,6 +3036,9 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3012,6 +3113,9 @@
       <c r="V34" t="n">
         <v>0.02</v>
       </c>
+      <c r="W34" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3086,6 +3190,9 @@
       <c r="V35" t="n">
         <v>0.05</v>
       </c>
+      <c r="W35" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3160,6 +3267,9 @@
       <c r="V36" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="W36" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3234,6 +3344,9 @@
       <c r="V37" t="n">
         <v>0.09</v>
       </c>
+      <c r="W37" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3308,6 +3421,9 @@
       <c r="V38" t="n">
         <v>0.91</v>
       </c>
+      <c r="W38" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3382,6 +3498,9 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3456,6 +3575,9 @@
       <c r="V40" t="n">
         <v>0.01</v>
       </c>
+      <c r="W40" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3530,6 +3652,9 @@
       <c r="V41" t="n">
         <v>0.02</v>
       </c>
+      <c r="W41" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3604,6 +3729,9 @@
       <c r="V42" t="n">
         <v>0.02</v>
       </c>
+      <c r="W42" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3678,6 +3806,9 @@
       <c r="V43" t="n">
         <v>0.04</v>
       </c>
+      <c r="W43" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3752,6 +3883,9 @@
       <c r="V44" t="n">
         <v>0.64</v>
       </c>
+      <c r="W44" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3826,6 +3960,9 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3900,6 +4037,9 @@
       <c r="V46" t="n">
         <v>0.03</v>
       </c>
+      <c r="W46" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3974,6 +4114,9 @@
       <c r="V47" t="n">
         <v>0.1</v>
       </c>
+      <c r="W47" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4048,6 +4191,9 @@
       <c r="V48" t="n">
         <v>0.08</v>
       </c>
+      <c r="W48" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4122,6 +4268,9 @@
       <c r="V49" t="n">
         <v>0.15</v>
       </c>
+      <c r="W49" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4196,6 +4345,9 @@
       <c r="V50" t="n">
         <v>0.71</v>
       </c>
+      <c r="W50" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4270,6 +4422,9 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4344,6 +4499,9 @@
       <c r="V52" t="n">
         <v>0.03</v>
       </c>
+      <c r="W52" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4418,6 +4576,9 @@
       <c r="V53" t="n">
         <v>0.06</v>
       </c>
+      <c r="W53" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4492,6 +4653,9 @@
       <c r="V54" t="n">
         <v>0.1</v>
       </c>
+      <c r="W54" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4566,6 +4730,9 @@
       <c r="V55" t="n">
         <v>0.1</v>
       </c>
+      <c r="W55" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4640,6 +4807,9 @@
       <c r="V56" t="n">
         <v>0.91</v>
       </c>
+      <c r="W56" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4714,6 +4884,9 @@
       <c r="V57" t="n">
         <v>0</v>
       </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4788,6 +4961,9 @@
       <c r="V58" t="n">
         <v>0.01</v>
       </c>
+      <c r="W58" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4862,6 +5038,9 @@
       <c r="V59" t="n">
         <v>0.02</v>
       </c>
+      <c r="W59" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4936,6 +5115,9 @@
       <c r="V60" t="n">
         <v>0.02</v>
       </c>
+      <c r="W60" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5010,6 +5192,9 @@
       <c r="V61" t="n">
         <v>0.04</v>
       </c>
+      <c r="W61" t="n">
+        <v>0.055</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5084,6 +5269,9 @@
       <c r="V62" t="n">
         <v>0.78</v>
       </c>
+      <c r="W62" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5158,6 +5346,9 @@
       <c r="V63" t="n">
         <v>0</v>
       </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5232,6 +5423,9 @@
       <c r="V64" t="n">
         <v>0.04</v>
       </c>
+      <c r="W64" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5306,6 +5500,9 @@
       <c r="V65" t="n">
         <v>0.04</v>
       </c>
+      <c r="W65" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5380,6 +5577,9 @@
       <c r="V66" t="n">
         <v>0.05</v>
       </c>
+      <c r="W66" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5454,6 +5654,9 @@
       <c r="V67" t="n">
         <v>0.09</v>
       </c>
+      <c r="W67" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5528,6 +5731,9 @@
       <c r="V68" t="n">
         <v>0.93</v>
       </c>
+      <c r="W68" t="n">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5602,6 +5808,9 @@
       <c r="V69" t="n">
         <v>0</v>
       </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5676,6 +5885,9 @@
       <c r="V70" t="n">
         <v>0</v>
       </c>
+      <c r="W70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5750,6 +5962,9 @@
       <c r="V71" t="n">
         <v>0.015</v>
       </c>
+      <c r="W71" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5824,6 +6039,9 @@
       <c r="V72" t="n">
         <v>0.01</v>
       </c>
+      <c r="W72" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5898,6 +6116,9 @@
       <c r="V73" t="n">
         <v>0.045</v>
       </c>
+      <c r="W73" t="n">
+        <v>0.045</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5972,6 +6193,9 @@
       <c r="V74" t="n">
         <v>0.92</v>
       </c>
+      <c r="W74" t="n">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6046,6 +6270,9 @@
       <c r="V75" t="n">
         <v>0.005</v>
       </c>
+      <c r="W75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6120,6 +6347,9 @@
       <c r="V76" t="n">
         <v>0.01</v>
       </c>
+      <c r="W76" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6194,6 +6424,9 @@
       <c r="V77" t="n">
         <v>0.015</v>
       </c>
+      <c r="W77" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6268,6 +6501,9 @@
       <c r="V78" t="n">
         <v>0.02</v>
       </c>
+      <c r="W78" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6342,6 +6578,9 @@
       <c r="V79" t="n">
         <v>0.03</v>
       </c>
+      <c r="W79" t="n">
+        <v>0.035</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6416,6 +6655,9 @@
       <c r="V80" t="n">
         <v>0.77</v>
       </c>
+      <c r="W80" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6490,6 +6732,9 @@
       <c r="V81" t="n">
         <v>0</v>
       </c>
+      <c r="W81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6564,6 +6809,9 @@
       <c r="V82" t="n">
         <v>0.02</v>
       </c>
+      <c r="W82" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6638,6 +6886,9 @@
       <c r="V83" t="n">
         <v>0.05</v>
       </c>
+      <c r="W83" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6712,6 +6963,9 @@
       <c r="V84" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="W84" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6786,6 +7040,9 @@
       <c r="V85" t="n">
         <v>0.09</v>
       </c>
+      <c r="W85" t="n">
+        <v>0.115</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6860,6 +7117,9 @@
       <c r="V86" t="n">
         <v>0.85</v>
       </c>
+      <c r="W86" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6934,6 +7194,9 @@
       <c r="V87" t="n">
         <v>0</v>
       </c>
+      <c r="W87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7008,6 +7271,9 @@
       <c r="V88" t="n">
         <v>0</v>
       </c>
+      <c r="W88" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7082,6 +7348,9 @@
       <c r="V89" t="n">
         <v>0.01</v>
       </c>
+      <c r="W89" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7156,6 +7425,9 @@
       <c r="V90" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="W90" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7230,6 +7502,9 @@
       <c r="V91" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="W91" t="n">
+        <v>0.045</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7304,6 +7579,9 @@
       <c r="V92" t="n">
         <v>0.73</v>
       </c>
+      <c r="W92" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7378,6 +7656,9 @@
       <c r="V93" t="n">
         <v>0</v>
       </c>
+      <c r="W93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7452,6 +7733,9 @@
       <c r="V94" t="n">
         <v>0.005</v>
       </c>
+      <c r="W94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7526,6 +7810,9 @@
       <c r="V95" t="n">
         <v>0.08</v>
       </c>
+      <c r="W95" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7600,6 +7887,9 @@
       <c r="V96" t="n">
         <v>0.09</v>
       </c>
+      <c r="W96" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7674,6 +7964,9 @@
       <c r="V97" t="n">
         <v>0.095</v>
       </c>
+      <c r="W97" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7748,6 +8041,9 @@
       <c r="V98" t="n">
         <v>0.74</v>
       </c>
+      <c r="W98" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7822,6 +8118,9 @@
       <c r="V99" t="n">
         <v>0</v>
       </c>
+      <c r="W99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7896,6 +8195,9 @@
       <c r="V100" t="n">
         <v>0.04</v>
       </c>
+      <c r="W100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7970,6 +8272,9 @@
       <c r="V101" t="n">
         <v>0.08</v>
       </c>
+      <c r="W101" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8044,6 +8349,9 @@
       <c r="V102" t="n">
         <v>0.02</v>
       </c>
+      <c r="W102" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -8118,6 +8426,9 @@
       <c r="V103" t="n">
         <v>0.12</v>
       </c>
+      <c r="W103" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -8192,6 +8503,9 @@
       <c r="V104" t="n">
         <v>0.78</v>
       </c>
+      <c r="W104" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -8266,6 +8580,9 @@
       <c r="V105" t="n">
         <v>0</v>
       </c>
+      <c r="W105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -8340,6 +8657,9 @@
       <c r="V106" t="n">
         <v>0.02</v>
       </c>
+      <c r="W106" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -8414,6 +8734,9 @@
       <c r="V107" t="n">
         <v>0.05</v>
       </c>
+      <c r="W107" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -8488,6 +8811,9 @@
       <c r="V108" t="n">
         <v>0.05</v>
       </c>
+      <c r="W108" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -8562,6 +8888,9 @@
       <c r="V109" t="n">
         <v>0.1</v>
       </c>
+      <c r="W109" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -8636,6 +8965,9 @@
       <c r="V110" t="n">
         <v>0.75</v>
       </c>
+      <c r="W110" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8710,6 +9042,9 @@
       <c r="V111" t="n">
         <v>0</v>
       </c>
+      <c r="W111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8784,6 +9119,9 @@
       <c r="V112" t="n">
         <v>0.02</v>
       </c>
+      <c r="W112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8858,6 +9196,9 @@
       <c r="V113" t="n">
         <v>0.05</v>
       </c>
+      <c r="W113" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8932,6 +9273,9 @@
       <c r="V114" t="n">
         <v>0.09</v>
       </c>
+      <c r="W114" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -9006,6 +9350,9 @@
       <c r="V115" t="n">
         <v>0.09</v>
       </c>
+      <c r="W115" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -9080,6 +9427,9 @@
       <c r="V116" t="n">
         <v>0.78</v>
       </c>
+      <c r="W116" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -9154,6 +9504,9 @@
       <c r="V117" t="n">
         <v>0</v>
       </c>
+      <c r="W117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -9228,6 +9581,9 @@
       <c r="V118" t="n">
         <v>0.05</v>
       </c>
+      <c r="W118" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -9302,6 +9658,9 @@
       <c r="V119" t="n">
         <v>0.005</v>
       </c>
+      <c r="W119" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -9376,6 +9735,9 @@
       <c r="V120" t="n">
         <v>0.09</v>
       </c>
+      <c r="W120" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -9450,6 +9812,9 @@
       <c r="V121" t="n">
         <v>0.075</v>
       </c>
+      <c r="W121" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -9524,6 +9889,9 @@
       <c r="V122" t="n">
         <v>0.77</v>
       </c>
+      <c r="W122" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -9598,6 +9966,9 @@
       <c r="V123" t="n">
         <v>0</v>
       </c>
+      <c r="W123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -9672,6 +10043,9 @@
       <c r="V124" t="n">
         <v>0.02</v>
       </c>
+      <c r="W124" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -9746,6 +10120,9 @@
       <c r="V125" t="n">
         <v>0.06</v>
       </c>
+      <c r="W125" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -9820,6 +10197,9 @@
       <c r="V126" t="n">
         <v>0.06</v>
       </c>
+      <c r="W126" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -9894,6 +10274,9 @@
       <c r="V127" t="n">
         <v>0.09</v>
       </c>
+      <c r="W127" t="n">
+        <v>0.095</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9968,6 +10351,9 @@
       <c r="V128" t="n">
         <v>0.79</v>
       </c>
+      <c r="W128" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -10042,6 +10428,9 @@
       <c r="V129" t="n">
         <v>0</v>
       </c>
+      <c r="W129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -10116,6 +10505,9 @@
       <c r="V130" t="n">
         <v>0.015</v>
       </c>
+      <c r="W130" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -10190,6 +10582,9 @@
       <c r="V131" t="n">
         <v>0.04</v>
       </c>
+      <c r="W131" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -10264,6 +10659,9 @@
       <c r="V132" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="W132" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -10338,6 +10736,9 @@
       <c r="V133" t="n">
         <v>0.08500000000000001</v>
       </c>
+      <c r="W133" t="n">
+        <v>0.095</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -10412,6 +10813,9 @@
       <c r="V134" t="n">
         <v>0.75</v>
       </c>
+      <c r="W134" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -10486,6 +10890,9 @@
       <c r="V135" t="n">
         <v>0</v>
       </c>
+      <c r="W135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -10560,6 +10967,9 @@
       <c r="V136" t="n">
         <v>0.04</v>
       </c>
+      <c r="W136" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -10634,6 +11044,9 @@
       <c r="V137" t="n">
         <v>0.06</v>
       </c>
+      <c r="W137" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -10708,6 +11121,9 @@
       <c r="V138" t="n">
         <v>0.05</v>
       </c>
+      <c r="W138" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -10782,6 +11198,9 @@
       <c r="V139" t="n">
         <v>0.1</v>
       </c>
+      <c r="W139" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -10856,6 +11275,9 @@
       <c r="V140" t="n">
         <v>0.7</v>
       </c>
+      <c r="W140" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -10930,6 +11352,9 @@
       <c r="V141" t="n">
         <v>0</v>
       </c>
+      <c r="W141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -11004,6 +11429,9 @@
       <c r="V142" t="n">
         <v>0.04</v>
       </c>
+      <c r="W142" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -11078,6 +11506,9 @@
       <c r="V143" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="W143" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -11152,6 +11583,9 @@
       <c r="V144" t="n">
         <v>0.13</v>
       </c>
+      <c r="W144" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -11226,6 +11660,9 @@
       <c r="V145" t="n">
         <v>0.06</v>
       </c>
+      <c r="W145" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -11300,6 +11737,9 @@
       <c r="V146" t="n">
         <v>0.77</v>
       </c>
+      <c r="W146" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -11374,6 +11814,9 @@
       <c r="V147" t="n">
         <v>0</v>
       </c>
+      <c r="W147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -11448,6 +11891,9 @@
       <c r="V148" t="n">
         <v>0.005</v>
       </c>
+      <c r="W148" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -11522,6 +11968,9 @@
       <c r="V149" t="n">
         <v>0.05</v>
       </c>
+      <c r="W149" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -11596,6 +12045,9 @@
       <c r="V150" t="n">
         <v>0.06</v>
       </c>
+      <c r="W150" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -11670,6 +12122,9 @@
       <c r="V151" t="n">
         <v>0.115</v>
       </c>
+      <c r="W151" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -11744,6 +12199,9 @@
       <c r="V152" t="n">
         <v>0.89</v>
       </c>
+      <c r="W152" t="n">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -11818,6 +12276,9 @@
       <c r="V153" t="n">
         <v>0</v>
       </c>
+      <c r="W153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -11892,6 +12353,9 @@
       <c r="V154" t="n">
         <v>0.005</v>
       </c>
+      <c r="W154" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -11966,6 +12430,9 @@
       <c r="V155" t="n">
         <v>0.005</v>
       </c>
+      <c r="W155" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -12040,6 +12507,9 @@
       <c r="V156" t="n">
         <v>0.03</v>
       </c>
+      <c r="W156" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -12114,6 +12584,9 @@
       <c r="V157" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="W157" t="n">
+        <v>0.08500000000000001</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -12188,6 +12661,9 @@
       <c r="V158" t="n">
         <v>0.68</v>
       </c>
+      <c r="W158" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -12262,6 +12738,9 @@
       <c r="V159" t="n">
         <v>0</v>
       </c>
+      <c r="W159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -12336,6 +12815,9 @@
       <c r="V160" t="n">
         <v>0.08</v>
       </c>
+      <c r="W160" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -12410,6 +12892,9 @@
       <c r="V161" t="n">
         <v>0.08</v>
       </c>
+      <c r="W161" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -12484,6 +12969,9 @@
       <c r="V162" t="n">
         <v>0.04</v>
       </c>
+      <c r="W162" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -12558,6 +13046,9 @@
       <c r="V163" t="n">
         <v>0.12</v>
       </c>
+      <c r="W163" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -12632,6 +13123,9 @@
       <c r="V164" t="n">
         <v>0.73</v>
       </c>
+      <c r="W164" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -12706,6 +13200,9 @@
       <c r="V165" t="n">
         <v>0</v>
       </c>
+      <c r="W165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -12780,6 +13277,9 @@
       <c r="V166" t="n">
         <v>0</v>
       </c>
+      <c r="W166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -12854,6 +13354,9 @@
       <c r="V167" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="W167" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -12928,6 +13431,9 @@
       <c r="V168" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="W168" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -13002,6 +13508,9 @@
       <c r="V169" t="n">
         <v>0.13</v>
       </c>
+      <c r="W169" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -13076,6 +13585,9 @@
       <c r="V170" t="n">
         <v>0.8</v>
       </c>
+      <c r="W170" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -13150,6 +13662,9 @@
       <c r="V171" t="n">
         <v>0</v>
       </c>
+      <c r="W171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -13224,6 +13739,9 @@
       <c r="V172" t="n">
         <v>0.04</v>
       </c>
+      <c r="W172" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -13298,6 +13816,9 @@
       <c r="V173" t="n">
         <v>0.04</v>
       </c>
+      <c r="W173" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -13372,6 +13893,9 @@
       <c r="V174" t="n">
         <v>0.04</v>
       </c>
+      <c r="W174" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -13446,6 +13970,9 @@
       <c r="V175" t="n">
         <v>0.08</v>
       </c>
+      <c r="W175" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -13520,6 +14047,9 @@
       <c r="V176" t="n">
         <v>0.77</v>
       </c>
+      <c r="W176" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -13594,6 +14124,9 @@
       <c r="V177" t="n">
         <v>0</v>
       </c>
+      <c r="W177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -13668,6 +14201,9 @@
       <c r="V178" t="n">
         <v>0.03</v>
       </c>
+      <c r="W178" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -13742,6 +14278,9 @@
       <c r="V179" t="n">
         <v>0.04</v>
       </c>
+      <c r="W179" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -13816,6 +14355,9 @@
       <c r="V180" t="n">
         <v>0.06</v>
       </c>
+      <c r="W180" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -13890,6 +14432,9 @@
       <c r="V181" t="n">
         <v>0.1</v>
       </c>
+      <c r="W181" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -13964,6 +14509,9 @@
       <c r="V182" t="n">
         <v>0.78</v>
       </c>
+      <c r="W182" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -14038,6 +14586,9 @@
       <c r="V183" t="n">
         <v>0</v>
       </c>
+      <c r="W183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -14112,6 +14663,9 @@
       <c r="V184" t="n">
         <v>0.005</v>
       </c>
+      <c r="W184" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -14186,6 +14740,9 @@
       <c r="V185" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="W185" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -14260,6 +14817,9 @@
       <c r="V186" t="n">
         <v>0.03</v>
       </c>
+      <c r="W186" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -14334,6 +14894,9 @@
       <c r="V187" t="n">
         <v>0.115</v>
       </c>
+      <c r="W187" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -14408,6 +14971,9 @@
       <c r="V188" t="n">
         <v>0.66</v>
       </c>
+      <c r="W188" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -14482,6 +15048,9 @@
       <c r="V189" t="n">
         <v>0.005</v>
       </c>
+      <c r="W189" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -14556,6 +15125,9 @@
       <c r="V190" t="n">
         <v>0.04</v>
       </c>
+      <c r="W190" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -14630,6 +15202,9 @@
       <c r="V191" t="n">
         <v>0.09</v>
       </c>
+      <c r="W191" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -14704,6 +15279,9 @@
       <c r="V192" t="n">
         <v>0.12</v>
       </c>
+      <c r="W192" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -14778,6 +15356,9 @@
       <c r="V193" t="n">
         <v>0.08500000000000001</v>
       </c>
+      <c r="W193" t="n">
+        <v>0.095</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -14852,6 +15433,9 @@
       <c r="V194" t="n">
         <v>0.87</v>
       </c>
+      <c r="W194" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -14926,6 +15510,9 @@
       <c r="V195" t="n">
         <v>0.005</v>
       </c>
+      <c r="W195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -15000,6 +15587,9 @@
       <c r="V196" t="n">
         <v>0.02</v>
       </c>
+      <c r="W196" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -15074,6 +15664,9 @@
       <c r="V197" t="n">
         <v>0.02</v>
       </c>
+      <c r="W197" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -15148,6 +15741,9 @@
       <c r="V198" t="n">
         <v>0.04</v>
       </c>
+      <c r="W198" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -15222,6 +15818,9 @@
       <c r="V199" t="n">
         <v>0.045</v>
       </c>
+      <c r="W199" t="n">
+        <v>0.055</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -15296,6 +15895,9 @@
       <c r="V200" t="n">
         <v>0.72</v>
       </c>
+      <c r="W200" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -15370,6 +15972,9 @@
       <c r="V201" t="n">
         <v>0</v>
       </c>
+      <c r="W201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -15444,6 +16049,9 @@
       <c r="V202" t="n">
         <v>0.04</v>
       </c>
+      <c r="W202" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -15518,6 +16126,9 @@
       <c r="V203" t="n">
         <v>0.06</v>
       </c>
+      <c r="W203" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -15592,6 +16203,9 @@
       <c r="V204" t="n">
         <v>0.08</v>
       </c>
+      <c r="W204" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -15666,6 +16280,9 @@
       <c r="V205" t="n">
         <v>0.1</v>
       </c>
+      <c r="W205" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -15740,6 +16357,9 @@
       <c r="V206" t="n">
         <v>0.76</v>
       </c>
+      <c r="W206" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -15814,6 +16434,9 @@
       <c r="V207" t="n">
         <v>0</v>
       </c>
+      <c r="W207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -15888,6 +16511,9 @@
       <c r="V208" t="n">
         <v>0.01</v>
       </c>
+      <c r="W208" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -15962,6 +16588,9 @@
       <c r="V209" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="W209" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -16036,6 +16665,9 @@
       <c r="V210" t="n">
         <v>0.03</v>
       </c>
+      <c r="W210" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -16110,6 +16742,9 @@
       <c r="V211" t="n">
         <v>0.13</v>
       </c>
+      <c r="W211" t="n">
+        <v>0.135</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -16184,6 +16819,9 @@
       <c r="V212" t="n">
         <v>0.57</v>
       </c>
+      <c r="W212" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -16258,6 +16896,9 @@
       <c r="V213" t="n">
         <v>0.005</v>
       </c>
+      <c r="W213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -16332,6 +16973,9 @@
       <c r="V214" t="n">
         <v>0</v>
       </c>
+      <c r="W214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -16406,6 +17050,9 @@
       <c r="V215" t="n">
         <v>0.13</v>
       </c>
+      <c r="W215" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -16480,6 +17127,9 @@
       <c r="V216" t="n">
         <v>0.16</v>
       </c>
+      <c r="W216" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -16554,6 +17204,9 @@
       <c r="V217" t="n">
         <v>0.135</v>
       </c>
+      <c r="W217" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -16628,6 +17281,9 @@
       <c r="V218" t="n">
         <v>0.84</v>
       </c>
+      <c r="W218" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -16702,6 +17358,9 @@
       <c r="V219" t="n">
         <v>0</v>
       </c>
+      <c r="W219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -16776,6 +17435,9 @@
       <c r="V220" t="n">
         <v>0.03</v>
       </c>
+      <c r="W220" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -16850,6 +17512,9 @@
       <c r="V221" t="n">
         <v>0.03</v>
       </c>
+      <c r="W221" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -16924,6 +17589,9 @@
       <c r="V222" t="n">
         <v>0.06</v>
       </c>
+      <c r="W222" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -16998,6 +17666,9 @@
       <c r="V223" t="n">
         <v>0.04</v>
       </c>
+      <c r="W223" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -17072,6 +17743,9 @@
       <c r="V224" t="n">
         <v>0.85</v>
       </c>
+      <c r="W224" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -17146,6 +17820,9 @@
       <c r="V225" t="n">
         <v>0</v>
       </c>
+      <c r="W225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -17220,6 +17897,9 @@
       <c r="V226" t="n">
         <v>0.02</v>
       </c>
+      <c r="W226" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -17294,6 +17974,9 @@
       <c r="V227" t="n">
         <v>0.015</v>
       </c>
+      <c r="W227" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -17368,6 +18051,9 @@
       <c r="V228" t="n">
         <v>0.03</v>
       </c>
+      <c r="W228" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -17442,6 +18128,9 @@
       <c r="V229" t="n">
         <v>0.08500000000000001</v>
       </c>
+      <c r="W229" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -17516,6 +18205,9 @@
       <c r="V230" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="W230" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -17590,6 +18282,9 @@
       <c r="V231" t="n">
         <v>0</v>
       </c>
+      <c r="W231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -17664,6 +18359,9 @@
       <c r="V232" t="n">
         <v>0</v>
       </c>
+      <c r="W232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -17738,6 +18436,9 @@
       <c r="V233" t="n">
         <v>0.06</v>
       </c>
+      <c r="W233" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -17812,6 +18513,9 @@
       <c r="V234" t="n">
         <v>0.03</v>
       </c>
+      <c r="W234" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -17886,6 +18590,9 @@
       <c r="V235" t="n">
         <v>0.1</v>
       </c>
+      <c r="W235" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -17960,6 +18667,9 @@
       <c r="V236" t="n">
         <v>0.78</v>
       </c>
+      <c r="W236" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -18034,6 +18744,9 @@
       <c r="V237" t="n">
         <v>0.005</v>
       </c>
+      <c r="W237" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -18108,6 +18821,9 @@
       <c r="V238" t="n">
         <v>0.08</v>
       </c>
+      <c r="W238" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -18182,6 +18898,9 @@
       <c r="V239" t="n">
         <v>0.03</v>
       </c>
+      <c r="W239" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -18256,6 +18975,9 @@
       <c r="V240" t="n">
         <v>0.06</v>
       </c>
+      <c r="W240" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -18330,6 +19052,9 @@
       <c r="V241" t="n">
         <v>0.045</v>
       </c>
+      <c r="W241" t="n">
+        <v>0.035</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -18404,6 +19129,9 @@
       <c r="V242" t="n">
         <v>0.91</v>
       </c>
+      <c r="W242" t="n">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -18478,6 +19206,9 @@
       <c r="V243" t="n">
         <v>0.005</v>
       </c>
+      <c r="W243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -18552,6 +19283,9 @@
       <c r="V244" t="n">
         <v>0.005</v>
       </c>
+      <c r="W244" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -18626,6 +19360,9 @@
       <c r="V245" t="n">
         <v>0.01</v>
       </c>
+      <c r="W245" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -18700,6 +19437,9 @@
       <c r="V246" t="n">
         <v>0.01</v>
       </c>
+      <c r="W246" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -18774,6 +19514,9 @@
       <c r="V247" t="n">
         <v>0.06</v>
       </c>
+      <c r="W247" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -18848,6 +19591,9 @@
       <c r="V248" t="n">
         <v>0.61</v>
       </c>
+      <c r="W248" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -18922,6 +19668,9 @@
       <c r="V249" t="n">
         <v>0</v>
       </c>
+      <c r="W249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -18996,6 +19745,9 @@
       <c r="V250" t="n">
         <v>0.05</v>
       </c>
+      <c r="W250" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -19070,6 +19822,9 @@
       <c r="V251" t="n">
         <v>0.11</v>
       </c>
+      <c r="W251" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -19144,6 +19899,9 @@
       <c r="V252" t="n">
         <v>0.04</v>
       </c>
+      <c r="W252" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -19218,6 +19976,9 @@
       <c r="V253" t="n">
         <v>0.19</v>
       </c>
+      <c r="W253" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -19292,6 +20053,9 @@
       <c r="V254" t="n">
         <v>0.77</v>
       </c>
+      <c r="W254" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -19366,6 +20130,9 @@
       <c r="V255" t="n">
         <v>0</v>
       </c>
+      <c r="W255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -19440,6 +20207,9 @@
       <c r="V256" t="n">
         <v>0.02</v>
       </c>
+      <c r="W256" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -19514,6 +20284,9 @@
       <c r="V257" t="n">
         <v>0.06</v>
       </c>
+      <c r="W257" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -19588,6 +20361,9 @@
       <c r="V258" t="n">
         <v>0.05</v>
       </c>
+      <c r="W258" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -19662,6 +20438,9 @@
       <c r="V259" t="n">
         <v>0.1</v>
       </c>
+      <c r="W259" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -19736,6 +20515,9 @@
       <c r="V260" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="W260" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -19810,6 +20592,9 @@
       <c r="V261" t="n">
         <v>0</v>
       </c>
+      <c r="W261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -19884,6 +20669,9 @@
       <c r="V262" t="n">
         <v>0.02</v>
       </c>
+      <c r="W262" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -19958,6 +20746,9 @@
       <c r="V263" t="n">
         <v>0.03</v>
       </c>
+      <c r="W263" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -20032,6 +20823,9 @@
       <c r="V264" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="W264" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -20106,6 +20900,9 @@
       <c r="V265" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="W265" t="n">
+        <v>0.095</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -20180,6 +20977,9 @@
       <c r="V266" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="W266" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -20254,6 +21054,9 @@
       <c r="V267" t="n">
         <v>0</v>
       </c>
+      <c r="W267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -20328,6 +21131,9 @@
       <c r="V268" t="n">
         <v>0.03</v>
       </c>
+      <c r="W268" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -20402,6 +21208,9 @@
       <c r="V269" t="n">
         <v>0.05</v>
       </c>
+      <c r="W269" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -20476,6 +21285,9 @@
       <c r="V270" t="n">
         <v>0.05</v>
       </c>
+      <c r="W270" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -20550,6 +21362,9 @@
       <c r="V271" t="n">
         <v>0.06</v>
       </c>
+      <c r="W271" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -20624,6 +21439,9 @@
       <c r="V272" t="n">
         <v>0.75</v>
       </c>
+      <c r="W272" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -20698,6 +21516,9 @@
       <c r="V273" t="n">
         <v>0</v>
       </c>
+      <c r="W273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -20772,6 +21593,9 @@
       <c r="V274" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="W274" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -20846,6 +21670,9 @@
       <c r="V275" t="n">
         <v>0.06</v>
       </c>
+      <c r="W275" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -20920,6 +21747,9 @@
       <c r="V276" t="n">
         <v>0.05</v>
       </c>
+      <c r="W276" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -20994,6 +21824,9 @@
       <c r="V277" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="W277" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -21068,6 +21901,9 @@
       <c r="V278" t="n">
         <v>0.87</v>
       </c>
+      <c r="W278" t="n">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -21142,6 +21978,9 @@
       <c r="V279" t="n">
         <v>0</v>
       </c>
+      <c r="W279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -21216,6 +22055,9 @@
       <c r="V280" t="n">
         <v>0.01</v>
       </c>
+      <c r="W280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -21290,6 +22132,9 @@
       <c r="V281" t="n">
         <v>0.05</v>
       </c>
+      <c r="W281" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -21364,6 +22209,9 @@
       <c r="V282" t="n">
         <v>0.02</v>
       </c>
+      <c r="W282" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -21438,6 +22286,9 @@
       <c r="V283" t="n">
         <v>0.05</v>
       </c>
+      <c r="W283" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -21512,6 +22363,9 @@
       <c r="V284" t="n">
         <v>0.76</v>
       </c>
+      <c r="W284" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -21586,6 +22440,9 @@
       <c r="V285" t="n">
         <v>0</v>
       </c>
+      <c r="W285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -21660,6 +22517,9 @@
       <c r="V286" t="n">
         <v>0.03</v>
       </c>
+      <c r="W286" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -21734,6 +22594,9 @@
       <c r="V287" t="n">
         <v>0.03</v>
       </c>
+      <c r="W287" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -21808,6 +22671,9 @@
       <c r="V288" t="n">
         <v>0.09</v>
       </c>
+      <c r="W288" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -21882,6 +22748,9 @@
       <c r="V289" t="n">
         <v>0.09</v>
       </c>
+      <c r="W289" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -21956,6 +22825,9 @@
       <c r="V290" t="n">
         <v>0.91</v>
       </c>
+      <c r="W290" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -22030,6 +22902,9 @@
       <c r="V291" t="n">
         <v>0</v>
       </c>
+      <c r="W291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -22104,6 +22979,9 @@
       <c r="V292" t="n">
         <v>0.015</v>
       </c>
+      <c r="W292" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -22178,6 +23056,9 @@
       <c r="V293" t="n">
         <v>0.015</v>
       </c>
+      <c r="W293" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -22252,6 +23133,9 @@
       <c r="V294" t="n">
         <v>0.015</v>
       </c>
+      <c r="W294" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -22326,6 +23210,9 @@
       <c r="V295" t="n">
         <v>0.045</v>
       </c>
+      <c r="W295" t="n">
+        <v>0.035</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -22400,6 +23287,9 @@
       <c r="V296" t="n">
         <v>0.72</v>
       </c>
+      <c r="W296" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -22474,6 +23364,9 @@
       <c r="V297" t="n">
         <v>0</v>
       </c>
+      <c r="W297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -22548,6 +23441,9 @@
       <c r="V298" t="n">
         <v>0.015</v>
       </c>
+      <c r="W298" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -22622,6 +23518,9 @@
       <c r="V299" t="n">
         <v>0.05</v>
       </c>
+      <c r="W299" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -22696,6 +23595,9 @@
       <c r="V300" t="n">
         <v>0.08</v>
       </c>
+      <c r="W300" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -22770,6 +23672,9 @@
       <c r="V301" t="n">
         <v>0.135</v>
       </c>
+      <c r="W301" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -22844,6 +23749,9 @@
       <c r="V302" t="n">
         <v>0.76</v>
       </c>
+      <c r="W302" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -22918,6 +23826,9 @@
       <c r="V303" t="n">
         <v>0</v>
       </c>
+      <c r="W303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -22992,6 +23903,9 @@
       <c r="V304" t="n">
         <v>0.02</v>
       </c>
+      <c r="W304" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -23066,6 +23980,9 @@
       <c r="V305" t="n">
         <v>0.04</v>
       </c>
+      <c r="W305" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -23140,6 +24057,9 @@
       <c r="V306" t="n">
         <v>0.08</v>
       </c>
+      <c r="W306" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -23214,6 +24134,9 @@
       <c r="V307" t="n">
         <v>0.1</v>
       </c>
+      <c r="W307" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -23288,6 +24211,9 @@
       <c r="V308" t="n">
         <v>0.84</v>
       </c>
+      <c r="W308" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -23362,6 +24288,9 @@
       <c r="V309" t="n">
         <v>0</v>
       </c>
+      <c r="W309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -23436,6 +24365,9 @@
       <c r="V310" t="n">
         <v>0.03</v>
       </c>
+      <c r="W310" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -23510,6 +24442,9 @@
       <c r="V311" t="n">
         <v>0.015</v>
       </c>
+      <c r="W311" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -23584,6 +24519,9 @@
       <c r="V312" t="n">
         <v>0.04</v>
       </c>
+      <c r="W312" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -23658,6 +24596,9 @@
       <c r="V313" t="n">
         <v>0.075</v>
       </c>
+      <c r="W313" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -23732,6 +24673,9 @@
       <c r="V314" t="n">
         <v>0.73</v>
       </c>
+      <c r="W314" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -23806,6 +24750,9 @@
       <c r="V315" t="n">
         <v>0</v>
       </c>
+      <c r="W315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -23880,6 +24827,9 @@
       <c r="V316" t="n">
         <v>0.02</v>
       </c>
+      <c r="W316" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -23954,6 +24904,9 @@
       <c r="V317" t="n">
         <v>0.08</v>
       </c>
+      <c r="W317" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -24028,6 +24981,9 @@
       <c r="V318" t="n">
         <v>0.05</v>
       </c>
+      <c r="W318" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -24102,6 +25058,9 @@
       <c r="V319" t="n">
         <v>0.12</v>
       </c>
+      <c r="W319" t="n">
+        <v>0.145</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -24150,31 +25109,34 @@
         <v>0.17</v>
       </c>
       <c r="N320" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="O320" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="P320" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Q320" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="R320" t="n">
         <v>0.6</v>
       </c>
       <c r="S320" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="T320" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="U320" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="V320" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
+      </c>
+      <c r="W320" t="n">
+        <v>0.71</v>
       </c>
     </row>
     <row r="321">
@@ -24197,7 +25159,7 @@
         <v>0.29</v>
       </c>
       <c r="E321" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="F321" t="n">
         <v>0.27</v>
@@ -24206,16 +25168,16 @@
         <v>0.27</v>
       </c>
       <c r="H321" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="I321" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="J321" t="n">
         <v>0.27</v>
       </c>
       <c r="K321" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="L321" t="n">
         <v>0.22</v>
@@ -24224,13 +25186,13 @@
         <v>0.2</v>
       </c>
       <c r="N321" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="O321" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="P321" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Q321" t="n">
         <v>0.02</v>
@@ -24245,9 +25207,12 @@
         <v>0.015</v>
       </c>
       <c r="U321" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="V321" t="n">
+        <v>0</v>
+      </c>
+      <c r="W321" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24268,7 +25233,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="E322" t="n">
         <v>0.21</v>
@@ -24280,22 +25245,22 @@
         <v>0.22</v>
       </c>
       <c r="H322" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="I322" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K322" t="n">
         <v>0.26</v>
       </c>
-      <c r="J322" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="K322" t="n">
+      <c r="L322" t="n">
         <v>0.27</v>
       </c>
-      <c r="L322" t="n">
-        <v>0.28</v>
-      </c>
       <c r="M322" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="N322" t="n">
         <v>0.18</v>
@@ -24313,16 +25278,19 @@
         <v>0.04</v>
       </c>
       <c r="S322" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="T322" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="U322" t="n">
         <v>0.03</v>
       </c>
       <c r="V322" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
+      </c>
+      <c r="W322" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="323">
@@ -24342,7 +25310,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E323" t="n">
         <v>0.13</v>
@@ -24351,7 +25319,7 @@
         <v>0.12</v>
       </c>
       <c r="G323" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="H323" t="n">
         <v>0.15</v>
@@ -24366,16 +25334,16 @@
         <v>0.15</v>
       </c>
       <c r="L323" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="M323" t="n">
         <v>0.14</v>
       </c>
       <c r="N323" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="O323" t="n">
         <v>0.14</v>
-      </c>
-      <c r="O323" t="n">
-        <v>0.13</v>
       </c>
       <c r="P323" t="n">
         <v>0.11</v>
@@ -24393,11 +25361,14 @@
         <v>0.08</v>
       </c>
       <c r="U323" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="V323" t="n">
         <v>0.06</v>
       </c>
+      <c r="W323" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -24416,13 +25387,13 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="E324" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="F324" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="G324" t="n">
         <v>0.22</v>
@@ -24431,22 +25402,22 @@
         <v>0.18</v>
       </c>
       <c r="I324" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K324" t="n">
         <v>0.16</v>
       </c>
-      <c r="J324" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="K324" t="n">
+      <c r="L324" t="n">
         <v>0.15</v>
       </c>
-      <c r="L324" t="n">
-        <v>0.16</v>
-      </c>
       <c r="M324" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="N324" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="O324" t="n">
         <v>0.13</v>
@@ -24461,16 +25432,19 @@
         <v>0.11</v>
       </c>
       <c r="S324" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="T324" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="U324" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="V324" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
+      </c>
+      <c r="W324" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="325">
@@ -24493,28 +25467,28 @@
         <v>0.23</v>
       </c>
       <c r="E325" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="F325" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="G325" t="n">
-        <v>0.135</v>
+        <v>0.145</v>
       </c>
       <c r="H325" t="n">
         <v>0.145</v>
       </c>
       <c r="I325" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="J325" t="n">
         <v>0.12</v>
       </c>
       <c r="K325" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="L325" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="M325" t="n">
         <v>0.12</v>
@@ -24523,28 +25497,31 @@
         <v>0.09</v>
       </c>
       <c r="O325" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="P325" t="n">
         <v>0.12</v>
       </c>
       <c r="Q325" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="R325" t="n">
         <v>0.13</v>
       </c>
       <c r="S325" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="T325" t="n">
         <v>0.145</v>
       </c>
       <c r="U325" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="V325" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
+      </c>
+      <c r="W325" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="326">
@@ -24722,6 +25699,9 @@
       <c r="V332" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="W332" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -24796,6 +25776,9 @@
       <c r="V333" t="n">
         <v>0</v>
       </c>
+      <c r="W333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -24870,6 +25853,9 @@
       <c r="V334" t="n">
         <v>0</v>
       </c>
+      <c r="W334" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -24944,6 +25930,9 @@
       <c r="V335" t="n">
         <v>0.04</v>
       </c>
+      <c r="W335" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -25018,6 +26007,9 @@
       <c r="V336" t="n">
         <v>0.09</v>
       </c>
+      <c r="W336" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -25092,6 +26084,9 @@
       <c r="V337" t="n">
         <v>0.18</v>
       </c>
+      <c r="W337" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -25166,6 +26161,9 @@
       <c r="V338" t="n">
         <v>0.78</v>
       </c>
+      <c r="W338" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -25240,6 +26238,9 @@
       <c r="V339" t="n">
         <v>0</v>
       </c>
+      <c r="W339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -25314,6 +26315,9 @@
       <c r="V340" t="n">
         <v>0.03</v>
       </c>
+      <c r="W340" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -25388,6 +26392,9 @@
       <c r="V341" t="n">
         <v>0.05</v>
       </c>
+      <c r="W341" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -25462,6 +26469,9 @@
       <c r="V342" t="n">
         <v>0.06</v>
       </c>
+      <c r="W342" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -25536,6 +26546,9 @@
       <c r="V343" t="n">
         <v>0.08</v>
       </c>
+      <c r="W343" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -25610,6 +26623,9 @@
       <c r="V344" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="W344" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -25684,6 +26700,9 @@
       <c r="V345" t="n">
         <v>0</v>
       </c>
+      <c r="W345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -25758,6 +26777,9 @@
       <c r="V346" t="n">
         <v>0.03</v>
       </c>
+      <c r="W346" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -25832,6 +26854,9 @@
       <c r="V347" t="n">
         <v>0.06</v>
       </c>
+      <c r="W347" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -25906,6 +26931,9 @@
       <c r="V348" t="n">
         <v>0.03</v>
       </c>
+      <c r="W348" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -25980,11 +27008,14 @@
       <c r="V349" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="W349" t="n">
+        <v>0.065</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, % respondentů celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
     </row>
@@ -25999,7 +27030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U60"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26113,6 +27144,11 @@
           <t>28. 12. 2021</t>
         </is>
       </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>25. 1. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -26182,6 +27218,9 @@
       <c r="U2" t="n">
         <v>1767</v>
       </c>
+      <c r="V2" t="n">
+        <v>1815</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -26251,6 +27290,9 @@
       <c r="U3" t="n">
         <v>442</v>
       </c>
+      <c r="V3" t="n">
+        <v>444</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -26320,6 +27362,9 @@
       <c r="U4" t="n">
         <v>647</v>
       </c>
+      <c r="V4" t="n">
+        <v>676</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -26389,6 +27434,9 @@
       <c r="U5" t="n">
         <v>678</v>
       </c>
+      <c r="V5" t="n">
+        <v>695</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -26458,6 +27506,9 @@
       <c r="U6" t="n">
         <v>818</v>
       </c>
+      <c r="V6" t="n">
+        <v>838</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -26527,6 +27578,9 @@
       <c r="U7" t="n">
         <v>606</v>
       </c>
+      <c r="V7" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -26596,6 +27650,9 @@
       <c r="U8" t="n">
         <v>343</v>
       </c>
+      <c r="V8" t="n">
+        <v>358</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -26665,6 +27722,9 @@
       <c r="U9" t="n">
         <v>427</v>
       </c>
+      <c r="V9" t="n">
+        <v>435</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -26734,6 +27794,9 @@
       <c r="U10" t="n">
         <v>429</v>
       </c>
+      <c r="V10" t="n">
+        <v>437</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -26803,6 +27866,9 @@
       <c r="U11" t="n">
         <v>234</v>
       </c>
+      <c r="V11" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -26872,6 +27938,9 @@
       <c r="U12" t="n">
         <v>391</v>
       </c>
+      <c r="V12" t="n">
+        <v>403</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -26941,6 +28010,9 @@
       <c r="U13" t="n">
         <v>177</v>
       </c>
+      <c r="V13" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -27010,6 +28082,9 @@
       <c r="U14" t="n">
         <v>109</v>
       </c>
+      <c r="V14" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -27079,6 +28154,9 @@
       <c r="U15" t="n">
         <v>567</v>
       </c>
+      <c r="V15" t="n">
+        <v>740</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -27148,6 +28226,9 @@
       <c r="U16" t="n">
         <v>126</v>
       </c>
+      <c r="V16" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -27217,6 +28298,9 @@
       <c r="U17" t="n">
         <v>80</v>
       </c>
+      <c r="V17" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -27286,6 +28370,9 @@
       <c r="U18" t="n">
         <v>221</v>
       </c>
+      <c r="V18" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -27355,6 +28442,9 @@
       <c r="U19" t="n">
         <v>817</v>
       </c>
+      <c r="V19" t="n">
+        <v>834</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -27424,6 +28514,9 @@
       <c r="U20" t="n">
         <v>143</v>
       </c>
+      <c r="V20" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -27493,6 +28586,9 @@
       <c r="U21" t="n">
         <v>112</v>
       </c>
+      <c r="V21" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -27562,6 +28658,9 @@
       <c r="U22" t="n">
         <v>695</v>
       </c>
+      <c r="V22" t="n">
+        <v>721</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -27631,6 +28730,9 @@
       <c r="U23" t="n">
         <v>862</v>
       </c>
+      <c r="V23" t="n">
+        <v>880</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -27700,6 +28802,9 @@
       <c r="U24" t="n">
         <v>905</v>
       </c>
+      <c r="V24" t="n">
+        <v>935</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -27769,6 +28874,9 @@
       <c r="U25" t="n">
         <v>228</v>
       </c>
+      <c r="V25" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -27838,6 +28946,9 @@
       <c r="U26" t="n">
         <v>331</v>
       </c>
+      <c r="V26" t="n">
+        <v>338</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -27907,6 +29018,9 @@
       <c r="U27" t="n">
         <v>304</v>
       </c>
+      <c r="V27" t="n">
+        <v>310</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -27976,6 +29090,9 @@
       <c r="U28" t="n">
         <v>215</v>
       </c>
+      <c r="V28" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -28045,6 +29162,9 @@
       <c r="U29" t="n">
         <v>316</v>
       </c>
+      <c r="V29" t="n">
+        <v>338</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -28114,6 +29234,9 @@
       <c r="U30" t="n">
         <v>373</v>
       </c>
+      <c r="V30" t="n">
+        <v>385</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -28183,6 +29306,9 @@
       <c r="U31" t="n">
         <v>916</v>
       </c>
+      <c r="V31" t="n">
+        <v>952</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -28252,6 +29378,9 @@
       <c r="U32" t="n">
         <v>413</v>
       </c>
+      <c r="V32" t="n">
+        <v>413</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -28321,6 +29450,9 @@
       <c r="U33" t="n">
         <v>205</v>
       </c>
+      <c r="V33" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -28390,6 +29522,9 @@
       <c r="U34" t="n">
         <v>233</v>
       </c>
+      <c r="V34" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -28459,6 +29594,9 @@
       <c r="U35" t="n">
         <v>574</v>
       </c>
+      <c r="V35" t="n">
+        <v>604</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -28528,6 +29666,9 @@
       <c r="U36" t="n">
         <v>266</v>
       </c>
+      <c r="V36" t="n">
+        <v>263</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28597,6 +29738,9 @@
       <c r="U37" t="n">
         <v>119</v>
       </c>
+      <c r="V37" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28666,6 +29810,9 @@
       <c r="U38" t="n">
         <v>131</v>
       </c>
+      <c r="V38" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28735,6 +29882,9 @@
       <c r="U39" t="n">
         <v>342</v>
       </c>
+      <c r="V39" t="n">
+        <v>348</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28804,6 +29954,9 @@
       <c r="U40" t="n">
         <v>146</v>
       </c>
+      <c r="V40" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28873,6 +30026,9 @@
       <c r="U41" t="n">
         <v>87</v>
       </c>
+      <c r="V41" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28942,6 +30098,9 @@
       <c r="U42" t="n">
         <v>102</v>
       </c>
+      <c r="V42" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29011,6 +30170,9 @@
       <c r="U43" t="n">
         <v>190</v>
       </c>
+      <c r="V43" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29080,6 +30242,9 @@
       <c r="U44" t="n">
         <v>640</v>
       </c>
+      <c r="V44" t="n">
+        <v>630</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29149,6 +30314,9 @@
       <c r="U45" t="n">
         <v>596</v>
       </c>
+      <c r="V45" t="n">
+        <v>605</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29218,6 +30386,9 @@
       <c r="U46" t="n">
         <v>244</v>
       </c>
+      <c r="V46" t="n">
+        <v>302</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -29287,6 +30458,9 @@
       <c r="U47" t="n">
         <v>277</v>
       </c>
+      <c r="V47" t="n">
+        <v>334</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -29356,6 +30530,9 @@
       <c r="U48" t="n">
         <v>228</v>
       </c>
+      <c r="V48" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -29425,6 +30602,9 @@
       <c r="U49" t="n">
         <v>334</v>
       </c>
+      <c r="V49" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -29494,6 +30674,9 @@
       <c r="U50" t="n">
         <v>243</v>
       </c>
+      <c r="V50" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -29563,6 +30746,9 @@
       <c r="U51" t="n">
         <v>444</v>
       </c>
+      <c r="V51" t="n">
+        <v>487</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -29632,6 +30818,9 @@
       <c r="U52" t="n">
         <v>579</v>
       </c>
+      <c r="V52" t="n">
+        <v>666</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -29701,6 +30890,9 @@
       <c r="U53" t="n">
         <v>447</v>
       </c>
+      <c r="V53" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -29770,6 +30962,9 @@
       <c r="U54" t="n">
         <v>741</v>
       </c>
+      <c r="V54" t="n">
+        <v>649</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -29783,61 +30978,64 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="D55" t="n">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="E55" t="n">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="F55" t="n">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="G55" t="n">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="H55" t="n">
-        <v>404</v>
+        <v>436</v>
       </c>
       <c r="I55" t="n">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="J55" t="n">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="K55" t="n">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="L55" t="n">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="M55" t="n">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="N55" t="n">
-        <v>375</v>
+        <v>407</v>
       </c>
       <c r="O55" t="n">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="P55" t="n">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="Q55" t="n">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="R55" t="n">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="S55" t="n">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="T55" t="n">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="U55" t="n">
-        <v>366</v>
+        <v>395</v>
+      </c>
+      <c r="V55" t="n">
+        <v>418</v>
       </c>
     </row>
     <row r="56">
@@ -29852,61 +31050,64 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1783</v>
+        <v>1750</v>
       </c>
       <c r="D56" t="n">
-        <v>1752</v>
+        <v>1719</v>
       </c>
       <c r="E56" t="n">
-        <v>1774</v>
+        <v>1741</v>
       </c>
       <c r="F56" t="n">
-        <v>1740</v>
+        <v>1705</v>
       </c>
       <c r="G56" t="n">
-        <v>1708</v>
+        <v>1674</v>
       </c>
       <c r="H56" t="n">
-        <v>1726</v>
+        <v>1694</v>
       </c>
       <c r="I56" t="n">
-        <v>1687</v>
+        <v>1653</v>
       </c>
       <c r="J56" t="n">
-        <v>1658</v>
+        <v>1625</v>
       </c>
       <c r="K56" t="n">
-        <v>1669</v>
+        <v>1636</v>
       </c>
       <c r="L56" t="n">
-        <v>1625</v>
+        <v>1592</v>
       </c>
       <c r="M56" t="n">
-        <v>1575</v>
+        <v>1543</v>
       </c>
       <c r="N56" t="n">
-        <v>1529</v>
+        <v>1497</v>
       </c>
       <c r="O56" t="n">
-        <v>1444</v>
+        <v>1410</v>
       </c>
       <c r="P56" t="n">
-        <v>1533</v>
+        <v>1499</v>
       </c>
       <c r="Q56" t="n">
-        <v>1489</v>
+        <v>1456</v>
       </c>
       <c r="R56" t="n">
-        <v>1469</v>
+        <v>1440</v>
       </c>
       <c r="S56" t="n">
-        <v>1370</v>
+        <v>1340</v>
       </c>
       <c r="T56" t="n">
-        <v>1437</v>
+        <v>1410</v>
       </c>
       <c r="U56" t="n">
-        <v>1401</v>
+        <v>1372</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1397</v>
       </c>
     </row>
     <row r="57">
@@ -29977,6 +31178,9 @@
       <c r="U57" t="n">
         <v>422</v>
       </c>
+      <c r="V57" t="n">
+        <v>494</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -30046,6 +31250,9 @@
       <c r="U58" t="n">
         <v>723</v>
       </c>
+      <c r="V58" t="n">
+        <v>759</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -30115,11 +31322,14 @@
       <c r="U59" t="n">
         <v>622</v>
       </c>
+      <c r="V59" t="n">
+        <v>562</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -30142,6 +31352,7 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_07b_ockovani.xlsx
+++ b/ZBP_07b_ockovani.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>25. 1. 2021</t>
+          <t>25. 1. 2022</t>
         </is>
       </c>
     </row>
@@ -25088,52 +25088,52 @@
         <v>0</v>
       </c>
       <c r="G320" t="n">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
       <c r="H320" t="n">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
       <c r="I320" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J320" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="K320" t="n">
         <v>0.06</v>
       </c>
-      <c r="K320" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="L320" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="M320" t="n">
         <v>0.17</v>
       </c>
       <c r="N320" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="O320" t="n">
-        <v>0.47</v>
+        <v>0.52</v>
       </c>
       <c r="P320" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="Q320" t="n">
-        <v>0.59</v>
+        <v>0.68</v>
       </c>
       <c r="R320" t="n">
-        <v>0.6</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S320" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="T320" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="U320" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="V320" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="W320" t="n">
         <v>0.71</v>
@@ -25156,43 +25156,43 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="E321" t="n">
-        <v>0.26</v>
+        <v>0.36</v>
       </c>
       <c r="F321" t="n">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
       <c r="G321" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="H321" t="n">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="I321" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="J321" t="n">
         <v>0.31</v>
       </c>
-      <c r="J321" t="n">
-        <v>0.27</v>
-      </c>
       <c r="K321" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="L321" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="M321" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="N321" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="O321" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="P321" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Q321" t="n">
         <v>0.02</v>
@@ -25204,7 +25204,7 @@
         <v>0.02</v>
       </c>
       <c r="T321" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="U321" t="n">
         <v>0.02</v>
@@ -25233,61 +25233,61 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>0.23</v>
+        <v>0.4</v>
       </c>
       <c r="E322" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="F322" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="G322" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="H322" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="I322" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="J322" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="K322" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L322" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M322" t="n">
         <v>0.26</v>
       </c>
-      <c r="L322" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="M322" t="n">
-        <v>0.22</v>
-      </c>
       <c r="N322" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="O322" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="P322" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="Q322" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="R322" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S322" t="n">
         <v>0.04</v>
       </c>
-      <c r="S322" t="n">
-        <v>0.03</v>
-      </c>
       <c r="T322" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="U322" t="n">
         <v>0.03</v>
       </c>
       <c r="V322" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="W322" t="n">
         <v>0.04</v>
@@ -25310,58 +25310,58 @@
         </is>
       </c>
       <c r="D323" t="n">
+        <v>0</v>
+      </c>
+      <c r="E323" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F323" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H323" t="n">
         <v>0.12</v>
       </c>
-      <c r="E323" t="n">
+      <c r="I323" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J323" t="n">
         <v>0.13</v>
-      </c>
-      <c r="F323" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="I323" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J323" t="n">
-        <v>0.15</v>
       </c>
       <c r="K323" t="n">
         <v>0.15</v>
       </c>
       <c r="L323" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="M323" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="N323" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="O323" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="P323" t="n">
         <v>0.11</v>
       </c>
       <c r="Q323" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="R323" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="S323" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="T323" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="U323" t="n">
         <v>0.08</v>
-      </c>
-      <c r="U323" t="n">
-        <v>0.07000000000000001</v>
       </c>
       <c r="V323" t="n">
         <v>0.06</v>
@@ -25387,61 +25387,61 @@
         </is>
       </c>
       <c r="D324" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E324" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F324" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I324" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J324" t="n">
         <v>0.13</v>
       </c>
-      <c r="E324" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="F324" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="I324" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="J324" t="n">
-        <v>0.15</v>
-      </c>
       <c r="K324" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="L324" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="M324" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="N324" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="O324" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="P324" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="Q324" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="R324" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S324" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T324" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="U324" t="n">
         <v>0.09</v>
       </c>
-      <c r="R324" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="S324" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T324" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="U324" t="n">
-        <v>0.1</v>
-      </c>
       <c r="V324" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="W324" t="n">
         <v>0.1</v>
@@ -25464,61 +25464,61 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="E325" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="F325" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="G325" t="n">
-        <v>0.145</v>
+        <v>0.13</v>
       </c>
       <c r="H325" t="n">
-        <v>0.145</v>
+        <v>0.09</v>
       </c>
       <c r="I325" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L325" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M325" t="n">
         <v>0.08</v>
       </c>
-      <c r="J325" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="K325" t="n">
+      <c r="N325" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O325" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="P325" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="R325" t="n">
         <v>0.1</v>
       </c>
-      <c r="L325" t="n">
+      <c r="S325" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T325" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="U325" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="V325" t="n">
         <v>0.1</v>
-      </c>
-      <c r="M325" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="N325" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="O325" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P325" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Q325" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R325" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="S325" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T325" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="U325" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="V325" t="n">
-        <v>0.09</v>
       </c>
       <c r="W325" t="n">
         <v>0.09</v>
@@ -25540,6 +25540,66 @@
           <t>Již očkován/a aspoň jednou dávkou</t>
         </is>
       </c>
+      <c r="D326" t="n">
+        <v>0</v>
+      </c>
+      <c r="E326" t="n">
+        <v>0</v>
+      </c>
+      <c r="F326" t="n">
+        <v>0</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I326" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L326" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M326" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="N326" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O326" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="P326" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="R326" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="S326" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="T326" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="U326" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="V326" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="W326" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -25557,6 +25617,66 @@
           <t>Rozhodně ano</t>
         </is>
       </c>
+      <c r="D327" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F327" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I327" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="L327" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M327" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="N327" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O327" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P327" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R327" t="n">
+        <v>0</v>
+      </c>
+      <c r="S327" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T327" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="U327" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="V327" t="n">
+        <v>0</v>
+      </c>
+      <c r="W327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -25574,6 +25694,66 @@
           <t>Spíše ano</t>
         </is>
       </c>
+      <c r="D328" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F328" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I328" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="L328" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M328" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="N328" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O328" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="P328" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R328" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S328" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T328" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U328" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V328" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="W328" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -25591,6 +25771,66 @@
           <t>Nevím</t>
         </is>
       </c>
+      <c r="D329" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E329" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F329" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I329" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="L329" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M329" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N329" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O329" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="P329" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="R329" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S329" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T329" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="U329" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="V329" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W329" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -25608,6 +25848,66 @@
           <t>Spíše ne</t>
         </is>
       </c>
+      <c r="D330" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E330" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F330" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M330" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N330" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O330" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P330" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="R330" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S330" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T330" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="U330" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="V330" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W330" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -25624,6 +25924,66 @@
         <is>
           <t>Rozhodně ne</t>
         </is>
+      </c>
+      <c r="D331" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L331" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M331" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N331" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O331" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="P331" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R331" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S331" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="T331" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="U331" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="V331" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W331" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="332">
@@ -27146,7 +27506,7 @@
       </c>
       <c r="V1" s="2" t="inlineStr">
         <is>
-          <t>25. 1. 2021</t>
+          <t>25. 1. 2022</t>
         </is>
       </c>
     </row>
@@ -30978,61 +31338,61 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>417</v>
+        <v>15</v>
       </c>
       <c r="D55" t="n">
-        <v>436</v>
+        <v>110</v>
       </c>
       <c r="E55" t="n">
-        <v>445</v>
+        <v>155</v>
       </c>
       <c r="F55" t="n">
-        <v>426</v>
+        <v>175</v>
       </c>
       <c r="G55" t="n">
-        <v>446</v>
+        <v>220</v>
       </c>
       <c r="H55" t="n">
-        <v>436</v>
+        <v>241</v>
       </c>
       <c r="I55" t="n">
-        <v>448</v>
+        <v>280</v>
       </c>
       <c r="J55" t="n">
-        <v>436</v>
+        <v>284</v>
       </c>
       <c r="K55" t="n">
-        <v>423</v>
+        <v>288</v>
       </c>
       <c r="L55" t="n">
-        <v>437</v>
+        <v>292</v>
       </c>
       <c r="M55" t="n">
-        <v>432</v>
+        <v>293</v>
       </c>
       <c r="N55" t="n">
-        <v>407</v>
+        <v>273</v>
       </c>
       <c r="O55" t="n">
-        <v>372</v>
+        <v>251</v>
       </c>
       <c r="P55" t="n">
-        <v>402</v>
+        <v>265</v>
       </c>
       <c r="Q55" t="n">
-        <v>399</v>
+        <v>262</v>
       </c>
       <c r="R55" t="n">
-        <v>396</v>
+        <v>268</v>
       </c>
       <c r="S55" t="n">
-        <v>369</v>
+        <v>273</v>
       </c>
       <c r="T55" t="n">
-        <v>380</v>
+        <v>322</v>
       </c>
       <c r="U55" t="n">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="V55" t="n">
         <v>418</v>
@@ -31050,61 +31410,61 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1750</v>
+        <v>2152</v>
       </c>
       <c r="D56" t="n">
-        <v>1719</v>
+        <v>2045</v>
       </c>
       <c r="E56" t="n">
-        <v>1741</v>
+        <v>2031</v>
       </c>
       <c r="F56" t="n">
-        <v>1705</v>
+        <v>1956</v>
       </c>
       <c r="G56" t="n">
-        <v>1674</v>
+        <v>1900</v>
       </c>
       <c r="H56" t="n">
-        <v>1694</v>
+        <v>1889</v>
       </c>
       <c r="I56" t="n">
-        <v>1653</v>
+        <v>1821</v>
       </c>
       <c r="J56" t="n">
-        <v>1625</v>
+        <v>1777</v>
       </c>
       <c r="K56" t="n">
+        <v>1771</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1737</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1682</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1631</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1531</v>
+      </c>
+      <c r="P56" t="n">
         <v>1636</v>
       </c>
-      <c r="L56" t="n">
-        <v>1592</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1543</v>
-      </c>
-      <c r="N56" t="n">
-        <v>1497</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1410</v>
-      </c>
-      <c r="P56" t="n">
-        <v>1499</v>
-      </c>
       <c r="Q56" t="n">
-        <v>1456</v>
+        <v>1593</v>
       </c>
       <c r="R56" t="n">
-        <v>1440</v>
+        <v>1568</v>
       </c>
       <c r="S56" t="n">
-        <v>1340</v>
+        <v>1436</v>
       </c>
       <c r="T56" t="n">
-        <v>1410</v>
+        <v>1468</v>
       </c>
       <c r="U56" t="n">
-        <v>1372</v>
+        <v>1401</v>
       </c>
       <c r="V56" t="n">
         <v>1397</v>

--- a/ZBP_07b_ockovani.xlsx
+++ b/ZBP_07b_ockovani.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W350"/>
+  <dimension ref="A1:X374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,6 +575,11 @@
           <t>25. 1. 2022</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>22. 2. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -652,6 +657,9 @@
       <c r="W2" t="n">
         <v>0.77</v>
       </c>
+      <c r="X2" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -729,6 +737,9 @@
       <c r="W3" t="n">
         <v>0</v>
       </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -806,6 +817,9 @@
       <c r="W4" t="n">
         <v>0.015</v>
       </c>
+      <c r="X4" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -883,6 +897,9 @@
       <c r="W5" t="n">
         <v>0.04</v>
       </c>
+      <c r="X5" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -960,6 +977,9 @@
       <c r="W6" t="n">
         <v>0.06</v>
       </c>
+      <c r="X6" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1037,6 +1057,9 @@
       <c r="W7" t="n">
         <v>0.115</v>
       </c>
+      <c r="X7" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1114,6 +1137,9 @@
       <c r="W8" t="n">
         <v>0.72</v>
       </c>
+      <c r="X8" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1191,6 +1217,9 @@
       <c r="W9" t="n">
         <v>0</v>
       </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1268,6 +1297,9 @@
       <c r="W10" t="n">
         <v>0.04</v>
       </c>
+      <c r="X10" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1345,6 +1377,9 @@
       <c r="W11" t="n">
         <v>0.04</v>
       </c>
+      <c r="X11" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1422,6 +1457,9 @@
       <c r="W12" t="n">
         <v>0.1</v>
       </c>
+      <c r="X12" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1499,6 +1537,9 @@
       <c r="W13" t="n">
         <v>0.1</v>
       </c>
+      <c r="X13" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1574,7 +1615,10 @@
         <v>0.75</v>
       </c>
       <c r="W14" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.76</v>
       </c>
     </row>
     <row r="15">
@@ -1653,6 +1697,9 @@
       <c r="W15" t="n">
         <v>0</v>
       </c>
+      <c r="X15" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1730,6 +1777,9 @@
       <c r="W16" t="n">
         <v>0.01</v>
       </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1807,6 +1857,9 @@
       <c r="W17" t="n">
         <v>0.05</v>
       </c>
+      <c r="X17" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1884,6 +1937,9 @@
       <c r="W18" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X18" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1959,7 +2015,10 @@
         <v>0.125</v>
       </c>
       <c r="W19" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.155</v>
       </c>
     </row>
     <row r="20">
@@ -2036,7 +2095,10 @@
         <v>0.84</v>
       </c>
       <c r="W20" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.87</v>
       </c>
     </row>
     <row r="21">
@@ -2115,6 +2177,9 @@
       <c r="W21" t="n">
         <v>0</v>
       </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2192,6 +2257,9 @@
       <c r="W22" t="n">
         <v>0.01</v>
       </c>
+      <c r="X22" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2269,6 +2337,9 @@
       <c r="W23" t="n">
         <v>0.04</v>
       </c>
+      <c r="X23" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2344,6 +2415,9 @@
         <v>0.03</v>
       </c>
       <c r="W24" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X24" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2423,6 +2497,9 @@
       <c r="W25" t="n">
         <v>0.08</v>
       </c>
+      <c r="X25" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2500,6 +2577,9 @@
       <c r="W26" t="n">
         <v>0.72</v>
       </c>
+      <c r="X26" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2577,6 +2657,9 @@
       <c r="W27" t="n">
         <v>0</v>
       </c>
+      <c r="X27" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2654,6 +2737,9 @@
       <c r="W28" t="n">
         <v>0.015</v>
       </c>
+      <c r="X28" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2731,6 +2817,9 @@
       <c r="W29" t="n">
         <v>0.06</v>
       </c>
+      <c r="X29" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2808,6 +2897,9 @@
       <c r="W30" t="n">
         <v>0.06</v>
       </c>
+      <c r="X30" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2885,6 +2977,9 @@
       <c r="W31" t="n">
         <v>0.145</v>
       </c>
+      <c r="X31" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2962,6 +3057,9 @@
       <c r="W32" t="n">
         <v>0.78</v>
       </c>
+      <c r="X32" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3039,6 +3137,9 @@
       <c r="W33" t="n">
         <v>0</v>
       </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3116,6 +3217,9 @@
       <c r="W34" t="n">
         <v>0.02</v>
       </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3193,6 +3297,9 @@
       <c r="W35" t="n">
         <v>0.04</v>
       </c>
+      <c r="X35" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3270,6 +3377,9 @@
       <c r="W36" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X36" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3347,6 +3457,9 @@
       <c r="W37" t="n">
         <v>0.09</v>
       </c>
+      <c r="X37" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3424,6 +3537,9 @@
       <c r="W38" t="n">
         <v>0.88</v>
       </c>
+      <c r="X38" t="n">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3501,6 +3617,9 @@
       <c r="W39" t="n">
         <v>0</v>
       </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3578,6 +3697,9 @@
       <c r="W40" t="n">
         <v>0.01</v>
       </c>
+      <c r="X40" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3655,6 +3777,9 @@
       <c r="W41" t="n">
         <v>0.02</v>
       </c>
+      <c r="X41" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3732,6 +3857,9 @@
       <c r="W42" t="n">
         <v>0.04</v>
       </c>
+      <c r="X42" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3809,6 +3937,9 @@
       <c r="W43" t="n">
         <v>0.05</v>
       </c>
+      <c r="X43" t="n">
+        <v>0.055</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3886,6 +4017,9 @@
       <c r="W44" t="n">
         <v>0.66</v>
       </c>
+      <c r="X44" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3963,6 +4097,9 @@
       <c r="W45" t="n">
         <v>0</v>
       </c>
+      <c r="X45" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4040,6 +4177,9 @@
       <c r="W46" t="n">
         <v>0.01</v>
       </c>
+      <c r="X46" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4117,6 +4257,9 @@
       <c r="W47" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X47" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4194,6 +4337,9 @@
       <c r="W48" t="n">
         <v>0.08</v>
       </c>
+      <c r="X48" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4271,6 +4417,9 @@
       <c r="W49" t="n">
         <v>0.18</v>
       </c>
+      <c r="X49" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4346,7 +4495,10 @@
         <v>0.71</v>
       </c>
       <c r="W50" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row r="51">
@@ -4425,6 +4577,9 @@
       <c r="W51" t="n">
         <v>0</v>
       </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4502,6 +4657,9 @@
       <c r="W52" t="n">
         <v>0.03</v>
       </c>
+      <c r="X52" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4577,6 +4735,9 @@
         <v>0.06</v>
       </c>
       <c r="W53" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="X53" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -4656,6 +4817,9 @@
       <c r="W54" t="n">
         <v>0.09</v>
       </c>
+      <c r="X54" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4733,6 +4897,9 @@
       <c r="W55" t="n">
         <v>0.11</v>
       </c>
+      <c r="X55" t="n">
+        <v>0.145</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4810,6 +4977,9 @@
       <c r="W56" t="n">
         <v>0.86</v>
       </c>
+      <c r="X56" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4887,6 +5057,9 @@
       <c r="W57" t="n">
         <v>0</v>
       </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4964,6 +5137,9 @@
       <c r="W58" t="n">
         <v>0.015</v>
       </c>
+      <c r="X58" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5041,6 +5217,9 @@
       <c r="W59" t="n">
         <v>0.02</v>
       </c>
+      <c r="X59" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5118,6 +5297,9 @@
       <c r="W60" t="n">
         <v>0.05</v>
       </c>
+      <c r="X60" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5195,6 +5377,9 @@
       <c r="W61" t="n">
         <v>0.055</v>
       </c>
+      <c r="X61" t="n">
+        <v>0.065</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5272,6 +5457,9 @@
       <c r="W62" t="n">
         <v>0.79</v>
       </c>
+      <c r="X62" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5349,6 +5537,9 @@
       <c r="W63" t="n">
         <v>0</v>
       </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5426,6 +5617,9 @@
       <c r="W64" t="n">
         <v>0.02</v>
       </c>
+      <c r="X64" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5503,6 +5697,9 @@
       <c r="W65" t="n">
         <v>0.05</v>
       </c>
+      <c r="X65" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5580,6 +5777,9 @@
       <c r="W66" t="n">
         <v>0.03</v>
       </c>
+      <c r="X66" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5657,6 +5857,9 @@
       <c r="W67" t="n">
         <v>0.11</v>
       </c>
+      <c r="X67" t="n">
+        <v>0.095</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5732,6 +5935,9 @@
         <v>0.93</v>
       </c>
       <c r="W68" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="X68" t="n">
         <v>0.92</v>
       </c>
     </row>
@@ -5811,6 +6017,9 @@
       <c r="W69" t="n">
         <v>0</v>
       </c>
+      <c r="X69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5888,6 +6097,9 @@
       <c r="W70" t="n">
         <v>0</v>
       </c>
+      <c r="X70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5963,7 +6175,10 @@
         <v>0.015</v>
       </c>
       <c r="W71" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="72">
@@ -6042,6 +6257,9 @@
       <c r="W72" t="n">
         <v>0.015</v>
       </c>
+      <c r="X72" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6119,6 +6337,9 @@
       <c r="W73" t="n">
         <v>0.045</v>
       </c>
+      <c r="X73" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6196,6 +6417,9 @@
       <c r="W74" t="n">
         <v>0.92</v>
       </c>
+      <c r="X74" t="n">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6273,6 +6497,9 @@
       <c r="W75" t="n">
         <v>0</v>
       </c>
+      <c r="X75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6350,6 +6577,9 @@
       <c r="W76" t="n">
         <v>0.005</v>
       </c>
+      <c r="X76" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6427,6 +6657,9 @@
       <c r="W77" t="n">
         <v>0.02</v>
       </c>
+      <c r="X77" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6504,6 +6737,9 @@
       <c r="W78" t="n">
         <v>0.02</v>
       </c>
+      <c r="X78" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6581,6 +6817,9 @@
       <c r="W79" t="n">
         <v>0.035</v>
       </c>
+      <c r="X79" t="n">
+        <v>0.035</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6656,7 +6895,10 @@
         <v>0.77</v>
       </c>
       <c r="W80" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.78</v>
       </c>
     </row>
     <row r="81">
@@ -6735,6 +6977,9 @@
       <c r="W81" t="n">
         <v>0</v>
       </c>
+      <c r="X81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6812,6 +7057,9 @@
       <c r="W82" t="n">
         <v>0.015</v>
       </c>
+      <c r="X82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6889,6 +7137,9 @@
       <c r="W83" t="n">
         <v>0.03</v>
       </c>
+      <c r="X83" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6964,7 +7215,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="W84" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="85">
@@ -7043,6 +7297,9 @@
       <c r="W85" t="n">
         <v>0.115</v>
       </c>
+      <c r="X85" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7120,6 +7377,9 @@
       <c r="W86" t="n">
         <v>0.87</v>
       </c>
+      <c r="X86" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7197,6 +7457,9 @@
       <c r="W87" t="n">
         <v>0</v>
       </c>
+      <c r="X87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7274,6 +7537,9 @@
       <c r="W88" t="n">
         <v>0.005</v>
       </c>
+      <c r="X88" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7351,6 +7617,9 @@
       <c r="W89" t="n">
         <v>0.04</v>
       </c>
+      <c r="X89" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7428,6 +7697,9 @@
       <c r="W90" t="n">
         <v>0.04</v>
       </c>
+      <c r="X90" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7505,6 +7777,9 @@
       <c r="W91" t="n">
         <v>0.045</v>
       </c>
+      <c r="X91" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7582,6 +7857,9 @@
       <c r="W92" t="n">
         <v>0.75</v>
       </c>
+      <c r="X92" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7659,6 +7937,9 @@
       <c r="W93" t="n">
         <v>0</v>
       </c>
+      <c r="X93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7736,6 +8017,9 @@
       <c r="W94" t="n">
         <v>0</v>
       </c>
+      <c r="X94" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7813,6 +8097,9 @@
       <c r="W95" t="n">
         <v>0.1</v>
       </c>
+      <c r="X95" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7890,6 +8177,9 @@
       <c r="W96" t="n">
         <v>0.06</v>
       </c>
+      <c r="X96" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7967,6 +8257,9 @@
       <c r="W97" t="n">
         <v>0.09</v>
       </c>
+      <c r="X97" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8044,6 +8337,9 @@
       <c r="W98" t="n">
         <v>0.68</v>
       </c>
+      <c r="X98" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8121,6 +8417,9 @@
       <c r="W99" t="n">
         <v>0</v>
       </c>
+      <c r="X99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8198,6 +8497,9 @@
       <c r="W100" t="n">
         <v>0</v>
       </c>
+      <c r="X100" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8273,7 +8575,10 @@
         <v>0.08</v>
       </c>
       <c r="W101" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
+      </c>
+      <c r="X101" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="102">
@@ -8352,6 +8657,9 @@
       <c r="W102" t="n">
         <v>0.08</v>
       </c>
+      <c r="X102" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -8427,7 +8735,10 @@
         <v>0.12</v>
       </c>
       <c r="W103" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
+      </c>
+      <c r="X103" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="104">
@@ -8506,6 +8817,9 @@
       <c r="W104" t="n">
         <v>0.77</v>
       </c>
+      <c r="X104" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -8583,6 +8897,9 @@
       <c r="W105" t="n">
         <v>0</v>
       </c>
+      <c r="X105" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -8660,6 +8977,9 @@
       <c r="W106" t="n">
         <v>0.02</v>
       </c>
+      <c r="X106" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -8737,6 +9057,9 @@
       <c r="W107" t="n">
         <v>0.03</v>
       </c>
+      <c r="X107" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -8814,6 +9137,9 @@
       <c r="W108" t="n">
         <v>0.06</v>
       </c>
+      <c r="X108" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -8891,6 +9217,9 @@
       <c r="W109" t="n">
         <v>0.12</v>
       </c>
+      <c r="X109" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -8968,6 +9297,9 @@
       <c r="W110" t="n">
         <v>0.73</v>
       </c>
+      <c r="X110" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -9045,6 +9377,9 @@
       <c r="W111" t="n">
         <v>0</v>
       </c>
+      <c r="X111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -9122,6 +9457,9 @@
       <c r="W112" t="n">
         <v>0</v>
       </c>
+      <c r="X112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -9199,6 +9537,9 @@
       <c r="W113" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X113" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -9276,6 +9617,9 @@
       <c r="W114" t="n">
         <v>0.09</v>
       </c>
+      <c r="X114" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -9353,6 +9697,9 @@
       <c r="W115" t="n">
         <v>0.11</v>
       </c>
+      <c r="X115" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -9428,7 +9775,10 @@
         <v>0.78</v>
       </c>
       <c r="W116" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
+      </c>
+      <c r="X116" t="n">
+        <v>0.83</v>
       </c>
     </row>
     <row r="117">
@@ -9507,6 +9857,9 @@
       <c r="W117" t="n">
         <v>0</v>
       </c>
+      <c r="X117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -9584,6 +9937,9 @@
       <c r="W118" t="n">
         <v>0.03</v>
       </c>
+      <c r="X118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -9661,6 +10017,9 @@
       <c r="W119" t="n">
         <v>0.05</v>
       </c>
+      <c r="X119" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -9738,6 +10097,9 @@
       <c r="W120" t="n">
         <v>0.06</v>
       </c>
+      <c r="X120" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -9813,7 +10175,10 @@
         <v>0.075</v>
       </c>
       <c r="W121" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
+      </c>
+      <c r="X121" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="122">
@@ -9892,6 +10257,9 @@
       <c r="W122" t="n">
         <v>0.79</v>
       </c>
+      <c r="X122" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -9969,6 +10337,9 @@
       <c r="W123" t="n">
         <v>0</v>
       </c>
+      <c r="X123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -10046,6 +10417,9 @@
       <c r="W124" t="n">
         <v>0.015</v>
       </c>
+      <c r="X124" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -10123,6 +10497,9 @@
       <c r="W125" t="n">
         <v>0.05</v>
       </c>
+      <c r="X125" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -10200,6 +10577,9 @@
       <c r="W126" t="n">
         <v>0.05</v>
       </c>
+      <c r="X126" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -10277,6 +10657,9 @@
       <c r="W127" t="n">
         <v>0.095</v>
       </c>
+      <c r="X127" t="n">
+        <v>0.115</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -10354,6 +10737,9 @@
       <c r="W128" t="n">
         <v>0.8</v>
       </c>
+      <c r="X128" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -10431,6 +10817,9 @@
       <c r="W129" t="n">
         <v>0</v>
       </c>
+      <c r="X129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -10508,6 +10897,9 @@
       <c r="W130" t="n">
         <v>0.015</v>
       </c>
+      <c r="X130" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -10585,6 +10977,9 @@
       <c r="W131" t="n">
         <v>0.03</v>
       </c>
+      <c r="X131" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -10662,6 +11057,9 @@
       <c r="W132" t="n">
         <v>0.06</v>
       </c>
+      <c r="X132" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -10739,6 +11137,9 @@
       <c r="W133" t="n">
         <v>0.095</v>
       </c>
+      <c r="X133" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -10814,7 +11215,10 @@
         <v>0.75</v>
       </c>
       <c r="W134" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
+      </c>
+      <c r="X134" t="n">
+        <v>0.78</v>
       </c>
     </row>
     <row r="135">
@@ -10893,6 +11297,9 @@
       <c r="W135" t="n">
         <v>0</v>
       </c>
+      <c r="X135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -10970,6 +11377,9 @@
       <c r="W136" t="n">
         <v>0.02</v>
       </c>
+      <c r="X136" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -11047,6 +11457,9 @@
       <c r="W137" t="n">
         <v>0.06</v>
       </c>
+      <c r="X137" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -11124,6 +11537,9 @@
       <c r="W138" t="n">
         <v>0.06</v>
       </c>
+      <c r="X138" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -11199,6 +11615,9 @@
         <v>0.1</v>
       </c>
       <c r="W139" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="X139" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -11276,7 +11695,10 @@
         <v>0.7</v>
       </c>
       <c r="W140" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
+      </c>
+      <c r="X140" t="n">
+        <v>0.74</v>
       </c>
     </row>
     <row r="141">
@@ -11355,6 +11777,9 @@
       <c r="W141" t="n">
         <v>0</v>
       </c>
+      <c r="X141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -11432,6 +11857,9 @@
       <c r="W142" t="n">
         <v>0.03</v>
       </c>
+      <c r="X142" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -11509,6 +11937,9 @@
       <c r="W143" t="n">
         <v>0.05</v>
       </c>
+      <c r="X143" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -11584,7 +12015,10 @@
         <v>0.13</v>
       </c>
       <c r="W144" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
+      </c>
+      <c r="X144" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="145">
@@ -11661,7 +12095,10 @@
         <v>0.06</v>
       </c>
       <c r="W145" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="X145" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="146">
@@ -11738,7 +12175,10 @@
         <v>0.77</v>
       </c>
       <c r="W146" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
+      </c>
+      <c r="X146" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="147">
@@ -11817,6 +12257,9 @@
       <c r="W147" t="n">
         <v>0</v>
       </c>
+      <c r="X147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -11892,7 +12335,10 @@
         <v>0.005</v>
       </c>
       <c r="W148" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
+      </c>
+      <c r="X148" t="n">
+        <v>0.005</v>
       </c>
     </row>
     <row r="149">
@@ -11971,6 +12417,9 @@
       <c r="W149" t="n">
         <v>0.04</v>
       </c>
+      <c r="X149" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -12048,6 +12497,9 @@
       <c r="W150" t="n">
         <v>0.06</v>
       </c>
+      <c r="X150" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -12123,7 +12575,10 @@
         <v>0.115</v>
       </c>
       <c r="W151" t="n">
-        <v>0.12</v>
+        <v>0.115</v>
+      </c>
+      <c r="X151" t="n">
+        <v>0.125</v>
       </c>
     </row>
     <row r="152">
@@ -12200,7 +12655,10 @@
         <v>0.89</v>
       </c>
       <c r="W152" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
+      </c>
+      <c r="X152" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="153">
@@ -12279,6 +12737,9 @@
       <c r="W153" t="n">
         <v>0</v>
       </c>
+      <c r="X153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -12356,6 +12817,9 @@
       <c r="W154" t="n">
         <v>0.005</v>
       </c>
+      <c r="X154" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -12431,6 +12895,9 @@
         <v>0.005</v>
       </c>
       <c r="W155" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="X155" t="n">
         <v>0.005</v>
       </c>
     </row>
@@ -12508,7 +12975,10 @@
         <v>0.03</v>
       </c>
       <c r="W156" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
+      </c>
+      <c r="X156" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="157">
@@ -12587,6 +13057,9 @@
       <c r="W157" t="n">
         <v>0.08500000000000001</v>
       </c>
+      <c r="X157" t="n">
+        <v>0.065</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -12664,6 +13137,9 @@
       <c r="W158" t="n">
         <v>0.7</v>
       </c>
+      <c r="X158" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -12741,6 +13217,9 @@
       <c r="W159" t="n">
         <v>0</v>
       </c>
+      <c r="X159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -12818,6 +13297,9 @@
       <c r="W160" t="n">
         <v>0.05</v>
       </c>
+      <c r="X160" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -12895,6 +13377,9 @@
       <c r="W161" t="n">
         <v>0.04</v>
       </c>
+      <c r="X161" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -12970,7 +13455,10 @@
         <v>0.04</v>
       </c>
       <c r="W162" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
+      </c>
+      <c r="X162" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="163">
@@ -13047,7 +13535,10 @@
         <v>0.12</v>
       </c>
       <c r="W163" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
+      </c>
+      <c r="X163" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="164">
@@ -13124,7 +13615,10 @@
         <v>0.73</v>
       </c>
       <c r="W164" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
+      </c>
+      <c r="X164" t="n">
+        <v>0.72</v>
       </c>
     </row>
     <row r="165">
@@ -13203,6 +13697,9 @@
       <c r="W165" t="n">
         <v>0</v>
       </c>
+      <c r="X165" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -13280,6 +13777,9 @@
       <c r="W166" t="n">
         <v>0</v>
       </c>
+      <c r="X166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -13355,7 +13855,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="W167" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
+      </c>
+      <c r="X167" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="168">
@@ -13432,7 +13935,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="W168" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="X168" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="169">
@@ -13509,7 +14015,10 @@
         <v>0.13</v>
       </c>
       <c r="W169" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
+      </c>
+      <c r="X169" t="n">
+        <v>0.185</v>
       </c>
     </row>
     <row r="170">
@@ -13588,6 +14097,9 @@
       <c r="W170" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="X170" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -13665,6 +14177,9 @@
       <c r="W171" t="n">
         <v>0</v>
       </c>
+      <c r="X171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -13742,6 +14257,9 @@
       <c r="W172" t="n">
         <v>0.02</v>
       </c>
+      <c r="X172" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -13819,6 +14337,9 @@
       <c r="W173" t="n">
         <v>0.06</v>
       </c>
+      <c r="X173" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -13896,6 +14417,9 @@
       <c r="W174" t="n">
         <v>0.03</v>
       </c>
+      <c r="X174" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -13973,6 +14497,9 @@
       <c r="W175" t="n">
         <v>0.08</v>
       </c>
+      <c r="X175" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -14048,7 +14575,10 @@
         <v>0.77</v>
       </c>
       <c r="W176" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
+      </c>
+      <c r="X176" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="177">
@@ -14127,6 +14657,9 @@
       <c r="W177" t="n">
         <v>0</v>
       </c>
+      <c r="X177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -14204,6 +14737,9 @@
       <c r="W178" t="n">
         <v>0.02</v>
       </c>
+      <c r="X178" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -14281,6 +14817,9 @@
       <c r="W179" t="n">
         <v>0.04</v>
       </c>
+      <c r="X179" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -14358,6 +14897,9 @@
       <c r="W180" t="n">
         <v>0.06</v>
       </c>
+      <c r="X180" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -14433,7 +14975,10 @@
         <v>0.1</v>
       </c>
       <c r="W181" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
+      </c>
+      <c r="X181" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="182">
@@ -14510,7 +15055,10 @@
         <v>0.78</v>
       </c>
       <c r="W182" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
+      </c>
+      <c r="X182" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="183">
@@ -14589,6 +15137,9 @@
       <c r="W183" t="n">
         <v>0</v>
       </c>
+      <c r="X183" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -14666,6 +15217,9 @@
       <c r="W184" t="n">
         <v>0.01</v>
       </c>
+      <c r="X184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -14743,6 +15297,9 @@
       <c r="W185" t="n">
         <v>0.05</v>
       </c>
+      <c r="X185" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -14818,7 +15375,10 @@
         <v>0.03</v>
       </c>
       <c r="W186" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
+      </c>
+      <c r="X186" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="187">
@@ -14897,6 +15457,9 @@
       <c r="W187" t="n">
         <v>0.12</v>
       </c>
+      <c r="X187" t="n">
+        <v>0.135</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -14974,6 +15537,9 @@
       <c r="W188" t="n">
         <v>0.73</v>
       </c>
+      <c r="X188" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -15051,6 +15617,9 @@
       <c r="W189" t="n">
         <v>0.005</v>
       </c>
+      <c r="X189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -15128,6 +15697,9 @@
       <c r="W190" t="n">
         <v>0.01</v>
       </c>
+      <c r="X190" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -15205,6 +15777,9 @@
       <c r="W191" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X191" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -15282,6 +15857,9 @@
       <c r="W192" t="n">
         <v>0.09</v>
       </c>
+      <c r="X192" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -15359,6 +15937,9 @@
       <c r="W193" t="n">
         <v>0.095</v>
       </c>
+      <c r="X193" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -15436,6 +16017,9 @@
       <c r="W194" t="n">
         <v>0.88</v>
       </c>
+      <c r="X194" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -15513,6 +16097,9 @@
       <c r="W195" t="n">
         <v>0</v>
       </c>
+      <c r="X195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -15590,6 +16177,9 @@
       <c r="W196" t="n">
         <v>0.015</v>
       </c>
+      <c r="X196" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -15667,6 +16257,9 @@
       <c r="W197" t="n">
         <v>0.02</v>
       </c>
+      <c r="X197" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -15744,6 +16337,9 @@
       <c r="W198" t="n">
         <v>0.03</v>
       </c>
+      <c r="X198" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -15821,6 +16417,9 @@
       <c r="W199" t="n">
         <v>0.055</v>
       </c>
+      <c r="X199" t="n">
+        <v>0.065</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -15898,6 +16497,9 @@
       <c r="W200" t="n">
         <v>0.7</v>
       </c>
+      <c r="X200" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -15975,6 +16577,9 @@
       <c r="W201" t="n">
         <v>0</v>
       </c>
+      <c r="X201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -16052,6 +16657,9 @@
       <c r="W202" t="n">
         <v>0.02</v>
       </c>
+      <c r="X202" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -16129,6 +16737,9 @@
       <c r="W203" t="n">
         <v>0.04</v>
       </c>
+      <c r="X203" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -16206,6 +16817,9 @@
       <c r="W204" t="n">
         <v>0.09</v>
       </c>
+      <c r="X204" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -16283,6 +16897,9 @@
       <c r="W205" t="n">
         <v>0.15</v>
       </c>
+      <c r="X205" t="n">
+        <v>0.145</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -16360,6 +16977,9 @@
       <c r="W206" t="n">
         <v>0.75</v>
       </c>
+      <c r="X206" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -16437,6 +17057,9 @@
       <c r="W207" t="n">
         <v>0</v>
       </c>
+      <c r="X207" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -16514,6 +17137,9 @@
       <c r="W208" t="n">
         <v>0.015</v>
       </c>
+      <c r="X208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -16591,6 +17217,9 @@
       <c r="W209" t="n">
         <v>0.05</v>
       </c>
+      <c r="X209" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -16666,7 +17295,10 @@
         <v>0.03</v>
       </c>
       <c r="W210" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
+      </c>
+      <c r="X210" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="211">
@@ -16743,7 +17375,10 @@
         <v>0.13</v>
       </c>
       <c r="W211" t="n">
-        <v>0.135</v>
+        <v>0.125</v>
+      </c>
+      <c r="X211" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="212">
@@ -16820,7 +17455,10 @@
         <v>0.57</v>
       </c>
       <c r="W212" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
+      </c>
+      <c r="X212" t="n">
+        <v>0.71</v>
       </c>
     </row>
     <row r="213">
@@ -16899,6 +17537,9 @@
       <c r="W213" t="n">
         <v>0</v>
       </c>
+      <c r="X213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -16976,6 +17617,9 @@
       <c r="W214" t="n">
         <v>0</v>
       </c>
+      <c r="X214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -17051,7 +17695,10 @@
         <v>0.13</v>
       </c>
       <c r="W215" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="X215" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="216">
@@ -17130,6 +17777,9 @@
       <c r="W216" t="n">
         <v>0.11</v>
       </c>
+      <c r="X216" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -17207,6 +17857,9 @@
       <c r="W217" t="n">
         <v>0.14</v>
       </c>
+      <c r="X217" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -17284,6 +17937,9 @@
       <c r="W218" t="n">
         <v>0.86</v>
       </c>
+      <c r="X218" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -17361,6 +18017,9 @@
       <c r="W219" t="n">
         <v>0</v>
       </c>
+      <c r="X219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -17438,6 +18097,9 @@
       <c r="W220" t="n">
         <v>0.03</v>
       </c>
+      <c r="X220" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -17515,6 +18177,9 @@
       <c r="W221" t="n">
         <v>0.03</v>
       </c>
+      <c r="X221" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -17592,6 +18257,9 @@
       <c r="W222" t="n">
         <v>0.05</v>
       </c>
+      <c r="X222" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -17669,6 +18337,9 @@
       <c r="W223" t="n">
         <v>0.03</v>
       </c>
+      <c r="X223" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -17746,6 +18417,9 @@
       <c r="W224" t="n">
         <v>0.85</v>
       </c>
+      <c r="X224" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -17823,6 +18497,9 @@
       <c r="W225" t="n">
         <v>0</v>
       </c>
+      <c r="X225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -17900,6 +18577,9 @@
       <c r="W226" t="n">
         <v>0.015</v>
       </c>
+      <c r="X226" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -17977,6 +18657,9 @@
       <c r="W227" t="n">
         <v>0.03</v>
       </c>
+      <c r="X227" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -18052,7 +18735,10 @@
         <v>0.03</v>
       </c>
       <c r="W228" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
+      </c>
+      <c r="X228" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="229">
@@ -18129,7 +18815,10 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="W229" t="n">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="X229" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="230">
@@ -18206,7 +18895,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="W230" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
+      </c>
+      <c r="X230" t="n">
+        <v>0.82</v>
       </c>
     </row>
     <row r="231">
@@ -18285,6 +18977,9 @@
       <c r="W231" t="n">
         <v>0</v>
       </c>
+      <c r="X231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -18362,6 +19057,9 @@
       <c r="W232" t="n">
         <v>0</v>
       </c>
+      <c r="X232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -18437,7 +19135,10 @@
         <v>0.06</v>
       </c>
       <c r="W233" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="X233" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="234">
@@ -18516,6 +19217,9 @@
       <c r="W234" t="n">
         <v>0.03</v>
       </c>
+      <c r="X234" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -18591,7 +19295,10 @@
         <v>0.1</v>
       </c>
       <c r="W235" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
+      </c>
+      <c r="X235" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="236">
@@ -18668,7 +19375,10 @@
         <v>0.78</v>
       </c>
       <c r="W236" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="X236" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row r="237">
@@ -18747,6 +19457,9 @@
       <c r="W237" t="n">
         <v>0.005</v>
       </c>
+      <c r="X237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -18824,6 +19537,9 @@
       <c r="W238" t="n">
         <v>0.02</v>
       </c>
+      <c r="X238" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -18899,7 +19615,10 @@
         <v>0.03</v>
       </c>
       <c r="W239" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="X239" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="240">
@@ -18976,7 +19695,10 @@
         <v>0.06</v>
       </c>
       <c r="W240" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
+      </c>
+      <c r="X240" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="241">
@@ -19053,7 +19775,10 @@
         <v>0.045</v>
       </c>
       <c r="W241" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
+      </c>
+      <c r="X241" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="242">
@@ -19132,6 +19857,9 @@
       <c r="W242" t="n">
         <v>0.91</v>
       </c>
+      <c r="X242" t="n">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -19209,6 +19937,9 @@
       <c r="W243" t="n">
         <v>0</v>
       </c>
+      <c r="X243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -19286,6 +20017,9 @@
       <c r="W244" t="n">
         <v>0.005</v>
       </c>
+      <c r="X244" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -19363,6 +20097,9 @@
       <c r="W245" t="n">
         <v>0.01</v>
       </c>
+      <c r="X245" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -19440,6 +20177,9 @@
       <c r="W246" t="n">
         <v>0.015</v>
       </c>
+      <c r="X246" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -19517,6 +20257,9 @@
       <c r="W247" t="n">
         <v>0.06</v>
       </c>
+      <c r="X247" t="n">
+        <v>0.055</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -19592,7 +20335,10 @@
         <v>0.61</v>
       </c>
       <c r="W248" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
+      </c>
+      <c r="X248" t="n">
+        <v>0.68</v>
       </c>
     </row>
     <row r="249">
@@ -19671,6 +20417,9 @@
       <c r="W249" t="n">
         <v>0</v>
       </c>
+      <c r="X249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -19748,6 +20497,9 @@
       <c r="W250" t="n">
         <v>0.01</v>
       </c>
+      <c r="X250" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -19825,6 +20577,9 @@
       <c r="W251" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X251" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -19902,6 +20657,9 @@
       <c r="W252" t="n">
         <v>0.04</v>
       </c>
+      <c r="X252" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -19977,7 +20735,10 @@
         <v>0.19</v>
       </c>
       <c r="W253" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
+      </c>
+      <c r="X253" t="n">
+        <v>0.225</v>
       </c>
     </row>
     <row r="254">
@@ -20056,6 +20817,9 @@
       <c r="W254" t="n">
         <v>0.77</v>
       </c>
+      <c r="X254" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -20133,6 +20897,9 @@
       <c r="W255" t="n">
         <v>0</v>
       </c>
+      <c r="X255" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -20210,6 +20977,9 @@
       <c r="W256" t="n">
         <v>0.03</v>
       </c>
+      <c r="X256" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -20285,7 +21055,10 @@
         <v>0.06</v>
       </c>
       <c r="W257" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
+      </c>
+      <c r="X257" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="258">
@@ -20362,6 +21135,9 @@
         <v>0.05</v>
       </c>
       <c r="W258" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="X258" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -20441,6 +21217,9 @@
       <c r="W259" t="n">
         <v>0.11</v>
       </c>
+      <c r="X259" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -20518,6 +21297,9 @@
       <c r="W260" t="n">
         <v>0.79</v>
       </c>
+      <c r="X260" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -20595,6 +21377,9 @@
       <c r="W261" t="n">
         <v>0</v>
       </c>
+      <c r="X261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -20672,6 +21457,9 @@
       <c r="W262" t="n">
         <v>0.015</v>
       </c>
+      <c r="X262" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -20749,6 +21537,9 @@
       <c r="W263" t="n">
         <v>0.04</v>
       </c>
+      <c r="X263" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -20826,6 +21617,9 @@
       <c r="W264" t="n">
         <v>0.06</v>
       </c>
+      <c r="X264" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -20903,6 +21697,9 @@
       <c r="W265" t="n">
         <v>0.095</v>
       </c>
+      <c r="X265" t="n">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -20980,6 +21777,9 @@
       <c r="W266" t="n">
         <v>0.84</v>
       </c>
+      <c r="X266" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -21057,6 +21857,9 @@
       <c r="W267" t="n">
         <v>0</v>
       </c>
+      <c r="X267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -21134,6 +21937,9 @@
       <c r="W268" t="n">
         <v>0.01</v>
       </c>
+      <c r="X268" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -21211,6 +22017,9 @@
       <c r="W269" t="n">
         <v>0.04</v>
       </c>
+      <c r="X269" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -21288,6 +22097,9 @@
       <c r="W270" t="n">
         <v>0.05</v>
       </c>
+      <c r="X270" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -21365,6 +22177,9 @@
       <c r="W271" t="n">
         <v>0.06</v>
       </c>
+      <c r="X271" t="n">
+        <v>0.115</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -21442,6 +22257,9 @@
       <c r="W272" t="n">
         <v>0.79</v>
       </c>
+      <c r="X272" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -21519,6 +22337,9 @@
       <c r="W273" t="n">
         <v>0</v>
       </c>
+      <c r="X273" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -21596,6 +22417,9 @@
       <c r="W274" t="n">
         <v>0.03</v>
       </c>
+      <c r="X274" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -21673,6 +22497,9 @@
       <c r="W275" t="n">
         <v>0.06</v>
       </c>
+      <c r="X275" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -21748,6 +22575,9 @@
         <v>0.05</v>
       </c>
       <c r="W276" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="X276" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -21825,7 +22655,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="W277" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
+      </c>
+      <c r="X277" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="278">
@@ -21904,6 +22737,9 @@
       <c r="W278" t="n">
         <v>0.91</v>
       </c>
+      <c r="X278" t="n">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -21981,6 +22817,9 @@
       <c r="W279" t="n">
         <v>0</v>
       </c>
+      <c r="X279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -22058,6 +22897,9 @@
       <c r="W280" t="n">
         <v>0</v>
       </c>
+      <c r="X280" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -22135,6 +22977,9 @@
       <c r="W281" t="n">
         <v>0.01</v>
       </c>
+      <c r="X281" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -22212,6 +23057,9 @@
       <c r="W282" t="n">
         <v>0.03</v>
       </c>
+      <c r="X282" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -22289,6 +23137,9 @@
       <c r="W283" t="n">
         <v>0.05</v>
       </c>
+      <c r="X283" t="n">
+        <v>0.045</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -22366,6 +23217,9 @@
       <c r="W284" t="n">
         <v>0.73</v>
       </c>
+      <c r="X284" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -22443,6 +23297,9 @@
       <c r="W285" t="n">
         <v>0</v>
       </c>
+      <c r="X285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -22520,6 +23377,9 @@
       <c r="W286" t="n">
         <v>0.02</v>
       </c>
+      <c r="X286" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -22595,7 +23455,10 @@
         <v>0.03</v>
       </c>
       <c r="W287" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
+      </c>
+      <c r="X287" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="288">
@@ -22674,6 +23537,9 @@
       <c r="W288" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X288" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -22749,7 +23615,10 @@
         <v>0.09</v>
       </c>
       <c r="W289" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
+      </c>
+      <c r="X289" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="290">
@@ -22826,7 +23695,10 @@
         <v>0.91</v>
       </c>
       <c r="W290" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
+      </c>
+      <c r="X290" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="291">
@@ -22905,6 +23777,9 @@
       <c r="W291" t="n">
         <v>0</v>
       </c>
+      <c r="X291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -22982,6 +23857,9 @@
       <c r="W292" t="n">
         <v>0.015</v>
       </c>
+      <c r="X292" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -23059,6 +23937,9 @@
       <c r="W293" t="n">
         <v>0.05</v>
       </c>
+      <c r="X293" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -23136,6 +24017,9 @@
       <c r="W294" t="n">
         <v>0.05</v>
       </c>
+      <c r="X294" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -23211,6 +24095,9 @@
         <v>0.045</v>
       </c>
       <c r="W295" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="X295" t="n">
         <v>0.035</v>
       </c>
     </row>
@@ -23290,6 +24177,9 @@
       <c r="W296" t="n">
         <v>0.74</v>
       </c>
+      <c r="X296" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -23367,6 +24257,9 @@
       <c r="W297" t="n">
         <v>0</v>
       </c>
+      <c r="X297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -23444,6 +24337,9 @@
       <c r="W298" t="n">
         <v>0.01</v>
       </c>
+      <c r="X298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -23521,6 +24417,9 @@
       <c r="W299" t="n">
         <v>0.03</v>
       </c>
+      <c r="X299" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -23598,6 +24497,9 @@
       <c r="W300" t="n">
         <v>0.06</v>
       </c>
+      <c r="X300" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -23675,6 +24577,9 @@
       <c r="W301" t="n">
         <v>0.16</v>
       </c>
+      <c r="X301" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -23750,7 +24655,10 @@
         <v>0.76</v>
       </c>
       <c r="W302" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
+      </c>
+      <c r="X302" t="n">
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="303">
@@ -23829,6 +24737,9 @@
       <c r="W303" t="n">
         <v>0</v>
       </c>
+      <c r="X303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -23906,6 +24817,9 @@
       <c r="W304" t="n">
         <v>0.02</v>
       </c>
+      <c r="X304" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -23983,6 +24897,9 @@
       <c r="W305" t="n">
         <v>0.04</v>
       </c>
+      <c r="X305" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -24060,6 +24977,9 @@
       <c r="W306" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X306" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -24135,7 +25055,10 @@
         <v>0.1</v>
       </c>
       <c r="W307" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
+      </c>
+      <c r="X307" t="n">
+        <v>0.105</v>
       </c>
     </row>
     <row r="308">
@@ -24214,6 +25137,9 @@
       <c r="W308" t="n">
         <v>0.82</v>
       </c>
+      <c r="X308" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -24291,6 +25217,9 @@
       <c r="W309" t="n">
         <v>0</v>
       </c>
+      <c r="X309" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -24368,6 +25297,9 @@
       <c r="W310" t="n">
         <v>0.02</v>
       </c>
+      <c r="X310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -24445,6 +25377,9 @@
       <c r="W311" t="n">
         <v>0.04</v>
       </c>
+      <c r="X311" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -24522,6 +25457,9 @@
       <c r="W312" t="n">
         <v>0.04</v>
       </c>
+      <c r="X312" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -24599,6 +25537,9 @@
       <c r="W313" t="n">
         <v>0.08</v>
       </c>
+      <c r="X313" t="n">
+        <v>0.08500000000000001</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -24676,6 +25617,9 @@
       <c r="W314" t="n">
         <v>0.73</v>
       </c>
+      <c r="X314" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -24753,6 +25697,9 @@
       <c r="W315" t="n">
         <v>0</v>
       </c>
+      <c r="X315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -24830,6 +25777,9 @@
       <c r="W316" t="n">
         <v>0.015</v>
       </c>
+      <c r="X316" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -24907,6 +25857,9 @@
       <c r="W317" t="n">
         <v>0.06</v>
       </c>
+      <c r="X317" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -24982,6 +25935,9 @@
         <v>0.05</v>
       </c>
       <c r="W318" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="X318" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -25059,7 +26015,10 @@
         <v>0.12</v>
       </c>
       <c r="W319" t="n">
-        <v>0.145</v>
+        <v>0.135</v>
+      </c>
+      <c r="X319" t="n">
+        <v>0.155</v>
       </c>
     </row>
     <row r="320">
@@ -25138,6 +26097,9 @@
       <c r="W320" t="n">
         <v>0.71</v>
       </c>
+      <c r="X320" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -25215,6 +26177,9 @@
       <c r="W321" t="n">
         <v>0</v>
       </c>
+      <c r="X321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -25292,6 +26257,9 @@
       <c r="W322" t="n">
         <v>0.04</v>
       </c>
+      <c r="X322" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -25369,6 +26337,9 @@
       <c r="W323" t="n">
         <v>0.06</v>
       </c>
+      <c r="X323" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -25444,7 +26415,10 @@
         <v>0.09</v>
       </c>
       <c r="W324" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
+      </c>
+      <c r="X324" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="325">
@@ -25521,7 +26495,10 @@
         <v>0.1</v>
       </c>
       <c r="W325" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
+      </c>
+      <c r="X325" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="326">
@@ -25600,6 +26577,9 @@
       <c r="W326" t="n">
         <v>0.79</v>
       </c>
+      <c r="X326" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -25677,6 +26657,9 @@
       <c r="W327" t="n">
         <v>0</v>
       </c>
+      <c r="X327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -25754,6 +26737,9 @@
       <c r="W328" t="n">
         <v>0.01</v>
       </c>
+      <c r="X328" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -25831,6 +26817,9 @@
       <c r="W329" t="n">
         <v>0.04</v>
       </c>
+      <c r="X329" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -25908,6 +26897,9 @@
       <c r="W330" t="n">
         <v>0.04</v>
       </c>
+      <c r="X330" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -25985,6 +26977,9 @@
       <c r="W331" t="n">
         <v>0.12</v>
       </c>
+      <c r="X331" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -26060,7 +27055,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="W332" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
+      </c>
+      <c r="X332" t="n">
+        <v>0.74</v>
       </c>
     </row>
     <row r="333">
@@ -26139,6 +27137,9 @@
       <c r="W333" t="n">
         <v>0</v>
       </c>
+      <c r="X333" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -26216,6 +27217,9 @@
       <c r="W334" t="n">
         <v>0.01</v>
       </c>
+      <c r="X334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -26293,6 +27297,9 @@
       <c r="W335" t="n">
         <v>0.04</v>
       </c>
+      <c r="X335" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -26370,6 +27377,9 @@
       <c r="W336" t="n">
         <v>0.08</v>
       </c>
+      <c r="X336" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -26445,7 +27455,10 @@
         <v>0.18</v>
       </c>
       <c r="W337" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
+      </c>
+      <c r="X337" t="n">
+        <v>0.165</v>
       </c>
     </row>
     <row r="338">
@@ -26524,6 +27537,9 @@
       <c r="W338" t="n">
         <v>0.77</v>
       </c>
+      <c r="X338" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -26601,6 +27617,9 @@
       <c r="W339" t="n">
         <v>0</v>
       </c>
+      <c r="X339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -26678,6 +27697,9 @@
       <c r="W340" t="n">
         <v>0.02</v>
       </c>
+      <c r="X340" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -26755,6 +27777,9 @@
       <c r="W341" t="n">
         <v>0.05</v>
       </c>
+      <c r="X341" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -26832,6 +27857,9 @@
       <c r="W342" t="n">
         <v>0.06</v>
       </c>
+      <c r="X342" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -26909,6 +27937,9 @@
       <c r="W343" t="n">
         <v>0.1</v>
       </c>
+      <c r="X343" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -26986,6 +28017,9 @@
       <c r="W344" t="n">
         <v>0.84</v>
       </c>
+      <c r="X344" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -27063,6 +28097,9 @@
       <c r="W345" t="n">
         <v>0</v>
       </c>
+      <c r="X345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -27140,6 +28177,9 @@
       <c r="W346" t="n">
         <v>0.015</v>
       </c>
+      <c r="X346" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -27217,6 +28257,9 @@
       <c r="W347" t="n">
         <v>0.04</v>
       </c>
+      <c r="X347" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -27294,6 +28337,9 @@
       <c r="W348" t="n">
         <v>0.04</v>
       </c>
+      <c r="X348" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -27371,11 +28417,1934 @@
       <c r="W349" t="n">
         <v>0.065</v>
       </c>
+      <c r="X349" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Již očkován/a aspoň jednou dávkou</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>0</v>
+      </c>
+      <c r="E350" t="n">
+        <v>0</v>
+      </c>
+      <c r="F350" t="n">
+        <v>0</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L350" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M350" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N350" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="O350" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="P350" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="R350" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="S350" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="T350" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="U350" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="V350" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="W350" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="X350" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Rozhodně ano</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E351" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F351" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="L351" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="M351" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="N351" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="O351" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P351" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R351" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="S351" t="n">
+        <v>0</v>
+      </c>
+      <c r="T351" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="U351" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V351" t="n">
+        <v>0</v>
+      </c>
+      <c r="W351" t="n">
+        <v>0</v>
+      </c>
+      <c r="X351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Spíše ano</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E352" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F352" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I352" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L352" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="M352" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="N352" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O352" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="P352" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R352" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S352" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T352" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U352" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="V352" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W352" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X352" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Nevím</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E353" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F353" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I353" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L353" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M353" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N353" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O353" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P353" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q353" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="R353" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S353" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T353" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="U353" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="V353" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W353" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X353" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Spíše ne</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E354" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F354" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I354" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="L354" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M354" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N354" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O354" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="P354" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q354" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R354" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S354" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T354" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="U354" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="V354" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="W354" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="X354" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Rozhodně ne</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E355" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F355" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I355" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="L355" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M355" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="N355" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O355" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="P355" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R355" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="S355" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="T355" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="U355" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="V355" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="W355" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="X355" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Již očkován/a aspoň jednou dávkou</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>0</v>
+      </c>
+      <c r="E356" t="n">
+        <v>0</v>
+      </c>
+      <c r="F356" t="n">
+        <v>0</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I356" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="L356" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M356" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="N356" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="O356" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="P356" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="R356" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S356" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="T356" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="U356" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="V356" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="W356" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="X356" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Rozhodně ano</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E357" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F357" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I357" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="L357" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="M357" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N357" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O357" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="P357" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="R357" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="S357" t="n">
+        <v>0</v>
+      </c>
+      <c r="T357" t="n">
+        <v>0</v>
+      </c>
+      <c r="U357" t="n">
+        <v>0</v>
+      </c>
+      <c r="V357" t="n">
+        <v>0</v>
+      </c>
+      <c r="W357" t="n">
+        <v>0</v>
+      </c>
+      <c r="X357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Spíše ano</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E358" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F358" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I358" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="L358" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M358" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N358" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O358" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P358" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R358" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S358" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="T358" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U358" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V358" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="W358" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="X358" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Nevím</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E359" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F359" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I359" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L359" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M359" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N359" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O359" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P359" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="R359" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S359" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T359" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="U359" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="V359" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W359" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="X359" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Spíše ne</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E360" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F360" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I360" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L360" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M360" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N360" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O360" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P360" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="R360" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S360" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T360" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="U360" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V360" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="W360" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X360" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Rozhodně ne</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E361" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F361" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L361" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M361" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N361" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O361" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="P361" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="Q361" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="R361" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="S361" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="T361" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="U361" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="V361" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="W361" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="X361" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Již očkován/a aspoň jednou dávkou</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>0</v>
+      </c>
+      <c r="E362" t="n">
+        <v>0</v>
+      </c>
+      <c r="F362" t="n">
+        <v>0</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I362" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L362" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M362" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N362" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O362" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="P362" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="Q362" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="R362" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="S362" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="T362" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="U362" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="V362" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="W362" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="X362" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Rozhodně ano</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E363" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F363" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I363" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L363" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="M363" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="N363" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="O363" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P363" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q363" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R363" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S363" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T363" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U363" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V363" t="n">
+        <v>0</v>
+      </c>
+      <c r="W363" t="n">
+        <v>0</v>
+      </c>
+      <c r="X363" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Spíše ano</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E364" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F364" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I364" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L364" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="M364" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="N364" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O364" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P364" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q364" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="R364" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S364" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T364" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="U364" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="V364" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W364" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X364" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Nevím</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E365" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F365" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I365" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="L365" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M365" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N365" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="O365" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="P365" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q365" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R365" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="S365" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T365" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="U365" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="V365" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="W365" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="X365" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Spíše ne</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E366" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F366" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I366" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L366" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M366" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N366" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O366" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="P366" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q366" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="R366" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S366" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T366" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="U366" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="V366" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="W366" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="X366" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Rozhodně ne</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E367" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F367" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I367" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L367" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M367" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N367" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O367" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="P367" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q367" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="R367" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S367" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T367" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="U367" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="V367" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="W367" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="X367" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Již očkován/a aspoň jednou dávkou</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>0</v>
+      </c>
+      <c r="E368" t="n">
+        <v>0</v>
+      </c>
+      <c r="F368" t="n">
+        <v>0</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I368" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="L368" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M368" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="N368" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="O368" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="P368" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Q368" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="R368" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="S368" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="T368" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="U368" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="V368" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="W368" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="X368" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Rozhodně ano</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E369" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F369" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I369" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="L369" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="M369" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N369" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O369" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P369" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q369" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="R369" t="n">
+        <v>0</v>
+      </c>
+      <c r="S369" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T369" t="n">
+        <v>0</v>
+      </c>
+      <c r="U369" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="V369" t="n">
+        <v>0</v>
+      </c>
+      <c r="W369" t="n">
+        <v>0</v>
+      </c>
+      <c r="X369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Spíše ano</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E370" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F370" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I370" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L370" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M370" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N370" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O370" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="P370" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q370" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R370" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S370" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T370" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="U370" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="V370" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="W370" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X370" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Nevím</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E371" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F371" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I371" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="L371" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M371" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N371" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O371" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="P371" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q371" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="R371" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S371" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T371" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="U371" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="V371" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="W371" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X371" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Spíše ne</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E372" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F372" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I372" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L372" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M372" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N372" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O372" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="P372" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q372" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R372" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S372" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T372" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="U372" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="V372" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W372" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X372" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Rozhodně ne</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E373" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F373" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I373" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L373" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M373" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N373" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O373" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P373" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q373" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="R373" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S373" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T373" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="U373" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="V373" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="W373" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="X373" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, % respondentů celkově a ve skupinách, aktualizace 2. 3. 2022</t>
         </is>
       </c>
     </row>
@@ -27390,7 +30359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:W64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27509,6 +30478,11 @@
           <t>25. 1. 2022</t>
         </is>
       </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>22. 2. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -27579,7 +30553,10 @@
         <v>1767</v>
       </c>
       <c r="V2" t="n">
-        <v>1815</v>
+        <v>1848</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1786</v>
       </c>
     </row>
     <row r="3">
@@ -27651,7 +30628,10 @@
         <v>442</v>
       </c>
       <c r="V3" t="n">
-        <v>444</v>
+        <v>451</v>
+      </c>
+      <c r="W3" t="n">
+        <v>445</v>
       </c>
     </row>
     <row r="4">
@@ -27723,7 +30703,10 @@
         <v>647</v>
       </c>
       <c r="V4" t="n">
-        <v>676</v>
+        <v>689</v>
+      </c>
+      <c r="W4" t="n">
+        <v>663</v>
       </c>
     </row>
     <row r="5">
@@ -27795,7 +30778,10 @@
         <v>678</v>
       </c>
       <c r="V5" t="n">
-        <v>695</v>
+        <v>708</v>
+      </c>
+      <c r="W5" t="n">
+        <v>678</v>
       </c>
     </row>
     <row r="6">
@@ -27867,7 +30853,10 @@
         <v>818</v>
       </c>
       <c r="V6" t="n">
-        <v>838</v>
+        <v>848</v>
+      </c>
+      <c r="W6" t="n">
+        <v>827</v>
       </c>
     </row>
     <row r="7">
@@ -27939,7 +30928,10 @@
         <v>606</v>
       </c>
       <c r="V7" t="n">
-        <v>619</v>
+        <v>637</v>
+      </c>
+      <c r="W7" t="n">
+        <v>610</v>
       </c>
     </row>
     <row r="8">
@@ -28011,7 +31003,10 @@
         <v>343</v>
       </c>
       <c r="V8" t="n">
-        <v>358</v>
+        <v>363</v>
+      </c>
+      <c r="W8" t="n">
+        <v>349</v>
       </c>
     </row>
     <row r="9">
@@ -28083,6 +31078,9 @@
         <v>427</v>
       </c>
       <c r="V9" t="n">
+        <v>437</v>
+      </c>
+      <c r="W9" t="n">
         <v>435</v>
       </c>
     </row>
@@ -28155,7 +31153,10 @@
         <v>429</v>
       </c>
       <c r="V10" t="n">
-        <v>437</v>
+        <v>451</v>
+      </c>
+      <c r="W10" t="n">
+        <v>431</v>
       </c>
     </row>
     <row r="11">
@@ -28227,7 +31228,10 @@
         <v>234</v>
       </c>
       <c r="V11" t="n">
-        <v>248</v>
+        <v>253</v>
+      </c>
+      <c r="W11" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="12">
@@ -28299,7 +31303,10 @@
         <v>391</v>
       </c>
       <c r="V12" t="n">
-        <v>403</v>
+        <v>411</v>
+      </c>
+      <c r="W12" t="n">
+        <v>392</v>
       </c>
     </row>
     <row r="13">
@@ -28371,7 +31378,10 @@
         <v>177</v>
       </c>
       <c r="V13" t="n">
-        <v>182</v>
+        <v>186</v>
+      </c>
+      <c r="W13" t="n">
+        <v>179</v>
       </c>
     </row>
     <row r="14">
@@ -28445,6 +31455,9 @@
       <c r="V14" t="n">
         <v>110</v>
       </c>
+      <c r="W14" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -28515,7 +31528,10 @@
         <v>567</v>
       </c>
       <c r="V15" t="n">
-        <v>740</v>
+        <v>759</v>
+      </c>
+      <c r="W15" t="n">
+        <v>714</v>
       </c>
     </row>
     <row r="16">
@@ -28587,7 +31603,10 @@
         <v>126</v>
       </c>
       <c r="V16" t="n">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="W16" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="17">
@@ -28659,7 +31678,10 @@
         <v>80</v>
       </c>
       <c r="V17" t="n">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="W17" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="18">
@@ -28731,7 +31753,10 @@
         <v>221</v>
       </c>
       <c r="V18" t="n">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="W18" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="19">
@@ -28803,7 +31828,10 @@
         <v>817</v>
       </c>
       <c r="V19" t="n">
-        <v>834</v>
+        <v>846</v>
+      </c>
+      <c r="W19" t="n">
+        <v>820</v>
       </c>
     </row>
     <row r="20">
@@ -28875,7 +31903,10 @@
         <v>143</v>
       </c>
       <c r="V20" t="n">
-        <v>149</v>
+        <v>153</v>
+      </c>
+      <c r="W20" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="21">
@@ -28947,7 +31978,10 @@
         <v>112</v>
       </c>
       <c r="V21" t="n">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="W21" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="22">
@@ -29019,7 +32053,10 @@
         <v>695</v>
       </c>
       <c r="V22" t="n">
-        <v>721</v>
+        <v>736</v>
+      </c>
+      <c r="W22" t="n">
+        <v>711</v>
       </c>
     </row>
     <row r="23">
@@ -29091,7 +32128,10 @@
         <v>862</v>
       </c>
       <c r="V23" t="n">
-        <v>880</v>
+        <v>893</v>
+      </c>
+      <c r="W23" t="n">
+        <v>863</v>
       </c>
     </row>
     <row r="24">
@@ -29163,7 +32203,10 @@
         <v>905</v>
       </c>
       <c r="V24" t="n">
-        <v>935</v>
+        <v>955</v>
+      </c>
+      <c r="W24" t="n">
+        <v>923</v>
       </c>
     </row>
     <row r="25">
@@ -29235,7 +32278,10 @@
         <v>228</v>
       </c>
       <c r="V25" t="n">
-        <v>232</v>
+        <v>235</v>
+      </c>
+      <c r="W25" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="26">
@@ -29307,7 +32353,10 @@
         <v>331</v>
       </c>
       <c r="V26" t="n">
-        <v>338</v>
+        <v>341</v>
+      </c>
+      <c r="W26" t="n">
+        <v>322</v>
       </c>
     </row>
     <row r="27">
@@ -29379,7 +32428,10 @@
         <v>304</v>
       </c>
       <c r="V27" t="n">
-        <v>310</v>
+        <v>316</v>
+      </c>
+      <c r="W27" t="n">
+        <v>308</v>
       </c>
     </row>
     <row r="28">
@@ -29451,6 +32503,9 @@
         <v>215</v>
       </c>
       <c r="V28" t="n">
+        <v>216</v>
+      </c>
+      <c r="W28" t="n">
         <v>212</v>
       </c>
     </row>
@@ -29523,7 +32578,10 @@
         <v>316</v>
       </c>
       <c r="V29" t="n">
-        <v>338</v>
+        <v>348</v>
+      </c>
+      <c r="W29" t="n">
+        <v>341</v>
       </c>
     </row>
     <row r="30">
@@ -29595,7 +32653,10 @@
         <v>373</v>
       </c>
       <c r="V30" t="n">
-        <v>385</v>
+        <v>392</v>
+      </c>
+      <c r="W30" t="n">
+        <v>370</v>
       </c>
     </row>
     <row r="31">
@@ -29667,7 +32728,10 @@
         <v>916</v>
       </c>
       <c r="V31" t="n">
-        <v>952</v>
+        <v>973</v>
+      </c>
+      <c r="W31" t="n">
+        <v>931</v>
       </c>
     </row>
     <row r="32">
@@ -29739,6 +32803,9 @@
         <v>413</v>
       </c>
       <c r="V32" t="n">
+        <v>416</v>
+      </c>
+      <c r="W32" t="n">
         <v>413</v>
       </c>
     </row>
@@ -29811,7 +32878,10 @@
         <v>205</v>
       </c>
       <c r="V33" t="n">
-        <v>211</v>
+        <v>215</v>
+      </c>
+      <c r="W33" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="34">
@@ -29883,7 +32953,10 @@
         <v>233</v>
       </c>
       <c r="V34" t="n">
-        <v>239</v>
+        <v>244</v>
+      </c>
+      <c r="W34" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="35">
@@ -29955,7 +33028,10 @@
         <v>574</v>
       </c>
       <c r="V35" t="n">
-        <v>604</v>
+        <v>614</v>
+      </c>
+      <c r="W35" t="n">
+        <v>584</v>
       </c>
     </row>
     <row r="36">
@@ -30027,6 +33103,9 @@
         <v>266</v>
       </c>
       <c r="V36" t="n">
+        <v>265</v>
+      </c>
+      <c r="W36" t="n">
         <v>263</v>
       </c>
     </row>
@@ -30099,7 +33178,10 @@
         <v>119</v>
       </c>
       <c r="V37" t="n">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="W37" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="38">
@@ -30171,7 +33253,10 @@
         <v>131</v>
       </c>
       <c r="V38" t="n">
-        <v>128</v>
+        <v>131</v>
+      </c>
+      <c r="W38" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="39">
@@ -30243,7 +33328,10 @@
         <v>342</v>
       </c>
       <c r="V39" t="n">
-        <v>348</v>
+        <v>359</v>
+      </c>
+      <c r="W39" t="n">
+        <v>347</v>
       </c>
     </row>
     <row r="40">
@@ -30315,6 +33403,9 @@
         <v>146</v>
       </c>
       <c r="V40" t="n">
+        <v>151</v>
+      </c>
+      <c r="W40" t="n">
         <v>150</v>
       </c>
     </row>
@@ -30389,6 +33480,9 @@
       <c r="V41" t="n">
         <v>84</v>
       </c>
+      <c r="W41" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30459,7 +33553,10 @@
         <v>102</v>
       </c>
       <c r="V42" t="n">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="W42" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="43">
@@ -30531,7 +33628,10 @@
         <v>190</v>
       </c>
       <c r="V43" t="n">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="W43" t="n">
+        <v>173</v>
       </c>
     </row>
     <row r="44">
@@ -30603,7 +33703,10 @@
         <v>640</v>
       </c>
       <c r="V44" t="n">
-        <v>630</v>
+        <v>642</v>
+      </c>
+      <c r="W44" t="n">
+        <v>588</v>
       </c>
     </row>
     <row r="45">
@@ -30675,7 +33778,10 @@
         <v>596</v>
       </c>
       <c r="V45" t="n">
-        <v>605</v>
+        <v>619</v>
+      </c>
+      <c r="W45" t="n">
+        <v>623</v>
       </c>
     </row>
     <row r="46">
@@ -30747,7 +33853,10 @@
         <v>244</v>
       </c>
       <c r="V46" t="n">
-        <v>302</v>
+        <v>307</v>
+      </c>
+      <c r="W46" t="n">
+        <v>297</v>
       </c>
     </row>
     <row r="47">
@@ -30821,6 +33930,9 @@
       <c r="V47" t="n">
         <v>334</v>
       </c>
+      <c r="W47" t="n">
+        <v>294</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -30891,7 +34003,10 @@
         <v>228</v>
       </c>
       <c r="V48" t="n">
-        <v>255</v>
+        <v>263</v>
+      </c>
+      <c r="W48" t="n">
+        <v>209</v>
       </c>
     </row>
     <row r="49">
@@ -30963,7 +34078,10 @@
         <v>334</v>
       </c>
       <c r="V49" t="n">
-        <v>270</v>
+        <v>283</v>
+      </c>
+      <c r="W49" t="n">
+        <v>319</v>
       </c>
     </row>
     <row r="50">
@@ -31035,7 +34153,10 @@
         <v>243</v>
       </c>
       <c r="V50" t="n">
-        <v>237</v>
+        <v>242</v>
+      </c>
+      <c r="W50" t="n">
+        <v>193</v>
       </c>
     </row>
     <row r="51">
@@ -31107,7 +34228,10 @@
         <v>444</v>
       </c>
       <c r="V51" t="n">
-        <v>487</v>
+        <v>492</v>
+      </c>
+      <c r="W51" t="n">
+        <v>510</v>
       </c>
     </row>
     <row r="52">
@@ -31179,7 +34303,10 @@
         <v>579</v>
       </c>
       <c r="V52" t="n">
-        <v>666</v>
+        <v>683</v>
+      </c>
+      <c r="W52" t="n">
+        <v>682</v>
       </c>
     </row>
     <row r="53">
@@ -31251,7 +34378,10 @@
         <v>447</v>
       </c>
       <c r="V53" t="n">
-        <v>500</v>
+        <v>504</v>
+      </c>
+      <c r="W53" t="n">
+        <v>421</v>
       </c>
     </row>
     <row r="54">
@@ -31323,7 +34453,10 @@
         <v>741</v>
       </c>
       <c r="V54" t="n">
-        <v>649</v>
+        <v>661</v>
+      </c>
+      <c r="W54" t="n">
+        <v>683</v>
       </c>
     </row>
     <row r="55">
@@ -31397,6 +34530,9 @@
       <c r="V55" t="n">
         <v>418</v>
       </c>
+      <c r="W55" t="n">
+        <v>506</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -31467,7 +34603,10 @@
         <v>1401</v>
       </c>
       <c r="V56" t="n">
-        <v>1397</v>
+        <v>1430</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1280</v>
       </c>
     </row>
     <row r="57">
@@ -31539,7 +34678,10 @@
         <v>422</v>
       </c>
       <c r="V57" t="n">
-        <v>494</v>
+        <v>499</v>
+      </c>
+      <c r="W57" t="n">
+        <v>567</v>
       </c>
     </row>
     <row r="58">
@@ -31611,7 +34753,10 @@
         <v>723</v>
       </c>
       <c r="V58" t="n">
-        <v>759</v>
+        <v>773</v>
+      </c>
+      <c r="W58" t="n">
+        <v>778</v>
       </c>
     </row>
     <row r="59">
@@ -31683,36 +34828,340 @@
         <v>622</v>
       </c>
       <c r="V59" t="n">
-        <v>562</v>
+        <v>576</v>
+      </c>
+      <c r="W59" t="n">
+        <v>441</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>717</v>
+      </c>
+      <c r="D60" t="n">
+        <v>700</v>
+      </c>
+      <c r="E60" t="n">
+        <v>735</v>
+      </c>
+      <c r="F60" t="n">
+        <v>704</v>
+      </c>
+      <c r="G60" t="n">
+        <v>700</v>
+      </c>
+      <c r="H60" t="n">
+        <v>693</v>
+      </c>
+      <c r="I60" t="n">
+        <v>692</v>
+      </c>
+      <c r="J60" t="n">
+        <v>649</v>
+      </c>
+      <c r="K60" t="n">
+        <v>656</v>
+      </c>
+      <c r="L60" t="n">
+        <v>661</v>
+      </c>
+      <c r="M60" t="n">
+        <v>650</v>
+      </c>
+      <c r="N60" t="n">
+        <v>619</v>
+      </c>
+      <c r="O60" t="n">
+        <v>579</v>
+      </c>
+      <c r="P60" t="n">
+        <v>611</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>613</v>
+      </c>
+      <c r="R60" t="n">
+        <v>612</v>
+      </c>
+      <c r="S60" t="n">
+        <v>548</v>
+      </c>
+      <c r="T60" t="n">
+        <v>598</v>
+      </c>
+      <c r="U60" t="n">
+        <v>590</v>
+      </c>
+      <c r="V60" t="n">
+        <v>623</v>
+      </c>
+      <c r="W60" t="n">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>641</v>
+      </c>
+      <c r="D61" t="n">
+        <v>640</v>
+      </c>
+      <c r="E61" t="n">
+        <v>643</v>
+      </c>
+      <c r="F61" t="n">
+        <v>645</v>
+      </c>
+      <c r="G61" t="n">
+        <v>636</v>
+      </c>
+      <c r="H61" t="n">
+        <v>638</v>
+      </c>
+      <c r="I61" t="n">
+        <v>639</v>
+      </c>
+      <c r="J61" t="n">
+        <v>629</v>
+      </c>
+      <c r="K61" t="n">
+        <v>633</v>
+      </c>
+      <c r="L61" t="n">
+        <v>626</v>
+      </c>
+      <c r="M61" t="n">
+        <v>605</v>
+      </c>
+      <c r="N61" t="n">
+        <v>586</v>
+      </c>
+      <c r="O61" t="n">
+        <v>548</v>
+      </c>
+      <c r="P61" t="n">
+        <v>588</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>567</v>
+      </c>
+      <c r="R61" t="n">
+        <v>570</v>
+      </c>
+      <c r="S61" t="n">
+        <v>532</v>
+      </c>
+      <c r="T61" t="n">
+        <v>551</v>
+      </c>
+      <c r="U61" t="n">
+        <v>538</v>
+      </c>
+      <c r="V61" t="n">
+        <v>570</v>
+      </c>
+      <c r="W61" t="n">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>575</v>
+      </c>
+      <c r="D62" t="n">
+        <v>575</v>
+      </c>
+      <c r="E62" t="n">
+        <v>564</v>
+      </c>
+      <c r="F62" t="n">
+        <v>554</v>
+      </c>
+      <c r="G62" t="n">
+        <v>558</v>
+      </c>
+      <c r="H62" t="n">
+        <v>567</v>
+      </c>
+      <c r="I62" t="n">
+        <v>553</v>
+      </c>
+      <c r="J62" t="n">
+        <v>567</v>
+      </c>
+      <c r="K62" t="n">
+        <v>558</v>
+      </c>
+      <c r="L62" t="n">
+        <v>539</v>
+      </c>
+      <c r="M62" t="n">
+        <v>515</v>
+      </c>
+      <c r="N62" t="n">
+        <v>504</v>
+      </c>
+      <c r="O62" t="n">
+        <v>470</v>
+      </c>
+      <c r="P62" t="n">
+        <v>509</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>486</v>
+      </c>
+      <c r="R62" t="n">
+        <v>471</v>
+      </c>
+      <c r="S62" t="n">
+        <v>459</v>
+      </c>
+      <c r="T62" t="n">
+        <v>456</v>
+      </c>
+      <c r="U62" t="n">
+        <v>453</v>
+      </c>
+      <c r="V62" t="n">
+        <v>466</v>
+      </c>
+      <c r="W62" t="n">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>234</v>
+      </c>
+      <c r="D63" t="n">
+        <v>240</v>
+      </c>
+      <c r="E63" t="n">
+        <v>244</v>
+      </c>
+      <c r="F63" t="n">
+        <v>228</v>
+      </c>
+      <c r="G63" t="n">
+        <v>226</v>
+      </c>
+      <c r="H63" t="n">
+        <v>232</v>
+      </c>
+      <c r="I63" t="n">
+        <v>217</v>
+      </c>
+      <c r="J63" t="n">
+        <v>216</v>
+      </c>
+      <c r="K63" t="n">
+        <v>212</v>
+      </c>
+      <c r="L63" t="n">
+        <v>203</v>
+      </c>
+      <c r="M63" t="n">
+        <v>205</v>
+      </c>
+      <c r="N63" t="n">
+        <v>195</v>
+      </c>
+      <c r="O63" t="n">
+        <v>185</v>
+      </c>
+      <c r="P63" t="n">
+        <v>193</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>189</v>
+      </c>
+      <c r="R63" t="n">
+        <v>183</v>
+      </c>
+      <c r="S63" t="n">
+        <v>170</v>
+      </c>
+      <c r="T63" t="n">
+        <v>185</v>
+      </c>
+      <c r="U63" t="n">
+        <v>186</v>
+      </c>
+      <c r="V63" t="n">
+        <v>189</v>
+      </c>
+      <c r="W63" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Zájem o bezplatné očkování proti koronaviru, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 3. 2022</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
